--- a/Inventory & Costings.xlsx
+++ b/Inventory & Costings.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8982" activeTab="1"/>
+    <workbookView windowHeight="13760"/>
   </bookViews>
   <sheets>
     <sheet name="Scent Inventory" sheetId="3" r:id="rId1"/>
     <sheet name="Cost Calculator" sheetId="1" r:id="rId2"/>
     <sheet name="Batch Supplies" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -969,16 +982,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00000_ "/>
-    <numFmt numFmtId="182" formatCode="[$₱-3409]#,##0.00_);\([$₱-3409]#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.00000_ "/>
+    <numFmt numFmtId="183" formatCode="[$₱-3409]#,##0.00_);\([$₱-3409]#,##0.00\)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1010,6 +1023,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,22 +1044,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1214,14 +1227,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFF6FC"/>
-        <bgColor rgb="FFEFF6FC"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1232,8 +1245,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFD9"/>
-        <bgColor rgb="FFE2EFD9"/>
+        <fgColor rgb="FFEFF6FC"/>
+        <bgColor rgb="FFEFF6FC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1479,30 +1492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1522,15 +1511,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1596,8 +1576,41 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,18 +1915,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,154 +1939,154 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2085,112 +2098,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2734,26 +2747,26 @@
   <sheetPr/>
   <dimension ref="A1:O1012"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.859649122807" style="66" customWidth="1"/>
-    <col min="2" max="2" width="20.5701754385965" style="66" customWidth="1"/>
-    <col min="3" max="3" width="8.28947368421053" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.5701754385965" style="66" customWidth="1"/>
-    <col min="5" max="5" width="17.1052631578947" style="66" customWidth="1"/>
-    <col min="6" max="6" width="26.3684210526316" style="66" customWidth="1"/>
-    <col min="7" max="7" width="16.0526315789474" style="66" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" style="66" customWidth="1"/>
-    <col min="9" max="9" width="10.9824561403509" style="66" customWidth="1"/>
-    <col min="13" max="13" width="13.8157894736842" style="66" customWidth="1"/>
-    <col min="14" max="14" width="19.3421052631579" style="66" customWidth="1"/>
-    <col min="15" max="15" width="14.9298245614035" style="66" customWidth="1"/>
-    <col min="16" max="26" width="8.85964912280702" style="66" customWidth="1"/>
-    <col min="27" max="16384" width="14.4298245614035" style="66"/>
+    <col min="1" max="1" width="22.859375" style="66" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="8.2890625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="17.1015625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="26.3671875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="16.0546875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="10.984375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="13.8125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="19.34375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="14.9296875" style="66" customWidth="1"/>
+    <col min="16" max="26" width="8.859375" style="66" customWidth="1"/>
+    <col min="27" max="16384" width="14.4296875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
@@ -2775,13 +2788,13 @@
       <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="76" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="82" t="s">
@@ -2793,1093 +2806,1093 @@
       <c r="L1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="90" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="77">
         <f>'Cost Calculator'!J2</f>
         <v>93.3985</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="77">
         <v>200</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="83">
         <f t="shared" ref="I2:I15" si="0">H2-G2</f>
         <v>106.6015</v>
       </c>
-      <c r="J2" s="86">
+      <c r="J2" s="84">
         <f>'Cost Calculator'!K2</f>
         <v>31.0137857142857</v>
       </c>
-      <c r="K2" s="87">
+      <c r="K2" s="85">
         <v>80</v>
       </c>
-      <c r="L2" s="86">
+      <c r="L2" s="84">
         <f t="shared" ref="L2:L29" si="1">K2-J2</f>
         <v>48.9862142857143</v>
       </c>
-      <c r="M2" s="88">
+      <c r="M2" s="91">
         <f>'Cost Calculator'!L2</f>
         <v>92.61</v>
       </c>
-      <c r="N2" s="89">
+      <c r="N2" s="92">
         <v>180</v>
       </c>
-      <c r="O2" s="89">
+      <c r="O2" s="92">
         <f>N2-M2</f>
         <v>87.39</v>
       </c>
     </row>
     <row r="3" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="77">
         <f>'Cost Calculator'!J3</f>
         <v>95.7025</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="77">
         <v>200</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="83">
         <f t="shared" si="0"/>
         <v>104.2975</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="84">
         <f>'Cost Calculator'!K3</f>
         <v>31.6537857142857</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="85">
         <v>80</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="84">
         <f t="shared" si="1"/>
         <v>48.3462142857143</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="91">
         <f>'Cost Calculator'!L3</f>
         <v>93.89</v>
       </c>
-      <c r="N3" s="89">
+      <c r="N3" s="92">
         <v>180</v>
       </c>
-      <c r="O3" s="89">
+      <c r="O3" s="92">
         <f>N3-M3</f>
         <v>86.11</v>
       </c>
     </row>
     <row r="4" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="70" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="77">
         <f>'Cost Calculator'!J4</f>
         <v>96.8335</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="77">
         <v>200</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="83">
         <f t="shared" si="0"/>
         <v>103.1665</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="84">
         <f>'Cost Calculator'!K4</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="85">
         <v>80</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="84">
         <f t="shared" si="1"/>
         <v>48.0324417857143</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="91">
         <f>'Cost Calculator'!L4</f>
         <v>93.73</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="92">
         <v>180</v>
       </c>
-      <c r="O4" s="89">
+      <c r="O4" s="92">
         <f>N4-M4</f>
         <v>86.27</v>
       </c>
     </row>
     <row r="5" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="77">
         <f>'Cost Calculator'!J5</f>
         <v>105.9835</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="77">
         <v>200</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="83">
         <f t="shared" si="0"/>
         <v>94.0165</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="84">
         <f>'Cost Calculator'!K5</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="85">
         <v>80</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="84">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="77">
         <f>'Cost Calculator'!J6</f>
         <v>105.9835</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="77">
         <v>200</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="83">
         <f t="shared" si="0"/>
         <v>94.0165</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="84">
         <f>'Cost Calculator'!K6</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="85">
         <v>80</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="84">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="77">
         <f>'Cost Calculator'!J7</f>
         <v>126.1585</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="77">
         <v>200</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="83">
         <f t="shared" si="0"/>
         <v>73.8415</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="84">
         <f>'Cost Calculator'!K7</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="85">
         <v>80</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="84">
         <f t="shared" si="1"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="91">
         <f>'Cost Calculator'!L7</f>
         <v>110.81</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="92">
         <v>180</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="92">
         <f>N7-M7</f>
         <v>69.19</v>
       </c>
     </row>
     <row r="8" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="77">
         <f>'Cost Calculator'!J8</f>
         <v>102.6085</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="77">
         <v>200</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="83">
         <f t="shared" si="0"/>
         <v>97.3915</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="84">
         <f>'Cost Calculator'!K8</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="85">
         <v>80</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="84">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="91">
         <f>'Cost Calculator'!L8</f>
         <v>74.81</v>
       </c>
-      <c r="N8" s="89">
+      <c r="N8" s="92">
         <v>180</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="92">
         <f>N8-M8</f>
         <v>105.19</v>
       </c>
     </row>
     <row r="9" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="77">
         <f>'Cost Calculator'!J9</f>
         <v>90.7345</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="77">
         <v>200</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="83">
         <f t="shared" si="0"/>
         <v>109.2655</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="84">
         <f>'Cost Calculator'!K9</f>
         <v>30.2737857142857</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="85">
         <v>80</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="84">
         <f t="shared" si="1"/>
         <v>49.7262142857143</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="91">
         <f>'Cost Calculator'!L9</f>
         <v>91.13</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="92">
         <v>180</v>
       </c>
-      <c r="O9" s="89">
+      <c r="O9" s="92">
         <f>N9-M9</f>
         <v>88.87</v>
       </c>
     </row>
     <row r="10" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="77">
         <f>'Cost Calculator'!J10</f>
         <v>137.8585</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="77">
         <v>200</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="83">
         <f t="shared" si="0"/>
         <v>62.1415</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="84">
         <f>'Cost Calculator'!K10</f>
         <v>43.3637857142857</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="85">
         <v>80</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="84">
         <f t="shared" si="1"/>
         <v>36.6362142857143</v>
       </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="77">
         <f>'Cost Calculator'!J11</f>
         <v>102.6085</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="77">
         <v>200</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="83">
         <f t="shared" si="0"/>
         <v>97.3915</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="84">
         <f>'Cost Calculator'!K11</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="85">
         <v>80</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="84">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M11" s="88" t="e">
+      <c r="M11" s="91" t="e">
         <f>'Cost Calculator'!L11</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N11" s="92">
         <v>180</v>
       </c>
-      <c r="O11" s="89" t="e">
+      <c r="O11" s="92" t="e">
         <f t="shared" ref="O11:O16" si="2">N11-M11</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="77">
         <f>'Cost Calculator'!J12</f>
         <v>95.5585</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="77">
         <v>200</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>104.4415</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="84">
         <f>'Cost Calculator'!K12</f>
         <v>31.6137857142857</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="85">
         <v>80</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="84">
         <f t="shared" si="1"/>
         <v>48.3862142857143</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="91">
         <f>'Cost Calculator'!L12</f>
         <v>93.81</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="92">
         <v>180</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="92">
         <f t="shared" si="2"/>
         <v>86.19</v>
       </c>
     </row>
     <row r="13" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="77">
         <f>'Cost Calculator'!J13</f>
         <v>123.1885</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="77">
         <v>200</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="83">
         <f t="shared" si="0"/>
         <v>76.8115</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="84">
         <f>'Cost Calculator'!K13</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="85">
         <v>80</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="84">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="91">
         <f>'Cost Calculator'!L13</f>
         <v>109.16</v>
       </c>
-      <c r="N13" s="89">
+      <c r="N13" s="92">
         <v>180</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="92">
         <f t="shared" si="2"/>
         <v>70.84</v>
       </c>
     </row>
     <row r="14" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="77">
         <f>'Cost Calculator'!J14</f>
         <v>108.1585</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="77">
         <v>200</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="83">
         <f t="shared" si="0"/>
         <v>91.8415</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="84">
         <f>'Cost Calculator'!K14</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="85">
         <v>80</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="84">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="91">
         <f>'Cost Calculator'!L14</f>
         <v>74.81</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="92">
         <v>180</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="92">
         <f t="shared" si="2"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="15" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="77">
         <f>'Cost Calculator'!J15</f>
         <v>101.3335</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="77">
         <v>200</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="83">
         <f t="shared" si="0"/>
         <v>98.6665</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="84">
         <f>'Cost Calculator'!K15</f>
         <v>33.2175082142857</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="85">
         <v>80</v>
       </c>
-      <c r="L15" s="86">
+      <c r="L15" s="84">
         <f t="shared" si="1"/>
         <v>46.7824917857143</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="91">
         <f>'Cost Calculator'!L15</f>
         <v>96.13</v>
       </c>
-      <c r="N15" s="89">
+      <c r="N15" s="92">
         <v>180</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="92">
         <f t="shared" si="2"/>
         <v>83.87</v>
       </c>
     </row>
     <row r="16" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="77">
         <f>'Cost Calculator'!J16</f>
         <v>129.8305</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="77">
         <v>200</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="83">
         <f>H17-G16</f>
         <v>70.1695</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="84">
         <f>'Cost Calculator'!K16</f>
         <v>41.1337857142857</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="85">
         <v>80</v>
       </c>
-      <c r="L16" s="86">
+      <c r="L16" s="84">
         <f t="shared" si="1"/>
         <v>38.8662142857143</v>
       </c>
-      <c r="M16" s="88">
+      <c r="M16" s="91">
         <f>'Cost Calculator'!L16</f>
         <v>112.85</v>
       </c>
-      <c r="N16" s="89">
+      <c r="N16" s="92">
         <v>180</v>
       </c>
-      <c r="O16" s="89">
+      <c r="O16" s="92">
         <f t="shared" si="2"/>
         <v>67.15</v>
       </c>
     </row>
     <row r="17" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="77">
         <f>'Cost Calculator'!J17</f>
         <v>143.2585</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="77">
         <v>200</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="83">
         <f>H18-G17</f>
         <v>56.7415</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J17" s="84">
         <f>'Cost Calculator'!K17</f>
         <v>44.8637857142857</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="85">
         <v>80</v>
       </c>
-      <c r="L17" s="86">
+      <c r="L17" s="84">
         <f t="shared" si="1"/>
         <v>35.1362142857143</v>
       </c>
-      <c r="M17" s="90"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="77">
         <f>'Cost Calculator'!J18</f>
         <v>102.6085</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="77">
         <v>200</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="83">
         <f t="shared" ref="I18:I29" si="3">H18-G18</f>
         <v>97.3915</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="84">
         <f>'Cost Calculator'!K18</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="85">
         <v>80</v>
       </c>
-      <c r="L18" s="86">
+      <c r="L18" s="84">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M18" s="88" t="e">
+      <c r="M18" s="91" t="e">
         <f>'Cost Calculator'!L18</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="89">
+      <c r="N18" s="92">
         <v>180</v>
       </c>
-      <c r="O18" s="89" t="e">
+      <c r="O18" s="92" t="e">
         <f t="shared" ref="O18:O24" si="4">N18-M18</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="77">
         <f>'Cost Calculator'!J19</f>
         <v>123.1885</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="77">
         <v>200</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="83">
         <f t="shared" si="3"/>
         <v>76.8115</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J19" s="84">
         <f>'Cost Calculator'!K19</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="85">
         <v>80</v>
       </c>
-      <c r="L19" s="86">
+      <c r="L19" s="84">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="91">
         <f>'Cost Calculator'!L20</f>
         <v>92.69</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="92">
         <v>180</v>
       </c>
-      <c r="O19" s="89">
+      <c r="O19" s="92">
         <f t="shared" si="4"/>
         <v>87.31</v>
       </c>
     </row>
     <row r="20" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="77">
         <f>'Cost Calculator'!J20</f>
         <v>94.8835</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="77">
         <v>200</v>
       </c>
-      <c r="I20" s="85">
+      <c r="I20" s="83">
         <f t="shared" si="3"/>
         <v>105.1165</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="84">
         <f>'Cost Calculator'!K20</f>
         <v>31.4259132142857</v>
       </c>
-      <c r="K20" s="87">
+      <c r="K20" s="85">
         <v>80</v>
       </c>
-      <c r="L20" s="86">
+      <c r="L20" s="84">
         <f t="shared" si="1"/>
         <v>48.5740867857143</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="91">
         <f>'Cost Calculator'!L19</f>
         <v>109.16</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="92">
         <v>180</v>
       </c>
-      <c r="O20" s="89">
+      <c r="O20" s="92">
         <f t="shared" si="4"/>
         <v>70.84</v>
       </c>
     </row>
     <row r="21" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="77">
         <f>'Cost Calculator'!J21</f>
         <v>102.6085</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="77">
         <v>200</v>
       </c>
-      <c r="I21" s="85">
+      <c r="I21" s="83">
         <f t="shared" si="3"/>
         <v>97.3915</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="84">
         <f>'Cost Calculator'!K21</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K21" s="87">
+      <c r="K21" s="85">
         <v>80</v>
       </c>
-      <c r="L21" s="86">
+      <c r="L21" s="84">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M21" s="88" t="e">
+      <c r="M21" s="91" t="e">
         <f>'Cost Calculator'!L21</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="89">
+      <c r="N21" s="92">
         <v>180</v>
       </c>
-      <c r="O21" s="89" t="e">
+      <c r="O21" s="92" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="77">
         <f>'Cost Calculator'!J22</f>
         <v>102.6085</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="77">
         <v>200</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="83">
         <f t="shared" si="3"/>
         <v>97.3915</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="84">
         <f>'Cost Calculator'!K22</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="85">
         <v>80</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="84">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M22" s="88" t="e">
+      <c r="M22" s="91" t="e">
         <f>'Cost Calculator'!L22</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="89">
+      <c r="N22" s="92">
         <v>180</v>
       </c>
-      <c r="O22" s="89" t="e">
+      <c r="O22" s="92" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3903,1056 +3916,1056 @@
       <c r="F23" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="77">
         <f>'Cost Calculator'!J23</f>
         <v>108.1585</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="77">
         <v>200</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="83">
         <f t="shared" si="3"/>
         <v>91.8415</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="84">
         <f>'Cost Calculator'!K23</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="85">
         <v>80</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="84">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="91">
         <f>'Cost Calculator'!L23</f>
         <v>74.81</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="92">
         <v>180</v>
       </c>
-      <c r="O23" s="89">
+      <c r="O23" s="92">
         <f t="shared" si="4"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="24" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="77">
         <f>'Cost Calculator'!J24</f>
         <v>149.9905</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="77">
         <v>200</v>
       </c>
-      <c r="I24" s="85">
+      <c r="I24" s="83">
         <f t="shared" si="3"/>
         <v>50.0095</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J24" s="84">
         <f>'Cost Calculator'!K24</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="85">
         <v>80</v>
       </c>
-      <c r="L24" s="86">
+      <c r="L24" s="84">
         <f t="shared" si="1"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M24" s="88">
+      <c r="M24" s="91">
         <f>'Cost Calculator'!L24</f>
         <v>124.05</v>
       </c>
-      <c r="N24" s="89">
+      <c r="N24" s="92">
         <v>180</v>
       </c>
-      <c r="O24" s="89">
+      <c r="O24" s="92">
         <f t="shared" si="4"/>
         <v>55.95</v>
       </c>
     </row>
     <row r="25" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="77">
         <f>'Cost Calculator'!J25</f>
         <v>114.4585</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="77">
         <v>200</v>
       </c>
-      <c r="I25" s="85">
+      <c r="I25" s="83">
         <f t="shared" si="3"/>
         <v>85.5415</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="84">
         <f>'Cost Calculator'!K25</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="85">
         <v>80</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="84">
         <f t="shared" si="1"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
     </row>
     <row r="26" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="77">
         <f>'Cost Calculator'!J26</f>
         <v>97.9585</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="77">
         <v>200</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="83">
         <f t="shared" si="3"/>
         <v>102.0415</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="84">
         <f>'Cost Calculator'!K26</f>
         <v>32.2800457142857</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="85">
         <v>80</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="84">
         <f t="shared" si="1"/>
         <v>47.7199542857143</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
     </row>
     <row r="27" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="77">
         <f>'Cost Calculator'!J27</f>
         <v>119.6785</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="77">
         <v>200</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="83">
         <f t="shared" si="3"/>
         <v>80.3215</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="84">
         <f>'Cost Calculator'!K27</f>
         <v>38.3137857142857</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="85">
         <v>80</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L27" s="84">
         <f t="shared" si="1"/>
         <v>41.6862142857143</v>
       </c>
-      <c r="M27" s="90"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
     </row>
     <row r="28" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="77">
         <f>'Cost Calculator'!J28</f>
         <v>89.0785</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="77">
         <v>200</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="83">
         <f t="shared" si="3"/>
         <v>110.9215</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="84">
         <f>'Cost Calculator'!K28</f>
         <v>29.8137857142857</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="85">
         <v>80</v>
       </c>
-      <c r="L28" s="86">
+      <c r="L28" s="84">
         <f t="shared" si="1"/>
         <v>50.1862142857143</v>
       </c>
-      <c r="M28" s="88">
+      <c r="M28" s="91">
         <f>'Cost Calculator'!L28</f>
         <v>90.21</v>
       </c>
-      <c r="N28" s="89">
+      <c r="N28" s="92">
         <v>180</v>
       </c>
-      <c r="O28" s="89">
+      <c r="O28" s="92">
         <f>N28-M28</f>
         <v>89.79</v>
       </c>
     </row>
     <row r="29" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="77">
         <f>'Cost Calculator'!J29</f>
         <v>105.9835</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="77">
         <v>200</v>
       </c>
-      <c r="I29" s="85">
+      <c r="I29" s="83">
         <f t="shared" si="3"/>
         <v>94.0165</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J29" s="84">
         <f>'Cost Calculator'!K29</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K29" s="85">
         <v>80</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="84">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M29" s="88" t="e">
+      <c r="M29" s="91" t="e">
         <f>'Cost Calculator'!L29</f>
         <v>#REF!</v>
       </c>
-      <c r="N29" s="89">
+      <c r="N29" s="92">
         <v>180</v>
       </c>
-      <c r="O29" s="89" t="e">
+      <c r="O29" s="92" t="e">
         <f>N29-M29</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="77">
         <f>'Cost Calculator'!J30</f>
         <v>120.4705</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="77">
         <v>200</v>
       </c>
-      <c r="I30" s="85">
+      <c r="I30" s="83">
         <f t="shared" ref="I30:I70" si="5">H30-G30</f>
         <v>79.5295</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
     </row>
     <row r="31" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="74" t="s">
         <v>118</v>
       </c>
       <c r="F31" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="77">
         <f>'Cost Calculator'!J31</f>
         <v>104.4835</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="77">
         <v>200</v>
       </c>
-      <c r="I31" s="85">
+      <c r="I31" s="83">
         <f t="shared" si="5"/>
         <v>95.5165</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J31" s="84">
         <f>'Cost Calculator'!K31</f>
         <v>34.0924732142857</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="85">
         <v>80</v>
       </c>
-      <c r="L31" s="86">
+      <c r="L31" s="84">
         <f t="shared" ref="L31:L41" si="6">K31-J31</f>
         <v>45.9075267857143</v>
       </c>
-      <c r="M31" s="88" t="e">
+      <c r="M31" s="91" t="e">
         <f>'Cost Calculator'!L31</f>
         <v>#REF!</v>
       </c>
-      <c r="N31" s="89">
+      <c r="N31" s="92">
         <v>180</v>
       </c>
-      <c r="O31" s="89" t="e">
+      <c r="O31" s="92" t="e">
         <f t="shared" ref="O31:O36" si="7">N31-M31</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="75" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="77">
         <f>'Cost Calculator'!J32</f>
         <v>108.1585</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="77">
         <v>200</v>
       </c>
-      <c r="I32" s="85">
+      <c r="I32" s="83">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J32" s="84">
         <f>'Cost Calculator'!K32</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="85">
         <v>80</v>
       </c>
-      <c r="L32" s="86">
+      <c r="L32" s="84">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M32" s="88">
+      <c r="M32" s="91">
         <f>'Cost Calculator'!L32</f>
         <v>74.81</v>
       </c>
-      <c r="N32" s="89">
+      <c r="N32" s="92">
         <v>180</v>
       </c>
-      <c r="O32" s="89">
+      <c r="O32" s="92">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="33" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="77">
         <f>'Cost Calculator'!J33</f>
         <v>126.1585</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="77">
         <v>200</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="83">
         <f t="shared" si="5"/>
         <v>73.8415</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="84">
         <f>'Cost Calculator'!K33</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="85">
         <v>80</v>
       </c>
-      <c r="L33" s="86">
+      <c r="L33" s="84">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M33" s="88">
+      <c r="M33" s="91">
         <f>'Cost Calculator'!L35</f>
         <v>92.309993</v>
       </c>
-      <c r="N33" s="89">
+      <c r="N33" s="92">
         <v>180</v>
       </c>
-      <c r="O33" s="89">
+      <c r="O33" s="92">
         <f t="shared" si="7"/>
         <v>87.690007</v>
       </c>
     </row>
     <row r="34" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="77">
         <f>'Cost Calculator'!J34</f>
         <v>126.1585</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="77">
         <v>200</v>
       </c>
-      <c r="I34" s="85">
+      <c r="I34" s="83">
         <f t="shared" si="5"/>
         <v>73.8415</v>
       </c>
-      <c r="J34" s="86">
+      <c r="J34" s="84">
         <f>'Cost Calculator'!K34</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K34" s="85">
         <v>80</v>
       </c>
-      <c r="L34" s="86">
+      <c r="L34" s="84">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M34" s="88" t="e">
+      <c r="M34" s="91" t="e">
         <f>'Cost Calculator'!L36</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="89">
+      <c r="N34" s="92">
         <v>180</v>
       </c>
-      <c r="O34" s="89" t="e">
+      <c r="O34" s="92" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="35" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="77">
         <f>'Cost Calculator'!J35</f>
         <v>92.8585</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="77">
         <v>200</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="83">
         <f t="shared" si="5"/>
         <v>107.1415</v>
       </c>
-      <c r="J35" s="86">
+      <c r="J35" s="84">
         <f>'Cost Calculator'!K35</f>
         <v>30.8634357142857</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="85">
         <v>80</v>
       </c>
-      <c r="L35" s="86">
+      <c r="L35" s="84">
         <f t="shared" si="6"/>
         <v>49.1365642857143</v>
       </c>
-      <c r="M35" s="88">
+      <c r="M35" s="91">
         <f>'Cost Calculator'!L37</f>
         <v>74.81</v>
       </c>
-      <c r="N35" s="89">
+      <c r="N35" s="92">
         <v>180</v>
       </c>
-      <c r="O35" s="89">
+      <c r="O35" s="92">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="36" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="70" t="s">
         <v>129</v>
       </c>
       <c r="F36" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="77">
         <f>'Cost Calculator'!J36</f>
         <v>109.7335</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="77">
         <v>200</v>
       </c>
-      <c r="I36" s="85">
+      <c r="I36" s="83">
         <f t="shared" si="5"/>
         <v>90.2665</v>
       </c>
-      <c r="J36" s="86">
+      <c r="J36" s="84">
         <f>'Cost Calculator'!K36</f>
         <v>35.5507482142857</v>
       </c>
-      <c r="K36" s="87">
+      <c r="K36" s="85">
         <v>80</v>
       </c>
-      <c r="L36" s="86">
+      <c r="L36" s="84">
         <f t="shared" si="6"/>
         <v>44.4492517857143</v>
       </c>
-      <c r="M36" s="88">
+      <c r="M36" s="91">
         <f>'Cost Calculator'!L38</f>
         <v>107.31</v>
       </c>
-      <c r="N36" s="89">
+      <c r="N36" s="92">
         <v>180</v>
       </c>
-      <c r="O36" s="89">
+      <c r="O36" s="92">
         <f t="shared" si="7"/>
         <v>72.69</v>
       </c>
     </row>
     <row r="37" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="71">
+      <c r="G37" s="77">
         <f>'Cost Calculator'!J37</f>
         <v>119.8585</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="77">
         <v>200</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I37" s="83">
         <f t="shared" si="5"/>
         <v>80.1415</v>
       </c>
-      <c r="J37" s="86">
+      <c r="J37" s="84">
         <f>'Cost Calculator'!K37</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="85">
         <v>80</v>
       </c>
-      <c r="L37" s="86">
+      <c r="L37" s="84">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
     </row>
     <row r="38" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="77">
         <f>'Cost Calculator'!J38</f>
         <v>119.8585</v>
       </c>
-      <c r="H38" s="71">
+      <c r="H38" s="77">
         <v>200</v>
       </c>
-      <c r="I38" s="85">
+      <c r="I38" s="83">
         <f t="shared" si="5"/>
         <v>80.1415</v>
       </c>
-      <c r="J38" s="86">
+      <c r="J38" s="84">
         <f>'Cost Calculator'!K38</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K38" s="87">
+      <c r="K38" s="85">
         <v>80</v>
       </c>
-      <c r="L38" s="86">
+      <c r="L38" s="84">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M38" s="88">
+      <c r="M38" s="91">
         <f>'Cost Calculator'!L41</f>
         <v>0</v>
       </c>
-      <c r="N38" s="89">
+      <c r="N38" s="92">
         <v>180</v>
       </c>
-      <c r="O38" s="89">
+      <c r="O38" s="92">
         <f>N38-M38</f>
         <v>180</v>
       </c>
     </row>
     <row r="39" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="77">
         <f>'Cost Calculator'!J39</f>
         <v>98.4835</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="77">
         <v>200</v>
       </c>
-      <c r="I39" s="85">
+      <c r="I39" s="83">
         <f t="shared" si="5"/>
         <v>101.5165</v>
       </c>
-      <c r="J39" s="86">
+      <c r="J39" s="84">
         <f>'Cost Calculator'!K39</f>
         <v>32.4258732142857</v>
       </c>
-      <c r="K39" s="87">
+      <c r="K39" s="85">
         <v>80</v>
       </c>
-      <c r="L39" s="86">
+      <c r="L39" s="84">
         <f t="shared" si="6"/>
         <v>47.5741267857143</v>
       </c>
-      <c r="M39" s="90"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
     </row>
     <row r="40" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="74" t="s">
+      <c r="E40" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="77">
         <f>'Cost Calculator'!J40</f>
         <v>108.1585</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="77">
         <v>200</v>
       </c>
-      <c r="I40" s="85">
+      <c r="I40" s="83">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J40" s="86">
+      <c r="J40" s="84">
         <f>'Cost Calculator'!K40</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K40" s="87">
+      <c r="K40" s="85">
         <v>80</v>
       </c>
-      <c r="L40" s="86">
+      <c r="L40" s="84">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M40" s="90"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
     </row>
     <row r="41" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="71">
+      <c r="G41" s="77">
         <f>'Cost Calculator'!J41</f>
         <v>102.6085</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="77">
         <v>200</v>
       </c>
-      <c r="I41" s="85">
+      <c r="I41" s="83">
         <f t="shared" si="5"/>
         <v>97.3915</v>
       </c>
-      <c r="J41" s="86">
+      <c r="J41" s="84">
         <f>'Cost Calculator'!K41</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K41" s="87">
+      <c r="K41" s="85">
         <v>80</v>
       </c>
-      <c r="L41" s="86">
+      <c r="L41" s="84">
         <f t="shared" si="6"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M41" s="88">
+      <c r="M41" s="91">
         <f>'Cost Calculator'!L45</f>
         <v>100.81</v>
       </c>
-      <c r="N41" s="89">
+      <c r="N41" s="92">
         <v>180</v>
       </c>
-      <c r="O41" s="89">
+      <c r="O41" s="92">
         <f>N41-M41</f>
         <v>79.19</v>
       </c>
     </row>
     <row r="42" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="77">
         <f>'Cost Calculator'!J42</f>
         <v>105.6085</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H42" s="77">
         <v>200</v>
       </c>
-      <c r="I42" s="85">
+      <c r="I42" s="83">
         <f t="shared" si="5"/>
         <v>94.3915</v>
       </c>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
     </row>
     <row r="43" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G43" s="77">
         <f>'Cost Calculator'!J43</f>
         <v>102.7585</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H43" s="77">
         <v>200</v>
       </c>
-      <c r="I43" s="85">
+      <c r="I43" s="83">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J43" s="86">
+      <c r="J43" s="84">
         <f>'Cost Calculator'!K43</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K43" s="87">
+      <c r="K43" s="85">
         <v>80</v>
       </c>
-      <c r="L43" s="86">
+      <c r="L43" s="84">
         <f t="shared" ref="L43:L48" si="8">K43-J43</f>
         <v>46.3862142857143</v>
       </c>
-      <c r="M43" s="90"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
     </row>
     <row r="44" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="77">
         <f>'Cost Calculator'!J44</f>
         <v>102.7585</v>
       </c>
-      <c r="H44" s="71">
+      <c r="H44" s="77">
         <v>200</v>
       </c>
-      <c r="I44" s="85">
+      <c r="I44" s="83">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J44" s="86">
+      <c r="J44" s="84">
         <f>'Cost Calculator'!K44</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K44" s="87">
+      <c r="K44" s="85">
         <v>80</v>
       </c>
-      <c r="L44" s="86">
+      <c r="L44" s="84">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M44" s="90"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
     </row>
     <row r="45" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A45" s="73" t="s">
@@ -4973,570 +4986,570 @@
       <c r="F45" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="71">
+      <c r="G45" s="77">
         <f>'Cost Calculator'!J45</f>
         <v>108.1585</v>
       </c>
-      <c r="H45" s="71">
+      <c r="H45" s="77">
         <v>200</v>
       </c>
-      <c r="I45" s="85">
+      <c r="I45" s="83">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J45" s="86">
+      <c r="J45" s="84">
         <f>'Cost Calculator'!K45</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K45" s="87">
+      <c r="K45" s="85">
         <v>80</v>
       </c>
-      <c r="L45" s="86">
+      <c r="L45" s="84">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M45" s="88">
+      <c r="M45" s="91">
         <f>'Cost Calculator'!L48</f>
         <v>97.81</v>
       </c>
-      <c r="N45" s="89">
+      <c r="N45" s="92">
         <v>180</v>
       </c>
-      <c r="O45" s="89">
+      <c r="O45" s="92">
         <f>N45-M45</f>
         <v>82.19</v>
       </c>
     </row>
     <row r="46" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="77">
         <f>'Cost Calculator'!J46</f>
         <v>102.7585</v>
       </c>
-      <c r="H46" s="71">
+      <c r="H46" s="77">
         <v>200</v>
       </c>
-      <c r="I46" s="85">
+      <c r="I46" s="83">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J46" s="86">
+      <c r="J46" s="84">
         <f>'Cost Calculator'!K46</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K46" s="87">
+      <c r="K46" s="85">
         <v>80</v>
       </c>
-      <c r="L46" s="86">
+      <c r="L46" s="84">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M46" s="90"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
     </row>
     <row r="47" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="71">
+      <c r="G47" s="77">
         <f>'Cost Calculator'!J47</f>
         <v>108.1585</v>
       </c>
-      <c r="H47" s="71">
+      <c r="H47" s="77">
         <v>200</v>
       </c>
-      <c r="I47" s="85">
+      <c r="I47" s="83">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J47" s="86">
+      <c r="J47" s="84">
         <f>'Cost Calculator'!K47</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K47" s="87">
+      <c r="K47" s="85">
         <v>80</v>
       </c>
-      <c r="L47" s="86">
+      <c r="L47" s="84">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M47" s="88">
+      <c r="M47" s="91">
         <f>'Cost Calculator'!L53</f>
         <v>74.81</v>
       </c>
-      <c r="N47" s="89">
+      <c r="N47" s="92">
         <v>180</v>
       </c>
-      <c r="O47" s="89">
+      <c r="O47" s="92">
         <f>N47-M47</f>
         <v>105.19</v>
       </c>
     </row>
     <row r="48" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="77">
         <f>'Cost Calculator'!J48</f>
         <v>102.7585</v>
       </c>
-      <c r="H48" s="71">
+      <c r="H48" s="77">
         <v>200</v>
       </c>
-      <c r="I48" s="85">
+      <c r="I48" s="83">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J48" s="86">
+      <c r="J48" s="84">
         <f>'Cost Calculator'!K48</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K48" s="87">
+      <c r="K48" s="85">
         <v>80</v>
       </c>
-      <c r="L48" s="86">
+      <c r="L48" s="84">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M48" s="88">
+      <c r="M48" s="91">
         <f>'Cost Calculator'!L54</f>
         <v>74.81</v>
       </c>
-      <c r="N48" s="89">
+      <c r="N48" s="92">
         <v>180</v>
       </c>
-      <c r="O48" s="89">
+      <c r="O48" s="92">
         <f>N48-M48</f>
         <v>105.19</v>
       </c>
     </row>
     <row r="49" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="74" t="s">
+      <c r="D49" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="74" t="s">
+      <c r="E49" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="77">
         <f>'Cost Calculator'!J49</f>
         <v>100.3585</v>
       </c>
-      <c r="H49" s="71">
+      <c r="H49" s="77">
         <v>200</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="83">
         <f t="shared" si="5"/>
         <v>99.6415</v>
       </c>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
     </row>
     <row r="50" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="77">
         <f>'Cost Calculator'!J50</f>
         <v>105.6085</v>
       </c>
-      <c r="H50" s="71">
+      <c r="H50" s="77">
         <v>200</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="83">
         <f t="shared" si="5"/>
         <v>94.3915</v>
       </c>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
     </row>
     <row r="51" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="71">
+      <c r="G51" s="77">
         <f>'Cost Calculator'!J51</f>
         <v>100.7335</v>
       </c>
-      <c r="H51" s="71">
+      <c r="H51" s="77">
         <v>200</v>
       </c>
-      <c r="I51" s="85">
+      <c r="I51" s="83">
         <f t="shared" si="5"/>
         <v>99.2665</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
     </row>
     <row r="52" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="71" t="s">
         <v>159</v>
       </c>
       <c r="E52" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="71">
+      <c r="G52" s="77">
         <f>'Cost Calculator'!J52</f>
         <v>114.4585</v>
       </c>
-      <c r="H52" s="71">
+      <c r="H52" s="77">
         <v>200</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="83">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J52" s="86">
+      <c r="J52" s="84">
         <f>'Cost Calculator'!K52</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K52" s="87">
+      <c r="K52" s="85">
         <v>80</v>
       </c>
-      <c r="L52" s="86">
+      <c r="L52" s="84">
         <f t="shared" ref="L52:L57" si="9">K52-J52</f>
         <v>43.1362142857143</v>
       </c>
-      <c r="M52" s="88">
+      <c r="M52" s="91">
         <f>'Cost Calculator'!L55</f>
         <v>107.33</v>
       </c>
-      <c r="N52" s="89">
+      <c r="N52" s="92">
         <v>180</v>
       </c>
-      <c r="O52" s="89">
+      <c r="O52" s="92">
         <f>N52-M52</f>
         <v>72.67</v>
       </c>
     </row>
     <row r="53" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="71">
+      <c r="G53" s="77">
         <f>'Cost Calculator'!J53</f>
         <v>102.7585</v>
       </c>
-      <c r="H53" s="71">
+      <c r="H53" s="77">
         <v>200</v>
       </c>
-      <c r="I53" s="85">
+      <c r="I53" s="83">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J53" s="86">
+      <c r="J53" s="84">
         <f>'Cost Calculator'!K53</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K53" s="87">
+      <c r="K53" s="85">
         <v>80</v>
       </c>
-      <c r="L53" s="86">
+      <c r="L53" s="84">
         <f t="shared" si="9"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M53" s="88">
+      <c r="M53" s="91">
         <f>'Cost Calculator'!L57</f>
         <v>104.31</v>
       </c>
-      <c r="N53" s="89">
+      <c r="N53" s="92">
         <v>180</v>
       </c>
-      <c r="O53" s="89">
+      <c r="O53" s="92">
         <f>N53-M53</f>
         <v>75.69</v>
       </c>
     </row>
     <row r="54" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="69" t="s">
+      <c r="E54" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="71">
+      <c r="G54" s="77">
         <f>'Cost Calculator'!J54</f>
         <v>108.1585</v>
       </c>
-      <c r="H54" s="71">
+      <c r="H54" s="77">
         <v>200</v>
       </c>
-      <c r="I54" s="85">
+      <c r="I54" s="83">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J54" s="86">
+      <c r="J54" s="84">
         <f>'Cost Calculator'!K54</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K54" s="87">
+      <c r="K54" s="85">
         <v>80</v>
       </c>
-      <c r="L54" s="86">
+      <c r="L54" s="84">
         <f t="shared" si="9"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M54" s="88">
+      <c r="M54" s="91">
         <f>'Cost Calculator'!L61</f>
         <v>92.33</v>
       </c>
-      <c r="N54" s="89">
+      <c r="N54" s="92">
         <v>180</v>
       </c>
-      <c r="O54" s="89">
+      <c r="O54" s="92">
         <f>N54-M54</f>
         <v>87.67</v>
       </c>
     </row>
     <row r="55" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="76" t="s">
+      <c r="E55" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="76" t="s">
+      <c r="F55" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="77">
         <f>'Cost Calculator'!J55</f>
         <v>119.8945</v>
       </c>
-      <c r="H55" s="71">
+      <c r="H55" s="77">
         <v>200</v>
       </c>
-      <c r="I55" s="85">
+      <c r="I55" s="83">
         <f t="shared" si="5"/>
         <v>80.1055</v>
       </c>
-      <c r="J55" s="86">
+      <c r="J55" s="84">
         <f>'Cost Calculator'!K55</f>
         <v>38.3737857142857</v>
       </c>
-      <c r="K55" s="87">
+      <c r="K55" s="85">
         <v>80</v>
       </c>
-      <c r="L55" s="86">
+      <c r="L55" s="84">
         <f t="shared" si="9"/>
         <v>41.6262142857143</v>
       </c>
-      <c r="M55" s="88">
+      <c r="M55" s="91">
         <f>'Cost Calculator'!L62</f>
         <v>122.93</v>
       </c>
-      <c r="N55" s="89">
+      <c r="N55" s="92">
         <v>180</v>
       </c>
-      <c r="O55" s="89">
+      <c r="O55" s="92">
         <f>N55-M55</f>
         <v>57.07</v>
       </c>
     </row>
     <row r="56" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="71">
+      <c r="G56" s="77">
         <f>'Cost Calculator'!J56</f>
         <v>114.4585</v>
       </c>
-      <c r="H56" s="71">
+      <c r="H56" s="77">
         <v>200</v>
       </c>
-      <c r="I56" s="85">
+      <c r="I56" s="83">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J56" s="86">
+      <c r="J56" s="84">
         <f>'Cost Calculator'!K56</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K56" s="87">
+      <c r="K56" s="85">
         <v>80</v>
       </c>
-      <c r="L56" s="86">
+      <c r="L56" s="84">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M56" s="90"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
     </row>
     <row r="57" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="70" t="s">
         <v>106</v>
       </c>
       <c r="E57" s="73" t="s">
@@ -5545,348 +5558,348 @@
       <c r="F57" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="71">
+      <c r="G57" s="77">
         <f>'Cost Calculator'!J57</f>
         <v>114.4585</v>
       </c>
-      <c r="H57" s="71">
+      <c r="H57" s="77">
         <v>200</v>
       </c>
-      <c r="I57" s="85">
+      <c r="I57" s="83">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J57" s="86">
+      <c r="J57" s="84">
         <f>'Cost Calculator'!K57</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K57" s="87">
+      <c r="K57" s="85">
         <v>80</v>
       </c>
-      <c r="L57" s="86">
+      <c r="L57" s="84">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M57" s="91">
+      <c r="M57" s="94">
         <f>'Cost Calculator'!L63</f>
         <v>74.81</v>
       </c>
-      <c r="N57" s="91">
+      <c r="N57" s="94">
         <v>180</v>
       </c>
-      <c r="O57" s="91">
+      <c r="O57" s="94">
         <f>N57-M57</f>
         <v>105.19</v>
       </c>
     </row>
     <row r="58" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A58" s="74" t="s">
+      <c r="A58" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="71">
+      <c r="G58" s="77">
         <f>'Cost Calculator'!J58</f>
         <v>100.3585</v>
       </c>
-      <c r="H58" s="71">
+      <c r="H58" s="77">
         <v>200</v>
       </c>
-      <c r="I58" s="85">
+      <c r="I58" s="83">
         <f t="shared" si="5"/>
         <v>99.6415</v>
       </c>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
     </row>
     <row r="59" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D59" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="74" t="s">
+      <c r="E59" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="74" t="s">
+      <c r="F59" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="71">
+      <c r="G59" s="77">
         <f>'Cost Calculator'!J59</f>
         <v>157.3345</v>
       </c>
-      <c r="H59" s="71">
+      <c r="H59" s="77">
         <v>200</v>
       </c>
-      <c r="I59" s="85">
+      <c r="I59" s="83">
         <f t="shared" si="5"/>
         <v>42.6655</v>
       </c>
-      <c r="J59" s="86">
+      <c r="J59" s="84">
         <f>'Cost Calculator'!K59</f>
         <v>48.7737857142857</v>
       </c>
-      <c r="K59" s="87">
+      <c r="K59" s="85">
         <v>80</v>
       </c>
-      <c r="L59" s="86">
+      <c r="L59" s="84">
         <f t="shared" ref="L59:L70" si="10">K59-J59</f>
         <v>31.2262142857143</v>
       </c>
-      <c r="M59" s="91">
+      <c r="M59" s="94">
         <f>'Cost Calculator'!L64</f>
         <v>94.18499225</v>
       </c>
-      <c r="N59" s="91">
+      <c r="N59" s="94">
         <v>180</v>
       </c>
-      <c r="O59" s="91">
+      <c r="O59" s="94">
         <f>N59-M59</f>
         <v>85.81500775</v>
       </c>
     </row>
     <row r="60" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="74" t="s">
+      <c r="E60" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="77">
         <f>'Cost Calculator'!J60</f>
         <v>149.9905</v>
       </c>
-      <c r="H60" s="71">
+      <c r="H60" s="77">
         <v>200</v>
       </c>
-      <c r="I60" s="85">
+      <c r="I60" s="83">
         <f t="shared" si="5"/>
         <v>50.0095</v>
       </c>
-      <c r="J60" s="86">
+      <c r="J60" s="84">
         <f>'Cost Calculator'!K60</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K60" s="87">
+      <c r="K60" s="85">
         <v>80</v>
       </c>
-      <c r="L60" s="86">
+      <c r="L60" s="84">
         <f t="shared" si="10"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
     </row>
     <row r="61" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="E61" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="F61" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="71">
+      <c r="G61" s="77">
         <f>'Cost Calculator'!J61</f>
         <v>92.8945</v>
       </c>
-      <c r="H61" s="71">
+      <c r="H61" s="77">
         <v>200</v>
       </c>
-      <c r="I61" s="85">
+      <c r="I61" s="83">
         <f t="shared" si="5"/>
         <v>107.1055</v>
       </c>
-      <c r="J61" s="86">
+      <c r="J61" s="84">
         <f>'Cost Calculator'!K61</f>
         <v>30.8737857142857</v>
       </c>
-      <c r="K61" s="87">
+      <c r="K61" s="85">
         <v>80</v>
       </c>
-      <c r="L61" s="86">
+      <c r="L61" s="84">
         <f t="shared" si="10"/>
         <v>49.1262142857143</v>
       </c>
-      <c r="M61" s="91">
+      <c r="M61" s="94">
         <f>'Cost Calculator'!L66</f>
         <v>113.81</v>
       </c>
-      <c r="N61" s="91">
+      <c r="N61" s="94">
         <v>180</v>
       </c>
-      <c r="O61" s="91">
+      <c r="O61" s="94">
         <f>N61-M61</f>
         <v>66.19</v>
       </c>
     </row>
     <row r="62" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="F62" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="71">
+      <c r="G62" s="77">
         <f>'Cost Calculator'!J62</f>
         <v>147.9745</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="77">
         <v>200</v>
       </c>
-      <c r="I62" s="85">
+      <c r="I62" s="83">
         <f t="shared" si="5"/>
         <v>52.0255</v>
       </c>
-      <c r="J62" s="86">
+      <c r="J62" s="84">
         <f>'Cost Calculator'!K62</f>
         <v>46.1737857142857</v>
       </c>
-      <c r="K62" s="87">
+      <c r="K62" s="85">
         <v>80</v>
       </c>
-      <c r="L62" s="86">
+      <c r="L62" s="84">
         <f t="shared" si="10"/>
         <v>33.8262142857143</v>
       </c>
-      <c r="M62" s="91">
+      <c r="M62" s="94">
         <f>'Cost Calculator'!L67</f>
         <v>89.49</v>
       </c>
-      <c r="N62" s="91">
+      <c r="N62" s="94">
         <v>180</v>
       </c>
-      <c r="O62" s="91">
+      <c r="O62" s="94">
         <f>N62-M62</f>
         <v>90.51</v>
       </c>
     </row>
     <row r="63" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="71">
+      <c r="G63" s="77">
         <f>'Cost Calculator'!J63</f>
         <v>114.4585</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="77">
         <v>200</v>
       </c>
-      <c r="I63" s="85">
+      <c r="I63" s="83">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J63" s="93">
+      <c r="J63" s="86">
         <f>'Cost Calculator'!K63</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K63" s="94">
+      <c r="K63" s="87">
         <v>80</v>
       </c>
-      <c r="L63" s="93">
+      <c r="L63" s="86">
         <f t="shared" si="10"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M63" s="91" t="e">
+      <c r="M63" s="94" t="e">
         <f>'Cost Calculator'!L68</f>
         <v>#REF!</v>
       </c>
-      <c r="N63" s="91">
+      <c r="N63" s="94">
         <v>180</v>
       </c>
-      <c r="O63" s="91" t="e">
+      <c r="O63" s="94" t="e">
         <f>N63-M63</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="F64" s="69" t="s">
         <v>28</v>
       </c>
       <c r="G64" s="81">
@@ -5896,50 +5909,50 @@
       <c r="H64" s="81">
         <v>200</v>
       </c>
-      <c r="I64" s="95">
+      <c r="I64" s="88">
         <f t="shared" si="5"/>
         <v>103.7665</v>
       </c>
-      <c r="J64" s="93">
+      <c r="J64" s="86">
         <f>'Cost Calculator'!K64</f>
         <v>31.8008982142857</v>
       </c>
-      <c r="K64" s="94">
+      <c r="K64" s="87">
         <v>80</v>
       </c>
-      <c r="L64" s="93">
+      <c r="L64" s="86">
         <f t="shared" si="10"/>
         <v>48.1991017857143</v>
       </c>
-      <c r="M64" s="91">
+      <c r="M64" s="94">
         <f>'Cost Calculator'!L69</f>
         <v>110.25</v>
       </c>
-      <c r="N64" s="91">
+      <c r="N64" s="94">
         <v>180</v>
       </c>
-      <c r="O64" s="91">
+      <c r="O64" s="94">
         <f>N64-M64</f>
         <v>69.75</v>
       </c>
     </row>
     <row r="65" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="92" t="s">
+      <c r="F65" s="95" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="81">
@@ -5949,29 +5962,29 @@
       <c r="H65" s="81">
         <v>200</v>
       </c>
-      <c r="I65" s="95">
+      <c r="I65" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J65" s="93">
+      <c r="J65" s="86">
         <f>'Cost Calculator'!K65</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K65" s="94">
+      <c r="K65" s="87">
         <v>80</v>
       </c>
-      <c r="L65" s="93">
+      <c r="L65" s="86">
         <f t="shared" si="10"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M65" s="91" t="e">
+      <c r="M65" s="94" t="e">
         <f>'Cost Calculator'!L70</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="91">
+      <c r="N65" s="94">
         <v>180</v>
       </c>
-      <c r="O65" s="91" t="e">
+      <c r="O65" s="94" t="e">
         <f>N65-M65</f>
         <v>#REF!</v>
       </c>
@@ -5992,7 +6005,7 @@
       <c r="E66" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="97" t="s">
+      <c r="F66" s="98" t="s">
         <v>41</v>
       </c>
       <c r="G66" s="81">
@@ -6002,42 +6015,42 @@
       <c r="H66" s="81">
         <v>200</v>
       </c>
-      <c r="I66" s="95">
+      <c r="I66" s="88">
         <f t="shared" si="5"/>
         <v>68.4415</v>
       </c>
-      <c r="J66" s="93">
+      <c r="J66" s="86">
         <f>'Cost Calculator'!K66</f>
         <v>41.6137857142857</v>
       </c>
-      <c r="K66" s="94">
+      <c r="K66" s="87">
         <v>80</v>
       </c>
-      <c r="L66" s="93">
+      <c r="L66" s="86">
         <f t="shared" si="10"/>
         <v>38.3862142857143</v>
       </c>
-      <c r="M66" s="92"/>
-      <c r="N66" s="92"/>
-      <c r="O66" s="92"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
     </row>
     <row r="67" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="92" t="s">
+      <c r="D67" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="92" t="s">
+      <c r="E67" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="97" t="s">
+      <c r="F67" s="98" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="81">
@@ -6047,39 +6060,39 @@
       <c r="H67" s="81">
         <v>200</v>
       </c>
-      <c r="I67" s="95">
+      <c r="I67" s="88">
         <f t="shared" si="5"/>
         <v>112.2175</v>
       </c>
-      <c r="J67" s="93">
+      <c r="J67" s="86">
         <f>'Cost Calculator'!K67</f>
         <v>29.4537857142857</v>
       </c>
-      <c r="K67" s="94">
+      <c r="K67" s="87">
         <v>80</v>
       </c>
-      <c r="L67" s="93">
+      <c r="L67" s="86">
         <f t="shared" si="10"/>
         <v>50.5462142857143</v>
       </c>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
     </row>
     <row r="68" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="98" t="s">
+      <c r="C68" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="98" t="s">
+      <c r="D68" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="98" t="s">
+      <c r="E68" s="97" t="s">
         <v>212</v>
       </c>
       <c r="F68" s="99" t="s">
@@ -6092,42 +6105,42 @@
       <c r="H68" s="81">
         <v>200</v>
       </c>
-      <c r="I68" s="95">
+      <c r="I68" s="88">
         <f t="shared" si="5"/>
         <v>94.0165</v>
       </c>
-      <c r="J68" s="93">
+      <c r="J68" s="86">
         <f>'Cost Calculator'!K68</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K68" s="94">
+      <c r="K68" s="87">
         <v>80</v>
       </c>
-      <c r="L68" s="93">
+      <c r="L68" s="86">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
+      <c r="O68" s="95"/>
     </row>
     <row r="69" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="92" t="s">
+      <c r="D69" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="92" t="s">
+      <c r="E69" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="92" t="s">
+      <c r="F69" s="95" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="81">
@@ -6137,24 +6150,24 @@
       <c r="H69" s="81">
         <v>200</v>
       </c>
-      <c r="I69" s="95">
+      <c r="I69" s="88">
         <f t="shared" si="5"/>
         <v>74.8495</v>
       </c>
-      <c r="J69" s="93">
+      <c r="J69" s="86">
         <f>'Cost Calculator'!K69</f>
         <v>39.8337857142857</v>
       </c>
-      <c r="K69" s="94">
+      <c r="K69" s="87">
         <v>80</v>
       </c>
-      <c r="L69" s="93">
+      <c r="L69" s="86">
         <f t="shared" si="10"/>
         <v>40.1662142857143</v>
       </c>
-      <c r="M69" s="92"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="92"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
     </row>
     <row r="70" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A70" s="96" t="s">
@@ -6172,7 +6185,7 @@
       <c r="E70" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="97" t="s">
+      <c r="F70" s="98" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="81">
@@ -6182,24 +6195,24 @@
       <c r="H70" s="81">
         <v>200</v>
       </c>
-      <c r="I70" s="95">
+      <c r="I70" s="88">
         <f t="shared" si="5"/>
         <v>94.0165</v>
       </c>
-      <c r="J70" s="93">
+      <c r="J70" s="86">
         <f>'Cost Calculator'!K70</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K70" s="94">
+      <c r="K70" s="87">
         <v>80</v>
       </c>
-      <c r="L70" s="93">
+      <c r="L70" s="86">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="95"/>
     </row>
     <row r="71" s="66" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="72" s="66" customFormat="1" ht="14.25" customHeight="1"/>
@@ -7159,23 +7172,23 @@
   <sheetPr/>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="24.5789473684211" customWidth="1"/>
-    <col min="2" max="2" width="19.1052631578947" customWidth="1"/>
-    <col min="3" max="3" width="25.859649122807" customWidth="1"/>
-    <col min="4" max="4" width="17.7456140350877" customWidth="1"/>
-    <col min="5" max="5" width="14.0614035087719" customWidth="1"/>
-    <col min="6" max="6" width="16.5438596491228" customWidth="1"/>
+    <col min="1" max="1" width="24.578125" customWidth="1"/>
+    <col min="2" max="2" width="19.1015625" customWidth="1"/>
+    <col min="3" max="3" width="25.859375" customWidth="1"/>
+    <col min="4" max="4" width="17.7421875" customWidth="1"/>
+    <col min="5" max="5" width="14.0625" customWidth="1"/>
+    <col min="6" max="6" width="16.546875" customWidth="1"/>
     <col min="7" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5087719298246" customWidth="1"/>
-    <col min="10" max="10" width="15.7280701754386" customWidth="1"/>
-    <col min="11" max="11" width="17.140350877193" customWidth="1"/>
-    <col min="12" max="12" width="16.3684210526316" customWidth="1"/>
+    <col min="9" max="9" width="13.5078125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.3671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7189,46 +7202,46 @@
       <c r="D1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="53" t="s">
         <v>224</v>
       </c>
       <c r="J1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12">
         <v>615</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>1050</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="54">
         <v>6000</v>
       </c>
-      <c r="F2" s="19" t="str">
+      <c r="F2" s="55" t="str">
         <f>'Scent Inventory'!E2</f>
         <v>24 Persicarat</v>
       </c>
@@ -7250,19 +7263,19 @@
         <v>92.61</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:12">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16" t="s">
+    <row r="3" ht="17.55" spans="1:12">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>380</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="54">
         <v>1000</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="55" t="str">
         <f>'Scent Inventory'!E3</f>
         <v>Amberuby</v>
       </c>
@@ -7285,20 +7298,20 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>247</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="54">
         <v>500</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="55" t="str">
         <f>'Scent Inventory'!E4</f>
         <v>Anti-sober</v>
       </c>
@@ -7321,23 +7334,23 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <f>B2*0.48</f>
         <v>295.2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>356</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="56">
         <v>28000</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="55" t="str">
         <f>'Scent Inventory'!E5</f>
         <v>Apololavè</v>
       </c>
@@ -7357,23 +7370,23 @@
       <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <f>(110/E2)*D2</f>
         <v>19.25</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>320</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="54">
         <v>2000</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="55" t="str">
         <f>'Scent Inventory'!E6</f>
         <v>Arctic Materia</v>
       </c>
@@ -7393,23 +7406,23 @@
       <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="22">
         <f>(20/E3)*D3</f>
         <v>7.6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>263</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="54">
         <v>500</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="55" t="str">
         <f>'Scent Inventory'!E7</f>
         <v>Ardorveil</v>
       </c>
@@ -7432,23 +7445,23 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="22">
         <f>(10/E4)*D4</f>
         <v>4.94</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>160</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="54">
         <v>1000</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="55" t="str">
         <f>'Scent Inventory'!E8</f>
         <v>Argentinite</v>
       </c>
@@ -7456,7 +7469,7 @@
       <c r="H8" s="1">
         <v>550</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="64">
         <f>((H8*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>102.6085</v>
@@ -7470,30 +7483,30 @@
         <v>74.81</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:12">
-      <c r="A9" s="29" t="s">
+    <row r="9" ht="17.55" spans="1:12">
+      <c r="A9" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="24">
         <f>SUM(B5:B8)</f>
         <v>326.99</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="26">
         <v>82</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="57">
         <v>100</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="55" t="str">
         <f>'Scent Inventory'!E9</f>
         <v>Avium Magnifique</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="59">
+      <c r="I9" s="50">
         <v>408</v>
       </c>
       <c r="J9" s="64">
@@ -7513,12 +7526,12 @@
       <c r="A10" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="F10" s="37" t="str">
+      <c r="D10" s="29"/>
+      <c r="F10" s="58" t="str">
         <f>'Scent Inventory'!E10</f>
         <v>Bar of the Elegants</v>
       </c>
@@ -7526,7 +7539,7 @@
         <v>850</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="59"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="64">
         <f>((G10*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>137.8585</v>
@@ -7538,21 +7551,21 @@
       <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="31">
         <f>B9*0.15</f>
         <v>49.0485</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="32">
         <f>B9*0.275</f>
         <v>89.92225</v>
       </c>
-      <c r="F11" s="37" t="str">
+      <c r="F11" s="58" t="str">
         <f>'Scent Inventory'!E11</f>
         <v>Certainty</v>
       </c>
@@ -7575,19 +7588,19 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="21">
         <v>23</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="33">
         <v>25</v>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="58" t="str">
         <f>'Scent Inventory'!E12</f>
         <v>Chinensis Savor</v>
       </c>
@@ -7610,19 +7623,19 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="21">
         <v>19</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="35">
         <v>22</v>
       </c>
-      <c r="F13" s="37" t="str">
+      <c r="F13" s="58" t="str">
         <f>'Scent Inventory'!E13</f>
         <v>Corosa Skies</v>
       </c>
@@ -7645,19 +7658,19 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="33">
         <v>12</v>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="F14" s="58" t="str">
         <f>'Scent Inventory'!E14</f>
         <v>Dainty Esplanade</v>
       </c>
@@ -7680,19 +7693,19 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="21">
         <v>1.29</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="33">
         <v>0.89</v>
       </c>
-      <c r="F15" s="37" t="str">
+      <c r="F15" s="58" t="str">
         <f>'Scent Inventory'!E15</f>
         <v>Dear Whispers</v>
       </c>
@@ -7715,19 +7728,19 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="21">
         <v>1.3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="33">
         <v>1.89</v>
       </c>
-      <c r="F16" s="37" t="str">
+      <c r="F16" s="58" t="str">
         <f>'Scent Inventory'!E16</f>
         <v>Delight Mélange</v>
       </c>
@@ -7748,22 +7761,22 @@
         <v>112.85</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:12">
-      <c r="A17" s="44" t="s">
+    <row r="17" ht="17.55" spans="1:12">
+      <c r="A17" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="37">
         <f>SUM(B11:B16)</f>
         <v>105.6385</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="39">
         <f>SUM(D11:D16)</f>
         <v>151.70225</v>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="F17" s="58" t="str">
         <f>'Scent Inventory'!E17</f>
         <v>Dermacore Vent</v>
       </c>
@@ -7783,15 +7796,15 @@
       <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="F18" s="37" t="str">
+      <c r="D18" s="41"/>
+      <c r="F18" s="58" t="str">
         <f>'Scent Inventory'!E18</f>
         <v>Dustyle</v>
       </c>
@@ -7814,21 +7827,21 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="20">
         <f>B5*0.16667</f>
         <v>49.200984</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="42">
         <f>(55/E2)*D2</f>
         <v>9.625</v>
       </c>
-      <c r="F19" s="37" t="str">
+      <c r="F19" s="58" t="str">
         <f>'Scent Inventory'!E19</f>
         <v>Enigmiasma</v>
       </c>
@@ -7851,21 +7864,21 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="22">
         <f>(120/E2)*D2</f>
         <v>21</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="42">
         <f>(10/E3)*D3</f>
         <v>3.8</v>
       </c>
-      <c r="F20" s="37" t="str">
+      <c r="F20" s="58" t="str">
         <f>'Scent Inventory'!E20</f>
         <v>Epicene Oxymoron</v>
       </c>
@@ -7887,22 +7900,22 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:12">
-      <c r="A21" s="24" t="s">
+    <row r="21" ht="17.55" spans="1:12">
+      <c r="A21" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="22">
         <f>(60/E3)*D3</f>
         <v>22.8</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="43">
         <f>(5/E4)*D4</f>
         <v>2.47</v>
       </c>
-      <c r="F21" s="37" t="str">
+      <c r="F21" s="58" t="str">
         <f>'Scent Inventory'!E21</f>
         <v>Garland</v>
       </c>
@@ -7925,18 +7938,18 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="42">
         <f>(10/E4)*D4</f>
         <v>4.94</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="F22" s="37" t="str">
+      <c r="D22" s="41"/>
+      <c r="F22" s="58" t="str">
         <f>'Scent Inventory'!E22</f>
         <v>Glade Parade</v>
       </c>
@@ -7958,22 +7971,22 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" ht="15.15" spans="1:12">
-      <c r="A23" s="52" t="s">
+    <row r="23" ht="17.55" spans="1:12">
+      <c r="A23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="45">
         <f>SUM(B18:B22)</f>
         <v>97.940984</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="42">
         <f>(10/125)*B2</f>
         <v>49.2</v>
       </c>
-      <c r="F23" s="37" t="str">
+      <c r="F23" s="58" t="str">
         <f>'Scent Inventory'!E23</f>
         <v>Glittersphere</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>520</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="64">
         <f>((G23*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>108.1585</v>
@@ -7999,15 +8012,15 @@
       <c r="A24" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="32">
         <f>150/E5*D5</f>
         <v>1.90714285714286</v>
       </c>
-      <c r="F24" s="37" t="str">
+      <c r="F24" s="58" t="str">
         <f>'Scent Inventory'!E24</f>
         <v>Grovelock</v>
       </c>
@@ -8030,21 +8043,21 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="32">
         <f>B23/2</f>
         <v>48.970492</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="42">
         <f>30/E6*D6</f>
         <v>4.8</v>
       </c>
-      <c r="F25" s="37" t="str">
+      <c r="F25" s="58" t="str">
         <f>'Scent Inventory'!E25</f>
         <v>Helios Syrup</v>
       </c>
@@ -8064,20 +8077,20 @@
       <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="42">
         <v>24</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="42">
         <f>8/E7*D7</f>
         <v>4.208</v>
       </c>
-      <c r="F26" s="37" t="str">
+      <c r="F26" s="58" t="str">
         <f>'Scent Inventory'!E26</f>
         <v>Honorable Laurel</v>
       </c>
@@ -8097,20 +8110,20 @@
       <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="42">
         <v>22</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="42">
         <f>1/E8*D8</f>
         <v>0.16</v>
       </c>
-      <c r="F27" s="37" t="str">
+      <c r="F27" s="58" t="str">
         <f>'Scent Inventory'!E27</f>
         <v>Icerbalitt</v>
       </c>
@@ -8129,21 +8142,21 @@
       </c>
       <c r="L27" s="65"/>
     </row>
-    <row r="28" ht="15.15" spans="1:12">
-      <c r="A28" s="24" t="s">
+    <row r="28" ht="17.55" spans="1:12">
+      <c r="A28" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="42">
         <v>1.35</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="42">
         <f>1/E9*D9</f>
         <v>0.82</v>
       </c>
-      <c r="F28" s="37" t="str">
+      <c r="F28" s="58" t="str">
         <f>'Scent Inventory'!E28</f>
         <v>Incorienta Woods</v>
       </c>
@@ -8166,19 +8179,19 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="42">
         <v>1.2</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="47">
         <v>17</v>
       </c>
-      <c r="F29" s="37" t="str">
+      <c r="F29" s="58" t="str">
         <f>'Scent Inventory'!E29</f>
         <v>Indispensable</v>
       </c>
@@ -8201,19 +8214,19 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="42">
         <v>1.89</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="42">
         <v>1.35</v>
       </c>
-      <c r="F30" s="37" t="str">
+      <c r="F30" s="58" t="str">
         <f>'Scent Inventory'!E30</f>
         <v>Lilium Celestia</v>
       </c>
@@ -8229,24 +8242,24 @@
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
     </row>
-    <row r="31" ht="15.15" spans="1:12">
-      <c r="A31" s="44" t="s">
+    <row r="31" ht="17.55" spans="1:12">
+      <c r="A31" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="48">
         <f>SUM(B25:B30)</f>
         <v>99.410492</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="43">
         <v>0.79</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="37" t="str">
+      <c r="F31" s="58" t="str">
         <f>'Scent Inventory'!E31</f>
         <v>Lotus Drift</v>
       </c>
@@ -8268,19 +8281,19 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" ht="15.15" spans="1:12">
+    <row r="32" ht="17.55" spans="1:12">
       <c r="A32" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="44" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="49">
         <f>SUM(D24:D28)*0.25+SUM(D29:D31)</f>
         <v>22.1137857142857</v>
       </c>
-      <c r="F32" s="37" t="str">
+      <c r="F32" s="58" t="str">
         <f>'Scent Inventory'!E32</f>
         <v>Lucent Haze</v>
       </c>
@@ -8303,14 +8316,14 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="31">
         <f>B31*0.15</f>
         <v>14.9115738</v>
       </c>
-      <c r="F33" s="37" t="str">
+      <c r="F33" s="58" t="str">
         <f>'Scent Inventory'!E33</f>
         <v>Lumberfizz </v>
       </c>
@@ -8330,15 +8343,15 @@
       <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="21">
         <v>23</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="F34" s="37" t="str">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="F34" s="58" t="str">
         <f>'Scent Inventory'!E34</f>
         <v>Lush Pingrasap</v>
       </c>
@@ -8358,13 +8371,13 @@
       <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="21">
         <v>19</v>
       </c>
-      <c r="F35" s="37" t="str">
+      <c r="F35" s="58" t="str">
         <f>'Scent Inventory'!E35</f>
         <v>Maritaroma</v>
       </c>
@@ -8387,16 +8400,16 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="21">
         <v>12</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="37" t="str">
+      <c r="F36" s="58" t="str">
         <f>'Scent Inventory'!E36</f>
         <v>Noble Aplomb</v>
       </c>
@@ -8419,13 +8432,13 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="21">
         <v>1.29</v>
       </c>
-      <c r="F37" s="37" t="str">
+      <c r="F37" s="58" t="str">
         <f>'Scent Inventory'!E37</f>
         <v>Novel Spirit of Fire</v>
       </c>
@@ -8448,13 +8461,13 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="21">
         <v>1.3</v>
       </c>
-      <c r="F38" s="37" t="str">
+      <c r="F38" s="58" t="str">
         <f>'Scent Inventory'!E38</f>
         <v>Pearanil Wisp</v>
       </c>
@@ -8476,15 +8489,15 @@
         <v>107.31</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:12">
-      <c r="A39" s="44" t="s">
+    <row r="39" ht="17.55" spans="1:12">
+      <c r="A39" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="37">
         <f>SUM(B33:B38)</f>
         <v>71.5015738</v>
       </c>
-      <c r="F39" s="37" t="str">
+      <c r="F39" s="58" t="str">
         <f>'Scent Inventory'!E39</f>
         <v>Peostachio Airs</v>
       </c>
@@ -8504,7 +8517,7 @@
       <c r="L39" s="65"/>
     </row>
     <row r="40" spans="6:12">
-      <c r="F40" s="37" t="str">
+      <c r="F40" s="58" t="str">
         <f>'Scent Inventory'!E40</f>
         <v>Pillar of Gusaco</v>
       </c>
@@ -8524,7 +8537,7 @@
       <c r="L40" s="65"/>
     </row>
     <row r="41" spans="6:12">
-      <c r="F41" s="37" t="str">
+      <c r="F41" s="58" t="str">
         <f>'Scent Inventory'!E41</f>
         <v>Royal Musketeer</v>
       </c>
@@ -8544,7 +8557,7 @@
       <c r="L41" s="65"/>
     </row>
     <row r="42" spans="6:12">
-      <c r="F42" s="37" t="str">
+      <c r="F42" s="58" t="str">
         <f>'Scent Inventory'!E42</f>
         <v>Royal Zingiber</v>
       </c>
@@ -8561,7 +8574,7 @@
       <c r="L42" s="65"/>
     </row>
     <row r="43" spans="6:12">
-      <c r="F43" s="37" t="str">
+      <c r="F43" s="58" t="str">
         <f>'Scent Inventory'!E43</f>
         <v>Saccharine Dew</v>
       </c>
@@ -8581,7 +8594,7 @@
       <c r="L43" s="65"/>
     </row>
     <row r="44" spans="6:12">
-      <c r="F44" s="37" t="str">
+      <c r="F44" s="58" t="str">
         <f>'Scent Inventory'!E44</f>
         <v>Savocao Manna</v>
       </c>
@@ -8601,7 +8614,7 @@
       <c r="L44" s="65"/>
     </row>
     <row r="45" spans="6:12">
-      <c r="F45" s="37" t="str">
+      <c r="F45" s="58" t="str">
         <f>'Scent Inventory'!E45</f>
         <v>Sentir La Crème</v>
       </c>
@@ -8624,7 +8637,7 @@
       </c>
     </row>
     <row r="46" spans="6:12">
-      <c r="F46" s="37" t="str">
+      <c r="F46" s="58" t="str">
         <f>'Scent Inventory'!E46</f>
         <v>Shadow Orchids</v>
       </c>
@@ -8644,7 +8657,7 @@
       <c r="L46" s="65"/>
     </row>
     <row r="47" spans="6:12">
-      <c r="F47" s="37" t="str">
+      <c r="F47" s="58" t="str">
         <f>'Scent Inventory'!E47</f>
         <v>Snow Crystal Gust</v>
       </c>
@@ -8664,7 +8677,7 @@
       <c r="L47" s="65"/>
     </row>
     <row r="48" spans="6:12">
-      <c r="F48" s="37" t="str">
+      <c r="F48" s="58" t="str">
         <f>'Scent Inventory'!E48</f>
         <v>Solanzoin</v>
       </c>
@@ -8687,7 +8700,7 @@
       </c>
     </row>
     <row r="49" spans="6:12">
-      <c r="F49" s="37" t="str">
+      <c r="F49" s="58" t="str">
         <f>'Scent Inventory'!E49</f>
         <v>Staracton</v>
       </c>
@@ -8704,7 +8717,7 @@
       <c r="L49" s="65"/>
     </row>
     <row r="50" spans="6:12">
-      <c r="F50" s="37" t="str">
+      <c r="F50" s="58" t="str">
         <f>'Scent Inventory'!E50</f>
         <v>Sunrise Relic</v>
       </c>
@@ -8721,7 +8734,7 @@
       <c r="L50" s="65"/>
     </row>
     <row r="51" spans="6:12">
-      <c r="F51" s="37" t="str">
+      <c r="F51" s="58" t="str">
         <f>'Scent Inventory'!E51</f>
         <v>Sunset Relic</v>
       </c>
@@ -8738,7 +8751,7 @@
       <c r="L51" s="65"/>
     </row>
     <row r="52" spans="6:12">
-      <c r="F52" s="37" t="str">
+      <c r="F52" s="58" t="str">
         <f>'Scent Inventory'!E52</f>
         <v>Surf &amp; Dive</v>
       </c>
@@ -8758,7 +8771,7 @@
       <c r="L52" s="65"/>
     </row>
     <row r="53" spans="6:12">
-      <c r="F53" s="37" t="str">
+      <c r="F53" s="58" t="str">
         <f>'Scent Inventory'!E53</f>
         <v>Sylvan Free Rein</v>
       </c>
@@ -8766,7 +8779,7 @@
         <v>460</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="50"/>
       <c r="J53" s="64">
         <f>((G53*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>102.7585</v>
@@ -8781,7 +8794,7 @@
       </c>
     </row>
     <row r="54" spans="6:12">
-      <c r="F54" s="37" t="str">
+      <c r="F54" s="58" t="str">
         <f>'Scent Inventory'!E54</f>
         <v>Tealotoz Coast</v>
       </c>
@@ -8804,7 +8817,7 @@
       </c>
     </row>
     <row r="55" spans="6:12">
-      <c r="F55" s="37" t="str">
+      <c r="F55" s="58" t="str">
         <f>'Scent Inventory'!E55</f>
         <v>The Beloved</v>
       </c>
@@ -8827,7 +8840,7 @@
       </c>
     </row>
     <row r="56" spans="6:12">
-      <c r="F56" s="37" t="str">
+      <c r="F56" s="58" t="str">
         <f>'Scent Inventory'!E56</f>
         <v>The Contained</v>
       </c>
@@ -8847,7 +8860,7 @@
       <c r="L56" s="65"/>
     </row>
     <row r="57" spans="6:12">
-      <c r="F57" s="37" t="str">
+      <c r="F57" s="58" t="str">
         <f>'Scent Inventory'!E57</f>
         <v>The Unchained</v>
       </c>
@@ -8870,7 +8883,7 @@
       </c>
     </row>
     <row r="58" spans="6:12">
-      <c r="F58" s="37" t="str">
+      <c r="F58" s="58" t="str">
         <f>'Scent Inventory'!E58</f>
         <v>Thornberry</v>
       </c>
@@ -8887,7 +8900,7 @@
       <c r="L58" s="65"/>
     </row>
     <row r="59" spans="6:12">
-      <c r="F59" s="37" t="str">
+      <c r="F59" s="58" t="str">
         <f>'Scent Inventory'!E59</f>
         <v>Treats &amp; Twigs</v>
       </c>
@@ -8907,7 +8920,7 @@
       <c r="L59" s="65"/>
     </row>
     <row r="60" spans="6:12">
-      <c r="F60" s="37" t="str">
+      <c r="F60" s="58" t="str">
         <f>'Scent Inventory'!E60</f>
         <v>Trent Forest Fumes</v>
       </c>
@@ -8927,13 +8940,13 @@
       <c r="L60" s="65"/>
     </row>
     <row r="61" spans="6:12">
-      <c r="F61" s="37" t="str">
+      <c r="F61" s="58" t="str">
         <f>'Scent Inventory'!E61</f>
         <v>Tulipoise</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="59">
+      <c r="I61" s="50">
         <v>438</v>
       </c>
       <c r="J61" s="64">
@@ -8950,7 +8963,7 @@
       </c>
     </row>
     <row r="62" spans="6:12">
-      <c r="F62" s="37" t="str">
+      <c r="F62" s="58" t="str">
         <f>'Scent Inventory'!E62</f>
         <v>Tundrabare</v>
       </c>
@@ -8973,7 +8986,7 @@
       </c>
     </row>
     <row r="63" spans="6:12">
-      <c r="F63" s="37" t="str">
+      <c r="F63" s="58" t="str">
         <f>'Scent Inventory'!E63</f>
         <v>Umbra Swathe</v>
       </c>
@@ -8996,7 +9009,7 @@
       </c>
     </row>
     <row r="64" spans="6:12">
-      <c r="F64" s="37" t="str">
+      <c r="F64" s="58" t="str">
         <f>'Scent Inventory'!E64</f>
         <v>Velvet Bouquet</v>
       </c>
@@ -9019,7 +9032,7 @@
       </c>
     </row>
     <row r="65" spans="6:12">
-      <c r="F65" s="37" t="str">
+      <c r="F65" s="58" t="str">
         <f>'Scent Inventory'!E65</f>
         <v>War of Resins</v>
       </c>
@@ -9039,7 +9052,7 @@
       <c r="L65" s="65"/>
     </row>
     <row r="66" spans="6:12">
-      <c r="F66" s="37" t="str">
+      <c r="F66" s="58" t="str">
         <f>'Scent Inventory'!E66</f>
         <v>Weekly Yawn</v>
       </c>
@@ -9062,13 +9075,13 @@
       </c>
     </row>
     <row r="67" spans="6:12">
-      <c r="F67" s="37" t="str">
+      <c r="F67" s="58" t="str">
         <f>'Scent Inventory'!E67</f>
         <v>Welkin Pearl</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="59">
+      <c r="I67" s="50">
         <v>367</v>
       </c>
       <c r="J67" s="64">
@@ -9085,7 +9098,7 @@
       </c>
     </row>
     <row r="68" spans="6:12">
-      <c r="F68" s="37" t="str">
+      <c r="F68" s="58" t="str">
         <f>'Scent Inventory'!E68</f>
         <v>Windsparks</v>
       </c>
@@ -9108,7 +9121,7 @@
       </c>
     </row>
     <row r="69" spans="6:12">
-      <c r="F69" s="37" t="str">
+      <c r="F69" s="58" t="str">
         <f>'Scent Inventory'!E69</f>
         <v>Winterglare</v>
       </c>
@@ -9130,7 +9143,7 @@
       </c>
     </row>
     <row r="70" spans="6:12">
-      <c r="F70" s="37" t="str">
+      <c r="F70" s="58" t="str">
         <f>'Scent Inventory'!E70</f>
         <v>Zenith Essence</v>
       </c>
@@ -9153,7 +9166,7 @@
       </c>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="37"/>
+      <c r="F71" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9181,13 +9194,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.63157894736842" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8421052631579" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5263157894737" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.47368421052632" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5263157894737" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5234375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.4765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5234375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9203,7 +9216,7 @@
       <c r="D1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9347,7 +9360,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="2">
@@ -9364,7 +9377,7 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="2">
@@ -9381,7 +9394,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="2">
@@ -9398,7 +9411,7 @@
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="2">
@@ -9415,7 +9428,7 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C14" s="2">
@@ -9432,7 +9445,7 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>301</v>
       </c>
       <c r="C15" s="2">
@@ -9449,7 +9462,7 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="2">
@@ -9466,7 +9479,7 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="2">

--- a/Inventory & Costings.xlsx
+++ b/Inventory & Costings.xlsx
@@ -1905,7 +1905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2125,15 +2125,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,6 +2156,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2747,8 +2762,8 @@
   <sheetPr/>
   <dimension ref="A1:O1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2788,31 +2803,31 @@
       <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="95" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2835,36 +2850,36 @@
       <c r="F2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="81">
         <f>'Cost Calculator'!J2</f>
         <v>93.3985</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="81">
         <v>200</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="88">
         <f t="shared" ref="I2:I15" si="0">H2-G2</f>
         <v>106.6015</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="89">
         <f>'Cost Calculator'!K2</f>
         <v>31.0137857142857</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="90">
         <v>80</v>
       </c>
-      <c r="L2" s="84">
+      <c r="L2" s="89">
         <f t="shared" ref="L2:L29" si="1">K2-J2</f>
         <v>48.9862142857143</v>
       </c>
-      <c r="M2" s="91">
+      <c r="M2" s="96">
         <f>'Cost Calculator'!L2</f>
         <v>92.61</v>
       </c>
-      <c r="N2" s="92">
+      <c r="N2" s="97">
         <v>180</v>
       </c>
-      <c r="O2" s="92">
+      <c r="O2" s="97">
         <f>N2-M2</f>
         <v>87.39</v>
       </c>
@@ -2888,36 +2903,36 @@
       <c r="F3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="81">
         <f>'Cost Calculator'!J3</f>
         <v>95.7025</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="81">
         <v>200</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="88">
         <f t="shared" si="0"/>
         <v>104.2975</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="89">
         <f>'Cost Calculator'!K3</f>
         <v>31.6537857142857</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="90">
         <v>80</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="89">
         <f t="shared" si="1"/>
         <v>48.3462142857143</v>
       </c>
-      <c r="M3" s="91">
+      <c r="M3" s="96">
         <f>'Cost Calculator'!L3</f>
         <v>93.89</v>
       </c>
-      <c r="N3" s="92">
+      <c r="N3" s="97">
         <v>180</v>
       </c>
-      <c r="O3" s="92">
+      <c r="O3" s="97">
         <f>N3-M3</f>
         <v>86.11</v>
       </c>
@@ -2938,39 +2953,39 @@
       <c r="E4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>'Cost Calculator'!J4</f>
         <v>96.8335</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="81">
         <v>200</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="88">
         <f t="shared" si="0"/>
         <v>103.1665</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="89">
         <f>'Cost Calculator'!K4</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="90">
         <v>80</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="89">
         <f t="shared" si="1"/>
         <v>48.0324417857143</v>
       </c>
-      <c r="M4" s="91">
+      <c r="M4" s="96">
         <f>'Cost Calculator'!L4</f>
         <v>93.73</v>
       </c>
-      <c r="N4" s="92">
+      <c r="N4" s="97">
         <v>180</v>
       </c>
-      <c r="O4" s="92">
+      <c r="O4" s="97">
         <f>N4-M4</f>
         <v>86.27</v>
       </c>
@@ -2994,29 +3009,29 @@
       <c r="F5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="81">
         <f>'Cost Calculator'!J5</f>
         <v>105.9835</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="81">
         <v>200</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="88">
         <f t="shared" si="0"/>
         <v>94.0165</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="89">
         <f>'Cost Calculator'!K5</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="90">
         <v>80</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="89">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M5" s="93"/>
+      <c r="M5" s="98"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
@@ -3039,29 +3054,29 @@
       <c r="F6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="81">
         <f>'Cost Calculator'!J6</f>
         <v>105.9835</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="81">
         <v>200</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="88">
         <f t="shared" si="0"/>
         <v>94.0165</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="89">
         <f>'Cost Calculator'!K6</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="90">
         <v>80</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="89">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
     </row>
@@ -3084,36 +3099,36 @@
       <c r="F7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="81">
         <f>'Cost Calculator'!J7</f>
         <v>126.1585</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="81">
         <v>200</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="88">
         <f t="shared" si="0"/>
         <v>73.8415</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="89">
         <f>'Cost Calculator'!K7</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="90">
         <v>80</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="89">
         <f t="shared" si="1"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="96">
         <f>'Cost Calculator'!L7</f>
         <v>110.81</v>
       </c>
-      <c r="N7" s="92">
+      <c r="N7" s="97">
         <v>180</v>
       </c>
-      <c r="O7" s="92">
+      <c r="O7" s="97">
         <f>N7-M7</f>
         <v>69.19</v>
       </c>
@@ -3137,36 +3152,36 @@
       <c r="F8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="81">
         <f>'Cost Calculator'!J8</f>
         <v>102.6085</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="81">
         <v>200</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="88">
         <f t="shared" si="0"/>
         <v>97.3915</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="89">
         <f>'Cost Calculator'!K8</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="90">
         <v>80</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="89">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M8" s="91">
+      <c r="M8" s="96">
         <f>'Cost Calculator'!L8</f>
         <v>74.81</v>
       </c>
-      <c r="N8" s="92">
+      <c r="N8" s="97">
         <v>180</v>
       </c>
-      <c r="O8" s="92">
+      <c r="O8" s="97">
         <f>N8-M8</f>
         <v>105.19</v>
       </c>
@@ -3190,36 +3205,36 @@
       <c r="F9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="81">
         <f>'Cost Calculator'!J9</f>
         <v>90.7345</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="81">
         <v>200</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="88">
         <f t="shared" si="0"/>
         <v>109.2655</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="89">
         <f>'Cost Calculator'!K9</f>
         <v>30.2737857142857</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="90">
         <v>80</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="89">
         <f t="shared" si="1"/>
         <v>49.7262142857143</v>
       </c>
-      <c r="M9" s="91">
+      <c r="M9" s="96">
         <f>'Cost Calculator'!L9</f>
         <v>91.13</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="97">
         <v>180</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="97">
         <f>N9-M9</f>
         <v>88.87</v>
       </c>
@@ -3243,29 +3258,29 @@
       <c r="F10" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="81">
         <f>'Cost Calculator'!J10</f>
         <v>137.8585</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="81">
         <v>200</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="88">
         <f t="shared" si="0"/>
         <v>62.1415</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="89">
         <f>'Cost Calculator'!K10</f>
         <v>43.3637857142857</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="90">
         <v>80</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="89">
         <f t="shared" si="1"/>
         <v>36.6362142857143</v>
       </c>
-      <c r="M10" s="93"/>
+      <c r="M10" s="98"/>
       <c r="N10" s="71"/>
       <c r="O10" s="71"/>
     </row>
@@ -3288,36 +3303,36 @@
       <c r="F11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="81">
         <f>'Cost Calculator'!J11</f>
         <v>102.6085</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="81">
         <v>200</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="88">
         <f t="shared" si="0"/>
         <v>97.3915</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="89">
         <f>'Cost Calculator'!K11</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="90">
         <v>80</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="89">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M11" s="91" t="e">
+      <c r="M11" s="96" t="e">
         <f>'Cost Calculator'!L11</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="92">
+      <c r="N11" s="97">
         <v>180</v>
       </c>
-      <c r="O11" s="92" t="e">
+      <c r="O11" s="97" t="e">
         <f t="shared" ref="O11:O16" si="2">N11-M11</f>
         <v>#REF!</v>
       </c>
@@ -3341,36 +3356,36 @@
       <c r="F12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="81">
         <f>'Cost Calculator'!J12</f>
         <v>95.5585</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="81">
         <v>200</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="88">
         <f t="shared" si="0"/>
         <v>104.4415</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="89">
         <f>'Cost Calculator'!K12</f>
         <v>31.6137857142857</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="90">
         <v>80</v>
       </c>
-      <c r="L12" s="84">
+      <c r="L12" s="89">
         <f t="shared" si="1"/>
         <v>48.3862142857143</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="96">
         <f>'Cost Calculator'!L12</f>
         <v>93.81</v>
       </c>
-      <c r="N12" s="92">
+      <c r="N12" s="97">
         <v>180</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="97">
         <f t="shared" si="2"/>
         <v>86.19</v>
       </c>
@@ -3394,36 +3409,36 @@
       <c r="F13" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="81">
         <f>'Cost Calculator'!J13</f>
         <v>123.1885</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="81">
         <v>200</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="88">
         <f t="shared" si="0"/>
         <v>76.8115</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="89">
         <f>'Cost Calculator'!K13</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="90">
         <v>80</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="89">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="96">
         <f>'Cost Calculator'!L13</f>
         <v>109.16</v>
       </c>
-      <c r="N13" s="92">
+      <c r="N13" s="97">
         <v>180</v>
       </c>
-      <c r="O13" s="92">
+      <c r="O13" s="97">
         <f t="shared" si="2"/>
         <v>70.84</v>
       </c>
@@ -3447,89 +3462,89 @@
       <c r="F14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="81">
         <f>'Cost Calculator'!J14</f>
         <v>108.1585</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="81">
         <v>200</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="88">
         <f t="shared" si="0"/>
         <v>91.8415</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="89">
         <f>'Cost Calculator'!K14</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="90">
         <v>80</v>
       </c>
-      <c r="L14" s="84">
+      <c r="L14" s="89">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M14" s="91">
+      <c r="M14" s="96">
         <f>'Cost Calculator'!L14</f>
         <v>74.81</v>
       </c>
-      <c r="N14" s="92">
+      <c r="N14" s="97">
         <v>180</v>
       </c>
-      <c r="O14" s="92">
+      <c r="O14" s="97">
         <f t="shared" si="2"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="15" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="81">
         <f>'Cost Calculator'!J15</f>
         <v>101.3335</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="81">
         <v>200</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="88">
         <f t="shared" si="0"/>
         <v>98.6665</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="89">
         <f>'Cost Calculator'!K15</f>
         <v>33.2175082142857</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="90">
         <v>80</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="89">
         <f t="shared" si="1"/>
         <v>46.7824917857143</v>
       </c>
-      <c r="M15" s="91">
+      <c r="M15" s="96">
         <f>'Cost Calculator'!L15</f>
         <v>96.13</v>
       </c>
-      <c r="N15" s="92">
+      <c r="N15" s="97">
         <v>180</v>
       </c>
-      <c r="O15" s="92">
+      <c r="O15" s="97">
         <f t="shared" si="2"/>
         <v>83.87</v>
       </c>
@@ -3553,36 +3568,36 @@
       <c r="F16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="81">
         <f>'Cost Calculator'!J16</f>
         <v>129.8305</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="81">
         <v>200</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="88">
         <f>H17-G16</f>
         <v>70.1695</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="89">
         <f>'Cost Calculator'!K16</f>
         <v>41.1337857142857</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="90">
         <v>80</v>
       </c>
-      <c r="L16" s="84">
+      <c r="L16" s="89">
         <f t="shared" si="1"/>
         <v>38.8662142857143</v>
       </c>
-      <c r="M16" s="91">
+      <c r="M16" s="96">
         <f>'Cost Calculator'!L16</f>
         <v>112.85</v>
       </c>
-      <c r="N16" s="92">
+      <c r="N16" s="97">
         <v>180</v>
       </c>
-      <c r="O16" s="92">
+      <c r="O16" s="97">
         <f t="shared" si="2"/>
         <v>67.15</v>
       </c>
@@ -3606,29 +3621,29 @@
       <c r="F17" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="81">
         <f>'Cost Calculator'!J17</f>
         <v>143.2585</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="81">
         <v>200</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="88">
         <f>H18-G17</f>
         <v>56.7415</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="89">
         <f>'Cost Calculator'!K17</f>
         <v>44.8637857142857</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="90">
         <v>80</v>
       </c>
-      <c r="L17" s="84">
+      <c r="L17" s="89">
         <f t="shared" si="1"/>
         <v>35.1362142857143</v>
       </c>
-      <c r="M17" s="93"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="71"/>
       <c r="O17" s="71"/>
     </row>
@@ -3651,36 +3666,36 @@
       <c r="F18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="81">
         <f>'Cost Calculator'!J18</f>
         <v>102.6085</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="81">
         <v>200</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="88">
         <f t="shared" ref="I18:I29" si="3">H18-G18</f>
         <v>97.3915</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="89">
         <f>'Cost Calculator'!K18</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="90">
         <v>80</v>
       </c>
-      <c r="L18" s="84">
+      <c r="L18" s="89">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M18" s="91" t="e">
+      <c r="M18" s="96" t="e">
         <f>'Cost Calculator'!L18</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="92">
+      <c r="N18" s="97">
         <v>180</v>
       </c>
-      <c r="O18" s="92" t="e">
+      <c r="O18" s="97" t="e">
         <f t="shared" ref="O18:O24" si="4">N18-M18</f>
         <v>#REF!</v>
       </c>
@@ -3704,36 +3719,36 @@
       <c r="F19" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="81">
         <f>'Cost Calculator'!J19</f>
         <v>123.1885</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="81">
         <v>200</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="88">
         <f t="shared" si="3"/>
         <v>76.8115</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="89">
         <f>'Cost Calculator'!K19</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="90">
         <v>80</v>
       </c>
-      <c r="L19" s="84">
+      <c r="L19" s="89">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="96">
         <f>'Cost Calculator'!L20</f>
         <v>92.69</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="97">
         <v>180</v>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="97">
         <f t="shared" si="4"/>
         <v>87.31</v>
       </c>
@@ -3757,36 +3772,36 @@
       <c r="F20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="81">
         <f>'Cost Calculator'!J20</f>
         <v>94.8835</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="81">
         <v>200</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="88">
         <f t="shared" si="3"/>
         <v>105.1165</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="89">
         <f>'Cost Calculator'!K20</f>
         <v>31.4259132142857</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="90">
         <v>80</v>
       </c>
-      <c r="L20" s="84">
+      <c r="L20" s="89">
         <f t="shared" si="1"/>
         <v>48.5740867857143</v>
       </c>
-      <c r="M20" s="91">
+      <c r="M20" s="96">
         <f>'Cost Calculator'!L19</f>
         <v>109.16</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N20" s="97">
         <v>180</v>
       </c>
-      <c r="O20" s="92">
+      <c r="O20" s="97">
         <f t="shared" si="4"/>
         <v>70.84</v>
       </c>
@@ -3810,36 +3825,36 @@
       <c r="F21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="81">
         <f>'Cost Calculator'!J21</f>
         <v>102.6085</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="81">
         <v>200</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="88">
         <f t="shared" si="3"/>
         <v>97.3915</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="89">
         <f>'Cost Calculator'!K21</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="90">
         <v>80</v>
       </c>
-      <c r="L21" s="84">
+      <c r="L21" s="89">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M21" s="91" t="e">
+      <c r="M21" s="96" t="e">
         <f>'Cost Calculator'!L21</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="92">
+      <c r="N21" s="97">
         <v>180</v>
       </c>
-      <c r="O21" s="92" t="e">
+      <c r="O21" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3863,89 +3878,89 @@
       <c r="F22" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="81">
         <f>'Cost Calculator'!J22</f>
         <v>102.6085</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="81">
         <v>200</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="88">
         <f t="shared" si="3"/>
         <v>97.3915</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="89">
         <f>'Cost Calculator'!K22</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="90">
         <v>80</v>
       </c>
-      <c r="L22" s="84">
+      <c r="L22" s="89">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M22" s="91" t="e">
+      <c r="M22" s="96" t="e">
         <f>'Cost Calculator'!L22</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="92">
+      <c r="N22" s="97">
         <v>180</v>
       </c>
-      <c r="O22" s="92" t="e">
+      <c r="O22" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="81">
         <f>'Cost Calculator'!J23</f>
         <v>108.1585</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="81">
         <v>200</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="88">
         <f t="shared" si="3"/>
         <v>91.8415</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="89">
         <f>'Cost Calculator'!K23</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="90">
         <v>80</v>
       </c>
-      <c r="L23" s="84">
+      <c r="L23" s="89">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M23" s="91">
+      <c r="M23" s="96">
         <f>'Cost Calculator'!L23</f>
         <v>74.81</v>
       </c>
-      <c r="N23" s="92">
+      <c r="N23" s="97">
         <v>180</v>
       </c>
-      <c r="O23" s="92">
+      <c r="O23" s="97">
         <f t="shared" si="4"/>
         <v>105.19</v>
       </c>
@@ -3969,82 +3984,82 @@
       <c r="F24" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="81">
         <f>'Cost Calculator'!J24</f>
         <v>149.9905</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="81">
         <v>200</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="88">
         <f t="shared" si="3"/>
         <v>50.0095</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="89">
         <f>'Cost Calculator'!K24</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K24" s="85">
+      <c r="K24" s="90">
         <v>80</v>
       </c>
-      <c r="L24" s="84">
+      <c r="L24" s="89">
         <f t="shared" si="1"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M24" s="91">
+      <c r="M24" s="96">
         <f>'Cost Calculator'!L24</f>
         <v>124.05</v>
       </c>
-      <c r="N24" s="92">
+      <c r="N24" s="97">
         <v>180</v>
       </c>
-      <c r="O24" s="92">
+      <c r="O24" s="97">
         <f t="shared" si="4"/>
         <v>55.95</v>
       </c>
     </row>
     <row r="25" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="81">
         <f>'Cost Calculator'!J25</f>
         <v>114.4585</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="81">
         <v>200</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="88">
         <f t="shared" si="3"/>
         <v>85.5415</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="89">
         <f>'Cost Calculator'!K25</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K25" s="85">
+      <c r="K25" s="90">
         <v>80</v>
       </c>
-      <c r="L25" s="84">
+      <c r="L25" s="89">
         <f t="shared" si="1"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M25" s="93"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
     </row>
@@ -4067,29 +4082,29 @@
       <c r="F26" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="81">
         <f>'Cost Calculator'!J26</f>
         <v>97.9585</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="81">
         <v>200</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="88">
         <f t="shared" si="3"/>
         <v>102.0415</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="89">
         <f>'Cost Calculator'!K26</f>
         <v>32.2800457142857</v>
       </c>
-      <c r="K26" s="85">
+      <c r="K26" s="90">
         <v>80</v>
       </c>
-      <c r="L26" s="84">
+      <c r="L26" s="89">
         <f t="shared" si="1"/>
         <v>47.7199542857143</v>
       </c>
-      <c r="M26" s="93"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="71"/>
       <c r="O26" s="71"/>
     </row>
@@ -4112,29 +4127,29 @@
       <c r="F27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="81">
         <f>'Cost Calculator'!J27</f>
         <v>119.6785</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="81">
         <v>200</v>
       </c>
-      <c r="I27" s="83">
+      <c r="I27" s="88">
         <f t="shared" si="3"/>
         <v>80.3215</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="89">
         <f>'Cost Calculator'!K27</f>
         <v>38.3137857142857</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="90">
         <v>80</v>
       </c>
-      <c r="L27" s="84">
+      <c r="L27" s="89">
         <f t="shared" si="1"/>
         <v>41.6862142857143</v>
       </c>
-      <c r="M27" s="93"/>
+      <c r="M27" s="98"/>
       <c r="N27" s="71"/>
       <c r="O27" s="71"/>
     </row>
@@ -4157,36 +4172,36 @@
       <c r="F28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="81">
         <f>'Cost Calculator'!J28</f>
         <v>89.0785</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="81">
         <v>200</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="88">
         <f t="shared" si="3"/>
         <v>110.9215</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="89">
         <f>'Cost Calculator'!K28</f>
         <v>29.8137857142857</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="90">
         <v>80</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="89">
         <f t="shared" si="1"/>
         <v>50.1862142857143</v>
       </c>
-      <c r="M28" s="91">
+      <c r="M28" s="96">
         <f>'Cost Calculator'!L28</f>
         <v>90.21</v>
       </c>
-      <c r="N28" s="92">
+      <c r="N28" s="97">
         <v>180</v>
       </c>
-      <c r="O28" s="92">
+      <c r="O28" s="97">
         <f>N28-M28</f>
         <v>89.79</v>
       </c>
@@ -4210,179 +4225,179 @@
       <c r="F29" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="81">
         <f>'Cost Calculator'!J29</f>
         <v>105.9835</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="81">
         <v>200</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="88">
         <f t="shared" si="3"/>
         <v>94.0165</v>
       </c>
-      <c r="J29" s="84">
+      <c r="J29" s="89">
         <f>'Cost Calculator'!K29</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="90">
         <v>80</v>
       </c>
-      <c r="L29" s="84">
+      <c r="L29" s="89">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M29" s="91" t="e">
+      <c r="M29" s="96" t="e">
         <f>'Cost Calculator'!L29</f>
         <v>#REF!</v>
       </c>
-      <c r="N29" s="92">
+      <c r="N29" s="97">
         <v>180</v>
       </c>
-      <c r="O29" s="92" t="e">
+      <c r="O29" s="97" t="e">
         <f>N29-M29</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="81">
         <f>'Cost Calculator'!J30</f>
         <v>120.4705</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="81">
         <v>200</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="88">
         <f t="shared" ref="I30:I70" si="5">H30-G30</f>
         <v>79.5295</v>
       </c>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
-      <c r="M30" s="93"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
     </row>
     <row r="31" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="81">
         <f>'Cost Calculator'!J31</f>
         <v>104.4835</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="81">
         <v>200</v>
       </c>
-      <c r="I31" s="83">
+      <c r="I31" s="88">
         <f t="shared" si="5"/>
         <v>95.5165</v>
       </c>
-      <c r="J31" s="84">
+      <c r="J31" s="89">
         <f>'Cost Calculator'!K31</f>
         <v>34.0924732142857</v>
       </c>
-      <c r="K31" s="85">
+      <c r="K31" s="90">
         <v>80</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="89">
         <f t="shared" ref="L31:L41" si="6">K31-J31</f>
         <v>45.9075267857143</v>
       </c>
-      <c r="M31" s="91" t="e">
+      <c r="M31" s="96" t="e">
         <f>'Cost Calculator'!L31</f>
         <v>#REF!</v>
       </c>
-      <c r="N31" s="92">
+      <c r="N31" s="97">
         <v>180</v>
       </c>
-      <c r="O31" s="92" t="e">
+      <c r="O31" s="97" t="e">
         <f t="shared" ref="O31:O36" si="7">N31-M31</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="81">
         <f>'Cost Calculator'!J32</f>
         <v>108.1585</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="81">
         <v>200</v>
       </c>
-      <c r="I32" s="83">
+      <c r="I32" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="89">
         <f>'Cost Calculator'!K32</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K32" s="85">
+      <c r="K32" s="90">
         <v>80</v>
       </c>
-      <c r="L32" s="84">
+      <c r="L32" s="89">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M32" s="91">
+      <c r="M32" s="96">
         <f>'Cost Calculator'!L32</f>
         <v>74.81</v>
       </c>
-      <c r="N32" s="92">
+      <c r="N32" s="97">
         <v>180</v>
       </c>
-      <c r="O32" s="92">
+      <c r="O32" s="97">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
@@ -4406,89 +4421,89 @@
       <c r="F33" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="81">
         <f>'Cost Calculator'!J33</f>
         <v>126.1585</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="81">
         <v>200</v>
       </c>
-      <c r="I33" s="83">
+      <c r="I33" s="88">
         <f t="shared" si="5"/>
         <v>73.8415</v>
       </c>
-      <c r="J33" s="84">
+      <c r="J33" s="89">
         <f>'Cost Calculator'!K33</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K33" s="85">
+      <c r="K33" s="90">
         <v>80</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L33" s="89">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M33" s="91">
+      <c r="M33" s="96">
         <f>'Cost Calculator'!L35</f>
         <v>92.309993</v>
       </c>
-      <c r="N33" s="92">
+      <c r="N33" s="97">
         <v>180</v>
       </c>
-      <c r="O33" s="92">
+      <c r="O33" s="97">
         <f t="shared" si="7"/>
         <v>87.690007</v>
       </c>
     </row>
     <row r="34" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="81">
         <f>'Cost Calculator'!J34</f>
         <v>126.1585</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="81">
         <v>200</v>
       </c>
-      <c r="I34" s="83">
+      <c r="I34" s="88">
         <f t="shared" si="5"/>
         <v>73.8415</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="89">
         <f>'Cost Calculator'!K34</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K34" s="85">
+      <c r="K34" s="90">
         <v>80</v>
       </c>
-      <c r="L34" s="84">
+      <c r="L34" s="89">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M34" s="91" t="e">
+      <c r="M34" s="96" t="e">
         <f>'Cost Calculator'!L36</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="92">
+      <c r="N34" s="97">
         <v>180</v>
       </c>
-      <c r="O34" s="92" t="e">
+      <c r="O34" s="97" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
@@ -4512,36 +4527,36 @@
       <c r="F35" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="81">
         <f>'Cost Calculator'!J35</f>
         <v>92.8585</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="81">
         <v>200</v>
       </c>
-      <c r="I35" s="83">
+      <c r="I35" s="88">
         <f t="shared" si="5"/>
         <v>107.1415</v>
       </c>
-      <c r="J35" s="84">
+      <c r="J35" s="89">
         <f>'Cost Calculator'!K35</f>
         <v>30.8634357142857</v>
       </c>
-      <c r="K35" s="85">
+      <c r="K35" s="90">
         <v>80</v>
       </c>
-      <c r="L35" s="84">
+      <c r="L35" s="89">
         <f t="shared" si="6"/>
         <v>49.1365642857143</v>
       </c>
-      <c r="M35" s="91">
+      <c r="M35" s="96">
         <f>'Cost Calculator'!L37</f>
         <v>74.81</v>
       </c>
-      <c r="N35" s="92">
+      <c r="N35" s="97">
         <v>180</v>
       </c>
-      <c r="O35" s="92">
+      <c r="O35" s="97">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
@@ -4562,85 +4577,85 @@
       <c r="E36" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="81">
         <f>'Cost Calculator'!J36</f>
         <v>109.7335</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="81">
         <v>200</v>
       </c>
-      <c r="I36" s="83">
+      <c r="I36" s="88">
         <f t="shared" si="5"/>
         <v>90.2665</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="89">
         <f>'Cost Calculator'!K36</f>
         <v>35.5507482142857</v>
       </c>
-      <c r="K36" s="85">
+      <c r="K36" s="90">
         <v>80</v>
       </c>
-      <c r="L36" s="84">
+      <c r="L36" s="89">
         <f t="shared" si="6"/>
         <v>44.4492517857143</v>
       </c>
-      <c r="M36" s="91">
+      <c r="M36" s="96">
         <f>'Cost Calculator'!L38</f>
         <v>107.31</v>
       </c>
-      <c r="N36" s="92">
+      <c r="N36" s="97">
         <v>180</v>
       </c>
-      <c r="O36" s="92">
+      <c r="O36" s="97">
         <f t="shared" si="7"/>
         <v>72.69</v>
       </c>
     </row>
     <row r="37" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="81">
         <f>'Cost Calculator'!J37</f>
         <v>119.8585</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="81">
         <v>200</v>
       </c>
-      <c r="I37" s="83">
+      <c r="I37" s="88">
         <f t="shared" si="5"/>
         <v>80.1415</v>
       </c>
-      <c r="J37" s="84">
+      <c r="J37" s="89">
         <f>'Cost Calculator'!K37</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K37" s="85">
+      <c r="K37" s="90">
         <v>80</v>
       </c>
-      <c r="L37" s="84">
+      <c r="L37" s="89">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M37" s="93"/>
+      <c r="M37" s="98"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
@@ -4663,36 +4678,36 @@
       <c r="F38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="81">
         <f>'Cost Calculator'!J38</f>
         <v>119.8585</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="81">
         <v>200</v>
       </c>
-      <c r="I38" s="83">
+      <c r="I38" s="88">
         <f t="shared" si="5"/>
         <v>80.1415</v>
       </c>
-      <c r="J38" s="84">
+      <c r="J38" s="89">
         <f>'Cost Calculator'!K38</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K38" s="85">
+      <c r="K38" s="90">
         <v>80</v>
       </c>
-      <c r="L38" s="84">
+      <c r="L38" s="89">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M38" s="91">
+      <c r="M38" s="96">
         <f>'Cost Calculator'!L41</f>
         <v>0</v>
       </c>
-      <c r="N38" s="92">
+      <c r="N38" s="97">
         <v>180</v>
       </c>
-      <c r="O38" s="92">
+      <c r="O38" s="97">
         <f>N38-M38</f>
         <v>180</v>
       </c>
@@ -4716,29 +4731,29 @@
       <c r="F39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="81">
         <f>'Cost Calculator'!J39</f>
         <v>98.4835</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="81">
         <v>200</v>
       </c>
-      <c r="I39" s="83">
+      <c r="I39" s="88">
         <f t="shared" si="5"/>
         <v>101.5165</v>
       </c>
-      <c r="J39" s="84">
+      <c r="J39" s="89">
         <f>'Cost Calculator'!K39</f>
         <v>32.4258732142857</v>
       </c>
-      <c r="K39" s="85">
+      <c r="K39" s="90">
         <v>80</v>
       </c>
-      <c r="L39" s="84">
+      <c r="L39" s="89">
         <f t="shared" si="6"/>
         <v>47.5741267857143</v>
       </c>
-      <c r="M39" s="93"/>
+      <c r="M39" s="98"/>
       <c r="N39" s="71"/>
       <c r="O39" s="71"/>
     </row>
@@ -4761,29 +4776,29 @@
       <c r="F40" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="81">
         <f>'Cost Calculator'!J40</f>
         <v>108.1585</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="81">
         <v>200</v>
       </c>
-      <c r="I40" s="83">
+      <c r="I40" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J40" s="84">
+      <c r="J40" s="89">
         <f>'Cost Calculator'!K40</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K40" s="85">
+      <c r="K40" s="90">
         <v>80</v>
       </c>
-      <c r="L40" s="84">
+      <c r="L40" s="89">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M40" s="93"/>
+      <c r="M40" s="98"/>
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
     </row>
@@ -4806,36 +4821,36 @@
       <c r="F41" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="81">
         <f>'Cost Calculator'!J41</f>
         <v>102.6085</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="81">
         <v>200</v>
       </c>
-      <c r="I41" s="83">
+      <c r="I41" s="88">
         <f t="shared" si="5"/>
         <v>97.3915</v>
       </c>
-      <c r="J41" s="84">
+      <c r="J41" s="89">
         <f>'Cost Calculator'!K41</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K41" s="85">
+      <c r="K41" s="90">
         <v>80</v>
       </c>
-      <c r="L41" s="84">
+      <c r="L41" s="89">
         <f t="shared" si="6"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M41" s="91">
+      <c r="M41" s="96">
         <f>'Cost Calculator'!L45</f>
         <v>100.81</v>
       </c>
-      <c r="N41" s="92">
+      <c r="N41" s="97">
         <v>180</v>
       </c>
-      <c r="O41" s="92">
+      <c r="O41" s="97">
         <f>N41-M41</f>
         <v>79.19</v>
       </c>
@@ -4859,21 +4874,21 @@
       <c r="F42" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="81">
         <f>'Cost Calculator'!J42</f>
         <v>105.6085</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="81">
         <v>200</v>
       </c>
-      <c r="I42" s="83">
+      <c r="I42" s="88">
         <f t="shared" si="5"/>
         <v>94.3915</v>
       </c>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
-      <c r="M42" s="93"/>
+      <c r="M42" s="98"/>
       <c r="N42" s="71"/>
       <c r="O42" s="71"/>
     </row>
@@ -4896,29 +4911,29 @@
       <c r="F43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="81">
         <f>'Cost Calculator'!J43</f>
         <v>102.7585</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="81">
         <v>200</v>
       </c>
-      <c r="I43" s="83">
+      <c r="I43" s="88">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J43" s="84">
+      <c r="J43" s="89">
         <f>'Cost Calculator'!K43</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K43" s="85">
+      <c r="K43" s="90">
         <v>80</v>
       </c>
-      <c r="L43" s="84">
+      <c r="L43" s="89">
         <f t="shared" ref="L43:L48" si="8">K43-J43</f>
         <v>46.3862142857143</v>
       </c>
-      <c r="M43" s="93"/>
+      <c r="M43" s="98"/>
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
     </row>
@@ -4941,81 +4956,81 @@
       <c r="F44" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="81">
         <f>'Cost Calculator'!J44</f>
         <v>102.7585</v>
       </c>
-      <c r="H44" s="77">
+      <c r="H44" s="81">
         <v>200</v>
       </c>
-      <c r="I44" s="83">
+      <c r="I44" s="88">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J44" s="84">
+      <c r="J44" s="89">
         <f>'Cost Calculator'!K44</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K44" s="85">
+      <c r="K44" s="90">
         <v>80</v>
       </c>
-      <c r="L44" s="84">
+      <c r="L44" s="89">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="98"/>
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
     <row r="45" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="73" t="s">
+      <c r="F45" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="81">
         <f>'Cost Calculator'!J45</f>
         <v>108.1585</v>
       </c>
-      <c r="H45" s="77">
+      <c r="H45" s="81">
         <v>200</v>
       </c>
-      <c r="I45" s="83">
+      <c r="I45" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J45" s="84">
+      <c r="J45" s="89">
         <f>'Cost Calculator'!K45</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K45" s="85">
+      <c r="K45" s="90">
         <v>80</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L45" s="89">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M45" s="91">
+      <c r="M45" s="96">
         <f>'Cost Calculator'!L48</f>
         <v>97.81</v>
       </c>
-      <c r="N45" s="92">
+      <c r="N45" s="97">
         <v>180</v>
       </c>
-      <c r="O45" s="92">
+      <c r="O45" s="97">
         <f>N45-M45</f>
         <v>82.19</v>
       </c>
@@ -5039,29 +5054,29 @@
       <c r="F46" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="81">
         <f>'Cost Calculator'!J46</f>
         <v>102.7585</v>
       </c>
-      <c r="H46" s="77">
+      <c r="H46" s="81">
         <v>200</v>
       </c>
-      <c r="I46" s="83">
+      <c r="I46" s="88">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J46" s="84">
+      <c r="J46" s="89">
         <f>'Cost Calculator'!K46</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K46" s="85">
+      <c r="K46" s="90">
         <v>80</v>
       </c>
-      <c r="L46" s="84">
+      <c r="L46" s="89">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M46" s="93"/>
+      <c r="M46" s="98"/>
       <c r="N46" s="71"/>
       <c r="O46" s="71"/>
     </row>
@@ -5084,36 +5099,36 @@
       <c r="F47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="81">
         <f>'Cost Calculator'!J47</f>
         <v>108.1585</v>
       </c>
-      <c r="H47" s="77">
+      <c r="H47" s="81">
         <v>200</v>
       </c>
-      <c r="I47" s="83">
+      <c r="I47" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J47" s="84">
+      <c r="J47" s="89">
         <f>'Cost Calculator'!K47</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K47" s="85">
+      <c r="K47" s="90">
         <v>80</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L47" s="89">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M47" s="91">
+      <c r="M47" s="96">
         <f>'Cost Calculator'!L53</f>
         <v>74.81</v>
       </c>
-      <c r="N47" s="92">
+      <c r="N47" s="97">
         <v>180</v>
       </c>
-      <c r="O47" s="92">
+      <c r="O47" s="97">
         <f>N47-M47</f>
         <v>105.19</v>
       </c>
@@ -5137,36 +5152,36 @@
       <c r="F48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="81">
         <f>'Cost Calculator'!J48</f>
         <v>102.7585</v>
       </c>
-      <c r="H48" s="77">
+      <c r="H48" s="81">
         <v>200</v>
       </c>
-      <c r="I48" s="83">
+      <c r="I48" s="88">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J48" s="84">
+      <c r="J48" s="89">
         <f>'Cost Calculator'!K48</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K48" s="85">
+      <c r="K48" s="90">
         <v>80</v>
       </c>
-      <c r="L48" s="84">
+      <c r="L48" s="89">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M48" s="91">
+      <c r="M48" s="96">
         <f>'Cost Calculator'!L54</f>
         <v>74.81</v>
       </c>
-      <c r="N48" s="92">
+      <c r="N48" s="97">
         <v>180</v>
       </c>
-      <c r="O48" s="92">
+      <c r="O48" s="97">
         <f>N48-M48</f>
         <v>105.19</v>
       </c>
@@ -5190,95 +5205,95 @@
       <c r="F49" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="81">
         <f>'Cost Calculator'!J49</f>
         <v>100.3585</v>
       </c>
-      <c r="H49" s="77">
+      <c r="H49" s="81">
         <v>200</v>
       </c>
-      <c r="I49" s="83">
+      <c r="I49" s="88">
         <f t="shared" si="5"/>
         <v>99.6415</v>
       </c>
       <c r="J49" s="71"/>
       <c r="K49" s="71"/>
       <c r="L49" s="71"/>
-      <c r="M49" s="93"/>
+      <c r="M49" s="98"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
     <row r="50" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="E50" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="81">
         <f>'Cost Calculator'!J50</f>
         <v>105.6085</v>
       </c>
-      <c r="H50" s="77">
+      <c r="H50" s="81">
         <v>200</v>
       </c>
-      <c r="I50" s="83">
+      <c r="I50" s="88">
         <f t="shared" si="5"/>
         <v>94.3915</v>
       </c>
       <c r="J50" s="71"/>
       <c r="K50" s="71"/>
       <c r="L50" s="71"/>
-      <c r="M50" s="93"/>
+      <c r="M50" s="98"/>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
     </row>
     <row r="51" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="81">
         <f>'Cost Calculator'!J51</f>
         <v>100.7335</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="81">
         <v>200</v>
       </c>
-      <c r="I51" s="83">
+      <c r="I51" s="88">
         <f t="shared" si="5"/>
         <v>99.2665</v>
       </c>
       <c r="J51" s="71"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
-      <c r="M51" s="93"/>
+      <c r="M51" s="98"/>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
     </row>
@@ -5295,42 +5310,42 @@
       <c r="D52" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="80" t="s">
+      <c r="E52" s="85" t="s">
         <v>175</v>
       </c>
       <c r="F52" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="77">
+      <c r="G52" s="81">
         <f>'Cost Calculator'!J52</f>
         <v>114.4585</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="81">
         <v>200</v>
       </c>
-      <c r="I52" s="83">
+      <c r="I52" s="88">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J52" s="84">
+      <c r="J52" s="89">
         <f>'Cost Calculator'!K52</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K52" s="85">
+      <c r="K52" s="90">
         <v>80</v>
       </c>
-      <c r="L52" s="84">
+      <c r="L52" s="89">
         <f t="shared" ref="L52:L57" si="9">K52-J52</f>
         <v>43.1362142857143</v>
       </c>
-      <c r="M52" s="91">
+      <c r="M52" s="96">
         <f>'Cost Calculator'!L55</f>
         <v>107.33</v>
       </c>
-      <c r="N52" s="92">
+      <c r="N52" s="97">
         <v>180</v>
       </c>
-      <c r="O52" s="92">
+      <c r="O52" s="97">
         <f>N52-M52</f>
         <v>72.67</v>
       </c>
@@ -5354,36 +5369,36 @@
       <c r="F53" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="77">
+      <c r="G53" s="81">
         <f>'Cost Calculator'!J53</f>
         <v>102.7585</v>
       </c>
-      <c r="H53" s="77">
+      <c r="H53" s="81">
         <v>200</v>
       </c>
-      <c r="I53" s="83">
+      <c r="I53" s="88">
         <f t="shared" si="5"/>
         <v>97.2415</v>
       </c>
-      <c r="J53" s="84">
+      <c r="J53" s="89">
         <f>'Cost Calculator'!K53</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K53" s="85">
+      <c r="K53" s="90">
         <v>80</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="89">
         <f t="shared" si="9"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M53" s="91">
+      <c r="M53" s="96">
         <f>'Cost Calculator'!L57</f>
         <v>104.31</v>
       </c>
-      <c r="N53" s="92">
+      <c r="N53" s="97">
         <v>180</v>
       </c>
-      <c r="O53" s="92">
+      <c r="O53" s="97">
         <f>N53-M53</f>
         <v>75.69</v>
       </c>
@@ -5407,89 +5422,89 @@
       <c r="F54" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="77">
+      <c r="G54" s="81">
         <f>'Cost Calculator'!J54</f>
         <v>108.1585</v>
       </c>
-      <c r="H54" s="77">
+      <c r="H54" s="81">
         <v>200</v>
       </c>
-      <c r="I54" s="83">
+      <c r="I54" s="88">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J54" s="84">
+      <c r="J54" s="89">
         <f>'Cost Calculator'!K54</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K54" s="85">
+      <c r="K54" s="90">
         <v>80</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="89">
         <f t="shared" si="9"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M54" s="91">
+      <c r="M54" s="96">
         <f>'Cost Calculator'!L61</f>
         <v>92.33</v>
       </c>
-      <c r="N54" s="92">
+      <c r="N54" s="97">
         <v>180</v>
       </c>
-      <c r="O54" s="92">
+      <c r="O54" s="97">
         <f>N54-M54</f>
         <v>87.67</v>
       </c>
     </row>
     <row r="55" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="75" t="s">
+      <c r="E55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="75" t="s">
+      <c r="F55" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="77">
+      <c r="G55" s="81">
         <f>'Cost Calculator'!J55</f>
         <v>119.8945</v>
       </c>
-      <c r="H55" s="77">
+      <c r="H55" s="81">
         <v>200</v>
       </c>
-      <c r="I55" s="83">
+      <c r="I55" s="88">
         <f t="shared" si="5"/>
         <v>80.1055</v>
       </c>
-      <c r="J55" s="84">
+      <c r="J55" s="89">
         <f>'Cost Calculator'!K55</f>
         <v>38.3737857142857</v>
       </c>
-      <c r="K55" s="85">
+      <c r="K55" s="90">
         <v>80</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="89">
         <f t="shared" si="9"/>
         <v>41.6262142857143</v>
       </c>
-      <c r="M55" s="91">
+      <c r="M55" s="96">
         <f>'Cost Calculator'!L62</f>
         <v>122.93</v>
       </c>
-      <c r="N55" s="92">
+      <c r="N55" s="97">
         <v>180</v>
       </c>
-      <c r="O55" s="92">
+      <c r="O55" s="97">
         <f>N55-M55</f>
         <v>57.07</v>
       </c>
@@ -5513,29 +5528,29 @@
       <c r="F56" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="77">
+      <c r="G56" s="81">
         <f>'Cost Calculator'!J56</f>
         <v>114.4585</v>
       </c>
-      <c r="H56" s="77">
+      <c r="H56" s="81">
         <v>200</v>
       </c>
-      <c r="I56" s="83">
+      <c r="I56" s="88">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J56" s="84">
+      <c r="J56" s="89">
         <f>'Cost Calculator'!K56</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K56" s="85">
+      <c r="K56" s="90">
         <v>80</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="89">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M56" s="93"/>
+      <c r="M56" s="98"/>
       <c r="N56" s="71"/>
       <c r="O56" s="71"/>
     </row>
@@ -5552,42 +5567,42 @@
       <c r="D57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="73" t="s">
+      <c r="F57" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="77">
+      <c r="G57" s="81">
         <f>'Cost Calculator'!J57</f>
         <v>114.4585</v>
       </c>
-      <c r="H57" s="77">
+      <c r="H57" s="81">
         <v>200</v>
       </c>
-      <c r="I57" s="83">
+      <c r="I57" s="88">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J57" s="84">
+      <c r="J57" s="89">
         <f>'Cost Calculator'!K57</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K57" s="85">
+      <c r="K57" s="90">
         <v>80</v>
       </c>
-      <c r="L57" s="84">
+      <c r="L57" s="89">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M57" s="94">
+      <c r="M57" s="99">
         <f>'Cost Calculator'!L63</f>
         <v>74.81</v>
       </c>
-      <c r="N57" s="94">
+      <c r="N57" s="99">
         <v>180</v>
       </c>
-      <c r="O57" s="94">
+      <c r="O57" s="99">
         <f>N57-M57</f>
         <v>105.19</v>
       </c>
@@ -5611,14 +5626,14 @@
       <c r="F58" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="77">
+      <c r="G58" s="81">
         <f>'Cost Calculator'!J58</f>
         <v>100.3585</v>
       </c>
-      <c r="H58" s="77">
+      <c r="H58" s="81">
         <v>200</v>
       </c>
-      <c r="I58" s="83">
+      <c r="I58" s="88">
         <f t="shared" si="5"/>
         <v>99.6415</v>
       </c>
@@ -5645,36 +5660,36 @@
       <c r="F59" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="81">
         <f>'Cost Calculator'!J59</f>
         <v>157.3345</v>
       </c>
-      <c r="H59" s="77">
+      <c r="H59" s="81">
         <v>200</v>
       </c>
-      <c r="I59" s="83">
+      <c r="I59" s="88">
         <f t="shared" si="5"/>
         <v>42.6655</v>
       </c>
-      <c r="J59" s="84">
+      <c r="J59" s="89">
         <f>'Cost Calculator'!K59</f>
         <v>48.7737857142857</v>
       </c>
-      <c r="K59" s="85">
+      <c r="K59" s="90">
         <v>80</v>
       </c>
-      <c r="L59" s="84">
+      <c r="L59" s="89">
         <f t="shared" ref="L59:L70" si="10">K59-J59</f>
         <v>31.2262142857143</v>
       </c>
-      <c r="M59" s="94">
+      <c r="M59" s="99">
         <f>'Cost Calculator'!L64</f>
         <v>94.18499225</v>
       </c>
-      <c r="N59" s="94">
+      <c r="N59" s="99">
         <v>180</v>
       </c>
-      <c r="O59" s="94">
+      <c r="O59" s="99">
         <f>N59-M59</f>
         <v>85.81500775</v>
       </c>
@@ -5698,31 +5713,31 @@
       <c r="F60" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="81">
         <f>'Cost Calculator'!J60</f>
         <v>149.9905</v>
       </c>
-      <c r="H60" s="77">
+      <c r="H60" s="81">
         <v>200</v>
       </c>
-      <c r="I60" s="83">
+      <c r="I60" s="88">
         <f t="shared" si="5"/>
         <v>50.0095</v>
       </c>
-      <c r="J60" s="84">
+      <c r="J60" s="89">
         <f>'Cost Calculator'!K60</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K60" s="85">
+      <c r="K60" s="90">
         <v>80</v>
       </c>
-      <c r="L60" s="84">
+      <c r="L60" s="89">
         <f t="shared" si="10"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
     </row>
     <row r="61" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A61" s="69" t="s">
@@ -5743,36 +5758,36 @@
       <c r="F61" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="77">
+      <c r="G61" s="81">
         <f>'Cost Calculator'!J61</f>
         <v>92.8945</v>
       </c>
-      <c r="H61" s="77">
+      <c r="H61" s="81">
         <v>200</v>
       </c>
-      <c r="I61" s="83">
+      <c r="I61" s="88">
         <f t="shared" si="5"/>
         <v>107.1055</v>
       </c>
-      <c r="J61" s="84">
+      <c r="J61" s="89">
         <f>'Cost Calculator'!K61</f>
         <v>30.8737857142857</v>
       </c>
-      <c r="K61" s="85">
+      <c r="K61" s="90">
         <v>80</v>
       </c>
-      <c r="L61" s="84">
+      <c r="L61" s="89">
         <f t="shared" si="10"/>
         <v>49.1262142857143</v>
       </c>
-      <c r="M61" s="94">
+      <c r="M61" s="99">
         <f>'Cost Calculator'!L66</f>
         <v>113.81</v>
       </c>
-      <c r="N61" s="94">
+      <c r="N61" s="99">
         <v>180</v>
       </c>
-      <c r="O61" s="94">
+      <c r="O61" s="99">
         <f>N61-M61</f>
         <v>66.19</v>
       </c>
@@ -5796,36 +5811,36 @@
       <c r="F62" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="81">
         <f>'Cost Calculator'!J62</f>
         <v>147.9745</v>
       </c>
-      <c r="H62" s="77">
+      <c r="H62" s="81">
         <v>200</v>
       </c>
-      <c r="I62" s="83">
+      <c r="I62" s="88">
         <f t="shared" si="5"/>
         <v>52.0255</v>
       </c>
-      <c r="J62" s="84">
+      <c r="J62" s="89">
         <f>'Cost Calculator'!K62</f>
         <v>46.1737857142857</v>
       </c>
-      <c r="K62" s="85">
+      <c r="K62" s="90">
         <v>80</v>
       </c>
-      <c r="L62" s="84">
+      <c r="L62" s="89">
         <f t="shared" si="10"/>
         <v>33.8262142857143</v>
       </c>
-      <c r="M62" s="94">
+      <c r="M62" s="99">
         <f>'Cost Calculator'!L67</f>
         <v>89.49</v>
       </c>
-      <c r="N62" s="94">
+      <c r="N62" s="99">
         <v>180</v>
       </c>
-      <c r="O62" s="94">
+      <c r="O62" s="99">
         <f>N62-M62</f>
         <v>90.51</v>
       </c>
@@ -5849,36 +5864,36 @@
       <c r="F63" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="81">
         <f>'Cost Calculator'!J63</f>
         <v>114.4585</v>
       </c>
-      <c r="H63" s="77">
+      <c r="H63" s="81">
         <v>200</v>
       </c>
-      <c r="I63" s="83">
+      <c r="I63" s="88">
         <f t="shared" si="5"/>
         <v>85.5415</v>
       </c>
-      <c r="J63" s="86">
+      <c r="J63" s="91">
         <f>'Cost Calculator'!K63</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K63" s="87">
+      <c r="K63" s="92">
         <v>80</v>
       </c>
-      <c r="L63" s="86">
+      <c r="L63" s="91">
         <f t="shared" si="10"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M63" s="94" t="e">
+      <c r="M63" s="99" t="e">
         <f>'Cost Calculator'!L68</f>
         <v>#REF!</v>
       </c>
-      <c r="N63" s="94">
+      <c r="N63" s="99">
         <v>180</v>
       </c>
-      <c r="O63" s="94" t="e">
+      <c r="O63" s="99" t="e">
         <f>N63-M63</f>
         <v>#REF!</v>
       </c>
@@ -5902,317 +5917,317 @@
       <c r="F64" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="81">
+      <c r="G64" s="86">
         <f>'Cost Calculator'!J64</f>
         <v>96.2335</v>
       </c>
-      <c r="H64" s="81">
+      <c r="H64" s="86">
         <v>200</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="93">
         <f t="shared" si="5"/>
         <v>103.7665</v>
       </c>
-      <c r="J64" s="86">
+      <c r="J64" s="91">
         <f>'Cost Calculator'!K64</f>
         <v>31.8008982142857</v>
       </c>
-      <c r="K64" s="87">
+      <c r="K64" s="92">
         <v>80</v>
       </c>
-      <c r="L64" s="86">
+      <c r="L64" s="91">
         <f t="shared" si="10"/>
         <v>48.1991017857143</v>
       </c>
-      <c r="M64" s="94">
+      <c r="M64" s="99">
         <f>'Cost Calculator'!L69</f>
         <v>110.25</v>
       </c>
-      <c r="N64" s="94">
+      <c r="N64" s="99">
         <v>180</v>
       </c>
-      <c r="O64" s="94">
+      <c r="O64" s="99">
         <f>N64-M64</f>
         <v>69.75</v>
       </c>
     </row>
     <row r="65" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="95" t="s">
+      <c r="B65" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="95" t="s">
+      <c r="C65" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="95" t="s">
+      <c r="D65" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="95" t="s">
+      <c r="E65" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="95" t="s">
+      <c r="F65" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="81">
+      <c r="G65" s="86">
         <f>'Cost Calculator'!J65</f>
         <v>108.1585</v>
       </c>
-      <c r="H65" s="81">
+      <c r="H65" s="86">
         <v>200</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="93">
         <f t="shared" si="5"/>
         <v>91.8415</v>
       </c>
-      <c r="J65" s="86">
+      <c r="J65" s="91">
         <f>'Cost Calculator'!K65</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K65" s="87">
+      <c r="K65" s="92">
         <v>80</v>
       </c>
-      <c r="L65" s="86">
+      <c r="L65" s="91">
         <f t="shared" si="10"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M65" s="94" t="e">
+      <c r="M65" s="99" t="e">
         <f>'Cost Calculator'!L70</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="94">
+      <c r="N65" s="99">
         <v>180</v>
       </c>
-      <c r="O65" s="94" t="e">
+      <c r="O65" s="99" t="e">
         <f>N65-M65</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="96" t="s">
+      <c r="B66" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="96" t="s">
+      <c r="E66" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="98" t="s">
+      <c r="F66" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="81">
+      <c r="G66" s="86">
         <f>'Cost Calculator'!J66</f>
         <v>131.5585</v>
       </c>
-      <c r="H66" s="81">
+      <c r="H66" s="86">
         <v>200</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="93">
         <f t="shared" si="5"/>
         <v>68.4415</v>
       </c>
-      <c r="J66" s="86">
+      <c r="J66" s="91">
         <f>'Cost Calculator'!K66</f>
         <v>41.6137857142857</v>
       </c>
-      <c r="K66" s="87">
+      <c r="K66" s="92">
         <v>80</v>
       </c>
-      <c r="L66" s="86">
+      <c r="L66" s="91">
         <f t="shared" si="10"/>
         <v>38.3862142857143</v>
       </c>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="100"/>
     </row>
     <row r="67" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="95" t="s">
+      <c r="B67" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="95" t="s">
+      <c r="C67" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="95" t="s">
+      <c r="E67" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="98" t="s">
+      <c r="F67" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="81">
+      <c r="G67" s="86">
         <f>'Cost Calculator'!J67</f>
         <v>87.7825</v>
       </c>
-      <c r="H67" s="81">
+      <c r="H67" s="86">
         <v>200</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="93">
         <f t="shared" si="5"/>
         <v>112.2175</v>
       </c>
-      <c r="J67" s="86">
+      <c r="J67" s="91">
         <f>'Cost Calculator'!K67</f>
         <v>29.4537857142857</v>
       </c>
-      <c r="K67" s="87">
+      <c r="K67" s="92">
         <v>80</v>
       </c>
-      <c r="L67" s="86">
+      <c r="L67" s="91">
         <f t="shared" si="10"/>
         <v>50.5462142857143</v>
       </c>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
-      <c r="O67" s="95"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="100"/>
     </row>
     <row r="68" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="99" t="s">
+      <c r="F68" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="81">
+      <c r="G68" s="86">
         <f>'Cost Calculator'!J68</f>
         <v>105.9835</v>
       </c>
-      <c r="H68" s="81">
+      <c r="H68" s="86">
         <v>200</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="93">
         <f t="shared" si="5"/>
         <v>94.0165</v>
       </c>
-      <c r="J68" s="86">
+      <c r="J68" s="91">
         <f>'Cost Calculator'!K68</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K68" s="87">
+      <c r="K68" s="92">
         <v>80</v>
       </c>
-      <c r="L68" s="86">
+      <c r="L68" s="91">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="100"/>
     </row>
     <row r="69" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="95" t="s">
+      <c r="D69" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="95" t="s">
+      <c r="E69" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="95" t="s">
+      <c r="F69" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="86">
         <f>'Cost Calculator'!J69</f>
         <v>125.1505</v>
       </c>
-      <c r="H69" s="81">
+      <c r="H69" s="86">
         <v>200</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="93">
         <f t="shared" si="5"/>
         <v>74.8495</v>
       </c>
-      <c r="J69" s="86">
+      <c r="J69" s="91">
         <f>'Cost Calculator'!K69</f>
         <v>39.8337857142857</v>
       </c>
-      <c r="K69" s="87">
+      <c r="K69" s="92">
         <v>80</v>
       </c>
-      <c r="L69" s="86">
+      <c r="L69" s="91">
         <f t="shared" si="10"/>
         <v>40.1662142857143</v>
       </c>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
-      <c r="O69" s="95"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="100"/>
     </row>
     <row r="70" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A70" s="96" t="s">
+      <c r="A70" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="96" t="s">
+      <c r="B70" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="96" t="s">
+      <c r="E70" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="98" t="s">
+      <c r="F70" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="81">
+      <c r="G70" s="86">
         <f>'Cost Calculator'!J70</f>
         <v>105.9835</v>
       </c>
-      <c r="H70" s="81">
+      <c r="H70" s="86">
         <v>200</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="93">
         <f t="shared" si="5"/>
         <v>94.0165</v>
       </c>
-      <c r="J70" s="86">
+      <c r="J70" s="91">
         <f>'Cost Calculator'!K70</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K70" s="87">
+      <c r="K70" s="92">
         <v>80</v>
       </c>
-      <c r="L70" s="86">
+      <c r="L70" s="91">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="100"/>
     </row>
     <row r="71" s="66" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="72" s="66" customFormat="1" ht="14.25" customHeight="1"/>

--- a/Inventory & Costings.xlsx
+++ b/Inventory & Costings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13760"/>
+    <workbookView windowHeight="13760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scent Inventory" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="311">
   <si>
     <t>Brand</t>
   </si>
@@ -769,7 +769,7 @@
     <t>Phenoxyethanol</t>
   </si>
   <si>
-    <t>Packaging Cost (30mL Parfum)</t>
+    <t>Packaging Cost (30mL Parfum) New Cost</t>
   </si>
   <si>
     <t>Packaging Cost (55mL Parfum)</t>
@@ -886,7 +886,7 @@
     <t>Change to 442 &gt;</t>
   </si>
   <si>
-    <t>Packaging Cost (30mL Parfum) Batch 1</t>
+    <t>Packaging Cost (30mL Parfum) Old Cost</t>
   </si>
   <si>
     <t>Cost Per 50mL Bottle</t>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>Bottle Stickers - Round Vinyl</t>
+  </si>
+  <si>
+    <t>Label Stickers x157</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2125,9 +2128,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2141,9 +2141,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,8 +2759,8 @@
   <sheetPr/>
   <dimension ref="A1:O1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -2803,31 +2800,31 @@
       <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="95" t="s">
+      <c r="N1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="95" t="s">
+      <c r="O1" s="93" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2850,36 +2847,36 @@
       <c r="F2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="79">
         <f>'Cost Calculator'!J2</f>
-        <v>93.3985</v>
-      </c>
-      <c r="H2" s="81">
+        <v>94.0985</v>
+      </c>
+      <c r="H2" s="79">
         <v>200</v>
       </c>
-      <c r="I2" s="88">
+      <c r="I2" s="86">
         <f t="shared" ref="I2:I15" si="0">H2-G2</f>
-        <v>106.6015</v>
-      </c>
-      <c r="J2" s="89">
+        <v>105.9015</v>
+      </c>
+      <c r="J2" s="87">
         <f>'Cost Calculator'!K2</f>
         <v>31.0137857142857</v>
       </c>
-      <c r="K2" s="90">
+      <c r="K2" s="88">
         <v>80</v>
       </c>
-      <c r="L2" s="89">
+      <c r="L2" s="87">
         <f t="shared" ref="L2:L29" si="1">K2-J2</f>
         <v>48.9862142857143</v>
       </c>
-      <c r="M2" s="96">
+      <c r="M2" s="94">
         <f>'Cost Calculator'!L2</f>
         <v>92.61</v>
       </c>
-      <c r="N2" s="97">
+      <c r="N2" s="95">
         <v>180</v>
       </c>
-      <c r="O2" s="97">
+      <c r="O2" s="95">
         <f>N2-M2</f>
         <v>87.39</v>
       </c>
@@ -2903,36 +2900,36 @@
       <c r="F3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="79">
         <f>'Cost Calculator'!J3</f>
-        <v>95.7025</v>
-      </c>
-      <c r="H3" s="81">
+        <v>96.4025</v>
+      </c>
+      <c r="H3" s="79">
         <v>200</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="86">
         <f t="shared" si="0"/>
-        <v>104.2975</v>
-      </c>
-      <c r="J3" s="89">
+        <v>103.5975</v>
+      </c>
+      <c r="J3" s="87">
         <f>'Cost Calculator'!K3</f>
         <v>31.6537857142857</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="88">
         <v>80</v>
       </c>
-      <c r="L3" s="89">
+      <c r="L3" s="87">
         <f t="shared" si="1"/>
         <v>48.3462142857143</v>
       </c>
-      <c r="M3" s="96">
+      <c r="M3" s="94">
         <f>'Cost Calculator'!L3</f>
         <v>93.89</v>
       </c>
-      <c r="N3" s="97">
+      <c r="N3" s="95">
         <v>180</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="95">
         <f>N3-M3</f>
         <v>86.11</v>
       </c>
@@ -2953,39 +2950,39 @@
       <c r="E4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="79">
         <f>'Cost Calculator'!J4</f>
-        <v>96.8335</v>
-      </c>
-      <c r="H4" s="81">
+        <v>97.5335</v>
+      </c>
+      <c r="H4" s="79">
         <v>200</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="86">
         <f t="shared" si="0"/>
-        <v>103.1665</v>
-      </c>
-      <c r="J4" s="89">
+        <v>102.4665</v>
+      </c>
+      <c r="J4" s="87">
         <f>'Cost Calculator'!K4</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="88">
         <v>80</v>
       </c>
-      <c r="L4" s="89">
+      <c r="L4" s="87">
         <f t="shared" si="1"/>
         <v>48.0324417857143</v>
       </c>
-      <c r="M4" s="96">
+      <c r="M4" s="94">
         <f>'Cost Calculator'!L4</f>
         <v>93.73</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="95">
         <v>180</v>
       </c>
-      <c r="O4" s="97">
+      <c r="O4" s="95">
         <f>N4-M4</f>
         <v>86.27</v>
       </c>
@@ -3009,29 +3006,29 @@
       <c r="F5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="79">
         <f>'Cost Calculator'!J5</f>
-        <v>105.9835</v>
-      </c>
-      <c r="H5" s="81">
+        <v>106.6835</v>
+      </c>
+      <c r="H5" s="79">
         <v>200</v>
       </c>
-      <c r="I5" s="88">
+      <c r="I5" s="86">
         <f t="shared" si="0"/>
-        <v>94.0165</v>
-      </c>
-      <c r="J5" s="89">
+        <v>93.3165</v>
+      </c>
+      <c r="J5" s="87">
         <f>'Cost Calculator'!K5</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="88">
         <v>80</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="87">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M5" s="98"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
@@ -3054,29 +3051,29 @@
       <c r="F6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="79">
         <f>'Cost Calculator'!J6</f>
-        <v>105.9835</v>
-      </c>
-      <c r="H6" s="81">
+        <v>106.6835</v>
+      </c>
+      <c r="H6" s="79">
         <v>200</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="86">
         <f t="shared" si="0"/>
-        <v>94.0165</v>
-      </c>
-      <c r="J6" s="89">
+        <v>93.3165</v>
+      </c>
+      <c r="J6" s="87">
         <f>'Cost Calculator'!K6</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="88">
         <v>80</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="87">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M6" s="98"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
     </row>
@@ -3099,36 +3096,36 @@
       <c r="F7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="79">
         <f>'Cost Calculator'!J7</f>
-        <v>126.1585</v>
-      </c>
-      <c r="H7" s="81">
+        <v>126.8585</v>
+      </c>
+      <c r="H7" s="79">
         <v>200</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="86">
         <f t="shared" si="0"/>
-        <v>73.8415</v>
-      </c>
-      <c r="J7" s="89">
+        <v>73.1415</v>
+      </c>
+      <c r="J7" s="87">
         <f>'Cost Calculator'!K7</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="88">
         <v>80</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="87">
         <f t="shared" si="1"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M7" s="96">
+      <c r="M7" s="94">
         <f>'Cost Calculator'!L7</f>
         <v>110.81</v>
       </c>
-      <c r="N7" s="97">
+      <c r="N7" s="95">
         <v>180</v>
       </c>
-      <c r="O7" s="97">
+      <c r="O7" s="95">
         <f>N7-M7</f>
         <v>69.19</v>
       </c>
@@ -3152,36 +3149,36 @@
       <c r="F8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="79">
         <f>'Cost Calculator'!J8</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H8" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H8" s="79">
         <v>200</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="86">
         <f t="shared" si="0"/>
-        <v>97.3915</v>
-      </c>
-      <c r="J8" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J8" s="87">
         <f>'Cost Calculator'!K8</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="88">
         <v>80</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="87">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M8" s="96">
+      <c r="M8" s="94">
         <f>'Cost Calculator'!L8</f>
         <v>74.81</v>
       </c>
-      <c r="N8" s="97">
+      <c r="N8" s="95">
         <v>180</v>
       </c>
-      <c r="O8" s="97">
+      <c r="O8" s="95">
         <f>N8-M8</f>
         <v>105.19</v>
       </c>
@@ -3205,36 +3202,36 @@
       <c r="F9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="79">
         <f>'Cost Calculator'!J9</f>
-        <v>90.7345</v>
-      </c>
-      <c r="H9" s="81">
+        <v>91.4345</v>
+      </c>
+      <c r="H9" s="79">
         <v>200</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="86">
         <f t="shared" si="0"/>
-        <v>109.2655</v>
-      </c>
-      <c r="J9" s="89">
+        <v>108.5655</v>
+      </c>
+      <c r="J9" s="87">
         <f>'Cost Calculator'!K9</f>
         <v>30.2737857142857</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="88">
         <v>80</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L9" s="87">
         <f t="shared" si="1"/>
         <v>49.7262142857143</v>
       </c>
-      <c r="M9" s="96">
+      <c r="M9" s="94">
         <f>'Cost Calculator'!L9</f>
         <v>91.13</v>
       </c>
-      <c r="N9" s="97">
+      <c r="N9" s="95">
         <v>180</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="95">
         <f>N9-M9</f>
         <v>88.87</v>
       </c>
@@ -3258,29 +3255,29 @@
       <c r="F10" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="79">
         <f>'Cost Calculator'!J10</f>
-        <v>137.8585</v>
-      </c>
-      <c r="H10" s="81">
+        <v>138.5585</v>
+      </c>
+      <c r="H10" s="79">
         <v>200</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="86">
         <f t="shared" si="0"/>
-        <v>62.1415</v>
-      </c>
-      <c r="J10" s="89">
+        <v>61.4415</v>
+      </c>
+      <c r="J10" s="87">
         <f>'Cost Calculator'!K10</f>
         <v>43.3637857142857</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="88">
         <v>80</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="87">
         <f t="shared" si="1"/>
         <v>36.6362142857143</v>
       </c>
-      <c r="M10" s="98"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="71"/>
       <c r="O10" s="71"/>
     </row>
@@ -3303,36 +3300,36 @@
       <c r="F11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="79">
         <f>'Cost Calculator'!J11</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H11" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H11" s="79">
         <v>200</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="86">
         <f t="shared" si="0"/>
-        <v>97.3915</v>
-      </c>
-      <c r="J11" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J11" s="87">
         <f>'Cost Calculator'!K11</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="88">
         <v>80</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="87">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M11" s="96" t="e">
+      <c r="M11" s="94" t="e">
         <f>'Cost Calculator'!L11</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="95">
         <v>180</v>
       </c>
-      <c r="O11" s="97" t="e">
+      <c r="O11" s="95" t="e">
         <f t="shared" ref="O11:O16" si="2">N11-M11</f>
         <v>#REF!</v>
       </c>
@@ -3356,36 +3353,36 @@
       <c r="F12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="79">
         <f>'Cost Calculator'!J12</f>
-        <v>95.5585</v>
-      </c>
-      <c r="H12" s="81">
+        <v>96.2585</v>
+      </c>
+      <c r="H12" s="79">
         <v>200</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="86">
         <f t="shared" si="0"/>
-        <v>104.4415</v>
-      </c>
-      <c r="J12" s="89">
+        <v>103.7415</v>
+      </c>
+      <c r="J12" s="87">
         <f>'Cost Calculator'!K12</f>
         <v>31.6137857142857</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="88">
         <v>80</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L12" s="87">
         <f t="shared" si="1"/>
         <v>48.3862142857143</v>
       </c>
-      <c r="M12" s="96">
+      <c r="M12" s="94">
         <f>'Cost Calculator'!L12</f>
         <v>93.81</v>
       </c>
-      <c r="N12" s="97">
+      <c r="N12" s="95">
         <v>180</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="95">
         <f t="shared" si="2"/>
         <v>86.19</v>
       </c>
@@ -3409,36 +3406,36 @@
       <c r="F13" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="79">
         <f>'Cost Calculator'!J13</f>
-        <v>123.1885</v>
-      </c>
-      <c r="H13" s="81">
+        <v>123.8885</v>
+      </c>
+      <c r="H13" s="79">
         <v>200</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="86">
         <f t="shared" si="0"/>
-        <v>76.8115</v>
-      </c>
-      <c r="J13" s="89">
+        <v>76.1115</v>
+      </c>
+      <c r="J13" s="87">
         <f>'Cost Calculator'!K13</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="88">
         <v>80</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L13" s="87">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M13" s="96">
+      <c r="M13" s="94">
         <f>'Cost Calculator'!L13</f>
         <v>109.16</v>
       </c>
-      <c r="N13" s="97">
+      <c r="N13" s="95">
         <v>180</v>
       </c>
-      <c r="O13" s="97">
+      <c r="O13" s="95">
         <f t="shared" si="2"/>
         <v>70.84</v>
       </c>
@@ -3462,89 +3459,89 @@
       <c r="F14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="79">
         <f>'Cost Calculator'!J14</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H14" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H14" s="79">
         <v>200</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="86">
         <f t="shared" si="0"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J14" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J14" s="87">
         <f>'Cost Calculator'!K14</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="88">
         <v>80</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="87">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M14" s="96">
+      <c r="M14" s="94">
         <f>'Cost Calculator'!L14</f>
         <v>74.81</v>
       </c>
-      <c r="N14" s="97">
+      <c r="N14" s="95">
         <v>180</v>
       </c>
-      <c r="O14" s="97">
+      <c r="O14" s="95">
         <f t="shared" si="2"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="15" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="79">
         <f>'Cost Calculator'!J15</f>
-        <v>101.3335</v>
-      </c>
-      <c r="H15" s="81">
+        <v>102.0335</v>
+      </c>
+      <c r="H15" s="79">
         <v>200</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="86">
         <f t="shared" si="0"/>
-        <v>98.6665</v>
-      </c>
-      <c r="J15" s="89">
+        <v>97.9665</v>
+      </c>
+      <c r="J15" s="87">
         <f>'Cost Calculator'!K15</f>
         <v>33.2175082142857</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="88">
         <v>80</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="87">
         <f t="shared" si="1"/>
         <v>46.7824917857143</v>
       </c>
-      <c r="M15" s="96">
+      <c r="M15" s="94">
         <f>'Cost Calculator'!L15</f>
         <v>96.13</v>
       </c>
-      <c r="N15" s="97">
+      <c r="N15" s="95">
         <v>180</v>
       </c>
-      <c r="O15" s="97">
+      <c r="O15" s="95">
         <f t="shared" si="2"/>
         <v>83.87</v>
       </c>
@@ -3568,36 +3565,36 @@
       <c r="F16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="79">
         <f>'Cost Calculator'!J16</f>
-        <v>129.8305</v>
-      </c>
-      <c r="H16" s="81">
+        <v>130.5305</v>
+      </c>
+      <c r="H16" s="79">
         <v>200</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="86">
         <f>H17-G16</f>
-        <v>70.1695</v>
-      </c>
-      <c r="J16" s="89">
+        <v>69.4695</v>
+      </c>
+      <c r="J16" s="87">
         <f>'Cost Calculator'!K16</f>
         <v>41.1337857142857</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="88">
         <v>80</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="87">
         <f t="shared" si="1"/>
         <v>38.8662142857143</v>
       </c>
-      <c r="M16" s="96">
+      <c r="M16" s="94">
         <f>'Cost Calculator'!L16</f>
         <v>112.85</v>
       </c>
-      <c r="N16" s="97">
+      <c r="N16" s="95">
         <v>180</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="95">
         <f t="shared" si="2"/>
         <v>67.15</v>
       </c>
@@ -3621,29 +3618,29 @@
       <c r="F17" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="79">
         <f>'Cost Calculator'!J17</f>
-        <v>143.2585</v>
-      </c>
-      <c r="H17" s="81">
+        <v>143.9585</v>
+      </c>
+      <c r="H17" s="79">
         <v>200</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="86">
         <f>H18-G17</f>
-        <v>56.7415</v>
-      </c>
-      <c r="J17" s="89">
+        <v>56.0415</v>
+      </c>
+      <c r="J17" s="87">
         <f>'Cost Calculator'!K17</f>
         <v>44.8637857142857</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="88">
         <v>80</v>
       </c>
-      <c r="L17" s="89">
+      <c r="L17" s="87">
         <f t="shared" si="1"/>
         <v>35.1362142857143</v>
       </c>
-      <c r="M17" s="98"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="71"/>
       <c r="O17" s="71"/>
     </row>
@@ -3666,36 +3663,36 @@
       <c r="F18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="79">
         <f>'Cost Calculator'!J18</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H18" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H18" s="79">
         <v>200</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="86">
         <f t="shared" ref="I18:I29" si="3">H18-G18</f>
-        <v>97.3915</v>
-      </c>
-      <c r="J18" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J18" s="87">
         <f>'Cost Calculator'!K18</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="88">
         <v>80</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="87">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M18" s="96" t="e">
+      <c r="M18" s="94" t="e">
         <f>'Cost Calculator'!L18</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="97">
+      <c r="N18" s="95">
         <v>180</v>
       </c>
-      <c r="O18" s="97" t="e">
+      <c r="O18" s="95" t="e">
         <f t="shared" ref="O18:O24" si="4">N18-M18</f>
         <v>#REF!</v>
       </c>
@@ -3719,36 +3716,36 @@
       <c r="F19" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="79">
         <f>'Cost Calculator'!J19</f>
-        <v>123.1885</v>
-      </c>
-      <c r="H19" s="81">
+        <v>123.8885</v>
+      </c>
+      <c r="H19" s="79">
         <v>200</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="86">
         <f t="shared" si="3"/>
-        <v>76.8115</v>
-      </c>
-      <c r="J19" s="89">
+        <v>76.1115</v>
+      </c>
+      <c r="J19" s="87">
         <f>'Cost Calculator'!K19</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="88">
         <v>80</v>
       </c>
-      <c r="L19" s="89">
+      <c r="L19" s="87">
         <f t="shared" si="1"/>
         <v>40.7112142857143</v>
       </c>
-      <c r="M19" s="96">
+      <c r="M19" s="94">
         <f>'Cost Calculator'!L20</f>
         <v>92.69</v>
       </c>
-      <c r="N19" s="97">
+      <c r="N19" s="95">
         <v>180</v>
       </c>
-      <c r="O19" s="97">
+      <c r="O19" s="95">
         <f t="shared" si="4"/>
         <v>87.31</v>
       </c>
@@ -3772,36 +3769,36 @@
       <c r="F20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="81">
+      <c r="G20" s="79">
         <f>'Cost Calculator'!J20</f>
-        <v>94.8835</v>
-      </c>
-      <c r="H20" s="81">
+        <v>95.5835</v>
+      </c>
+      <c r="H20" s="79">
         <v>200</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="86">
         <f t="shared" si="3"/>
-        <v>105.1165</v>
-      </c>
-      <c r="J20" s="89">
+        <v>104.4165</v>
+      </c>
+      <c r="J20" s="87">
         <f>'Cost Calculator'!K20</f>
         <v>31.4259132142857</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="88">
         <v>80</v>
       </c>
-      <c r="L20" s="89">
+      <c r="L20" s="87">
         <f t="shared" si="1"/>
         <v>48.5740867857143</v>
       </c>
-      <c r="M20" s="96">
+      <c r="M20" s="94">
         <f>'Cost Calculator'!L19</f>
         <v>109.16</v>
       </c>
-      <c r="N20" s="97">
+      <c r="N20" s="95">
         <v>180</v>
       </c>
-      <c r="O20" s="97">
+      <c r="O20" s="95">
         <f t="shared" si="4"/>
         <v>70.84</v>
       </c>
@@ -3825,36 +3822,36 @@
       <c r="F21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="79">
         <f>'Cost Calculator'!J21</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H21" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H21" s="79">
         <v>200</v>
       </c>
-      <c r="I21" s="88">
+      <c r="I21" s="86">
         <f t="shared" si="3"/>
-        <v>97.3915</v>
-      </c>
-      <c r="J21" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J21" s="87">
         <f>'Cost Calculator'!K21</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="88">
         <v>80</v>
       </c>
-      <c r="L21" s="89">
+      <c r="L21" s="87">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M21" s="96" t="e">
+      <c r="M21" s="94" t="e">
         <f>'Cost Calculator'!L21</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="97">
+      <c r="N21" s="95">
         <v>180</v>
       </c>
-      <c r="O21" s="97" t="e">
+      <c r="O21" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3878,89 +3875,89 @@
       <c r="F22" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="79">
         <f>'Cost Calculator'!J22</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H22" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H22" s="79">
         <v>200</v>
       </c>
-      <c r="I22" s="88">
+      <c r="I22" s="86">
         <f t="shared" si="3"/>
-        <v>97.3915</v>
-      </c>
-      <c r="J22" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J22" s="87">
         <f>'Cost Calculator'!K22</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="88">
         <v>80</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="87">
         <f t="shared" si="1"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M22" s="96" t="e">
+      <c r="M22" s="94" t="e">
         <f>'Cost Calculator'!L22</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="97">
+      <c r="N22" s="95">
         <v>180</v>
       </c>
-      <c r="O22" s="97" t="e">
+      <c r="O22" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="79">
         <f>'Cost Calculator'!J23</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H23" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H23" s="79">
         <v>200</v>
       </c>
-      <c r="I23" s="88">
+      <c r="I23" s="86">
         <f t="shared" si="3"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J23" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J23" s="87">
         <f>'Cost Calculator'!K23</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="88">
         <v>80</v>
       </c>
-      <c r="L23" s="89">
+      <c r="L23" s="87">
         <f t="shared" si="1"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M23" s="96">
+      <c r="M23" s="94">
         <f>'Cost Calculator'!L23</f>
         <v>74.81</v>
       </c>
-      <c r="N23" s="97">
+      <c r="N23" s="95">
         <v>180</v>
       </c>
-      <c r="O23" s="97">
+      <c r="O23" s="95">
         <f t="shared" si="4"/>
         <v>105.19</v>
       </c>
@@ -3984,82 +3981,82 @@
       <c r="F24" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="79">
         <f>'Cost Calculator'!J24</f>
-        <v>149.9905</v>
-      </c>
-      <c r="H24" s="81">
+        <v>150.6905</v>
+      </c>
+      <c r="H24" s="79">
         <v>200</v>
       </c>
-      <c r="I24" s="88">
+      <c r="I24" s="86">
         <f t="shared" si="3"/>
-        <v>50.0095</v>
-      </c>
-      <c r="J24" s="89">
+        <v>49.3095</v>
+      </c>
+      <c r="J24" s="87">
         <f>'Cost Calculator'!K24</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="88">
         <v>80</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="87">
         <f t="shared" si="1"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M24" s="96">
+      <c r="M24" s="94">
         <f>'Cost Calculator'!L24</f>
         <v>124.05</v>
       </c>
-      <c r="N24" s="97">
+      <c r="N24" s="95">
         <v>180</v>
       </c>
-      <c r="O24" s="97">
+      <c r="O24" s="95">
         <f t="shared" si="4"/>
         <v>55.95</v>
       </c>
     </row>
     <row r="25" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="79">
         <f>'Cost Calculator'!J25</f>
-        <v>114.4585</v>
-      </c>
-      <c r="H25" s="81">
+        <v>115.1585</v>
+      </c>
+      <c r="H25" s="79">
         <v>200</v>
       </c>
-      <c r="I25" s="88">
+      <c r="I25" s="86">
         <f t="shared" si="3"/>
-        <v>85.5415</v>
-      </c>
-      <c r="J25" s="89">
+        <v>84.8415</v>
+      </c>
+      <c r="J25" s="87">
         <f>'Cost Calculator'!K25</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="88">
         <v>80</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="87">
         <f t="shared" si="1"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M25" s="98"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
     </row>
@@ -4082,29 +4079,29 @@
       <c r="F26" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="79">
         <f>'Cost Calculator'!J26</f>
-        <v>97.9585</v>
-      </c>
-      <c r="H26" s="81">
+        <v>98.6585</v>
+      </c>
+      <c r="H26" s="79">
         <v>200</v>
       </c>
-      <c r="I26" s="88">
+      <c r="I26" s="86">
         <f t="shared" si="3"/>
-        <v>102.0415</v>
-      </c>
-      <c r="J26" s="89">
+        <v>101.3415</v>
+      </c>
+      <c r="J26" s="87">
         <f>'Cost Calculator'!K26</f>
         <v>32.2800457142857</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="88">
         <v>80</v>
       </c>
-      <c r="L26" s="89">
+      <c r="L26" s="87">
         <f t="shared" si="1"/>
         <v>47.7199542857143</v>
       </c>
-      <c r="M26" s="98"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="71"/>
       <c r="O26" s="71"/>
     </row>
@@ -4127,29 +4124,29 @@
       <c r="F27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="79">
         <f>'Cost Calculator'!J27</f>
-        <v>119.6785</v>
-      </c>
-      <c r="H27" s="81">
+        <v>120.3785</v>
+      </c>
+      <c r="H27" s="79">
         <v>200</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="86">
         <f t="shared" si="3"/>
-        <v>80.3215</v>
-      </c>
-      <c r="J27" s="89">
+        <v>79.6215</v>
+      </c>
+      <c r="J27" s="87">
         <f>'Cost Calculator'!K27</f>
         <v>38.3137857142857</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="88">
         <v>80</v>
       </c>
-      <c r="L27" s="89">
+      <c r="L27" s="87">
         <f t="shared" si="1"/>
         <v>41.6862142857143</v>
       </c>
-      <c r="M27" s="98"/>
+      <c r="M27" s="96"/>
       <c r="N27" s="71"/>
       <c r="O27" s="71"/>
     </row>
@@ -4172,36 +4169,36 @@
       <c r="F28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="79">
         <f>'Cost Calculator'!J28</f>
-        <v>89.0785</v>
-      </c>
-      <c r="H28" s="81">
+        <v>89.7785</v>
+      </c>
+      <c r="H28" s="79">
         <v>200</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="86">
         <f t="shared" si="3"/>
-        <v>110.9215</v>
-      </c>
-      <c r="J28" s="89">
+        <v>110.2215</v>
+      </c>
+      <c r="J28" s="87">
         <f>'Cost Calculator'!K28</f>
         <v>29.8137857142857</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="88">
         <v>80</v>
       </c>
-      <c r="L28" s="89">
+      <c r="L28" s="87">
         <f t="shared" si="1"/>
         <v>50.1862142857143</v>
       </c>
-      <c r="M28" s="96">
+      <c r="M28" s="94">
         <f>'Cost Calculator'!L28</f>
         <v>90.21</v>
       </c>
-      <c r="N28" s="97">
+      <c r="N28" s="95">
         <v>180</v>
       </c>
-      <c r="O28" s="97">
+      <c r="O28" s="95">
         <f>N28-M28</f>
         <v>89.79</v>
       </c>
@@ -4225,179 +4222,179 @@
       <c r="F29" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="79">
         <f>'Cost Calculator'!J29</f>
-        <v>105.9835</v>
-      </c>
-      <c r="H29" s="81">
+        <v>106.6835</v>
+      </c>
+      <c r="H29" s="79">
         <v>200</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="86">
         <f t="shared" si="3"/>
-        <v>94.0165</v>
-      </c>
-      <c r="J29" s="89">
+        <v>93.3165</v>
+      </c>
+      <c r="J29" s="87">
         <f>'Cost Calculator'!K29</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="88">
         <v>80</v>
       </c>
-      <c r="L29" s="89">
+      <c r="L29" s="87">
         <f t="shared" si="1"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M29" s="96" t="e">
+      <c r="M29" s="94" t="e">
         <f>'Cost Calculator'!L29</f>
         <v>#REF!</v>
       </c>
-      <c r="N29" s="97">
+      <c r="N29" s="95">
         <v>180</v>
       </c>
-      <c r="O29" s="97" t="e">
+      <c r="O29" s="95" t="e">
         <f>N29-M29</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="79">
         <f>'Cost Calculator'!J30</f>
-        <v>120.4705</v>
-      </c>
-      <c r="H30" s="81">
+        <v>121.1705</v>
+      </c>
+      <c r="H30" s="79">
         <v>200</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="86">
         <f t="shared" ref="I30:I70" si="5">H30-G30</f>
-        <v>79.5295</v>
+        <v>78.8295</v>
       </c>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
-      <c r="M30" s="98"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
     </row>
     <row r="31" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="79">
         <f>'Cost Calculator'!J31</f>
-        <v>104.4835</v>
-      </c>
-      <c r="H31" s="81">
+        <v>105.1835</v>
+      </c>
+      <c r="H31" s="79">
         <v>200</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I31" s="86">
         <f t="shared" si="5"/>
-        <v>95.5165</v>
-      </c>
-      <c r="J31" s="89">
+        <v>94.8165</v>
+      </c>
+      <c r="J31" s="87">
         <f>'Cost Calculator'!K31</f>
         <v>34.0924732142857</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="88">
         <v>80</v>
       </c>
-      <c r="L31" s="89">
+      <c r="L31" s="87">
         <f t="shared" ref="L31:L41" si="6">K31-J31</f>
         <v>45.9075267857143</v>
       </c>
-      <c r="M31" s="96" t="e">
+      <c r="M31" s="94" t="e">
         <f>'Cost Calculator'!L31</f>
         <v>#REF!</v>
       </c>
-      <c r="N31" s="97">
+      <c r="N31" s="95">
         <v>180</v>
       </c>
-      <c r="O31" s="97" t="e">
+      <c r="O31" s="95" t="e">
         <f t="shared" ref="O31:O36" si="7">N31-M31</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="79">
         <f>'Cost Calculator'!J32</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H32" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H32" s="79">
         <v>200</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="86">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J32" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J32" s="87">
         <f>'Cost Calculator'!K32</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32" s="88">
         <v>80</v>
       </c>
-      <c r="L32" s="89">
+      <c r="L32" s="87">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M32" s="96">
+      <c r="M32" s="94">
         <f>'Cost Calculator'!L32</f>
         <v>74.81</v>
       </c>
-      <c r="N32" s="97">
+      <c r="N32" s="95">
         <v>180</v>
       </c>
-      <c r="O32" s="97">
+      <c r="O32" s="95">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
@@ -4421,89 +4418,89 @@
       <c r="F33" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="79">
         <f>'Cost Calculator'!J33</f>
-        <v>126.1585</v>
-      </c>
-      <c r="H33" s="81">
+        <v>126.8585</v>
+      </c>
+      <c r="H33" s="79">
         <v>200</v>
       </c>
-      <c r="I33" s="88">
+      <c r="I33" s="86">
         <f t="shared" si="5"/>
-        <v>73.8415</v>
-      </c>
-      <c r="J33" s="89">
+        <v>73.1415</v>
+      </c>
+      <c r="J33" s="87">
         <f>'Cost Calculator'!K33</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="88">
         <v>80</v>
       </c>
-      <c r="L33" s="89">
+      <c r="L33" s="87">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M33" s="96">
+      <c r="M33" s="94">
         <f>'Cost Calculator'!L35</f>
         <v>92.309993</v>
       </c>
-      <c r="N33" s="97">
+      <c r="N33" s="95">
         <v>180</v>
       </c>
-      <c r="O33" s="97">
+      <c r="O33" s="95">
         <f t="shared" si="7"/>
         <v>87.690007</v>
       </c>
     </row>
     <row r="34" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="79">
         <f>'Cost Calculator'!J34</f>
-        <v>126.1585</v>
-      </c>
-      <c r="H34" s="81">
+        <v>126.8585</v>
+      </c>
+      <c r="H34" s="79">
         <v>200</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I34" s="86">
         <f t="shared" si="5"/>
-        <v>73.8415</v>
-      </c>
-      <c r="J34" s="89">
+        <v>73.1415</v>
+      </c>
+      <c r="J34" s="87">
         <f>'Cost Calculator'!K34</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="88">
         <v>80</v>
       </c>
-      <c r="L34" s="89">
+      <c r="L34" s="87">
         <f t="shared" si="6"/>
         <v>39.8862142857143</v>
       </c>
-      <c r="M34" s="96" t="e">
+      <c r="M34" s="94" t="e">
         <f>'Cost Calculator'!L36</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="97">
+      <c r="N34" s="95">
         <v>180</v>
       </c>
-      <c r="O34" s="97" t="e">
+      <c r="O34" s="95" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
@@ -4527,36 +4524,36 @@
       <c r="F35" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="79">
         <f>'Cost Calculator'!J35</f>
-        <v>92.8585</v>
-      </c>
-      <c r="H35" s="81">
+        <v>93.5585</v>
+      </c>
+      <c r="H35" s="79">
         <v>200</v>
       </c>
-      <c r="I35" s="88">
+      <c r="I35" s="86">
         <f t="shared" si="5"/>
-        <v>107.1415</v>
-      </c>
-      <c r="J35" s="89">
+        <v>106.4415</v>
+      </c>
+      <c r="J35" s="87">
         <f>'Cost Calculator'!K35</f>
         <v>30.8634357142857</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="88">
         <v>80</v>
       </c>
-      <c r="L35" s="89">
+      <c r="L35" s="87">
         <f t="shared" si="6"/>
         <v>49.1365642857143</v>
       </c>
-      <c r="M35" s="96">
+      <c r="M35" s="94">
         <f>'Cost Calculator'!L37</f>
         <v>74.81</v>
       </c>
-      <c r="N35" s="97">
+      <c r="N35" s="95">
         <v>180</v>
       </c>
-      <c r="O35" s="97">
+      <c r="O35" s="95">
         <f t="shared" si="7"/>
         <v>105.19</v>
       </c>
@@ -4577,85 +4574,85 @@
       <c r="E36" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="79">
         <f>'Cost Calculator'!J36</f>
-        <v>109.7335</v>
-      </c>
-      <c r="H36" s="81">
+        <v>110.4335</v>
+      </c>
+      <c r="H36" s="79">
         <v>200</v>
       </c>
-      <c r="I36" s="88">
+      <c r="I36" s="86">
         <f t="shared" si="5"/>
-        <v>90.2665</v>
-      </c>
-      <c r="J36" s="89">
+        <v>89.5665</v>
+      </c>
+      <c r="J36" s="87">
         <f>'Cost Calculator'!K36</f>
         <v>35.5507482142857</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="88">
         <v>80</v>
       </c>
-      <c r="L36" s="89">
+      <c r="L36" s="87">
         <f t="shared" si="6"/>
         <v>44.4492517857143</v>
       </c>
-      <c r="M36" s="96">
+      <c r="M36" s="94">
         <f>'Cost Calculator'!L38</f>
         <v>107.31</v>
       </c>
-      <c r="N36" s="97">
+      <c r="N36" s="95">
         <v>180</v>
       </c>
-      <c r="O36" s="97">
+      <c r="O36" s="95">
         <f t="shared" si="7"/>
         <v>72.69</v>
       </c>
     </row>
     <row r="37" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="79">
         <f>'Cost Calculator'!J37</f>
-        <v>119.8585</v>
-      </c>
-      <c r="H37" s="81">
+        <v>120.5585</v>
+      </c>
+      <c r="H37" s="79">
         <v>200</v>
       </c>
-      <c r="I37" s="88">
+      <c r="I37" s="86">
         <f t="shared" si="5"/>
-        <v>80.1415</v>
-      </c>
-      <c r="J37" s="89">
+        <v>79.4415</v>
+      </c>
+      <c r="J37" s="87">
         <f>'Cost Calculator'!K37</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K37" s="90">
+      <c r="K37" s="88">
         <v>80</v>
       </c>
-      <c r="L37" s="89">
+      <c r="L37" s="87">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M37" s="98"/>
+      <c r="M37" s="96"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
@@ -4678,36 +4675,36 @@
       <c r="F38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="79">
         <f>'Cost Calculator'!J38</f>
-        <v>119.8585</v>
-      </c>
-      <c r="H38" s="81">
+        <v>120.5585</v>
+      </c>
+      <c r="H38" s="79">
         <v>200</v>
       </c>
-      <c r="I38" s="88">
+      <c r="I38" s="86">
         <f t="shared" si="5"/>
-        <v>80.1415</v>
-      </c>
-      <c r="J38" s="89">
+        <v>79.4415</v>
+      </c>
+      <c r="J38" s="87">
         <f>'Cost Calculator'!K38</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38" s="88">
         <v>80</v>
       </c>
-      <c r="L38" s="89">
+      <c r="L38" s="87">
         <f t="shared" si="6"/>
         <v>41.6362142857143</v>
       </c>
-      <c r="M38" s="96">
+      <c r="M38" s="94">
         <f>'Cost Calculator'!L41</f>
         <v>0</v>
       </c>
-      <c r="N38" s="97">
+      <c r="N38" s="95">
         <v>180</v>
       </c>
-      <c r="O38" s="97">
+      <c r="O38" s="95">
         <f>N38-M38</f>
         <v>180</v>
       </c>
@@ -4731,29 +4728,29 @@
       <c r="F39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="79">
         <f>'Cost Calculator'!J39</f>
-        <v>98.4835</v>
-      </c>
-      <c r="H39" s="81">
+        <v>99.1835</v>
+      </c>
+      <c r="H39" s="79">
         <v>200</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="86">
         <f t="shared" si="5"/>
-        <v>101.5165</v>
-      </c>
-      <c r="J39" s="89">
+        <v>100.8165</v>
+      </c>
+      <c r="J39" s="87">
         <f>'Cost Calculator'!K39</f>
         <v>32.4258732142857</v>
       </c>
-      <c r="K39" s="90">
+      <c r="K39" s="88">
         <v>80</v>
       </c>
-      <c r="L39" s="89">
+      <c r="L39" s="87">
         <f t="shared" si="6"/>
         <v>47.5741267857143</v>
       </c>
-      <c r="M39" s="98"/>
+      <c r="M39" s="96"/>
       <c r="N39" s="71"/>
       <c r="O39" s="71"/>
     </row>
@@ -4776,29 +4773,29 @@
       <c r="F40" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40" s="79">
         <f>'Cost Calculator'!J40</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H40" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H40" s="79">
         <v>200</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="86">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J40" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J40" s="87">
         <f>'Cost Calculator'!K40</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="88">
         <v>80</v>
       </c>
-      <c r="L40" s="89">
+      <c r="L40" s="87">
         <f t="shared" si="6"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M40" s="98"/>
+      <c r="M40" s="96"/>
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
     </row>
@@ -4821,36 +4818,36 @@
       <c r="F41" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="79">
         <f>'Cost Calculator'!J41</f>
-        <v>102.6085</v>
-      </c>
-      <c r="H41" s="81">
+        <v>103.3085</v>
+      </c>
+      <c r="H41" s="79">
         <v>200</v>
       </c>
-      <c r="I41" s="88">
+      <c r="I41" s="86">
         <f t="shared" si="5"/>
-        <v>97.3915</v>
-      </c>
-      <c r="J41" s="89">
+        <v>96.6915</v>
+      </c>
+      <c r="J41" s="87">
         <f>'Cost Calculator'!K41</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41" s="88">
         <v>80</v>
       </c>
-      <c r="L41" s="89">
+      <c r="L41" s="87">
         <f t="shared" si="6"/>
         <v>46.4283392857143</v>
       </c>
-      <c r="M41" s="96">
+      <c r="M41" s="94">
         <f>'Cost Calculator'!L45</f>
         <v>100.81</v>
       </c>
-      <c r="N41" s="97">
+      <c r="N41" s="95">
         <v>180</v>
       </c>
-      <c r="O41" s="97">
+      <c r="O41" s="95">
         <f>N41-M41</f>
         <v>79.19</v>
       </c>
@@ -4874,21 +4871,21 @@
       <c r="F42" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="79">
         <f>'Cost Calculator'!J42</f>
-        <v>105.6085</v>
-      </c>
-      <c r="H42" s="81">
+        <v>106.3085</v>
+      </c>
+      <c r="H42" s="79">
         <v>200</v>
       </c>
-      <c r="I42" s="88">
+      <c r="I42" s="86">
         <f t="shared" si="5"/>
-        <v>94.3915</v>
+        <v>93.6915</v>
       </c>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
-      <c r="M42" s="98"/>
+      <c r="M42" s="96"/>
       <c r="N42" s="71"/>
       <c r="O42" s="71"/>
     </row>
@@ -4911,29 +4908,29 @@
       <c r="F43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="79">
         <f>'Cost Calculator'!J43</f>
-        <v>102.7585</v>
-      </c>
-      <c r="H43" s="81">
+        <v>103.4585</v>
+      </c>
+      <c r="H43" s="79">
         <v>200</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="86">
         <f t="shared" si="5"/>
-        <v>97.2415</v>
-      </c>
-      <c r="J43" s="89">
+        <v>96.5415</v>
+      </c>
+      <c r="J43" s="87">
         <f>'Cost Calculator'!K43</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K43" s="90">
+      <c r="K43" s="88">
         <v>80</v>
       </c>
-      <c r="L43" s="89">
+      <c r="L43" s="87">
         <f t="shared" ref="L43:L48" si="8">K43-J43</f>
         <v>46.3862142857143</v>
       </c>
-      <c r="M43" s="98"/>
+      <c r="M43" s="96"/>
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
     </row>
@@ -4956,81 +4953,81 @@
       <c r="F44" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="79">
         <f>'Cost Calculator'!J44</f>
-        <v>102.7585</v>
-      </c>
-      <c r="H44" s="81">
+        <v>103.4585</v>
+      </c>
+      <c r="H44" s="79">
         <v>200</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="86">
         <f t="shared" si="5"/>
-        <v>97.2415</v>
-      </c>
-      <c r="J44" s="89">
+        <v>96.5415</v>
+      </c>
+      <c r="J44" s="87">
         <f>'Cost Calculator'!K44</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="88">
         <v>80</v>
       </c>
-      <c r="L44" s="89">
+      <c r="L44" s="87">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M44" s="98"/>
+      <c r="M44" s="96"/>
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
     <row r="45" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="74" t="s">
+      <c r="E45" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="79">
         <f>'Cost Calculator'!J45</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H45" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H45" s="79">
         <v>200</v>
       </c>
-      <c r="I45" s="88">
+      <c r="I45" s="86">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J45" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J45" s="87">
         <f>'Cost Calculator'!K45</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45" s="88">
         <v>80</v>
       </c>
-      <c r="L45" s="89">
+      <c r="L45" s="87">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M45" s="96">
+      <c r="M45" s="94">
         <f>'Cost Calculator'!L48</f>
         <v>97.81</v>
       </c>
-      <c r="N45" s="97">
+      <c r="N45" s="95">
         <v>180</v>
       </c>
-      <c r="O45" s="97">
+      <c r="O45" s="95">
         <f>N45-M45</f>
         <v>82.19</v>
       </c>
@@ -5054,29 +5051,29 @@
       <c r="F46" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="79">
         <f>'Cost Calculator'!J46</f>
-        <v>102.7585</v>
-      </c>
-      <c r="H46" s="81">
+        <v>103.4585</v>
+      </c>
+      <c r="H46" s="79">
         <v>200</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I46" s="86">
         <f t="shared" si="5"/>
-        <v>97.2415</v>
-      </c>
-      <c r="J46" s="89">
+        <v>96.5415</v>
+      </c>
+      <c r="J46" s="87">
         <f>'Cost Calculator'!K46</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K46" s="90">
+      <c r="K46" s="88">
         <v>80</v>
       </c>
-      <c r="L46" s="89">
+      <c r="L46" s="87">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M46" s="98"/>
+      <c r="M46" s="96"/>
       <c r="N46" s="71"/>
       <c r="O46" s="71"/>
     </row>
@@ -5099,36 +5096,36 @@
       <c r="F47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="81">
+      <c r="G47" s="79">
         <f>'Cost Calculator'!J47</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H47" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H47" s="79">
         <v>200</v>
       </c>
-      <c r="I47" s="88">
+      <c r="I47" s="86">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J47" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J47" s="87">
         <f>'Cost Calculator'!K47</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K47" s="90">
+      <c r="K47" s="88">
         <v>80</v>
       </c>
-      <c r="L47" s="89">
+      <c r="L47" s="87">
         <f t="shared" si="8"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M47" s="96">
+      <c r="M47" s="94">
         <f>'Cost Calculator'!L53</f>
         <v>74.81</v>
       </c>
-      <c r="N47" s="97">
+      <c r="N47" s="95">
         <v>180</v>
       </c>
-      <c r="O47" s="97">
+      <c r="O47" s="95">
         <f>N47-M47</f>
         <v>105.19</v>
       </c>
@@ -5152,36 +5149,36 @@
       <c r="F48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="81">
+      <c r="G48" s="79">
         <f>'Cost Calculator'!J48</f>
-        <v>102.7585</v>
-      </c>
-      <c r="H48" s="81">
+        <v>103.4585</v>
+      </c>
+      <c r="H48" s="79">
         <v>200</v>
       </c>
-      <c r="I48" s="88">
+      <c r="I48" s="86">
         <f t="shared" si="5"/>
-        <v>97.2415</v>
-      </c>
-      <c r="J48" s="89">
+        <v>96.5415</v>
+      </c>
+      <c r="J48" s="87">
         <f>'Cost Calculator'!K48</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K48" s="90">
+      <c r="K48" s="88">
         <v>80</v>
       </c>
-      <c r="L48" s="89">
+      <c r="L48" s="87">
         <f t="shared" si="8"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M48" s="96">
+      <c r="M48" s="94">
         <f>'Cost Calculator'!L54</f>
         <v>74.81</v>
       </c>
-      <c r="N48" s="97">
+      <c r="N48" s="95">
         <v>180</v>
       </c>
-      <c r="O48" s="97">
+      <c r="O48" s="95">
         <f>N48-M48</f>
         <v>105.19</v>
       </c>
@@ -5205,95 +5202,95 @@
       <c r="F49" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="79">
         <f>'Cost Calculator'!J49</f>
-        <v>100.3585</v>
-      </c>
-      <c r="H49" s="81">
+        <v>101.0585</v>
+      </c>
+      <c r="H49" s="79">
         <v>200</v>
       </c>
-      <c r="I49" s="88">
+      <c r="I49" s="86">
         <f t="shared" si="5"/>
-        <v>99.6415</v>
+        <v>98.9415</v>
       </c>
       <c r="J49" s="71"/>
       <c r="K49" s="71"/>
       <c r="L49" s="71"/>
-      <c r="M49" s="98"/>
+      <c r="M49" s="96"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
     <row r="50" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="79" t="s">
+      <c r="E50" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="81">
+      <c r="G50" s="79">
         <f>'Cost Calculator'!J50</f>
-        <v>105.6085</v>
-      </c>
-      <c r="H50" s="81">
+        <v>106.3085</v>
+      </c>
+      <c r="H50" s="79">
         <v>200</v>
       </c>
-      <c r="I50" s="88">
+      <c r="I50" s="86">
         <f t="shared" si="5"/>
-        <v>94.3915</v>
+        <v>93.6915</v>
       </c>
       <c r="J50" s="71"/>
       <c r="K50" s="71"/>
       <c r="L50" s="71"/>
-      <c r="M50" s="98"/>
+      <c r="M50" s="96"/>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
     </row>
     <row r="51" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="79">
         <f>'Cost Calculator'!J51</f>
-        <v>100.7335</v>
-      </c>
-      <c r="H51" s="81">
+        <v>101.4335</v>
+      </c>
+      <c r="H51" s="79">
         <v>200</v>
       </c>
-      <c r="I51" s="88">
+      <c r="I51" s="86">
         <f t="shared" si="5"/>
-        <v>99.2665</v>
+        <v>98.5665</v>
       </c>
       <c r="J51" s="71"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
-      <c r="M51" s="98"/>
+      <c r="M51" s="96"/>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
     </row>
@@ -5310,42 +5307,42 @@
       <c r="D52" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="83" t="s">
         <v>175</v>
       </c>
       <c r="F52" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="81">
+      <c r="G52" s="79">
         <f>'Cost Calculator'!J52</f>
-        <v>114.4585</v>
-      </c>
-      <c r="H52" s="81">
+        <v>115.1585</v>
+      </c>
+      <c r="H52" s="79">
         <v>200</v>
       </c>
-      <c r="I52" s="88">
+      <c r="I52" s="86">
         <f t="shared" si="5"/>
-        <v>85.5415</v>
-      </c>
-      <c r="J52" s="89">
+        <v>84.8415</v>
+      </c>
+      <c r="J52" s="87">
         <f>'Cost Calculator'!K52</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K52" s="90">
+      <c r="K52" s="88">
         <v>80</v>
       </c>
-      <c r="L52" s="89">
+      <c r="L52" s="87">
         <f t="shared" ref="L52:L57" si="9">K52-J52</f>
         <v>43.1362142857143</v>
       </c>
-      <c r="M52" s="96">
+      <c r="M52" s="94">
         <f>'Cost Calculator'!L55</f>
         <v>107.33</v>
       </c>
-      <c r="N52" s="97">
+      <c r="N52" s="95">
         <v>180</v>
       </c>
-      <c r="O52" s="97">
+      <c r="O52" s="95">
         <f>N52-M52</f>
         <v>72.67</v>
       </c>
@@ -5369,36 +5366,36 @@
       <c r="F53" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="81">
+      <c r="G53" s="79">
         <f>'Cost Calculator'!J53</f>
-        <v>102.7585</v>
-      </c>
-      <c r="H53" s="81">
+        <v>103.4585</v>
+      </c>
+      <c r="H53" s="79">
         <v>200</v>
       </c>
-      <c r="I53" s="88">
+      <c r="I53" s="86">
         <f t="shared" si="5"/>
-        <v>97.2415</v>
-      </c>
-      <c r="J53" s="89">
+        <v>96.5415</v>
+      </c>
+      <c r="J53" s="87">
         <f>'Cost Calculator'!K53</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K53" s="90">
+      <c r="K53" s="88">
         <v>80</v>
       </c>
-      <c r="L53" s="89">
+      <c r="L53" s="87">
         <f t="shared" si="9"/>
         <v>46.3862142857143</v>
       </c>
-      <c r="M53" s="96">
+      <c r="M53" s="94">
         <f>'Cost Calculator'!L57</f>
         <v>104.31</v>
       </c>
-      <c r="N53" s="97">
+      <c r="N53" s="95">
         <v>180</v>
       </c>
-      <c r="O53" s="97">
+      <c r="O53" s="95">
         <f>N53-M53</f>
         <v>75.69</v>
       </c>
@@ -5422,89 +5419,89 @@
       <c r="F54" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="79">
         <f>'Cost Calculator'!J54</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H54" s="81">
+        <v>108.8585</v>
+      </c>
+      <c r="H54" s="79">
         <v>200</v>
       </c>
-      <c r="I54" s="88">
+      <c r="I54" s="86">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J54" s="89">
+        <v>91.1415</v>
+      </c>
+      <c r="J54" s="87">
         <f>'Cost Calculator'!K54</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K54" s="90">
+      <c r="K54" s="88">
         <v>80</v>
       </c>
-      <c r="L54" s="89">
+      <c r="L54" s="87">
         <f t="shared" si="9"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M54" s="96">
+      <c r="M54" s="94">
         <f>'Cost Calculator'!L61</f>
         <v>92.33</v>
       </c>
-      <c r="N54" s="97">
+      <c r="N54" s="95">
         <v>180</v>
       </c>
-      <c r="O54" s="97">
+      <c r="O54" s="95">
         <f>N54-M54</f>
         <v>87.67</v>
       </c>
     </row>
     <row r="55" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="77" t="s">
+      <c r="E55" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="81">
+      <c r="G55" s="79">
         <f>'Cost Calculator'!J55</f>
-        <v>119.8945</v>
-      </c>
-      <c r="H55" s="81">
+        <v>120.5945</v>
+      </c>
+      <c r="H55" s="79">
         <v>200</v>
       </c>
-      <c r="I55" s="88">
+      <c r="I55" s="86">
         <f t="shared" si="5"/>
-        <v>80.1055</v>
-      </c>
-      <c r="J55" s="89">
+        <v>79.4055</v>
+      </c>
+      <c r="J55" s="87">
         <f>'Cost Calculator'!K55</f>
         <v>38.3737857142857</v>
       </c>
-      <c r="K55" s="90">
+      <c r="K55" s="88">
         <v>80</v>
       </c>
-      <c r="L55" s="89">
+      <c r="L55" s="87">
         <f t="shared" si="9"/>
         <v>41.6262142857143</v>
       </c>
-      <c r="M55" s="96">
+      <c r="M55" s="94">
         <f>'Cost Calculator'!L62</f>
         <v>122.93</v>
       </c>
-      <c r="N55" s="97">
+      <c r="N55" s="95">
         <v>180</v>
       </c>
-      <c r="O55" s="97">
+      <c r="O55" s="95">
         <f>N55-M55</f>
         <v>57.07</v>
       </c>
@@ -5528,29 +5525,29 @@
       <c r="F56" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="81">
+      <c r="G56" s="79">
         <f>'Cost Calculator'!J56</f>
-        <v>114.4585</v>
-      </c>
-      <c r="H56" s="81">
+        <v>115.1585</v>
+      </c>
+      <c r="H56" s="79">
         <v>200</v>
       </c>
-      <c r="I56" s="88">
+      <c r="I56" s="86">
         <f t="shared" si="5"/>
-        <v>85.5415</v>
-      </c>
-      <c r="J56" s="89">
+        <v>84.8415</v>
+      </c>
+      <c r="J56" s="87">
         <f>'Cost Calculator'!K56</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K56" s="90">
+      <c r="K56" s="88">
         <v>80</v>
       </c>
-      <c r="L56" s="89">
+      <c r="L56" s="87">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M56" s="98"/>
+      <c r="M56" s="96"/>
       <c r="N56" s="71"/>
       <c r="O56" s="71"/>
     </row>
@@ -5567,42 +5564,42 @@
       <c r="D57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E57" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="74" t="s">
+      <c r="F57" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="81">
+      <c r="G57" s="79">
         <f>'Cost Calculator'!J57</f>
-        <v>114.4585</v>
-      </c>
-      <c r="H57" s="81">
+        <v>115.1585</v>
+      </c>
+      <c r="H57" s="79">
         <v>200</v>
       </c>
-      <c r="I57" s="88">
+      <c r="I57" s="86">
         <f t="shared" si="5"/>
-        <v>85.5415</v>
-      </c>
-      <c r="J57" s="89">
+        <v>84.8415</v>
+      </c>
+      <c r="J57" s="87">
         <f>'Cost Calculator'!K57</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K57" s="90">
+      <c r="K57" s="88">
         <v>80</v>
       </c>
-      <c r="L57" s="89">
+      <c r="L57" s="87">
         <f t="shared" si="9"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M57" s="99">
+      <c r="M57" s="97">
         <f>'Cost Calculator'!L63</f>
         <v>74.81</v>
       </c>
-      <c r="N57" s="99">
+      <c r="N57" s="97">
         <v>180</v>
       </c>
-      <c r="O57" s="99">
+      <c r="O57" s="97">
         <f>N57-M57</f>
         <v>105.19</v>
       </c>
@@ -5626,16 +5623,16 @@
       <c r="F58" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="81">
+      <c r="G58" s="79">
         <f>'Cost Calculator'!J58</f>
-        <v>100.3585</v>
-      </c>
-      <c r="H58" s="81">
+        <v>101.0585</v>
+      </c>
+      <c r="H58" s="79">
         <v>200</v>
       </c>
-      <c r="I58" s="88">
+      <c r="I58" s="86">
         <f t="shared" si="5"/>
-        <v>99.6415</v>
+        <v>98.9415</v>
       </c>
       <c r="J58" s="71"/>
       <c r="K58" s="71"/>
@@ -5660,36 +5657,36 @@
       <c r="F59" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="81">
+      <c r="G59" s="79">
         <f>'Cost Calculator'!J59</f>
-        <v>157.3345</v>
-      </c>
-      <c r="H59" s="81">
+        <v>158.0345</v>
+      </c>
+      <c r="H59" s="79">
         <v>200</v>
       </c>
-      <c r="I59" s="88">
+      <c r="I59" s="86">
         <f t="shared" si="5"/>
-        <v>42.6655</v>
-      </c>
-      <c r="J59" s="89">
+        <v>41.9655</v>
+      </c>
+      <c r="J59" s="87">
         <f>'Cost Calculator'!K59</f>
         <v>48.7737857142857</v>
       </c>
-      <c r="K59" s="90">
+      <c r="K59" s="88">
         <v>80</v>
       </c>
-      <c r="L59" s="89">
+      <c r="L59" s="87">
         <f t="shared" ref="L59:L70" si="10">K59-J59</f>
         <v>31.2262142857143</v>
       </c>
-      <c r="M59" s="99">
+      <c r="M59" s="97">
         <f>'Cost Calculator'!L64</f>
         <v>94.18499225</v>
       </c>
-      <c r="N59" s="99">
+      <c r="N59" s="97">
         <v>180</v>
       </c>
-      <c r="O59" s="99">
+      <c r="O59" s="97">
         <f>N59-M59</f>
         <v>85.81500775</v>
       </c>
@@ -5713,31 +5710,31 @@
       <c r="F60" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="81">
+      <c r="G60" s="79">
         <f>'Cost Calculator'!J60</f>
-        <v>149.9905</v>
-      </c>
-      <c r="H60" s="81">
+        <v>150.6905</v>
+      </c>
+      <c r="H60" s="79">
         <v>200</v>
       </c>
-      <c r="I60" s="88">
+      <c r="I60" s="86">
         <f t="shared" si="5"/>
-        <v>50.0095</v>
-      </c>
-      <c r="J60" s="89">
+        <v>49.3095</v>
+      </c>
+      <c r="J60" s="87">
         <f>'Cost Calculator'!K60</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K60" s="90">
+      <c r="K60" s="88">
         <v>80</v>
       </c>
-      <c r="L60" s="89">
+      <c r="L60" s="87">
         <f t="shared" si="10"/>
         <v>33.2662142857143</v>
       </c>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
-      <c r="O60" s="100"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
     </row>
     <row r="61" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A61" s="69" t="s">
@@ -5758,36 +5755,36 @@
       <c r="F61" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="81">
+      <c r="G61" s="79">
         <f>'Cost Calculator'!J61</f>
-        <v>92.8945</v>
-      </c>
-      <c r="H61" s="81">
+        <v>93.5945</v>
+      </c>
+      <c r="H61" s="79">
         <v>200</v>
       </c>
-      <c r="I61" s="88">
+      <c r="I61" s="86">
         <f t="shared" si="5"/>
-        <v>107.1055</v>
-      </c>
-      <c r="J61" s="89">
+        <v>106.4055</v>
+      </c>
+      <c r="J61" s="87">
         <f>'Cost Calculator'!K61</f>
         <v>30.8737857142857</v>
       </c>
-      <c r="K61" s="90">
+      <c r="K61" s="88">
         <v>80</v>
       </c>
-      <c r="L61" s="89">
+      <c r="L61" s="87">
         <f t="shared" si="10"/>
         <v>49.1262142857143</v>
       </c>
-      <c r="M61" s="99">
+      <c r="M61" s="97">
         <f>'Cost Calculator'!L66</f>
         <v>113.81</v>
       </c>
-      <c r="N61" s="99">
+      <c r="N61" s="97">
         <v>180</v>
       </c>
-      <c r="O61" s="99">
+      <c r="O61" s="97">
         <f>N61-M61</f>
         <v>66.19</v>
       </c>
@@ -5811,36 +5808,36 @@
       <c r="F62" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="79">
         <f>'Cost Calculator'!J62</f>
-        <v>147.9745</v>
-      </c>
-      <c r="H62" s="81">
+        <v>148.6745</v>
+      </c>
+      <c r="H62" s="79">
         <v>200</v>
       </c>
-      <c r="I62" s="88">
+      <c r="I62" s="86">
         <f t="shared" si="5"/>
-        <v>52.0255</v>
-      </c>
-      <c r="J62" s="89">
+        <v>51.3255</v>
+      </c>
+      <c r="J62" s="87">
         <f>'Cost Calculator'!K62</f>
         <v>46.1737857142857</v>
       </c>
-      <c r="K62" s="90">
+      <c r="K62" s="88">
         <v>80</v>
       </c>
-      <c r="L62" s="89">
+      <c r="L62" s="87">
         <f t="shared" si="10"/>
         <v>33.8262142857143</v>
       </c>
-      <c r="M62" s="99">
+      <c r="M62" s="97">
         <f>'Cost Calculator'!L67</f>
         <v>89.49</v>
       </c>
-      <c r="N62" s="99">
+      <c r="N62" s="97">
         <v>180</v>
       </c>
-      <c r="O62" s="99">
+      <c r="O62" s="97">
         <f>N62-M62</f>
         <v>90.51</v>
       </c>
@@ -5864,36 +5861,36 @@
       <c r="F63" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="81">
+      <c r="G63" s="79">
         <f>'Cost Calculator'!J63</f>
-        <v>114.4585</v>
-      </c>
-      <c r="H63" s="81">
+        <v>115.1585</v>
+      </c>
+      <c r="H63" s="79">
         <v>200</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="86">
         <f t="shared" si="5"/>
-        <v>85.5415</v>
-      </c>
-      <c r="J63" s="91">
+        <v>84.8415</v>
+      </c>
+      <c r="J63" s="89">
         <f>'Cost Calculator'!K63</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K63" s="92">
+      <c r="K63" s="90">
         <v>80</v>
       </c>
-      <c r="L63" s="91">
+      <c r="L63" s="89">
         <f t="shared" si="10"/>
         <v>43.1362142857143</v>
       </c>
-      <c r="M63" s="99" t="e">
+      <c r="M63" s="97" t="e">
         <f>'Cost Calculator'!L68</f>
         <v>#REF!</v>
       </c>
-      <c r="N63" s="99">
+      <c r="N63" s="97">
         <v>180</v>
       </c>
-      <c r="O63" s="99" t="e">
+      <c r="O63" s="97" t="e">
         <f>N63-M63</f>
         <v>#REF!</v>
       </c>
@@ -5917,317 +5914,317 @@
       <c r="F64" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="86">
+      <c r="G64" s="84">
         <f>'Cost Calculator'!J64</f>
-        <v>96.2335</v>
-      </c>
-      <c r="H64" s="86">
+        <v>96.9335</v>
+      </c>
+      <c r="H64" s="84">
         <v>200</v>
       </c>
-      <c r="I64" s="93">
+      <c r="I64" s="91">
         <f t="shared" si="5"/>
-        <v>103.7665</v>
-      </c>
-      <c r="J64" s="91">
+        <v>103.0665</v>
+      </c>
+      <c r="J64" s="89">
         <f>'Cost Calculator'!K64</f>
         <v>31.8008982142857</v>
       </c>
-      <c r="K64" s="92">
+      <c r="K64" s="90">
         <v>80</v>
       </c>
-      <c r="L64" s="91">
+      <c r="L64" s="89">
         <f t="shared" si="10"/>
         <v>48.1991017857143</v>
       </c>
-      <c r="M64" s="99">
+      <c r="M64" s="97">
         <f>'Cost Calculator'!L69</f>
         <v>110.25</v>
       </c>
-      <c r="N64" s="99">
+      <c r="N64" s="97">
         <v>180</v>
       </c>
-      <c r="O64" s="99">
+      <c r="O64" s="97">
         <f>N64-M64</f>
         <v>69.75</v>
       </c>
     </row>
     <row r="65" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="100" t="s">
+      <c r="B65" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="C65" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="100" t="s">
+      <c r="D65" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="100" t="s">
+      <c r="E65" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="100" t="s">
+      <c r="F65" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="86">
+      <c r="G65" s="84">
         <f>'Cost Calculator'!J65</f>
-        <v>108.1585</v>
-      </c>
-      <c r="H65" s="86">
+        <v>108.8585</v>
+      </c>
+      <c r="H65" s="84">
         <v>200</v>
       </c>
-      <c r="I65" s="93">
+      <c r="I65" s="91">
         <f t="shared" si="5"/>
-        <v>91.8415</v>
-      </c>
-      <c r="J65" s="91">
+        <v>91.1415</v>
+      </c>
+      <c r="J65" s="89">
         <f>'Cost Calculator'!K65</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K65" s="92">
+      <c r="K65" s="90">
         <v>80</v>
       </c>
-      <c r="L65" s="91">
+      <c r="L65" s="89">
         <f t="shared" si="10"/>
         <v>44.8862142857143</v>
       </c>
-      <c r="M65" s="99" t="e">
+      <c r="M65" s="97" t="e">
         <f>'Cost Calculator'!L70</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="99">
+      <c r="N65" s="97">
         <v>180</v>
       </c>
-      <c r="O65" s="99" t="e">
+      <c r="O65" s="97" t="e">
         <f>N65-M65</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="101" t="s">
+      <c r="B66" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="E66" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="103" t="s">
+      <c r="F66" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="86">
+      <c r="G66" s="84">
         <f>'Cost Calculator'!J66</f>
-        <v>131.5585</v>
-      </c>
-      <c r="H66" s="86">
+        <v>132.2585</v>
+      </c>
+      <c r="H66" s="84">
         <v>200</v>
       </c>
-      <c r="I66" s="93">
+      <c r="I66" s="91">
         <f t="shared" si="5"/>
-        <v>68.4415</v>
-      </c>
-      <c r="J66" s="91">
+        <v>67.7415</v>
+      </c>
+      <c r="J66" s="89">
         <f>'Cost Calculator'!K66</f>
         <v>41.6137857142857</v>
       </c>
-      <c r="K66" s="92">
+      <c r="K66" s="90">
         <v>80</v>
       </c>
-      <c r="L66" s="91">
+      <c r="L66" s="89">
         <f t="shared" si="10"/>
         <v>38.3862142857143</v>
       </c>
-      <c r="M66" s="100"/>
-      <c r="N66" s="100"/>
-      <c r="O66" s="100"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
     </row>
     <row r="67" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A67" s="100" t="s">
+      <c r="A67" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C67" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="100" t="s">
+      <c r="D67" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="100" t="s">
+      <c r="E67" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="103" t="s">
+      <c r="F67" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="86">
+      <c r="G67" s="84">
         <f>'Cost Calculator'!J67</f>
-        <v>87.7825</v>
-      </c>
-      <c r="H67" s="86">
+        <v>88.4825</v>
+      </c>
+      <c r="H67" s="84">
         <v>200</v>
       </c>
-      <c r="I67" s="93">
+      <c r="I67" s="91">
         <f t="shared" si="5"/>
-        <v>112.2175</v>
-      </c>
-      <c r="J67" s="91">
+        <v>111.5175</v>
+      </c>
+      <c r="J67" s="89">
         <f>'Cost Calculator'!K67</f>
         <v>29.4537857142857</v>
       </c>
-      <c r="K67" s="92">
+      <c r="K67" s="90">
         <v>80</v>
       </c>
-      <c r="L67" s="91">
+      <c r="L67" s="89">
         <f t="shared" si="10"/>
         <v>50.5462142857143</v>
       </c>
-      <c r="M67" s="100"/>
-      <c r="N67" s="100"/>
-      <c r="O67" s="100"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="98"/>
     </row>
     <row r="68" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="102" t="s">
+      <c r="E68" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="104" t="s">
+      <c r="F68" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="86">
+      <c r="G68" s="84">
         <f>'Cost Calculator'!J68</f>
-        <v>105.9835</v>
-      </c>
-      <c r="H68" s="86">
+        <v>106.6835</v>
+      </c>
+      <c r="H68" s="84">
         <v>200</v>
       </c>
-      <c r="I68" s="93">
+      <c r="I68" s="91">
         <f t="shared" si="5"/>
-        <v>94.0165</v>
-      </c>
-      <c r="J68" s="91">
+        <v>93.3165</v>
+      </c>
+      <c r="J68" s="89">
         <f>'Cost Calculator'!K68</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K68" s="92">
+      <c r="K68" s="90">
         <v>80</v>
       </c>
-      <c r="L68" s="91">
+      <c r="L68" s="89">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M68" s="100"/>
-      <c r="N68" s="100"/>
-      <c r="O68" s="100"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="98"/>
     </row>
     <row r="69" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="100" t="s">
+      <c r="B69" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="100" t="s">
+      <c r="C69" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="100" t="s">
+      <c r="D69" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="100" t="s">
+      <c r="E69" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="100" t="s">
+      <c r="F69" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="86">
+      <c r="G69" s="84">
         <f>'Cost Calculator'!J69</f>
-        <v>125.1505</v>
-      </c>
-      <c r="H69" s="86">
+        <v>125.8505</v>
+      </c>
+      <c r="H69" s="84">
         <v>200</v>
       </c>
-      <c r="I69" s="93">
+      <c r="I69" s="91">
         <f t="shared" si="5"/>
-        <v>74.8495</v>
-      </c>
-      <c r="J69" s="91">
+        <v>74.1495</v>
+      </c>
+      <c r="J69" s="89">
         <f>'Cost Calculator'!K69</f>
         <v>39.8337857142857</v>
       </c>
-      <c r="K69" s="92">
+      <c r="K69" s="90">
         <v>80</v>
       </c>
-      <c r="L69" s="91">
+      <c r="L69" s="89">
         <f t="shared" si="10"/>
         <v>40.1662142857143</v>
       </c>
-      <c r="M69" s="100"/>
-      <c r="N69" s="100"/>
-      <c r="O69" s="100"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
     </row>
     <row r="70" s="66" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B70" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="101" t="s">
+      <c r="C70" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="101" t="s">
+      <c r="D70" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="101" t="s">
+      <c r="E70" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="103" t="s">
+      <c r="F70" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="84">
         <f>'Cost Calculator'!J70</f>
-        <v>105.9835</v>
-      </c>
-      <c r="H70" s="86">
+        <v>106.6835</v>
+      </c>
+      <c r="H70" s="84">
         <v>200</v>
       </c>
-      <c r="I70" s="93">
+      <c r="I70" s="91">
         <f t="shared" si="5"/>
-        <v>94.0165</v>
-      </c>
-      <c r="J70" s="91">
+        <v>93.3165</v>
+      </c>
+      <c r="J70" s="89">
         <f>'Cost Calculator'!K70</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K70" s="92">
+      <c r="K70" s="90">
         <v>80</v>
       </c>
-      <c r="L70" s="91">
+      <c r="L70" s="89">
         <f t="shared" si="10"/>
         <v>45.4908767857143</v>
       </c>
-      <c r="M70" s="100"/>
-      <c r="N70" s="100"/>
-      <c r="O70" s="100"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="98"/>
     </row>
     <row r="71" s="66" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="72" s="66" customFormat="1" ht="14.25" customHeight="1"/>
@@ -7187,8 +7184,8 @@
   <sheetPr/>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8"/>
@@ -7245,7 +7242,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="11"/>
       <c r="B2" s="12">
-        <v>615</v>
+        <v>1231</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>226</v>
@@ -7267,7 +7264,7 @@
       </c>
       <c r="J2" s="64">
         <f>((I2*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.3985</v>
+        <v>94.0985</v>
       </c>
       <c r="K2" s="65">
         <f>(I2*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7301,7 +7298,7 @@
       </c>
       <c r="J3" s="64">
         <f>((I3*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>95.7025</v>
+        <v>96.4025</v>
       </c>
       <c r="K3" s="65">
         <f>(I3*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7337,7 +7334,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="64">
         <f>((H4*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>96.8335</v>
+        <v>97.5335</v>
       </c>
       <c r="K4" s="65">
         <f>(H4*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7354,7 +7351,7 @@
       </c>
       <c r="B5" s="20">
         <f>B2*0.48</f>
-        <v>295.2</v>
+        <v>590.88</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>231</v>
@@ -7376,7 +7373,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="64">
         <f>((H5*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.9835</v>
+        <v>106.6835</v>
       </c>
       <c r="K5" s="65">
         <f>(H5*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7412,7 +7409,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="64">
         <f>((H6*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.9835</v>
+        <v>106.6835</v>
       </c>
       <c r="K6" s="65">
         <f>(H6*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7448,7 +7445,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="64">
         <f>((G7*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>126.1585</v>
+        <v>126.8585</v>
       </c>
       <c r="K7" s="65">
         <f>(G7*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7487,7 +7484,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="64">
         <f>((H8*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K8" s="65">
         <f>(H8*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7498,13 +7495,13 @@
         <v>74.81</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:12">
+    <row r="9" spans="1:12">
       <c r="A9" s="23" t="s">
         <v>238</v>
       </c>
       <c r="B9" s="24">
         <f>SUM(B5:B8)</f>
-        <v>326.99</v>
+        <v>622.67</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>239</v>
@@ -7526,7 +7523,7 @@
       </c>
       <c r="J9" s="64">
         <f>((I9*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>90.7345</v>
+        <v>91.4345</v>
       </c>
       <c r="K9" s="65">
         <f>(I9*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7557,7 +7554,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="64">
         <f>((G10*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>137.8585</v>
+        <v>138.5585</v>
       </c>
       <c r="K10" s="65">
         <f>(G10*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7571,14 +7568,14 @@
       </c>
       <c r="B11" s="31">
         <f>B9*0.15</f>
-        <v>49.0485</v>
+        <v>93.4005</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>243</v>
       </c>
       <c r="D11" s="32">
         <f>B9*0.275</f>
-        <v>89.92225</v>
+        <v>171.23425</v>
       </c>
       <c r="F11" s="58" t="str">
         <f>'Scent Inventory'!E11</f>
@@ -7591,7 +7588,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="64">
         <f>((H11*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K11" s="65">
         <f>(H11*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7626,7 +7623,7 @@
       </c>
       <c r="J12" s="64">
         <f>((I12*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>95.5585</v>
+        <v>96.2585</v>
       </c>
       <c r="K12" s="65">
         <f>(I12*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7642,7 +7639,7 @@
         <v>246</v>
       </c>
       <c r="B13" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>246</v>
@@ -7661,7 +7658,7 @@
       <c r="I13" s="60"/>
       <c r="J13" s="64">
         <f>((G13*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>123.1885</v>
+        <v>123.8885</v>
       </c>
       <c r="K13" s="65">
         <f>(G13*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7696,7 +7693,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="64">
         <f>((G14*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K14" s="65">
         <f>(G14*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7731,7 +7728,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="64">
         <f>((H15*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>101.3335</v>
+        <v>102.0335</v>
       </c>
       <c r="K15" s="65">
         <f>(H15*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7747,7 +7744,8 @@
         <v>250</v>
       </c>
       <c r="B16" s="21">
-        <v>1.3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>250</v>
@@ -7765,7 +7763,7 @@
       </c>
       <c r="J16" s="64">
         <f>((I16*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>129.8305</v>
+        <v>130.5305</v>
       </c>
       <c r="K16" s="65">
         <f>(I16*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7776,20 +7774,20 @@
         <v>112.85</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="1:12">
+    <row r="17" spans="1:12">
       <c r="A17" s="36" t="s">
         <v>251</v>
       </c>
       <c r="B17" s="37">
         <f>SUM(B11:B16)</f>
-        <v>105.6385</v>
+        <v>150.6905</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="39">
         <f>SUM(D11:D16)</f>
-        <v>151.70225</v>
+        <v>233.01425</v>
       </c>
       <c r="F17" s="58" t="str">
         <f>'Scent Inventory'!E17</f>
@@ -7802,7 +7800,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="64">
         <f>((G17*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>143.2585</v>
+        <v>143.9585</v>
       </c>
       <c r="K17" s="65">
         <f>(G17*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7830,7 +7828,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="64">
         <f>((H18*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K18" s="65">
         <f>(H18*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7847,7 +7845,7 @@
       </c>
       <c r="B19" s="20">
         <f>B5*0.16667</f>
-        <v>49.200984</v>
+        <v>98.4819696</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>256</v>
@@ -7867,7 +7865,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="64">
         <f>((G19*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>123.1885</v>
+        <v>123.8885</v>
       </c>
       <c r="K19" s="65">
         <f>(G19*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7904,7 +7902,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="64">
         <f>((H20*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>94.8835</v>
+        <v>95.5835</v>
       </c>
       <c r="K20" s="65">
         <f>(H20*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7941,7 +7939,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="64">
         <f>((H21*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K21" s="65">
         <f>(H21*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7975,7 +7973,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="64">
         <f>((H22*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K22" s="65">
         <f>(H22*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -7992,14 +7990,14 @@
       </c>
       <c r="B23" s="45">
         <f>SUM(B18:B22)</f>
-        <v>97.940984</v>
+        <v>147.2219696</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>264</v>
       </c>
       <c r="D23" s="42">
         <f>(10/125)*B2</f>
-        <v>49.2</v>
+        <v>98.48</v>
       </c>
       <c r="F23" s="58" t="str">
         <f>'Scent Inventory'!E23</f>
@@ -8012,7 +8010,7 @@
       <c r="I23" s="50"/>
       <c r="J23" s="64">
         <f>((G23*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K23" s="65">
         <f>(G23*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8046,7 +8044,7 @@
       </c>
       <c r="J24" s="64">
         <f>((I24*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>149.9905</v>
+        <v>150.6905</v>
       </c>
       <c r="K24" s="65">
         <f>(I24*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8063,7 +8061,7 @@
       </c>
       <c r="B25" s="32">
         <f>B23/2</f>
-        <v>48.970492</v>
+        <v>73.6109848</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>268</v>
@@ -8083,7 +8081,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="64">
         <f>((G25*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>114.4585</v>
+        <v>115.1585</v>
       </c>
       <c r="K25" s="65">
         <f>(G25*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8116,7 +8114,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="64">
         <f>((H26*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>97.9585</v>
+        <v>98.6585</v>
       </c>
       <c r="K26" s="65">
         <f>(H26*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8149,7 +8147,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="64">
         <f>((G27*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>119.6785</v>
+        <v>120.3785</v>
       </c>
       <c r="K27" s="65">
         <f>(G27*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8182,7 +8180,7 @@
       </c>
       <c r="J28" s="64">
         <f>((I28*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>89.0785</v>
+        <v>89.7785</v>
       </c>
       <c r="K28" s="65">
         <f>(I28*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8217,7 +8215,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="64">
         <f>((H29*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.9835</v>
+        <v>106.6835</v>
       </c>
       <c r="K29" s="65">
         <f>(H29*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8252,7 +8250,7 @@
       </c>
       <c r="J30" s="64">
         <f>((I30*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>120.4705</v>
+        <v>121.1705</v>
       </c>
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
@@ -8263,7 +8261,7 @@
       </c>
       <c r="B31" s="48">
         <f>SUM(B25:B30)</f>
-        <v>99.410492</v>
+        <v>124.0509848</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>277</v>
@@ -8285,7 +8283,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="64">
         <f>((H31*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>104.4835</v>
+        <v>105.1835</v>
       </c>
       <c r="K31" s="65">
         <f>(H31*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8296,7 +8294,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" ht="17.55" spans="1:12">
+    <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
         <v>279</v>
       </c>
@@ -8319,7 +8317,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="64">
         <f>((G32*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K32" s="65">
         <f>(G32*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8335,8 +8333,8 @@
         <v>242</v>
       </c>
       <c r="B33" s="31">
-        <f>B31*0.15</f>
-        <v>14.9115738</v>
+        <f>B9*0.15</f>
+        <v>93.4005</v>
       </c>
       <c r="F33" s="58" t="str">
         <f>'Scent Inventory'!E33</f>
@@ -8349,7 +8347,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="64">
         <f>((G33*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>126.1585</v>
+        <v>126.8585</v>
       </c>
       <c r="K33" s="65">
         <f>(G33*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8377,7 +8375,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="64">
         <f>((G34*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>126.1585</v>
+        <v>126.8585</v>
       </c>
       <c r="K34" s="65">
         <f>(G34*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8403,7 +8401,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="64">
         <f>((H35*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>92.8585</v>
+        <v>93.5585</v>
       </c>
       <c r="K35" s="65">
         <f>(H35*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8435,7 +8433,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="64">
         <f>((H36*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>109.7335</v>
+        <v>110.4335</v>
       </c>
       <c r="K36" s="65">
         <f>(H36*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8464,7 +8462,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="64">
         <f>((G37*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>119.8585</v>
+        <v>120.5585</v>
       </c>
       <c r="K37" s="65">
         <f>(G37*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8493,7 +8491,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="64">
         <f>((G38*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>119.8585</v>
+        <v>120.5585</v>
       </c>
       <c r="K38" s="65">
         <f>(G38*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8510,7 +8508,7 @@
       </c>
       <c r="B39" s="37">
         <f>SUM(B33:B38)</f>
-        <v>71.5015738</v>
+        <v>149.9905</v>
       </c>
       <c r="F39" s="58" t="str">
         <f>'Scent Inventory'!E39</f>
@@ -8523,7 +8521,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="64">
         <f>((H39*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.4835</v>
+        <v>99.1835</v>
       </c>
       <c r="K39" s="65">
         <f>(H39*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8543,7 +8541,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="64">
         <f>((G40*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K40" s="65">
         <f>(G40*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8563,7 +8561,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="64">
         <f>((H41*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.6085</v>
+        <v>103.3085</v>
       </c>
       <c r="K41" s="65">
         <f>(H41*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8583,7 +8581,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="64">
         <f>((H42*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.6085</v>
+        <v>106.3085</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
@@ -8600,7 +8598,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="64">
         <f>((G43*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.7585</v>
+        <v>103.4585</v>
       </c>
       <c r="K43" s="65">
         <f>(G43*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8620,7 +8618,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="64">
         <f>((G44*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.7585</v>
+        <v>103.4585</v>
       </c>
       <c r="K44" s="65">
         <f>(G44*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8640,7 +8638,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="64">
         <f>((G45*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K45" s="65">
         <f>(G45*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8663,7 +8661,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="64">
         <f>((G46*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.7585</v>
+        <v>103.4585</v>
       </c>
       <c r="K46" s="65">
         <f>(G46*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8683,7 +8681,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="64">
         <f>((G47*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K47" s="65">
         <f>(G47*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8703,7 +8701,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="64">
         <f>((G48*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.7585</v>
+        <v>103.4585</v>
       </c>
       <c r="K48" s="65">
         <f>(G48*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8726,7 +8724,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="64">
         <f>((H49*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>100.3585</v>
+        <v>101.0585</v>
       </c>
       <c r="K49" s="65"/>
       <c r="L49" s="65"/>
@@ -8743,7 +8741,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="64">
         <f>((H50*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.6085</v>
+        <v>106.3085</v>
       </c>
       <c r="K50" s="65"/>
       <c r="L50" s="65"/>
@@ -8760,7 +8758,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="64">
         <f>((H51*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>100.7335</v>
+        <v>101.4335</v>
       </c>
       <c r="K51" s="65"/>
       <c r="L51" s="65"/>
@@ -8777,7 +8775,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="64">
         <f>((G52*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>114.4585</v>
+        <v>115.1585</v>
       </c>
       <c r="K52" s="65">
         <f>(G52*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8797,7 +8795,7 @@
       <c r="I53" s="50"/>
       <c r="J53" s="64">
         <f>((G53*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>102.7585</v>
+        <v>103.4585</v>
       </c>
       <c r="K53" s="65">
         <f>(G53*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8820,7 +8818,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="64">
         <f>((G54*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K54" s="65">
         <f>(G54*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8843,7 +8841,7 @@
       </c>
       <c r="J55" s="64">
         <f>((I55*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>119.8945</v>
+        <v>120.5945</v>
       </c>
       <c r="K55" s="65">
         <f>(I55*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8866,7 +8864,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="64">
         <f>((G56*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>114.4585</v>
+        <v>115.1585</v>
       </c>
       <c r="K56" s="65">
         <f>(G56*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8886,7 +8884,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="64">
         <f>((G57*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>114.4585</v>
+        <v>115.1585</v>
       </c>
       <c r="K57" s="65">
         <f>(G57*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8909,7 +8907,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="64">
         <f>((H58*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>100.3585</v>
+        <v>101.0585</v>
       </c>
       <c r="K58" s="65"/>
       <c r="L58" s="65"/>
@@ -8926,7 +8924,7 @@
       </c>
       <c r="J59" s="64">
         <f>((I59*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>157.3345</v>
+        <v>158.0345</v>
       </c>
       <c r="K59" s="65">
         <f>(I59*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8946,7 +8944,7 @@
       </c>
       <c r="J60" s="64">
         <f>((I60*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>149.9905</v>
+        <v>150.6905</v>
       </c>
       <c r="K60" s="65">
         <f>(I60*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8966,7 +8964,7 @@
       </c>
       <c r="J61" s="64">
         <f>((I61*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>92.8945</v>
+        <v>93.5945</v>
       </c>
       <c r="K61" s="65">
         <f>(I61*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -8989,7 +8987,7 @@
       </c>
       <c r="J62" s="64">
         <f>((I62*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>147.9745</v>
+        <v>148.6745</v>
       </c>
       <c r="K62" s="65">
         <f>(I62*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9012,7 +9010,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="64">
         <f>((G63*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>114.4585</v>
+        <v>115.1585</v>
       </c>
       <c r="K63" s="65">
         <f>(G63*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9035,7 +9033,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="64">
         <f>(H64*0.5+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>96.2335</v>
+        <v>96.9335</v>
       </c>
       <c r="K64" s="65">
         <f>(H64*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9058,7 +9056,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="64">
         <f>((G65*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>108.1585</v>
+        <v>108.8585</v>
       </c>
       <c r="K65" s="65">
         <f>(G65*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9078,7 +9076,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="64">
         <f>((G66*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>131.5585</v>
+        <v>132.2585</v>
       </c>
       <c r="K66" s="65">
         <f>(G66*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9101,7 +9099,7 @@
       </c>
       <c r="J67" s="64">
         <f>((I67*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>87.7825</v>
+        <v>88.4825</v>
       </c>
       <c r="K67" s="65">
         <f>(I67*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9124,7 +9122,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="64">
         <f>((H68*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.9835</v>
+        <v>106.6835</v>
       </c>
       <c r="K68" s="65">
         <f>(H68*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9146,7 +9144,7 @@
       </c>
       <c r="J69" s="64">
         <f>((I69*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>125.1505</v>
+        <v>125.8505</v>
       </c>
       <c r="K69" s="65">
         <f>(I69*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9169,7 +9167,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="64">
         <f>((H70*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>105.9835</v>
+        <v>106.6835</v>
       </c>
       <c r="K70" s="65">
         <f>(H70*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
@@ -9203,10 +9201,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -9560,19 +9558,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E21" s="3">
-        <v>690</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9580,16 +9578,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E22" s="3">
-        <v>250</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9607,6 +9605,23 @@
       </c>
       <c r="E23" s="3">
         <v>644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="3">
+        <v>450.42</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory & Costings.xlsx
+++ b/Inventory & Costings.xlsx
@@ -2031,7 +2031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,9 +2311,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2329,13 +2326,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2940,9 +2934,9 @@
   <dimension ref="A1:O1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1"/>
@@ -2991,22 +2985,22 @@
       <c r="I1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="105" t="s">
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3036,29 +3030,29 @@
       <c r="H2" s="88">
         <v>200</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="104">
         <f t="shared" ref="I2:I15" si="0">H2-G2</f>
         <v>112.7665</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="105">
         <f>'Cost Calculator'!K2</f>
         <v>22.1137857142857</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="106">
         <v>100</v>
       </c>
-      <c r="L2" s="107">
+      <c r="L2" s="105">
         <f t="shared" ref="L2:L19" si="1">K2-J2</f>
         <v>77.8862142857143</v>
       </c>
-      <c r="M2" s="109">
+      <c r="M2" s="107">
         <f>'Cost Calculator'!L2</f>
         <v>74.81</v>
       </c>
-      <c r="N2" s="110">
+      <c r="N2" s="108">
         <v>180</v>
       </c>
-      <c r="O2" s="110">
+      <c r="O2" s="108">
         <f>N2-M2</f>
         <v>105.19</v>
       </c>
@@ -3089,29 +3083,29 @@
       <c r="H3" s="88">
         <v>200</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="104">
         <f t="shared" si="0"/>
         <v>113.8975</v>
       </c>
-      <c r="J3" s="107">
+      <c r="J3" s="105">
         <f>'Cost Calculator'!K3</f>
         <v>31.6537857142857</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="106">
         <v>100</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="105">
         <f t="shared" si="1"/>
         <v>68.3462142857143</v>
       </c>
-      <c r="M3" s="109">
+      <c r="M3" s="107">
         <f>'Cost Calculator'!L3</f>
         <v>93.89</v>
       </c>
-      <c r="N3" s="110">
+      <c r="N3" s="108">
         <v>180</v>
       </c>
-      <c r="O3" s="110">
+      <c r="O3" s="108">
         <f>N3-M3</f>
         <v>86.11</v>
       </c>
@@ -3142,29 +3136,29 @@
       <c r="H4" s="88">
         <v>200</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="104">
         <f t="shared" si="0"/>
         <v>112.7665</v>
       </c>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>'Cost Calculator'!K4</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K4" s="108">
+      <c r="K4" s="106">
         <v>100</v>
       </c>
-      <c r="L4" s="107">
+      <c r="L4" s="105">
         <f t="shared" si="1"/>
         <v>68.0324417857143</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="107">
         <f>'Cost Calculator'!L4</f>
         <v>93.73</v>
       </c>
-      <c r="N4" s="110">
+      <c r="N4" s="108">
         <v>180</v>
       </c>
-      <c r="O4" s="110">
+      <c r="O4" s="108">
         <f>N4-M4</f>
         <v>86.27</v>
       </c>
@@ -3195,22 +3189,22 @@
       <c r="H5" s="88">
         <v>200</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="104">
         <f t="shared" si="0"/>
         <v>103.6165</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="105">
         <f>'Cost Calculator'!K5</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="106">
         <v>100</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="105">
         <f t="shared" si="1"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M5" s="111"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
     </row>
@@ -3240,22 +3234,22 @@
       <c r="H6" s="88">
         <v>200</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="104">
         <f t="shared" si="0"/>
         <v>103.6165</v>
       </c>
-      <c r="J6" s="107">
+      <c r="J6" s="105">
         <f>'Cost Calculator'!K6</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="106">
         <v>100</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="105">
         <f t="shared" si="1"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M6" s="111"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="91"/>
       <c r="O6" s="91"/>
     </row>
@@ -3285,29 +3279,29 @@
       <c r="H7" s="88">
         <v>200</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="104">
         <f t="shared" si="0"/>
         <v>83.4415</v>
       </c>
-      <c r="J7" s="107">
+      <c r="J7" s="105">
         <f>'Cost Calculator'!K7</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="106">
         <v>100</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="105">
         <f t="shared" si="1"/>
         <v>59.8862142857143</v>
       </c>
-      <c r="M7" s="109">
+      <c r="M7" s="107">
         <f>'Cost Calculator'!L7</f>
         <v>110.81</v>
       </c>
-      <c r="N7" s="110">
+      <c r="N7" s="108">
         <v>180</v>
       </c>
-      <c r="O7" s="110">
+      <c r="O7" s="108">
         <f>N7-M7</f>
         <v>69.19</v>
       </c>
@@ -3338,29 +3332,29 @@
       <c r="H8" s="88">
         <v>200</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="104">
         <f t="shared" si="0"/>
         <v>106.9915</v>
       </c>
-      <c r="J8" s="107">
+      <c r="J8" s="105">
         <f>'Cost Calculator'!K8</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="106">
         <v>100</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="105">
         <f t="shared" si="1"/>
         <v>66.4283392857143</v>
       </c>
-      <c r="M8" s="109">
+      <c r="M8" s="107">
         <f>'Cost Calculator'!L8</f>
         <v>74.81</v>
       </c>
-      <c r="N8" s="110">
+      <c r="N8" s="108">
         <v>180</v>
       </c>
-      <c r="O8" s="110">
+      <c r="O8" s="108">
         <f>N8-M8</f>
         <v>105.19</v>
       </c>
@@ -3391,29 +3385,29 @@
       <c r="H9" s="88">
         <v>200</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="104">
         <f t="shared" si="0"/>
         <v>118.8655</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="105">
         <f>'Cost Calculator'!K9</f>
         <v>30.2737857142857</v>
       </c>
-      <c r="K9" s="108">
+      <c r="K9" s="106">
         <v>100</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="105">
         <f t="shared" si="1"/>
         <v>69.7262142857143</v>
       </c>
-      <c r="M9" s="109">
+      <c r="M9" s="107">
         <f>'Cost Calculator'!L9</f>
         <v>91.13</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="108">
         <v>180</v>
       </c>
-      <c r="O9" s="110">
+      <c r="O9" s="108">
         <f>N9-M9</f>
         <v>88.87</v>
       </c>
@@ -3444,22 +3438,22 @@
       <c r="H10" s="88">
         <v>200</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="104">
         <f t="shared" si="0"/>
         <v>71.7415</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="105">
         <f>'Cost Calculator'!K10</f>
         <v>43.3637857142857</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="106">
         <v>100</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="105">
         <f t="shared" si="1"/>
         <v>56.6362142857143</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="109"/>
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
     </row>
@@ -3489,29 +3483,29 @@
       <c r="H11" s="88">
         <v>200</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="104">
         <f t="shared" si="0"/>
         <v>106.9915</v>
       </c>
-      <c r="J11" s="107">
+      <c r="J11" s="105">
         <f>'Cost Calculator'!K11</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K11" s="108">
+      <c r="K11" s="106">
         <v>100</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="105">
         <f t="shared" si="1"/>
         <v>66.4283392857143</v>
       </c>
-      <c r="M11" s="109" t="e">
+      <c r="M11" s="107" t="e">
         <f>'Cost Calculator'!L11</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="110">
+      <c r="N11" s="108">
         <v>180</v>
       </c>
-      <c r="O11" s="110" t="e">
+      <c r="O11" s="108" t="e">
         <f t="shared" ref="O11:O16" si="2">N11-M11</f>
         <v>#REF!</v>
       </c>
@@ -3542,29 +3536,29 @@
       <c r="H12" s="88">
         <v>200</v>
       </c>
-      <c r="I12" s="106">
+      <c r="I12" s="104">
         <f t="shared" si="0"/>
         <v>114.0415</v>
       </c>
-      <c r="J12" s="107">
+      <c r="J12" s="105">
         <f>'Cost Calculator'!K12</f>
         <v>31.6137857142857</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="106">
         <v>100</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="105">
         <f t="shared" si="1"/>
         <v>68.3862142857143</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="107">
         <f>'Cost Calculator'!L12</f>
         <v>93.81</v>
       </c>
-      <c r="N12" s="110">
+      <c r="N12" s="108">
         <v>180</v>
       </c>
-      <c r="O12" s="110">
+      <c r="O12" s="108">
         <f t="shared" si="2"/>
         <v>86.19</v>
       </c>
@@ -3595,50 +3589,50 @@
       <c r="H13" s="88">
         <v>200</v>
       </c>
-      <c r="I13" s="106">
+      <c r="I13" s="104">
         <f t="shared" si="0"/>
         <v>86.4115</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="105">
         <f>'Cost Calculator'!K13</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K13" s="108">
+      <c r="K13" s="106">
         <v>100</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="105">
         <f t="shared" si="1"/>
         <v>60.7112142857143</v>
       </c>
-      <c r="M13" s="109">
+      <c r="M13" s="107">
         <f>'Cost Calculator'!L13</f>
         <v>109.16</v>
       </c>
-      <c r="N13" s="110">
+      <c r="N13" s="108">
         <v>180</v>
       </c>
-      <c r="O13" s="110">
+      <c r="O13" s="108">
         <f t="shared" si="2"/>
         <v>70.84</v>
       </c>
     </row>
     <row r="14" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="87" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="88">
@@ -3648,29 +3642,29 @@
       <c r="H14" s="88">
         <v>200</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="104">
         <f t="shared" si="0"/>
         <v>108.2665</v>
       </c>
-      <c r="J14" s="107">
+      <c r="J14" s="105">
         <f>'Cost Calculator'!K14</f>
         <v>33.2175082142857</v>
       </c>
-      <c r="K14" s="108">
+      <c r="K14" s="106">
         <v>100</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="105">
         <f t="shared" si="1"/>
         <v>66.7824917857143</v>
       </c>
-      <c r="M14" s="109">
+      <c r="M14" s="107">
         <f>'Cost Calculator'!L14</f>
         <v>96.13</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="108">
         <v>180</v>
       </c>
-      <c r="O14" s="110">
+      <c r="O14" s="108">
         <f t="shared" si="2"/>
         <v>83.87</v>
       </c>
@@ -3701,29 +3695,29 @@
       <c r="H15" s="88">
         <v>200</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="104">
         <f>H16-G15</f>
         <v>79.7695</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J15" s="105">
         <f>'Cost Calculator'!K15</f>
         <v>41.1337857142857</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="106">
         <v>100</v>
       </c>
-      <c r="L15" s="107">
+      <c r="L15" s="105">
         <f t="shared" si="1"/>
         <v>58.8662142857143</v>
       </c>
-      <c r="M15" s="109">
+      <c r="M15" s="107">
         <f>'Cost Calculator'!L15</f>
         <v>112.85</v>
       </c>
-      <c r="N15" s="110">
+      <c r="N15" s="108">
         <v>180</v>
       </c>
-      <c r="O15" s="110">
+      <c r="O15" s="108">
         <f t="shared" si="2"/>
         <v>67.15</v>
       </c>
@@ -3754,22 +3748,22 @@
       <c r="H16" s="88">
         <v>200</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="104">
         <f>H17-G16</f>
         <v>66.3415</v>
       </c>
-      <c r="J16" s="107">
+      <c r="J16" s="105">
         <f>'Cost Calculator'!K16</f>
         <v>44.8637857142857</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="106">
         <v>100</v>
       </c>
-      <c r="L16" s="107">
+      <c r="L16" s="105">
         <f t="shared" si="1"/>
         <v>55.1362142857143</v>
       </c>
-      <c r="M16" s="111"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
@@ -3799,29 +3793,29 @@
       <c r="H17" s="88">
         <v>200</v>
       </c>
-      <c r="I17" s="106">
-        <f t="shared" ref="I17:I73" si="3">H17-G17</f>
+      <c r="I17" s="104">
+        <f t="shared" ref="I17:I74" si="3">H17-G17</f>
         <v>112.7665</v>
       </c>
-      <c r="J17" s="107">
+      <c r="J17" s="105">
         <f>'Cost Calculator'!K17</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="106">
         <v>100</v>
       </c>
-      <c r="L17" s="107">
+      <c r="L17" s="105">
         <f t="shared" si="1"/>
         <v>68.0324417857143</v>
       </c>
-      <c r="M17" s="109" t="e">
+      <c r="M17" s="107" t="e">
         <f>'Cost Calculator'!L17</f>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="110">
+      <c r="N17" s="108">
         <v>180</v>
       </c>
-      <c r="O17" s="110" t="e">
+      <c r="O17" s="108" t="e">
         <f>N17-M17</f>
         <v>#REF!</v>
       </c>
@@ -3852,29 +3846,29 @@
       <c r="H18" s="88">
         <v>200</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="104">
         <f t="shared" si="3"/>
         <v>86.4115</v>
       </c>
-      <c r="J18" s="107">
+      <c r="J18" s="105">
         <f>'Cost Calculator'!K18</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K18" s="108">
+      <c r="K18" s="106">
         <v>100</v>
       </c>
-      <c r="L18" s="107">
+      <c r="L18" s="105">
         <f t="shared" si="1"/>
         <v>60.7112142857143</v>
       </c>
-      <c r="M18" s="109">
+      <c r="M18" s="107">
         <f>'Cost Calculator'!L19</f>
         <v>92.69</v>
       </c>
-      <c r="N18" s="110">
+      <c r="N18" s="108">
         <v>180</v>
       </c>
-      <c r="O18" s="110">
+      <c r="O18" s="108">
         <f>N18-M18</f>
         <v>87.31</v>
       </c>
@@ -3905,50 +3899,50 @@
       <c r="H19" s="88">
         <v>200</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="104">
         <f t="shared" si="3"/>
         <v>114.7165</v>
       </c>
-      <c r="J19" s="107">
+      <c r="J19" s="105">
         <f>'Cost Calculator'!K19</f>
         <v>31.4259132142857</v>
       </c>
-      <c r="K19" s="108">
+      <c r="K19" s="106">
         <v>100</v>
       </c>
-      <c r="L19" s="107">
+      <c r="L19" s="105">
         <f t="shared" si="1"/>
         <v>68.5740867857143</v>
       </c>
-      <c r="M19" s="109">
+      <c r="M19" s="107">
         <f>'Cost Calculator'!L18</f>
         <v>109.16</v>
       </c>
-      <c r="N19" s="110">
+      <c r="N19" s="108">
         <v>180</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="108">
         <f>N19-M19</f>
         <v>70.84</v>
       </c>
     </row>
     <row r="20" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="F20" s="94" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="88">
@@ -3958,21 +3952,21 @@
       <c r="H20" s="88">
         <v>200</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J20" s="112"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="109" t="e">
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="107" t="e">
         <f>'Cost Calculator'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="110">
+      <c r="N20" s="108">
         <v>180</v>
       </c>
-      <c r="O20" s="110" t="e">
+      <c r="O20" s="108" t="e">
         <f>N20-M20</f>
         <v>#REF!</v>
       </c>
@@ -4003,14 +3997,14 @@
       <c r="H21" s="88">
         <v>200</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="104">
         <f t="shared" si="3"/>
         <v>89.7415</v>
       </c>
       <c r="J21" s="91"/>
       <c r="K21" s="91"/>
       <c r="L21" s="91"/>
-      <c r="M21" s="111"/>
+      <c r="M21" s="109"/>
       <c r="N21" s="91"/>
       <c r="O21" s="91"/>
     </row>
@@ -4040,29 +4034,29 @@
       <c r="H22" s="88">
         <v>200</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="104">
         <f t="shared" si="3"/>
         <v>106.9915</v>
       </c>
-      <c r="J22" s="107">
+      <c r="J22" s="105">
         <f>'Cost Calculator'!K22</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="106">
         <v>100</v>
       </c>
-      <c r="L22" s="107">
+      <c r="L22" s="105">
         <f>K22-J22</f>
         <v>66.4283392857143</v>
       </c>
-      <c r="M22" s="109" t="e">
+      <c r="M22" s="107" t="e">
         <f>'Cost Calculator'!L22</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="110">
+      <c r="N22" s="108">
         <v>180</v>
       </c>
-      <c r="O22" s="110" t="e">
+      <c r="O22" s="108" t="e">
         <f>N22-M22</f>
         <v>#REF!</v>
       </c>
@@ -4093,29 +4087,29 @@
       <c r="H23" s="88">
         <v>200</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="104">
         <f t="shared" si="3"/>
         <v>106.9915</v>
       </c>
-      <c r="J23" s="107">
+      <c r="J23" s="105">
         <f>'Cost Calculator'!K23</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K23" s="108">
+      <c r="K23" s="106">
         <v>100</v>
       </c>
-      <c r="L23" s="107">
+      <c r="L23" s="105">
         <f>K23-J23</f>
         <v>66.4283392857143</v>
       </c>
-      <c r="M23" s="109" t="e">
+      <c r="M23" s="107" t="e">
         <f>'Cost Calculator'!L23</f>
         <v>#REF!</v>
       </c>
-      <c r="N23" s="110">
+      <c r="N23" s="108">
         <v>180</v>
       </c>
-      <c r="O23" s="110" t="e">
+      <c r="O23" s="108" t="e">
         <f>N23-M23</f>
         <v>#REF!</v>
       </c>
@@ -4146,29 +4140,29 @@
       <c r="H24" s="88">
         <v>200</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J24" s="107">
+      <c r="J24" s="105">
         <f>'Cost Calculator'!K24</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K24" s="108">
+      <c r="K24" s="106">
         <v>100</v>
       </c>
-      <c r="L24" s="107">
+      <c r="L24" s="105">
         <f>K24-J24</f>
         <v>64.8862142857143</v>
       </c>
-      <c r="M24" s="109">
+      <c r="M24" s="107">
         <f>'Cost Calculator'!L24</f>
         <v>74.81</v>
       </c>
-      <c r="N24" s="110">
+      <c r="N24" s="108">
         <v>180</v>
       </c>
-      <c r="O24" s="110">
+      <c r="O24" s="108">
         <f>N24-M24</f>
         <v>105.19</v>
       </c>
@@ -4199,50 +4193,50 @@
       <c r="H25" s="88">
         <v>200</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="104">
         <f t="shared" si="3"/>
         <v>59.6095</v>
       </c>
-      <c r="J25" s="107">
+      <c r="J25" s="105">
         <f>'Cost Calculator'!K25</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="106">
         <v>100</v>
       </c>
-      <c r="L25" s="107">
+      <c r="L25" s="105">
         <f>K25-J25</f>
         <v>53.2662142857143</v>
       </c>
-      <c r="M25" s="109">
+      <c r="M25" s="107">
         <f>'Cost Calculator'!L25</f>
         <v>124.05</v>
       </c>
-      <c r="N25" s="110">
+      <c r="N25" s="108">
         <v>180</v>
       </c>
-      <c r="O25" s="110">
+      <c r="O25" s="108">
         <f>N25-M25</f>
         <v>55.95</v>
       </c>
     </row>
     <row r="26" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="88">
@@ -4252,42 +4246,42 @@
       <c r="H26" s="88">
         <v>200</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="104">
         <f t="shared" si="3"/>
         <v>116.2165</v>
       </c>
-      <c r="J26" s="107">
+      <c r="J26" s="105">
         <f>'Cost Calculator'!K26</f>
         <v>22.1137857142857</v>
       </c>
-      <c r="K26" s="108">
+      <c r="K26" s="106">
         <v>100</v>
       </c>
-      <c r="L26" s="107">
+      <c r="L26" s="105">
         <f>K26-J26</f>
         <v>77.8862142857143</v>
       </c>
-      <c r="M26" s="111"/>
+      <c r="M26" s="109"/>
       <c r="N26" s="91"/>
       <c r="O26" s="91"/>
     </row>
     <row r="27" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="93" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="88">
@@ -4297,14 +4291,14 @@
       <c r="H27" s="88">
         <v>200</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="91"/>
       <c r="L27" s="91"/>
-      <c r="M27" s="111"/>
+      <c r="M27" s="109"/>
       <c r="N27" s="91"/>
       <c r="O27" s="91"/>
     </row>
@@ -4334,22 +4328,22 @@
       <c r="H28" s="88">
         <v>200</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="104">
         <f t="shared" si="3"/>
         <v>111.6415</v>
       </c>
-      <c r="J28" s="107">
+      <c r="J28" s="105">
         <f>'Cost Calculator'!K28</f>
         <v>32.2800457142857</v>
       </c>
-      <c r="K28" s="108">
+      <c r="K28" s="106">
         <v>100</v>
       </c>
-      <c r="L28" s="107">
+      <c r="L28" s="105">
         <f>K28-J28</f>
         <v>67.7199542857143</v>
       </c>
-      <c r="M28" s="111"/>
+      <c r="M28" s="109"/>
       <c r="N28" s="91"/>
       <c r="O28" s="91"/>
     </row>
@@ -4379,22 +4373,22 @@
       <c r="H29" s="88">
         <v>200</v>
       </c>
-      <c r="I29" s="106">
+      <c r="I29" s="104">
         <f t="shared" si="3"/>
         <v>89.9215</v>
       </c>
-      <c r="J29" s="107">
+      <c r="J29" s="105">
         <f>'Cost Calculator'!K29</f>
         <v>38.3137857142857</v>
       </c>
-      <c r="K29" s="108">
+      <c r="K29" s="106">
         <v>100</v>
       </c>
-      <c r="L29" s="107">
+      <c r="L29" s="105">
         <f>K29-J29</f>
         <v>61.6862142857143</v>
       </c>
-      <c r="M29" s="111"/>
+      <c r="M29" s="109"/>
       <c r="N29" s="91"/>
       <c r="O29" s="91"/>
     </row>
@@ -4424,29 +4418,29 @@
       <c r="H30" s="88">
         <v>200</v>
       </c>
-      <c r="I30" s="106">
+      <c r="I30" s="104">
         <f t="shared" si="3"/>
         <v>120.5215</v>
       </c>
-      <c r="J30" s="107">
+      <c r="J30" s="105">
         <f>'Cost Calculator'!K30</f>
         <v>29.8137857142857</v>
       </c>
-      <c r="K30" s="108">
+      <c r="K30" s="106">
         <v>100</v>
       </c>
-      <c r="L30" s="107">
+      <c r="L30" s="105">
         <f>K30-J30</f>
         <v>70.1862142857143</v>
       </c>
-      <c r="M30" s="109">
+      <c r="M30" s="107">
         <f>'Cost Calculator'!L30</f>
         <v>90.21</v>
       </c>
-      <c r="N30" s="110">
+      <c r="N30" s="108">
         <v>180</v>
       </c>
-      <c r="O30" s="110">
+      <c r="O30" s="108">
         <f>N30-M30</f>
         <v>89.79</v>
       </c>
@@ -4477,50 +4471,50 @@
       <c r="H31" s="88">
         <v>200</v>
       </c>
-      <c r="I31" s="106">
+      <c r="I31" s="104">
         <f t="shared" si="3"/>
         <v>103.6165</v>
       </c>
-      <c r="J31" s="107">
+      <c r="J31" s="105">
         <f>'Cost Calculator'!K31</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="106">
         <v>100</v>
       </c>
-      <c r="L31" s="107">
+      <c r="L31" s="105">
         <f>K31-J31</f>
         <v>65.4908767857143</v>
       </c>
-      <c r="M31" s="109" t="e">
+      <c r="M31" s="107" t="e">
         <f>'Cost Calculator'!L31</f>
         <v>#REF!</v>
       </c>
-      <c r="N31" s="110">
+      <c r="N31" s="108">
         <v>180</v>
       </c>
-      <c r="O31" s="110" t="e">
+      <c r="O31" s="108" t="e">
         <f>N31-M31</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="88">
@@ -4530,36 +4524,36 @@
       <c r="H32" s="88">
         <v>200</v>
       </c>
-      <c r="I32" s="106">
+      <c r="I32" s="104">
         <f t="shared" si="3"/>
         <v>89.1295</v>
       </c>
       <c r="J32" s="91"/>
-      <c r="K32" s="108">
+      <c r="K32" s="106">
         <v>100</v>
       </c>
       <c r="L32" s="91"/>
-      <c r="M32" s="111"/>
+      <c r="M32" s="109"/>
       <c r="N32" s="91"/>
       <c r="O32" s="91"/>
     </row>
     <row r="33" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="98" t="s">
+      <c r="F33" s="97" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="88">
@@ -4569,50 +4563,50 @@
       <c r="H33" s="88">
         <v>200</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="104">
         <f t="shared" si="3"/>
         <v>115.0915</v>
       </c>
-      <c r="J33" s="107">
+      <c r="J33" s="105">
         <f>'Cost Calculator'!K33</f>
         <v>31.3217507142857</v>
       </c>
-      <c r="K33" s="108">
+      <c r="K33" s="106">
         <v>100</v>
       </c>
-      <c r="L33" s="107">
+      <c r="L33" s="105">
         <f t="shared" ref="L33:L43" si="4">K33-J33</f>
         <v>68.6782492857143</v>
       </c>
-      <c r="M33" s="109" t="e">
+      <c r="M33" s="107" t="e">
         <f>'Cost Calculator'!L33</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="110">
+      <c r="N33" s="108">
         <v>180</v>
       </c>
-      <c r="O33" s="110" t="e">
+      <c r="O33" s="108" t="e">
         <f t="shared" ref="O33:O38" si="5">N33-M33</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="E34" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="90" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="88">
@@ -4622,29 +4616,29 @@
       <c r="H34" s="88">
         <v>200</v>
       </c>
-      <c r="I34" s="106">
+      <c r="I34" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J34" s="107">
+      <c r="J34" s="105">
         <f>'Cost Calculator'!K34</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K34" s="108">
+      <c r="K34" s="106">
         <v>100</v>
       </c>
-      <c r="L34" s="107">
+      <c r="L34" s="105">
         <f t="shared" si="4"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M34" s="109">
+      <c r="M34" s="107">
         <f>'Cost Calculator'!L34</f>
         <v>74.81</v>
       </c>
-      <c r="N34" s="110">
+      <c r="N34" s="108">
         <v>180</v>
       </c>
-      <c r="O34" s="110">
+      <c r="O34" s="108">
         <f t="shared" si="5"/>
         <v>105.19</v>
       </c>
@@ -4675,29 +4669,29 @@
       <c r="H35" s="88">
         <v>200</v>
       </c>
-      <c r="I35" s="106">
+      <c r="I35" s="104">
         <f t="shared" si="3"/>
         <v>83.4415</v>
       </c>
-      <c r="J35" s="107">
+      <c r="J35" s="105">
         <f>'Cost Calculator'!K35</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="106">
         <v>100</v>
       </c>
-      <c r="L35" s="107">
+      <c r="L35" s="105">
         <f t="shared" si="4"/>
         <v>59.8862142857143</v>
       </c>
-      <c r="M35" s="109">
+      <c r="M35" s="107">
         <f>'Cost Calculator'!L37</f>
         <v>92.309993</v>
       </c>
-      <c r="N35" s="110">
+      <c r="N35" s="108">
         <v>180</v>
       </c>
-      <c r="O35" s="110">
+      <c r="O35" s="108">
         <f t="shared" si="5"/>
         <v>87.690007</v>
       </c>
@@ -4728,29 +4722,29 @@
       <c r="H36" s="88">
         <v>200</v>
       </c>
-      <c r="I36" s="106">
+      <c r="I36" s="104">
         <f t="shared" si="3"/>
         <v>83.4415</v>
       </c>
-      <c r="J36" s="107">
+      <c r="J36" s="105">
         <f>'Cost Calculator'!K36</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K36" s="108">
+      <c r="K36" s="106">
         <v>100</v>
       </c>
-      <c r="L36" s="107">
+      <c r="L36" s="105">
         <f t="shared" si="4"/>
         <v>59.8862142857143</v>
       </c>
-      <c r="M36" s="109" t="e">
+      <c r="M36" s="107" t="e">
         <f>'Cost Calculator'!L38</f>
         <v>#REF!</v>
       </c>
-      <c r="N36" s="110">
+      <c r="N36" s="108">
         <v>180</v>
       </c>
-      <c r="O36" s="110" t="e">
+      <c r="O36" s="108" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
@@ -4781,29 +4775,29 @@
       <c r="H37" s="88">
         <v>200</v>
       </c>
-      <c r="I37" s="106">
+      <c r="I37" s="104">
         <f t="shared" si="3"/>
         <v>116.7415</v>
       </c>
-      <c r="J37" s="107">
+      <c r="J37" s="105">
         <f>'Cost Calculator'!K37</f>
         <v>30.8634357142857</v>
       </c>
-      <c r="K37" s="108">
+      <c r="K37" s="106">
         <v>100</v>
       </c>
-      <c r="L37" s="107">
+      <c r="L37" s="105">
         <f t="shared" si="4"/>
         <v>69.1365642857143</v>
       </c>
-      <c r="M37" s="109">
+      <c r="M37" s="107">
         <f>'Cost Calculator'!L39</f>
         <v>74.81</v>
       </c>
-      <c r="N37" s="110">
+      <c r="N37" s="108">
         <v>180</v>
       </c>
-      <c r="O37" s="110">
+      <c r="O37" s="108">
         <f t="shared" si="5"/>
         <v>105.19</v>
       </c>
@@ -4834,29 +4828,29 @@
       <c r="H38" s="88">
         <v>200</v>
       </c>
-      <c r="I38" s="106">
+      <c r="I38" s="104">
         <f t="shared" si="3"/>
         <v>104.7415</v>
       </c>
-      <c r="J38" s="107">
+      <c r="J38" s="105">
         <f>'Cost Calculator'!K38</f>
         <v>34.1966357142857</v>
       </c>
-      <c r="K38" s="108">
+      <c r="K38" s="106">
         <v>100</v>
       </c>
-      <c r="L38" s="107">
+      <c r="L38" s="105">
         <f t="shared" si="4"/>
         <v>65.8033642857143</v>
       </c>
-      <c r="M38" s="109">
+      <c r="M38" s="107">
         <f>'Cost Calculator'!L40</f>
         <v>107.31</v>
       </c>
-      <c r="N38" s="110">
+      <c r="N38" s="108">
         <v>180</v>
       </c>
-      <c r="O38" s="110">
+      <c r="O38" s="108">
         <f t="shared" si="5"/>
         <v>72.69</v>
       </c>
@@ -4887,22 +4881,22 @@
       <c r="H39" s="88">
         <v>200</v>
       </c>
-      <c r="I39" s="106">
+      <c r="I39" s="104">
         <f t="shared" si="3"/>
         <v>89.7415</v>
       </c>
-      <c r="J39" s="107">
+      <c r="J39" s="105">
         <f>'Cost Calculator'!K39</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K39" s="108">
+      <c r="K39" s="106">
         <v>100</v>
       </c>
-      <c r="L39" s="107">
+      <c r="L39" s="105">
         <f t="shared" si="4"/>
         <v>61.6362142857143</v>
       </c>
-      <c r="M39" s="111"/>
+      <c r="M39" s="109"/>
       <c r="N39" s="91"/>
       <c r="O39" s="91"/>
     </row>
@@ -4932,29 +4926,29 @@
       <c r="H40" s="88">
         <v>200</v>
       </c>
-      <c r="I40" s="106">
+      <c r="I40" s="104">
         <f t="shared" si="3"/>
         <v>89.7415</v>
       </c>
-      <c r="J40" s="107">
+      <c r="J40" s="105">
         <f>'Cost Calculator'!K40</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K40" s="108">
+      <c r="K40" s="106">
         <v>100</v>
       </c>
-      <c r="L40" s="107">
+      <c r="L40" s="105">
         <f t="shared" si="4"/>
         <v>61.6362142857143</v>
       </c>
-      <c r="M40" s="109">
+      <c r="M40" s="107">
         <f>'Cost Calculator'!L44</f>
         <v>0</v>
       </c>
-      <c r="N40" s="110">
+      <c r="N40" s="108">
         <v>180</v>
       </c>
-      <c r="O40" s="110">
+      <c r="O40" s="108">
         <f>N40-M40</f>
         <v>180</v>
       </c>
@@ -4985,22 +4979,22 @@
       <c r="H41" s="88">
         <v>200</v>
       </c>
-      <c r="I41" s="106">
+      <c r="I41" s="104">
         <f t="shared" si="3"/>
         <v>111.1165</v>
       </c>
-      <c r="J41" s="107">
+      <c r="J41" s="105">
         <f>'Cost Calculator'!K41</f>
         <v>32.4258732142857</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K41" s="106">
         <v>100</v>
       </c>
-      <c r="L41" s="107">
+      <c r="L41" s="105">
         <f t="shared" si="4"/>
         <v>67.5741267857143</v>
       </c>
-      <c r="M41" s="111"/>
+      <c r="M41" s="109"/>
       <c r="N41" s="91"/>
       <c r="O41" s="91"/>
     </row>
@@ -5030,22 +5024,22 @@
       <c r="H42" s="88">
         <v>200</v>
       </c>
-      <c r="I42" s="106">
+      <c r="I42" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J42" s="107">
+      <c r="J42" s="105">
         <f>'Cost Calculator'!K42</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K42" s="108">
+      <c r="K42" s="106">
         <v>100</v>
       </c>
-      <c r="L42" s="107">
+      <c r="L42" s="105">
         <f t="shared" si="4"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M42" s="111"/>
+      <c r="M42" s="109"/>
       <c r="N42" s="91"/>
       <c r="O42" s="91"/>
     </row>
@@ -5075,14 +5069,14 @@
       <c r="H43" s="88">
         <v>200</v>
       </c>
-      <c r="I43" s="106">
+      <c r="I43" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
       <c r="J43" s="91"/>
       <c r="K43" s="91"/>
       <c r="L43" s="91"/>
-      <c r="M43" s="111"/>
+      <c r="M43" s="109"/>
       <c r="N43" s="91"/>
       <c r="O43" s="91"/>
     </row>
@@ -5112,29 +5106,29 @@
       <c r="H44" s="88">
         <v>200</v>
       </c>
-      <c r="I44" s="106">
+      <c r="I44" s="104">
         <f t="shared" si="3"/>
         <v>106.9915</v>
       </c>
-      <c r="J44" s="107">
+      <c r="J44" s="105">
         <f>'Cost Calculator'!K44</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K44" s="108">
+      <c r="K44" s="106">
         <v>100</v>
       </c>
-      <c r="L44" s="107">
+      <c r="L44" s="105">
         <f>K44-J44</f>
         <v>66.4283392857143</v>
       </c>
-      <c r="M44" s="109">
+      <c r="M44" s="107">
         <f>'Cost Calculator'!L48</f>
         <v>100.81</v>
       </c>
-      <c r="N44" s="110">
+      <c r="N44" s="108">
         <v>180</v>
       </c>
-      <c r="O44" s="110">
+      <c r="O44" s="108">
         <f>N44-M44</f>
         <v>79.19</v>
       </c>
@@ -5165,16 +5159,16 @@
       <c r="H45" s="88">
         <v>200</v>
       </c>
-      <c r="I45" s="106">
+      <c r="I45" s="104">
         <f t="shared" si="3"/>
         <v>103.9915</v>
       </c>
       <c r="J45" s="91"/>
-      <c r="K45" s="108">
+      <c r="K45" s="106">
         <v>100</v>
       </c>
       <c r="L45" s="91"/>
-      <c r="M45" s="111"/>
+      <c r="M45" s="109"/>
       <c r="N45" s="91"/>
       <c r="O45" s="91"/>
     </row>
@@ -5204,22 +5198,22 @@
       <c r="H46" s="88">
         <v>200</v>
       </c>
-      <c r="I46" s="106">
+      <c r="I46" s="104">
         <f t="shared" si="3"/>
         <v>106.8415</v>
       </c>
-      <c r="J46" s="107">
+      <c r="J46" s="105">
         <f>'Cost Calculator'!K46</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K46" s="108">
+      <c r="K46" s="106">
         <v>100</v>
       </c>
-      <c r="L46" s="107">
+      <c r="L46" s="105">
         <f t="shared" ref="L46:L51" si="6">K46-J46</f>
         <v>66.3862142857143</v>
       </c>
-      <c r="M46" s="111"/>
+      <c r="M46" s="109"/>
       <c r="N46" s="91"/>
       <c r="O46" s="91"/>
     </row>
@@ -5249,22 +5243,22 @@
       <c r="H47" s="88">
         <v>200</v>
       </c>
-      <c r="I47" s="106">
+      <c r="I47" s="104">
         <f t="shared" si="3"/>
         <v>106.8415</v>
       </c>
-      <c r="J47" s="107">
+      <c r="J47" s="105">
         <f>'Cost Calculator'!K47</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K47" s="108">
+      <c r="K47" s="106">
         <v>100</v>
       </c>
-      <c r="L47" s="107">
+      <c r="L47" s="105">
         <f t="shared" si="6"/>
         <v>66.3862142857143</v>
       </c>
-      <c r="M47" s="111"/>
+      <c r="M47" s="109"/>
       <c r="N47" s="91"/>
       <c r="O47" s="91"/>
     </row>
@@ -5294,29 +5288,29 @@
       <c r="H48" s="88">
         <v>200</v>
       </c>
-      <c r="I48" s="106">
+      <c r="I48" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J48" s="107">
+      <c r="J48" s="105">
         <f>'Cost Calculator'!K48</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="106">
         <v>100</v>
       </c>
-      <c r="L48" s="107">
+      <c r="L48" s="105">
         <f t="shared" si="6"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M48" s="109">
+      <c r="M48" s="107">
         <f>'Cost Calculator'!L51</f>
         <v>97.81</v>
       </c>
-      <c r="N48" s="110">
+      <c r="N48" s="108">
         <v>180</v>
       </c>
-      <c r="O48" s="110">
+      <c r="O48" s="108">
         <f>N48-M48</f>
         <v>82.19</v>
       </c>
@@ -5347,22 +5341,22 @@
       <c r="H49" s="88">
         <v>200</v>
       </c>
-      <c r="I49" s="106">
+      <c r="I49" s="104">
         <f t="shared" si="3"/>
         <v>106.8415</v>
       </c>
-      <c r="J49" s="107">
+      <c r="J49" s="105">
         <f>'Cost Calculator'!K49</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K49" s="108">
+      <c r="K49" s="106">
         <v>100</v>
       </c>
-      <c r="L49" s="107">
+      <c r="L49" s="105">
         <f t="shared" si="6"/>
         <v>66.3862142857143</v>
       </c>
-      <c r="M49" s="111"/>
+      <c r="M49" s="109"/>
       <c r="N49" s="91"/>
       <c r="O49" s="91"/>
     </row>
@@ -5392,29 +5386,29 @@
       <c r="H50" s="88">
         <v>200</v>
       </c>
-      <c r="I50" s="106">
+      <c r="I50" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J50" s="107">
+      <c r="J50" s="105">
         <f>'Cost Calculator'!K50</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K50" s="108">
+      <c r="K50" s="106">
         <v>100</v>
       </c>
-      <c r="L50" s="107">
+      <c r="L50" s="105">
         <f t="shared" si="6"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M50" s="109">
+      <c r="M50" s="107">
         <f>'Cost Calculator'!L56</f>
         <v>74.81</v>
       </c>
-      <c r="N50" s="110">
+      <c r="N50" s="108">
         <v>180</v>
       </c>
-      <c r="O50" s="110">
+      <c r="O50" s="108">
         <f>N50-M50</f>
         <v>105.19</v>
       </c>
@@ -5445,29 +5439,29 @@
       <c r="H51" s="88">
         <v>200</v>
       </c>
-      <c r="I51" s="106">
+      <c r="I51" s="104">
         <f t="shared" si="3"/>
         <v>106.8415</v>
       </c>
-      <c r="J51" s="107">
+      <c r="J51" s="105">
         <f>'Cost Calculator'!K51</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="106">
         <v>100</v>
       </c>
-      <c r="L51" s="107">
+      <c r="L51" s="105">
         <f t="shared" si="6"/>
         <v>66.3862142857143</v>
       </c>
-      <c r="M51" s="109">
+      <c r="M51" s="107">
         <f>'Cost Calculator'!L57</f>
         <v>74.81</v>
       </c>
-      <c r="N51" s="110">
+      <c r="N51" s="108">
         <v>180</v>
       </c>
-      <c r="O51" s="110">
+      <c r="O51" s="108">
         <f>N51-M51</f>
         <v>105.19</v>
       </c>
@@ -5498,16 +5492,16 @@
       <c r="H52" s="88">
         <v>200</v>
       </c>
-      <c r="I52" s="106">
+      <c r="I52" s="104">
         <f t="shared" si="3"/>
         <v>109.2415</v>
       </c>
       <c r="J52" s="91"/>
-      <c r="K52" s="108">
+      <c r="K52" s="106">
         <v>100</v>
       </c>
       <c r="L52" s="91"/>
-      <c r="M52" s="111"/>
+      <c r="M52" s="109"/>
       <c r="N52" s="91"/>
       <c r="O52" s="91"/>
     </row>
@@ -5537,16 +5531,16 @@
       <c r="H53" s="88">
         <v>200</v>
       </c>
-      <c r="I53" s="106">
+      <c r="I53" s="104">
         <f t="shared" si="3"/>
         <v>103.9915</v>
       </c>
       <c r="J53" s="91"/>
-      <c r="K53" s="108">
+      <c r="K53" s="106">
         <v>100</v>
       </c>
       <c r="L53" s="91"/>
-      <c r="M53" s="111"/>
+      <c r="M53" s="109"/>
       <c r="N53" s="91"/>
       <c r="O53" s="91"/>
     </row>
@@ -5576,16 +5570,16 @@
       <c r="H54" s="88">
         <v>200</v>
       </c>
-      <c r="I54" s="106">
+      <c r="I54" s="104">
         <f t="shared" si="3"/>
         <v>108.8665</v>
       </c>
       <c r="J54" s="91"/>
-      <c r="K54" s="108">
+      <c r="K54" s="106">
         <v>100</v>
       </c>
       <c r="L54" s="91"/>
-      <c r="M54" s="111"/>
+      <c r="M54" s="109"/>
       <c r="N54" s="91"/>
       <c r="O54" s="91"/>
     </row>
@@ -5602,7 +5596,7 @@
       <c r="D55" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="98" t="s">
         <v>182</v>
       </c>
       <c r="F55" s="91" t="s">
@@ -5615,29 +5609,29 @@
       <c r="H55" s="88">
         <v>200</v>
       </c>
-      <c r="I55" s="106">
+      <c r="I55" s="104">
         <f t="shared" si="3"/>
         <v>95.1415</v>
       </c>
-      <c r="J55" s="107">
+      <c r="J55" s="105">
         <f>'Cost Calculator'!K55</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K55" s="108">
+      <c r="K55" s="106">
         <v>100</v>
       </c>
-      <c r="L55" s="107">
+      <c r="L55" s="105">
         <f t="shared" ref="L55:L60" si="7">K55-J55</f>
         <v>63.1362142857143</v>
       </c>
-      <c r="M55" s="109">
+      <c r="M55" s="107">
         <f>'Cost Calculator'!L58</f>
         <v>107.33</v>
       </c>
-      <c r="N55" s="110">
+      <c r="N55" s="108">
         <v>180</v>
       </c>
-      <c r="O55" s="110">
+      <c r="O55" s="108">
         <f>N55-M55</f>
         <v>72.67</v>
       </c>
@@ -5668,29 +5662,29 @@
       <c r="H56" s="88">
         <v>200</v>
       </c>
-      <c r="I56" s="106">
+      <c r="I56" s="104">
         <f t="shared" si="3"/>
         <v>106.8415</v>
       </c>
-      <c r="J56" s="107">
+      <c r="J56" s="105">
         <f>'Cost Calculator'!K56</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K56" s="108">
+      <c r="K56" s="106">
         <v>100</v>
       </c>
-      <c r="L56" s="107">
+      <c r="L56" s="105">
         <f t="shared" si="7"/>
         <v>66.3862142857143</v>
       </c>
-      <c r="M56" s="109">
+      <c r="M56" s="107">
         <f>'Cost Calculator'!L60</f>
         <v>104.31</v>
       </c>
-      <c r="N56" s="110">
+      <c r="N56" s="108">
         <v>180</v>
       </c>
-      <c r="O56" s="110">
+      <c r="O56" s="108">
         <f>N56-M56</f>
         <v>75.69</v>
       </c>
@@ -5721,29 +5715,29 @@
       <c r="H57" s="88">
         <v>200</v>
       </c>
-      <c r="I57" s="106">
+      <c r="I57" s="104">
         <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J57" s="107">
+      <c r="J57" s="105">
         <f>'Cost Calculator'!K57</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K57" s="108">
+      <c r="K57" s="106">
         <v>100</v>
       </c>
-      <c r="L57" s="107">
+      <c r="L57" s="105">
         <f t="shared" si="7"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M57" s="114">
+      <c r="M57" s="112">
         <f>'Cost Calculator'!L65</f>
         <v>92.33</v>
       </c>
-      <c r="N57" s="114">
+      <c r="N57" s="112">
         <v>180</v>
       </c>
-      <c r="O57" s="114">
+      <c r="O57" s="112">
         <f>N57-M57</f>
         <v>87.67</v>
       </c>
@@ -5774,29 +5768,29 @@
       <c r="H58" s="88">
         <v>200</v>
       </c>
-      <c r="I58" s="106">
+      <c r="I58" s="104">
         <f t="shared" si="3"/>
         <v>89.7055</v>
       </c>
-      <c r="J58" s="107">
+      <c r="J58" s="105">
         <f>'Cost Calculator'!K58</f>
         <v>38.3737857142857</v>
       </c>
-      <c r="K58" s="108">
+      <c r="K58" s="106">
         <v>100</v>
       </c>
-      <c r="L58" s="107">
+      <c r="L58" s="105">
         <f t="shared" si="7"/>
         <v>61.6262142857143</v>
       </c>
-      <c r="M58" s="114">
+      <c r="M58" s="112">
         <f>'Cost Calculator'!L66</f>
         <v>122.93</v>
       </c>
-      <c r="N58" s="114">
+      <c r="N58" s="112">
         <v>180</v>
       </c>
-      <c r="O58" s="114">
+      <c r="O58" s="112">
         <f>N58-M58</f>
         <v>57.07</v>
       </c>
@@ -5827,24 +5821,24 @@
       <c r="H59" s="88">
         <v>200</v>
       </c>
-      <c r="I59" s="106">
+      <c r="I59" s="104">
         <f t="shared" si="3"/>
         <v>95.1415</v>
       </c>
-      <c r="J59" s="107">
+      <c r="J59" s="105">
         <f>'Cost Calculator'!K59</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K59" s="108">
+      <c r="K59" s="106">
         <v>100</v>
       </c>
-      <c r="L59" s="107">
+      <c r="L59" s="105">
         <f t="shared" si="7"/>
         <v>63.1362142857143</v>
       </c>
-      <c r="M59" s="115"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="115"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
     </row>
     <row r="60" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A60" s="89" t="s">
@@ -5872,29 +5866,29 @@
       <c r="H60" s="88">
         <v>200</v>
       </c>
-      <c r="I60" s="106">
+      <c r="I60" s="104">
         <f t="shared" si="3"/>
         <v>95.1415</v>
       </c>
-      <c r="J60" s="107">
+      <c r="J60" s="105">
         <f>'Cost Calculator'!K60</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K60" s="108">
+      <c r="K60" s="106">
         <v>100</v>
       </c>
-      <c r="L60" s="107">
+      <c r="L60" s="105">
         <f t="shared" si="7"/>
         <v>63.1362142857143</v>
       </c>
-      <c r="M60" s="114">
+      <c r="M60" s="112">
         <f>'Cost Calculator'!L67</f>
         <v>74.81</v>
       </c>
-      <c r="N60" s="114">
+      <c r="N60" s="112">
         <v>180</v>
       </c>
-      <c r="O60" s="114">
+      <c r="O60" s="112">
         <f>N60-M60</f>
         <v>105.19</v>
       </c>
@@ -5925,12 +5919,12 @@
       <c r="H61" s="88">
         <v>200</v>
       </c>
-      <c r="I61" s="106">
+      <c r="I61" s="104">
         <f t="shared" si="3"/>
         <v>109.2415</v>
       </c>
       <c r="J61" s="91"/>
-      <c r="K61" s="108">
+      <c r="K61" s="106">
         <v>100</v>
       </c>
       <c r="L61" s="91"/>
@@ -5961,29 +5955,29 @@
       <c r="H62" s="88">
         <v>200</v>
       </c>
-      <c r="I62" s="106">
+      <c r="I62" s="104">
         <f t="shared" si="3"/>
         <v>52.2655</v>
       </c>
-      <c r="J62" s="107">
+      <c r="J62" s="105">
         <f>'Cost Calculator'!K62</f>
         <v>48.7737857142857</v>
       </c>
-      <c r="K62" s="108">
+      <c r="K62" s="106">
         <v>100</v>
       </c>
-      <c r="L62" s="107">
+      <c r="L62" s="105">
         <f>K62-J62</f>
         <v>51.2262142857143</v>
       </c>
-      <c r="M62" s="114">
+      <c r="M62" s="112">
         <f>'Cost Calculator'!L68</f>
         <v>94.18499225</v>
       </c>
-      <c r="N62" s="114">
+      <c r="N62" s="112">
         <v>180</v>
       </c>
-      <c r="O62" s="114">
+      <c r="O62" s="112">
         <f>N62-M62</f>
         <v>85.81500775</v>
       </c>
@@ -6014,42 +6008,42 @@
       <c r="H63" s="88">
         <v>200</v>
       </c>
-      <c r="I63" s="106">
+      <c r="I63" s="104">
         <f t="shared" si="3"/>
         <v>59.6095</v>
       </c>
-      <c r="J63" s="116">
+      <c r="J63" s="114">
         <f>'Cost Calculator'!K63</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K63" s="108">
+      <c r="K63" s="106">
         <v>100</v>
       </c>
-      <c r="L63" s="116">
+      <c r="L63" s="114">
         <f>K63-J63</f>
         <v>53.2662142857143</v>
       </c>
-      <c r="M63" s="115"/>
-      <c r="N63" s="115"/>
-      <c r="O63" s="115"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
     </row>
     <row r="64" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="102" t="s">
+      <c r="F64" s="100" t="s">
         <v>66</v>
       </c>
       <c r="G64" s="88">
@@ -6059,11 +6053,11 @@
       <c r="H64" s="88">
         <v>200</v>
       </c>
-      <c r="I64" s="106">
-        <f>H64-G64</f>
+      <c r="I64" s="104">
+        <f t="shared" si="3"/>
         <v>108.2665</v>
       </c>
-      <c r="K64" s="102"/>
+      <c r="K64" s="100"/>
     </row>
     <row r="65" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A65" s="87" t="s">
@@ -6091,29 +6085,29 @@
       <c r="H65" s="88">
         <v>200</v>
       </c>
-      <c r="I65" s="106">
-        <f>H65-G65</f>
+      <c r="I65" s="104">
+        <f t="shared" si="3"/>
         <v>116.7055</v>
       </c>
-      <c r="J65" s="107">
+      <c r="J65" s="105">
         <f>'Cost Calculator'!K65</f>
         <v>30.8737857142857</v>
       </c>
-      <c r="K65" s="108">
+      <c r="K65" s="106">
         <v>100</v>
       </c>
-      <c r="L65" s="107">
-        <f>K65-J65</f>
+      <c r="L65" s="105">
+        <f t="shared" ref="L65:L74" si="8">K65-J65</f>
         <v>69.1262142857143</v>
       </c>
-      <c r="M65" s="114">
+      <c r="M65" s="112">
         <f>'Cost Calculator'!L70</f>
         <v>113.81</v>
       </c>
-      <c r="N65" s="114">
+      <c r="N65" s="112">
         <v>180</v>
       </c>
-      <c r="O65" s="114">
+      <c r="O65" s="112">
         <f>N65-M65</f>
         <v>66.19</v>
       </c>
@@ -6144,29 +6138,29 @@
       <c r="H66" s="88">
         <v>200</v>
       </c>
-      <c r="I66" s="106">
-        <f>H66-G66</f>
+      <c r="I66" s="104">
+        <f t="shared" si="3"/>
         <v>61.6255</v>
       </c>
-      <c r="J66" s="107">
+      <c r="J66" s="105">
         <f>'Cost Calculator'!K66</f>
         <v>46.1737857142857</v>
       </c>
-      <c r="K66" s="108">
+      <c r="K66" s="106">
         <v>100</v>
       </c>
-      <c r="L66" s="107">
-        <f>K66-J66</f>
+      <c r="L66" s="105">
+        <f t="shared" si="8"/>
         <v>53.8262142857143</v>
       </c>
-      <c r="M66" s="114">
+      <c r="M66" s="112">
         <f>'Cost Calculator'!L71</f>
         <v>89.49</v>
       </c>
-      <c r="N66" s="114">
+      <c r="N66" s="112">
         <v>180</v>
       </c>
-      <c r="O66" s="114">
+      <c r="O66" s="112">
         <f>N66-M66</f>
         <v>90.51</v>
       </c>
@@ -6197,29 +6191,29 @@
       <c r="H67" s="88">
         <v>200</v>
       </c>
-      <c r="I67" s="106">
-        <f>H67-G67</f>
+      <c r="I67" s="104">
+        <f t="shared" si="3"/>
         <v>95.1415</v>
       </c>
-      <c r="J67" s="107">
+      <c r="J67" s="105">
         <f>'Cost Calculator'!K67</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K67" s="108">
+      <c r="K67" s="106">
         <v>100</v>
       </c>
-      <c r="L67" s="107">
-        <f>K67-J67</f>
+      <c r="L67" s="105">
+        <f t="shared" si="8"/>
         <v>63.1362142857143</v>
       </c>
-      <c r="M67" s="114" t="e">
+      <c r="M67" s="112" t="e">
         <f>'Cost Calculator'!L72</f>
         <v>#REF!</v>
       </c>
-      <c r="N67" s="114">
+      <c r="N67" s="112">
         <v>180</v>
       </c>
-      <c r="O67" s="114" t="e">
+      <c r="O67" s="112" t="e">
         <f>N67-M67</f>
         <v>#REF!</v>
       </c>
@@ -6250,29 +6244,29 @@
       <c r="H68" s="88">
         <v>200</v>
       </c>
-      <c r="I68" s="106">
-        <f>H68-G68</f>
+      <c r="I68" s="104">
+        <f t="shared" si="3"/>
         <v>113.3665</v>
       </c>
-      <c r="J68" s="107">
+      <c r="J68" s="105">
         <f>'Cost Calculator'!K68</f>
         <v>31.8008982142857</v>
       </c>
-      <c r="K68" s="108">
+      <c r="K68" s="106">
         <v>100</v>
       </c>
-      <c r="L68" s="107">
-        <f>K68-J68</f>
+      <c r="L68" s="105">
+        <f t="shared" si="8"/>
         <v>68.1991017857143</v>
       </c>
-      <c r="M68" s="114">
+      <c r="M68" s="112">
         <f>'Cost Calculator'!L73</f>
         <v>110.25</v>
       </c>
-      <c r="N68" s="114">
+      <c r="N68" s="112">
         <v>180</v>
       </c>
-      <c r="O68" s="114">
+      <c r="O68" s="112">
         <f>N68-M68</f>
         <v>69.75</v>
       </c>
@@ -6303,29 +6297,29 @@
       <c r="H69" s="88">
         <v>200</v>
       </c>
-      <c r="I69" s="106">
-        <f>H69-G69</f>
+      <c r="I69" s="104">
+        <f t="shared" si="3"/>
         <v>101.4415</v>
       </c>
-      <c r="J69" s="107">
+      <c r="J69" s="105">
         <f>'Cost Calculator'!K69</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K69" s="108">
+      <c r="K69" s="106">
         <v>100</v>
       </c>
-      <c r="L69" s="107">
-        <f>K69-J69</f>
+      <c r="L69" s="105">
+        <f t="shared" si="8"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M69" s="114" t="e">
+      <c r="M69" s="112" t="e">
         <f>'Cost Calculator'!L74</f>
         <v>#REF!</v>
       </c>
-      <c r="N69" s="114">
+      <c r="N69" s="112">
         <v>180</v>
       </c>
-      <c r="O69" s="114" t="e">
+      <c r="O69" s="112" t="e">
         <f>N69-M69</f>
         <v>#REF!</v>
       </c>
@@ -6356,24 +6350,24 @@
       <c r="H70" s="88">
         <v>200</v>
       </c>
-      <c r="I70" s="106">
-        <f>H70-G70</f>
+      <c r="I70" s="104">
+        <f t="shared" si="3"/>
         <v>78.0415</v>
       </c>
-      <c r="J70" s="107">
+      <c r="J70" s="105">
         <f>'Cost Calculator'!K70</f>
         <v>41.6137857142857</v>
       </c>
-      <c r="K70" s="108">
+      <c r="K70" s="106">
         <v>100</v>
       </c>
-      <c r="L70" s="107">
-        <f>K70-J70</f>
+      <c r="L70" s="105">
+        <f t="shared" si="8"/>
         <v>58.3862142857143</v>
       </c>
-      <c r="M70" s="115"/>
-      <c r="N70" s="115"/>
-      <c r="O70" s="115"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
     </row>
     <row r="71" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A71" s="91" t="s">
@@ -6401,24 +6395,24 @@
       <c r="H71" s="88">
         <v>200</v>
       </c>
-      <c r="I71" s="106">
-        <f>H71-G71</f>
+      <c r="I71" s="104">
+        <f t="shared" si="3"/>
         <v>121.8175</v>
       </c>
-      <c r="J71" s="107">
+      <c r="J71" s="105">
         <f>'Cost Calculator'!K71</f>
         <v>29.4537857142857</v>
       </c>
-      <c r="K71" s="108">
+      <c r="K71" s="106">
         <v>100</v>
       </c>
-      <c r="L71" s="107">
-        <f>K71-J71</f>
+      <c r="L71" s="105">
+        <f t="shared" si="8"/>
         <v>70.5462142857143</v>
       </c>
-      <c r="M71" s="115"/>
-      <c r="N71" s="115"/>
-      <c r="O71" s="115"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
     </row>
     <row r="72" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A72" s="89" t="s">
@@ -6446,24 +6440,24 @@
       <c r="H72" s="88">
         <v>200</v>
       </c>
-      <c r="I72" s="106">
-        <f>H72-G72</f>
+      <c r="I72" s="104">
+        <f t="shared" si="3"/>
         <v>103.6165</v>
       </c>
-      <c r="J72" s="107">
+      <c r="J72" s="105">
         <f>'Cost Calculator'!K72</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K72" s="108">
+      <c r="K72" s="106">
         <v>100</v>
       </c>
-      <c r="L72" s="107">
-        <f>K72-J72</f>
+      <c r="L72" s="105">
+        <f t="shared" si="8"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M72" s="115"/>
-      <c r="N72" s="115"/>
-      <c r="O72" s="115"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="113"/>
     </row>
     <row r="73" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A73" s="91" t="s">
@@ -6491,69 +6485,69 @@
       <c r="H73" s="88">
         <v>200</v>
       </c>
-      <c r="I73" s="106">
-        <f>H73-G73</f>
+      <c r="I73" s="104">
+        <f t="shared" si="3"/>
         <v>84.4495</v>
       </c>
-      <c r="J73" s="107">
+      <c r="J73" s="105">
         <f>'Cost Calculator'!K73</f>
         <v>39.8337857142857</v>
       </c>
-      <c r="K73" s="108">
+      <c r="K73" s="106">
         <v>100</v>
       </c>
-      <c r="L73" s="107">
-        <f>K73-J73</f>
+      <c r="L73" s="105">
+        <f t="shared" si="8"/>
         <v>60.1662142857143</v>
       </c>
-      <c r="M73" s="115"/>
-      <c r="N73" s="115"/>
-      <c r="O73" s="115"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
     </row>
     <row r="74" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A74" s="117" t="s">
+      <c r="A74" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="117" t="s">
+      <c r="C74" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="117" t="s">
+      <c r="D74" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="117" t="s">
+      <c r="E74" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="118" t="s">
+      <c r="F74" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="119">
+      <c r="G74" s="117">
         <f>'Cost Calculator'!J74</f>
         <v>96.3835</v>
       </c>
-      <c r="H74" s="119">
+      <c r="H74" s="117">
         <v>200</v>
       </c>
-      <c r="I74" s="120">
-        <f>H74-G74</f>
+      <c r="I74" s="118">
+        <f t="shared" si="3"/>
         <v>103.6165</v>
       </c>
-      <c r="J74" s="116">
+      <c r="J74" s="114">
         <f>'Cost Calculator'!K74</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K74" s="121">
+      <c r="K74" s="119">
         <v>100</v>
       </c>
-      <c r="L74" s="116">
-        <f>K74-J74</f>
+      <c r="L74" s="114">
+        <f t="shared" si="8"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M74" s="115"/>
-      <c r="N74" s="115"/>
-      <c r="O74" s="115"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
     </row>
     <row r="75" s="83" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="76" s="83" customFormat="1" ht="14.25" customHeight="1"/>

--- a/Inventory & Costings.xlsx
+++ b/Inventory & Costings.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="325">
   <si>
     <t>Brand</t>
   </si>
@@ -161,6 +161,9 @@
     <t>CK2</t>
   </si>
   <si>
+    <t>Aromatic Aquatic</t>
+  </si>
+  <si>
     <t>Arctic Materia</t>
   </si>
   <si>
@@ -242,141 +245,141 @@
     <t>Mojave Ghost</t>
   </si>
   <si>
+    <t>Dear Whispers</t>
+  </si>
+  <si>
+    <t>The Frag Depot</t>
+  </si>
+  <si>
+    <t>Xerjoff</t>
+  </si>
+  <si>
+    <t>Erba Pura</t>
+  </si>
+  <si>
+    <t>Delight Mélange</t>
+  </si>
+  <si>
+    <t>Parfum Aromatics Co.</t>
+  </si>
+  <si>
+    <t>Le Labo</t>
+  </si>
+  <si>
+    <t>Another 13</t>
+  </si>
+  <si>
+    <t>Dermacore Vent</t>
+  </si>
+  <si>
+    <t>Lacoste</t>
+  </si>
+  <si>
+    <t>Style In Play</t>
+  </si>
+  <si>
+    <t>Woody Floral Musk</t>
+  </si>
+  <si>
+    <t>Dustyle</t>
+  </si>
+  <si>
+    <t>Tobacco Vanille</t>
+  </si>
+  <si>
+    <t>Enigmiasma</t>
+  </si>
+  <si>
+    <t>Prada</t>
+  </si>
+  <si>
+    <t>Paradoxe</t>
+  </si>
+  <si>
+    <t>Epicene Oxymoron</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Aromatic Green</t>
+  </si>
+  <si>
+    <t>Euca Break</t>
+  </si>
+  <si>
+    <t>Gaiac 10</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Gaia Lucidum</t>
+  </si>
+  <si>
+    <t>Kenzo</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Un Jardin Sur Le Toit</t>
+  </si>
+  <si>
+    <t>Aromatic Fruity</t>
+  </si>
+  <si>
+    <t>Glade Parade</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Floral Aldehyde</t>
+  </si>
+  <si>
+    <t>Glittersphere</t>
+  </si>
+  <si>
+    <t>Diptyque</t>
+  </si>
+  <si>
+    <t>Orpheon</t>
+  </si>
+  <si>
+    <t>Woody Chypre</t>
+  </si>
+  <si>
+    <t>Grovelock</t>
+  </si>
+  <si>
+    <t>Jo Malone</t>
+  </si>
+  <si>
+    <t>Mimosa &amp; Cardamom</t>
+  </si>
+  <si>
+    <t>Helios Syrup</t>
+  </si>
+  <si>
+    <t>Vetyver</t>
+  </si>
+  <si>
+    <t>Hide of Zizanio</t>
+  </si>
+  <si>
+    <t>Blackberry &amp; Bay</t>
+  </si>
+  <si>
     <t>Floral Fruity</t>
   </si>
   <si>
-    <t>Dear Whispers</t>
-  </si>
-  <si>
-    <t>The Frag Depot</t>
-  </si>
-  <si>
-    <t>Xerjoff</t>
-  </si>
-  <si>
-    <t>Erba Pura</t>
-  </si>
-  <si>
-    <t>Delight Mélange</t>
-  </si>
-  <si>
-    <t>Parfum Aromatics Co.</t>
-  </si>
-  <si>
-    <t>Le Labo</t>
-  </si>
-  <si>
-    <t>Another 13</t>
-  </si>
-  <si>
-    <t>Dermacore Vent</t>
-  </si>
-  <si>
-    <t>Lacoste</t>
-  </si>
-  <si>
-    <t>Style In Play</t>
-  </si>
-  <si>
-    <t>Woody Floral Musk</t>
-  </si>
-  <si>
-    <t>Dustyle</t>
-  </si>
-  <si>
-    <t>Tobacco Vanille</t>
-  </si>
-  <si>
-    <t>Enigmiasma</t>
-  </si>
-  <si>
-    <t>Prada</t>
-  </si>
-  <si>
-    <t>Paradoxe</t>
-  </si>
-  <si>
-    <t>Epicene Oxymoron</t>
-  </si>
-  <si>
-    <t>Escape</t>
-  </si>
-  <si>
-    <t>Aromatic Green</t>
-  </si>
-  <si>
-    <t>Euca Break</t>
-  </si>
-  <si>
-    <t>Gaiac 10</t>
-  </si>
-  <si>
-    <t>Woody</t>
-  </si>
-  <si>
-    <t>Gaia Lucidum</t>
-  </si>
-  <si>
-    <t>Kenzo</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Garland</t>
-  </si>
-  <si>
-    <t>Hermes</t>
-  </si>
-  <si>
-    <t>Un Jardin Sur Le Toit</t>
-  </si>
-  <si>
-    <t>Aromatic Fruity</t>
-  </si>
-  <si>
-    <t>Glade Parade</t>
-  </si>
-  <si>
-    <t>Blanche</t>
-  </si>
-  <si>
-    <t>Floral Aldehyde</t>
-  </si>
-  <si>
-    <t>Glittersphere</t>
-  </si>
-  <si>
-    <t>Diptyque</t>
-  </si>
-  <si>
-    <t>Orpheon</t>
-  </si>
-  <si>
-    <t>Woody Chypre</t>
-  </si>
-  <si>
-    <t>Grovelock</t>
-  </si>
-  <si>
-    <t>Jo Malone</t>
-  </si>
-  <si>
-    <t>Mimosa &amp; Cardamom</t>
-  </si>
-  <si>
-    <t>Helios Syrup</t>
-  </si>
-  <si>
-    <t>Vetyver</t>
-  </si>
-  <si>
-    <t>Hide of Zizanio</t>
-  </si>
-  <si>
-    <t>Blackberry &amp; Bay</t>
-  </si>
-  <si>
     <t>Honorable Laurel</t>
   </si>
   <si>
@@ -449,6 +452,18 @@
     <t>Maritaroma</t>
   </si>
   <si>
+    <t>Giorgio Armani</t>
+  </si>
+  <si>
+    <t>Emporio Armani White</t>
+  </si>
+  <si>
+    <t>Citrus Aromatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muschamitrus </t>
+  </si>
+  <si>
     <t>Baccarat Rouge 540</t>
   </si>
   <si>
@@ -548,16 +563,10 @@
     <t>Hugo Iced</t>
   </si>
   <si>
-    <t>Aromatic Aquatic</t>
-  </si>
-  <si>
     <t>Snow Crystal Gust</t>
   </si>
   <si>
     <t>Olympea Solar</t>
-  </si>
-  <si>
-    <t>Citrus Aromatic</t>
   </si>
   <si>
     <t>Solanzoin</t>
@@ -2317,7 +2326,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2326,9 +2335,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2377,14 +2383,17 @@
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2934,9 +2943,9 @@
   <dimension ref="A1:O1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1"/>
@@ -2985,22 +2994,22 @@
       <c r="I1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3030,29 +3039,29 @@
       <c r="H2" s="88">
         <v>200</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="103">
         <f t="shared" ref="I2:I15" si="0">H2-G2</f>
         <v>112.7665</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="104">
         <f>'Cost Calculator'!K2</f>
         <v>22.1137857142857</v>
       </c>
-      <c r="K2" s="106">
+      <c r="K2" s="105">
         <v>100</v>
       </c>
-      <c r="L2" s="105">
+      <c r="L2" s="104">
         <f t="shared" ref="L2:L19" si="1">K2-J2</f>
         <v>77.8862142857143</v>
       </c>
-      <c r="M2" s="107">
+      <c r="M2" s="106">
         <f>'Cost Calculator'!L2</f>
         <v>74.81</v>
       </c>
-      <c r="N2" s="108">
+      <c r="N2" s="107">
         <v>180</v>
       </c>
-      <c r="O2" s="108">
+      <c r="O2" s="107">
         <f>N2-M2</f>
         <v>105.19</v>
       </c>
@@ -3083,29 +3092,29 @@
       <c r="H3" s="88">
         <v>200</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="103">
         <f t="shared" si="0"/>
         <v>113.8975</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="104">
         <f>'Cost Calculator'!K3</f>
         <v>31.6537857142857</v>
       </c>
-      <c r="K3" s="106">
+      <c r="K3" s="105">
         <v>100</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="104">
         <f t="shared" si="1"/>
         <v>68.3462142857143</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="106">
         <f>'Cost Calculator'!L3</f>
         <v>93.89</v>
       </c>
-      <c r="N3" s="108">
+      <c r="N3" s="107">
         <v>180</v>
       </c>
-      <c r="O3" s="108">
+      <c r="O3" s="107">
         <f>N3-M3</f>
         <v>86.11</v>
       </c>
@@ -3136,29 +3145,29 @@
       <c r="H4" s="88">
         <v>200</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="103">
         <f t="shared" si="0"/>
         <v>112.7665</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="104">
         <f>'Cost Calculator'!K4</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K4" s="106">
+      <c r="K4" s="105">
         <v>100</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="104">
         <f t="shared" si="1"/>
         <v>68.0324417857143</v>
       </c>
-      <c r="M4" s="107">
+      <c r="M4" s="106">
         <f>'Cost Calculator'!L4</f>
         <v>93.73</v>
       </c>
-      <c r="N4" s="108">
+      <c r="N4" s="107">
         <v>180</v>
       </c>
-      <c r="O4" s="108">
+      <c r="O4" s="107">
         <f>N4-M4</f>
         <v>86.27</v>
       </c>
@@ -3189,22 +3198,22 @@
       <c r="H5" s="88">
         <v>200</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="103">
         <f t="shared" si="0"/>
         <v>103.6165</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="104">
         <f>'Cost Calculator'!K5</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K5" s="106">
+      <c r="K5" s="105">
         <v>100</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="104">
         <f t="shared" si="1"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M5" s="109"/>
+      <c r="M5" s="108"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
     </row>
@@ -3219,10 +3228,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="92" t="s">
         <v>34</v>
@@ -3234,22 +3243,22 @@
       <c r="H6" s="88">
         <v>200</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="103">
         <f t="shared" si="0"/>
         <v>103.6165</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="104">
         <f>'Cost Calculator'!K6</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K6" s="106">
+      <c r="K6" s="105">
         <v>100</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="104">
         <f t="shared" si="1"/>
         <v>65.4908767857143</v>
       </c>
-      <c r="M6" s="109"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="91"/>
       <c r="O6" s="91"/>
     </row>
@@ -3258,19 +3267,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="88">
         <f>'Cost Calculator'!J7</f>
@@ -3279,51 +3288,51 @@
       <c r="H7" s="88">
         <v>200</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="103">
         <f t="shared" si="0"/>
         <v>83.4415</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="104">
         <f>'Cost Calculator'!K7</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K7" s="106">
+      <c r="K7" s="105">
         <v>100</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="104">
         <f t="shared" si="1"/>
         <v>59.8862142857143</v>
       </c>
-      <c r="M7" s="107">
+      <c r="M7" s="106">
         <f>'Cost Calculator'!L7</f>
         <v>110.81</v>
       </c>
-      <c r="N7" s="108">
+      <c r="N7" s="107">
         <v>180</v>
       </c>
-      <c r="O7" s="108">
+      <c r="O7" s="107">
         <f>N7-M7</f>
         <v>69.19</v>
       </c>
     </row>
     <row r="8" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A8" s="86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="88">
         <f>'Cost Calculator'!J8</f>
@@ -3332,29 +3341,29 @@
       <c r="H8" s="88">
         <v>200</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="103">
         <f t="shared" si="0"/>
         <v>106.9915</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="104">
         <f>'Cost Calculator'!K8</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K8" s="106">
+      <c r="K8" s="105">
         <v>100</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="104">
         <f t="shared" si="1"/>
         <v>66.4283392857143</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="106">
         <f>'Cost Calculator'!L8</f>
         <v>74.81</v>
       </c>
-      <c r="N8" s="108">
+      <c r="N8" s="107">
         <v>180</v>
       </c>
-      <c r="O8" s="108">
+      <c r="O8" s="107">
         <f>N8-M8</f>
         <v>105.19</v>
       </c>
@@ -3364,16 +3373,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="87" t="s">
         <v>25</v>
@@ -3385,29 +3394,29 @@
       <c r="H9" s="88">
         <v>200</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="103">
         <f t="shared" si="0"/>
         <v>118.8655</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="104">
         <f>'Cost Calculator'!K9</f>
         <v>30.2737857142857</v>
       </c>
-      <c r="K9" s="106">
+      <c r="K9" s="105">
         <v>100</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="104">
         <f t="shared" si="1"/>
         <v>69.7262142857143</v>
       </c>
-      <c r="M9" s="107">
+      <c r="M9" s="106">
         <f>'Cost Calculator'!L9</f>
         <v>91.13</v>
       </c>
-      <c r="N9" s="108">
+      <c r="N9" s="107">
         <v>180</v>
       </c>
-      <c r="O9" s="108">
+      <c r="O9" s="107">
         <f>N9-M9</f>
         <v>88.87</v>
       </c>
@@ -3417,19 +3426,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="88">
         <f>'Cost Calculator'!J10</f>
@@ -3438,40 +3447,40 @@
       <c r="H10" s="88">
         <v>200</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="103">
         <f t="shared" si="0"/>
         <v>71.7415</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="104">
         <f>'Cost Calculator'!K10</f>
         <v>43.3637857142857</v>
       </c>
-      <c r="K10" s="106">
+      <c r="K10" s="105">
         <v>100</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="104">
         <f t="shared" si="1"/>
         <v>56.6362142857143</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
     </row>
     <row r="11" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A11" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>34</v>
@@ -3483,48 +3492,48 @@
       <c r="H11" s="88">
         <v>200</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="103">
         <f t="shared" si="0"/>
         <v>106.9915</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="104">
         <f>'Cost Calculator'!K11</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K11" s="106">
+      <c r="K11" s="105">
         <v>100</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="104">
         <f t="shared" si="1"/>
         <v>66.4283392857143</v>
       </c>
-      <c r="M11" s="107" t="e">
+      <c r="M11" s="106" t="e">
         <f>'Cost Calculator'!L11</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="108">
+      <c r="N11" s="107">
         <v>180</v>
       </c>
-      <c r="O11" s="108" t="e">
+      <c r="O11" s="107" t="e">
         <f t="shared" ref="O11:O16" si="2">N11-M11</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A12" s="86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>25</v>
@@ -3536,29 +3545,29 @@
       <c r="H12" s="88">
         <v>200</v>
       </c>
-      <c r="I12" s="104">
+      <c r="I12" s="103">
         <f t="shared" si="0"/>
         <v>114.0415</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="104">
         <f>'Cost Calculator'!K12</f>
         <v>31.6137857142857</v>
       </c>
-      <c r="K12" s="106">
+      <c r="K12" s="105">
         <v>100</v>
       </c>
-      <c r="L12" s="105">
+      <c r="L12" s="104">
         <f t="shared" si="1"/>
         <v>68.3862142857143</v>
       </c>
-      <c r="M12" s="107">
+      <c r="M12" s="106">
         <f>'Cost Calculator'!L12</f>
         <v>93.81</v>
       </c>
-      <c r="N12" s="108">
+      <c r="N12" s="107">
         <v>180</v>
       </c>
-      <c r="O12" s="108">
+      <c r="O12" s="107">
         <f t="shared" si="2"/>
         <v>86.19</v>
       </c>
@@ -3568,19 +3577,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="88">
         <f>'Cost Calculator'!J13</f>
@@ -3589,29 +3598,29 @@
       <c r="H13" s="88">
         <v>200</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="103">
         <f t="shared" si="0"/>
         <v>86.4115</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="104">
         <f>'Cost Calculator'!K13</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K13" s="106">
+      <c r="K13" s="105">
         <v>100</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="104">
         <f t="shared" si="1"/>
         <v>60.7112142857143</v>
       </c>
-      <c r="M13" s="107">
+      <c r="M13" s="106">
         <f>'Cost Calculator'!L13</f>
         <v>109.16</v>
       </c>
-      <c r="N13" s="108">
+      <c r="N13" s="107">
         <v>180</v>
       </c>
-      <c r="O13" s="108">
+      <c r="O13" s="107">
         <f t="shared" si="2"/>
         <v>70.84</v>
       </c>
@@ -3621,13 +3630,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E14" s="87" t="s">
         <v>65</v>
@@ -3642,29 +3651,29 @@
       <c r="H14" s="88">
         <v>200</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="103">
         <f t="shared" si="0"/>
         <v>108.2665</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="104">
         <f>'Cost Calculator'!K14</f>
         <v>33.2175082142857</v>
       </c>
-      <c r="K14" s="106">
+      <c r="K14" s="105">
         <v>100</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="104">
         <f t="shared" si="1"/>
         <v>66.7824917857143</v>
       </c>
-      <c r="M14" s="107">
+      <c r="M14" s="106">
         <f>'Cost Calculator'!L14</f>
         <v>96.13</v>
       </c>
-      <c r="N14" s="108">
+      <c r="N14" s="107">
         <v>180</v>
       </c>
-      <c r="O14" s="108">
+      <c r="O14" s="107">
         <f t="shared" si="2"/>
         <v>83.87</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="91" t="s">
         <v>69</v>
@@ -3695,29 +3704,29 @@
       <c r="H15" s="88">
         <v>200</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="103">
         <f>H16-G15</f>
         <v>79.7695</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="104">
         <f>'Cost Calculator'!K15</f>
         <v>41.1337857142857</v>
       </c>
-      <c r="K15" s="106">
+      <c r="K15" s="105">
         <v>100</v>
       </c>
-      <c r="L15" s="105">
+      <c r="L15" s="104">
         <f t="shared" si="1"/>
         <v>58.8662142857143</v>
       </c>
-      <c r="M15" s="107">
+      <c r="M15" s="106">
         <f>'Cost Calculator'!L15</f>
         <v>112.85</v>
       </c>
-      <c r="N15" s="108">
+      <c r="N15" s="107">
         <v>180</v>
       </c>
-      <c r="O15" s="108">
+      <c r="O15" s="107">
         <f t="shared" si="2"/>
         <v>67.15</v>
       </c>
@@ -3733,13 +3742,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="91" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="88">
         <f>'Cost Calculator'!J16</f>
@@ -3748,22 +3757,22 @@
       <c r="H16" s="88">
         <v>200</v>
       </c>
-      <c r="I16" s="104">
+      <c r="I16" s="103">
         <f>H17-G16</f>
         <v>66.3415</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="104">
         <f>'Cost Calculator'!K16</f>
         <v>44.8637857142857</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="105">
         <v>100</v>
       </c>
-      <c r="L16" s="105">
+      <c r="L16" s="104">
         <f t="shared" si="1"/>
         <v>55.1362142857143</v>
       </c>
-      <c r="M16" s="109"/>
+      <c r="M16" s="108"/>
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
@@ -3793,29 +3802,29 @@
       <c r="H17" s="88">
         <v>200</v>
       </c>
-      <c r="I17" s="104">
-        <f t="shared" ref="I17:I74" si="3">H17-G17</f>
+      <c r="I17" s="103">
+        <f>H17-G17</f>
         <v>112.7665</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="104">
         <f>'Cost Calculator'!K17</f>
         <v>31.9675582142857</v>
       </c>
-      <c r="K17" s="106">
+      <c r="K17" s="105">
         <v>100</v>
       </c>
-      <c r="L17" s="105">
+      <c r="L17" s="104">
         <f t="shared" si="1"/>
         <v>68.0324417857143</v>
       </c>
-      <c r="M17" s="107" t="e">
+      <c r="M17" s="106" t="e">
         <f>'Cost Calculator'!L17</f>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="108">
+      <c r="N17" s="107">
         <v>180</v>
       </c>
-      <c r="O17" s="108" t="e">
+      <c r="O17" s="107" t="e">
         <f>N17-M17</f>
         <v>#REF!</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="88">
         <f>'Cost Calculator'!J18</f>
@@ -3846,29 +3855,29 @@
       <c r="H18" s="88">
         <v>200</v>
       </c>
-      <c r="I18" s="104">
-        <f t="shared" si="3"/>
+      <c r="I18" s="103">
+        <f>H18-G18</f>
         <v>86.4115</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="104">
         <f>'Cost Calculator'!K18</f>
         <v>39.2887857142857</v>
       </c>
-      <c r="K18" s="106">
+      <c r="K18" s="105">
         <v>100</v>
       </c>
-      <c r="L18" s="105">
+      <c r="L18" s="104">
         <f t="shared" si="1"/>
         <v>60.7112142857143</v>
       </c>
-      <c r="M18" s="107">
+      <c r="M18" s="106">
         <f>'Cost Calculator'!L19</f>
         <v>92.69</v>
       </c>
-      <c r="N18" s="108">
+      <c r="N18" s="107">
         <v>180</v>
       </c>
-      <c r="O18" s="108">
+      <c r="O18" s="107">
         <f>N18-M18</f>
         <v>87.31</v>
       </c>
@@ -3881,10 +3890,10 @@
         <v>81</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>82</v>
@@ -3899,29 +3908,29 @@
       <c r="H19" s="88">
         <v>200</v>
       </c>
-      <c r="I19" s="104">
-        <f t="shared" si="3"/>
+      <c r="I19" s="103">
+        <f>H19-G19</f>
         <v>114.7165</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="104">
         <f>'Cost Calculator'!K19</f>
         <v>31.4259132142857</v>
       </c>
-      <c r="K19" s="106">
+      <c r="K19" s="105">
         <v>100</v>
       </c>
-      <c r="L19" s="105">
+      <c r="L19" s="104">
         <f t="shared" si="1"/>
         <v>68.5740867857143</v>
       </c>
-      <c r="M19" s="107">
+      <c r="M19" s="106">
         <f>'Cost Calculator'!L18</f>
         <v>109.16</v>
       </c>
-      <c r="N19" s="108">
+      <c r="N19" s="107">
         <v>180</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="107">
         <f>N19-M19</f>
         <v>70.84</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>85</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" s="88">
         <f>'Cost Calculator'!J20</f>
@@ -3952,43 +3961,43 @@
       <c r="H20" s="88">
         <v>200</v>
       </c>
-      <c r="I20" s="104">
-        <f t="shared" si="3"/>
+      <c r="I20" s="103">
+        <f>H20-G20</f>
         <v>101.4415</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="107" t="e">
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="106" t="e">
         <f>'Cost Calculator'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="108">
+      <c r="N20" s="107">
         <v>180</v>
       </c>
-      <c r="O20" s="108" t="e">
+      <c r="O20" s="107" t="e">
         <f>N20-M20</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="91" t="s">
-        <v>41</v>
+      <c r="F21" s="93" t="s">
+        <v>42</v>
       </c>
       <c r="G21" s="88">
         <f>'Cost Calculator'!J21</f>
@@ -3997,14 +4006,14 @@
       <c r="H21" s="88">
         <v>200</v>
       </c>
-      <c r="I21" s="104">
-        <f t="shared" si="3"/>
+      <c r="I21" s="103">
+        <f>H21-G21</f>
         <v>89.7415</v>
       </c>
       <c r="J21" s="91"/>
       <c r="K21" s="91"/>
       <c r="L21" s="91"/>
-      <c r="M21" s="109"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="91"/>
       <c r="O21" s="91"/>
     </row>
@@ -4016,10 +4025,10 @@
         <v>90</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>91</v>
@@ -4034,29 +4043,29 @@
       <c r="H22" s="88">
         <v>200</v>
       </c>
-      <c r="I22" s="104">
-        <f t="shared" si="3"/>
+      <c r="I22" s="103">
+        <f>H22-G22</f>
         <v>106.9915</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="104">
         <f>'Cost Calculator'!K22</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K22" s="106">
+      <c r="K22" s="105">
         <v>100</v>
       </c>
-      <c r="L22" s="105">
+      <c r="L22" s="104">
         <f>K22-J22</f>
         <v>66.4283392857143</v>
       </c>
-      <c r="M22" s="107" t="e">
+      <c r="M22" s="106" t="e">
         <f>'Cost Calculator'!L22</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="108">
+      <c r="N22" s="107">
         <v>180</v>
       </c>
-      <c r="O22" s="108" t="e">
+      <c r="O22" s="107" t="e">
         <f>N22-M22</f>
         <v>#REF!</v>
       </c>
@@ -4087,29 +4096,29 @@
       <c r="H23" s="88">
         <v>200</v>
       </c>
-      <c r="I23" s="104">
-        <f t="shared" si="3"/>
+      <c r="I23" s="103">
+        <f>H23-G23</f>
         <v>106.9915</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="104">
         <f>'Cost Calculator'!K23</f>
         <v>33.5716607142857</v>
       </c>
-      <c r="K23" s="106">
+      <c r="K23" s="105">
         <v>100</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="104">
         <f>K23-J23</f>
         <v>66.4283392857143</v>
       </c>
-      <c r="M23" s="107" t="e">
+      <c r="M23" s="106" t="e">
         <f>'Cost Calculator'!L23</f>
         <v>#REF!</v>
       </c>
-      <c r="N23" s="108">
+      <c r="N23" s="107">
         <v>180</v>
       </c>
-      <c r="O23" s="108" t="e">
+      <c r="O23" s="107" t="e">
         <f>N23-M23</f>
         <v>#REF!</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>96</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="90" t="s">
         <v>97</v>
@@ -4131,7 +4140,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24" s="88">
         <f>'Cost Calculator'!J24</f>
@@ -4140,29 +4149,29 @@
       <c r="H24" s="88">
         <v>200</v>
       </c>
-      <c r="I24" s="104">
-        <f t="shared" si="3"/>
+      <c r="I24" s="103">
+        <f>H24-G24</f>
         <v>101.4415</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="104">
         <f>'Cost Calculator'!K24</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K24" s="106">
+      <c r="K24" s="105">
         <v>100</v>
       </c>
-      <c r="L24" s="105">
+      <c r="L24" s="104">
         <f>K24-J24</f>
         <v>64.8862142857143</v>
       </c>
-      <c r="M24" s="107">
+      <c r="M24" s="106">
         <f>'Cost Calculator'!L24</f>
         <v>74.81</v>
       </c>
-      <c r="N24" s="108">
+      <c r="N24" s="107">
         <v>180</v>
       </c>
-      <c r="O24" s="108">
+      <c r="O24" s="107">
         <f>N24-M24</f>
         <v>105.19</v>
       </c>
@@ -4193,29 +4202,29 @@
       <c r="H25" s="88">
         <v>200</v>
       </c>
-      <c r="I25" s="104">
-        <f t="shared" si="3"/>
+      <c r="I25" s="103">
+        <f>H25-G25</f>
         <v>59.6095</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="104">
         <f>'Cost Calculator'!K25</f>
         <v>46.7337857142857</v>
       </c>
-      <c r="K25" s="106">
+      <c r="K25" s="105">
         <v>100</v>
       </c>
-      <c r="L25" s="105">
+      <c r="L25" s="104">
         <f>K25-J25</f>
         <v>53.2662142857143</v>
       </c>
-      <c r="M25" s="107">
+      <c r="M25" s="106">
         <f>'Cost Calculator'!L25</f>
         <v>124.05</v>
       </c>
-      <c r="N25" s="108">
+      <c r="N25" s="107">
         <v>180</v>
       </c>
-      <c r="O25" s="108">
+      <c r="O25" s="107">
         <f>N25-M25</f>
         <v>55.95</v>
       </c>
@@ -4231,7 +4240,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="93" t="s">
         <v>105</v>
@@ -4246,43 +4255,43 @@
       <c r="H26" s="88">
         <v>200</v>
       </c>
-      <c r="I26" s="104">
-        <f t="shared" si="3"/>
+      <c r="I26" s="103">
+        <f>H26-G26</f>
         <v>116.2165</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="104">
         <f>'Cost Calculator'!K26</f>
         <v>22.1137857142857</v>
       </c>
-      <c r="K26" s="106">
+      <c r="K26" s="105">
         <v>100</v>
       </c>
-      <c r="L26" s="105">
+      <c r="L26" s="104">
         <f>K26-J26</f>
         <v>77.8862142857143</v>
       </c>
-      <c r="M26" s="109"/>
+      <c r="M26" s="108"/>
       <c r="N26" s="91"/>
       <c r="O26" s="91"/>
     </row>
     <row r="27" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="91" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="93" t="s">
-        <v>41</v>
+      <c r="F27" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="G27" s="88">
         <f>'Cost Calculator'!J27</f>
@@ -4291,14 +4300,14 @@
       <c r="H27" s="88">
         <v>200</v>
       </c>
-      <c r="I27" s="104">
-        <f t="shared" si="3"/>
+      <c r="I27" s="103">
+        <f>H27-G27</f>
         <v>101.4415</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="91"/>
       <c r="L27" s="91"/>
-      <c r="M27" s="109"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="91"/>
       <c r="O27" s="91"/>
     </row>
@@ -4310,13 +4319,13 @@
         <v>108</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="92" t="s">
         <v>20</v>
@@ -4328,22 +4337,22 @@
       <c r="H28" s="88">
         <v>200</v>
       </c>
-      <c r="I28" s="104">
-        <f t="shared" si="3"/>
+      <c r="I28" s="103">
+        <f>H28-G28</f>
         <v>111.6415</v>
       </c>
-      <c r="J28" s="105">
+      <c r="J28" s="104">
         <f>'Cost Calculator'!K28</f>
         <v>32.2800457142857</v>
       </c>
-      <c r="K28" s="106">
+      <c r="K28" s="105">
         <v>100</v>
       </c>
-      <c r="L28" s="105">
+      <c r="L28" s="104">
         <f>K28-J28</f>
         <v>67.7199542857143</v>
       </c>
-      <c r="M28" s="109"/>
+      <c r="M28" s="108"/>
       <c r="N28" s="91"/>
       <c r="O28" s="91"/>
     </row>
@@ -4352,19 +4361,19 @@
         <v>103</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F29" s="91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" s="88">
         <f>'Cost Calculator'!J29</f>
@@ -4373,22 +4382,22 @@
       <c r="H29" s="88">
         <v>200</v>
       </c>
-      <c r="I29" s="104">
-        <f t="shared" si="3"/>
+      <c r="I29" s="103">
+        <f>H29-G29</f>
         <v>89.9215</v>
       </c>
-      <c r="J29" s="105">
+      <c r="J29" s="104">
         <f>'Cost Calculator'!K29</f>
         <v>38.3137857142857</v>
       </c>
-      <c r="K29" s="106">
+      <c r="K29" s="105">
         <v>100</v>
       </c>
-      <c r="L29" s="105">
+      <c r="L29" s="104">
         <f>K29-J29</f>
         <v>61.6862142857143</v>
       </c>
-      <c r="M29" s="109"/>
+      <c r="M29" s="108"/>
       <c r="N29" s="91"/>
       <c r="O29" s="91"/>
     </row>
@@ -4397,16 +4406,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" s="91" t="s">
         <v>25</v>
@@ -4418,29 +4427,29 @@
       <c r="H30" s="88">
         <v>200</v>
       </c>
-      <c r="I30" s="104">
-        <f t="shared" si="3"/>
+      <c r="I30" s="103">
+        <f>H30-G30</f>
         <v>120.5215</v>
       </c>
-      <c r="J30" s="105">
+      <c r="J30" s="104">
         <f>'Cost Calculator'!K30</f>
         <v>29.8137857142857</v>
       </c>
-      <c r="K30" s="106">
+      <c r="K30" s="105">
         <v>100</v>
       </c>
-      <c r="L30" s="105">
+      <c r="L30" s="104">
         <f>K30-J30</f>
         <v>70.1862142857143</v>
       </c>
-      <c r="M30" s="107">
+      <c r="M30" s="106">
         <f>'Cost Calculator'!L30</f>
         <v>90.21</v>
       </c>
-      <c r="N30" s="108">
+      <c r="N30" s="107">
         <v>180</v>
       </c>
-      <c r="O30" s="108">
+      <c r="O30" s="107">
         <f>N30-M30</f>
         <v>89.79</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" s="86" t="s">
         <v>31</v>
@@ -4459,7 +4468,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="87" t="s">
         <v>34</v>
@@ -4471,48 +4480,48 @@
       <c r="H31" s="88">
         <v>200</v>
       </c>
-      <c r="I31" s="104">
-        <f t="shared" si="3"/>
+      <c r="I31" s="103">
+        <f>H31-G31</f>
         <v>103.6165</v>
       </c>
-      <c r="J31" s="105">
+      <c r="J31" s="104">
         <f>'Cost Calculator'!K31</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="K31" s="106">
+      <c r="K31" s="105">
         <v>100</v>
       </c>
-      <c r="L31" s="105">
+      <c r="L31" s="104">
         <f>K31-J31</f>
         <v>65.4908767857143</v>
       </c>
-      <c r="M31" s="107" t="e">
+      <c r="M31" s="106" t="e">
         <f>'Cost Calculator'!L31</f>
         <v>#REF!</v>
       </c>
-      <c r="N31" s="108">
+      <c r="N31" s="107">
         <v>180</v>
       </c>
-      <c r="O31" s="108" t="e">
+      <c r="O31" s="107" t="e">
         <f>N31-M31</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A32" s="93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="93" t="s">
         <v>70</v>
@@ -4524,34 +4533,34 @@
       <c r="H32" s="88">
         <v>200</v>
       </c>
-      <c r="I32" s="104">
-        <f t="shared" si="3"/>
+      <c r="I32" s="103">
+        <f>H32-G32</f>
         <v>89.1295</v>
       </c>
       <c r="J32" s="91"/>
-      <c r="K32" s="106">
+      <c r="K32" s="105">
         <v>100</v>
       </c>
       <c r="L32" s="91"/>
-      <c r="M32" s="109"/>
+      <c r="M32" s="108"/>
       <c r="N32" s="91"/>
       <c r="O32" s="91"/>
     </row>
     <row r="33" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A33" s="96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="97" t="s">
         <v>20</v>
@@ -4563,30 +4572,30 @@
       <c r="H33" s="88">
         <v>200</v>
       </c>
-      <c r="I33" s="104">
-        <f t="shared" si="3"/>
+      <c r="I33" s="103">
+        <f>H33-G33</f>
         <v>115.0915</v>
       </c>
-      <c r="J33" s="105">
+      <c r="J33" s="104">
         <f>'Cost Calculator'!K33</f>
         <v>31.3217507142857</v>
       </c>
-      <c r="K33" s="106">
+      <c r="K33" s="105">
         <v>100</v>
       </c>
-      <c r="L33" s="105">
-        <f t="shared" ref="L33:L43" si="4">K33-J33</f>
+      <c r="L33" s="104">
+        <f t="shared" ref="L33:L43" si="3">K33-J33</f>
         <v>68.6782492857143</v>
       </c>
-      <c r="M33" s="107" t="e">
+      <c r="M33" s="106" t="e">
         <f>'Cost Calculator'!L33</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="108">
+      <c r="N33" s="107">
         <v>180</v>
       </c>
-      <c r="O33" s="108" t="e">
-        <f t="shared" ref="O33:O38" si="5">N33-M33</f>
+      <c r="O33" s="107" t="e">
+        <f t="shared" ref="O33:O38" si="4">N33-M33</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4595,7 +4604,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" s="92" t="s">
         <v>17</v>
@@ -4604,10 +4613,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" s="88">
         <f>'Cost Calculator'!J34</f>
@@ -4616,30 +4625,30 @@
       <c r="H34" s="88">
         <v>200</v>
       </c>
-      <c r="I34" s="104">
-        <f t="shared" si="3"/>
+      <c r="I34" s="103">
+        <f>H34-G34</f>
         <v>101.4415</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="104">
         <f>'Cost Calculator'!K34</f>
         <v>35.1137857142857</v>
       </c>
-      <c r="K34" s="106">
+      <c r="K34" s="105">
         <v>100</v>
       </c>
-      <c r="L34" s="105">
-        <f t="shared" si="4"/>
+      <c r="L34" s="104">
+        <f t="shared" si="3"/>
         <v>64.8862142857143</v>
       </c>
-      <c r="M34" s="107">
+      <c r="M34" s="106">
         <f>'Cost Calculator'!L34</f>
         <v>74.81</v>
       </c>
-      <c r="N34" s="108">
+      <c r="N34" s="107">
         <v>180</v>
       </c>
-      <c r="O34" s="108">
-        <f t="shared" si="5"/>
+      <c r="O34" s="107">
+        <f t="shared" si="4"/>
         <v>105.19</v>
       </c>
     </row>
@@ -4648,7 +4657,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>17</v>
@@ -4657,10 +4666,10 @@
         <v>32</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" s="88">
         <f>'Cost Calculator'!J35</f>
@@ -4669,30 +4678,30 @@
       <c r="H35" s="88">
         <v>200</v>
       </c>
-      <c r="I35" s="104">
-        <f t="shared" si="3"/>
+      <c r="I35" s="103">
+        <f>H35-G35</f>
         <v>83.4415</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="104">
         <f>'Cost Calculator'!K35</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K35" s="106">
+      <c r="K35" s="105">
         <v>100</v>
       </c>
-      <c r="L35" s="105">
-        <f t="shared" si="4"/>
+      <c r="L35" s="104">
+        <f t="shared" si="3"/>
         <v>59.8862142857143</v>
       </c>
-      <c r="M35" s="107">
+      <c r="M35" s="106">
         <f>'Cost Calculator'!L37</f>
         <v>92.309993</v>
       </c>
-      <c r="N35" s="108">
+      <c r="N35" s="107">
         <v>180</v>
       </c>
-      <c r="O35" s="108">
-        <f t="shared" si="5"/>
+      <c r="O35" s="107">
+        <f t="shared" si="4"/>
         <v>87.690007</v>
       </c>
     </row>
@@ -4701,7 +4710,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>17</v>
@@ -4710,10 +4719,10 @@
         <v>76</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" s="88">
         <f>'Cost Calculator'!J36</f>
@@ -4722,39 +4731,39 @@
       <c r="H36" s="88">
         <v>200</v>
       </c>
-      <c r="I36" s="104">
-        <f t="shared" si="3"/>
+      <c r="I36" s="103">
+        <f>H36-G36</f>
         <v>83.4415</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="104">
         <f>'Cost Calculator'!K36</f>
         <v>40.1137857142857</v>
       </c>
-      <c r="K36" s="106">
+      <c r="K36" s="105">
         <v>100</v>
       </c>
-      <c r="L36" s="105">
+      <c r="L36" s="104">
+        <f t="shared" si="3"/>
+        <v>59.8862142857143</v>
+      </c>
+      <c r="M36" s="106" t="e">
+        <f>'Cost Calculator'!L39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N36" s="107">
+        <v>180</v>
+      </c>
+      <c r="O36" s="107" t="e">
         <f t="shared" si="4"/>
-        <v>59.8862142857143</v>
-      </c>
-      <c r="M36" s="107" t="e">
-        <f>'Cost Calculator'!L38</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N36" s="108">
-        <v>180</v>
-      </c>
-      <c r="O36" s="108" t="e">
-        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A37" s="91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>31</v>
@@ -4763,7 +4772,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F37" s="91" t="s">
         <v>20</v>
@@ -4775,149 +4784,141 @@
       <c r="H37" s="88">
         <v>200</v>
       </c>
-      <c r="I37" s="104">
-        <f t="shared" si="3"/>
+      <c r="I37" s="103">
+        <f>H37-G37</f>
         <v>116.7415</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="104">
         <f>'Cost Calculator'!K37</f>
         <v>30.8634357142857</v>
       </c>
-      <c r="K37" s="106">
+      <c r="K37" s="105">
         <v>100</v>
       </c>
-      <c r="L37" s="105">
+      <c r="L37" s="104">
+        <f t="shared" si="3"/>
+        <v>69.1365642857143</v>
+      </c>
+      <c r="M37" s="106">
+        <f>'Cost Calculator'!L40</f>
+        <v>74.81</v>
+      </c>
+      <c r="N37" s="107">
+        <v>180</v>
+      </c>
+      <c r="O37" s="107">
         <f t="shared" si="4"/>
-        <v>69.1365642857143</v>
-      </c>
-      <c r="M37" s="107">
-        <f>'Cost Calculator'!L39</f>
-        <v>74.81</v>
-      </c>
-      <c r="N37" s="108">
-        <v>180</v>
-      </c>
-      <c r="O37" s="108">
-        <f t="shared" si="5"/>
         <v>105.19</v>
       </c>
     </row>
     <row r="38" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="91" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="90" t="s">
-        <v>20</v>
       </c>
       <c r="G38" s="88">
         <f>'Cost Calculator'!J38</f>
-        <v>95.2585</v>
+        <v>98.5585</v>
       </c>
       <c r="H38" s="88">
         <v>200</v>
       </c>
-      <c r="I38" s="104">
-        <f t="shared" si="3"/>
-        <v>104.7415</v>
-      </c>
-      <c r="J38" s="105">
-        <f>'Cost Calculator'!K38</f>
-        <v>34.1966357142857</v>
-      </c>
-      <c r="K38" s="106">
-        <v>100</v>
-      </c>
-      <c r="L38" s="105">
-        <f t="shared" si="4"/>
-        <v>65.8033642857143</v>
-      </c>
-      <c r="M38" s="107">
-        <f>'Cost Calculator'!L40</f>
-        <v>107.31</v>
-      </c>
-      <c r="N38" s="108">
-        <v>180</v>
-      </c>
-      <c r="O38" s="108">
-        <f t="shared" si="5"/>
-        <v>72.69</v>
-      </c>
+      <c r="I38" s="103">
+        <f>H38-G38</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
     </row>
     <row r="39" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A39" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="86" t="s">
+      <c r="A39" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="87" t="s">
-        <v>41</v>
+      <c r="D39" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>20</v>
       </c>
       <c r="G39" s="88">
         <f>'Cost Calculator'!J39</f>
-        <v>110.2585</v>
+        <v>95.2585</v>
       </c>
       <c r="H39" s="88">
         <v>200</v>
       </c>
-      <c r="I39" s="104">
-        <f t="shared" si="3"/>
-        <v>89.7415</v>
-      </c>
-      <c r="J39" s="105">
+      <c r="I39" s="103">
+        <f>H39-G39</f>
+        <v>104.7415</v>
+      </c>
+      <c r="J39" s="104">
         <f>'Cost Calculator'!K39</f>
-        <v>38.3637857142857</v>
-      </c>
-      <c r="K39" s="106">
+        <v>34.1966357142857</v>
+      </c>
+      <c r="K39" s="105">
         <v>100</v>
       </c>
-      <c r="L39" s="105">
-        <f t="shared" si="4"/>
-        <v>61.6362142857143</v>
-      </c>
-      <c r="M39" s="109"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
+      <c r="L39" s="104">
+        <f>K39-J39</f>
+        <v>65.8033642857143</v>
+      </c>
+      <c r="M39" s="106">
+        <f>'Cost Calculator'!L41</f>
+        <v>107.31</v>
+      </c>
+      <c r="N39" s="107">
+        <v>180</v>
+      </c>
+      <c r="O39" s="107">
+        <f>N39-M39</f>
+        <v>72.69</v>
+      </c>
     </row>
     <row r="40" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A40" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="92" t="s">
+      <c r="A40" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="92" t="s">
-        <v>41</v>
+      <c r="C40" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="87" t="s">
+        <v>42</v>
       </c>
       <c r="G40" s="88">
         <f>'Cost Calculator'!J40</f>
@@ -4926,141 +4927,141 @@
       <c r="H40" s="88">
         <v>200</v>
       </c>
-      <c r="I40" s="104">
-        <f t="shared" si="3"/>
+      <c r="I40" s="103">
+        <f>H40-G40</f>
         <v>89.7415</v>
       </c>
-      <c r="J40" s="105">
+      <c r="J40" s="104">
         <f>'Cost Calculator'!K40</f>
         <v>38.3637857142857</v>
       </c>
-      <c r="K40" s="106">
+      <c r="K40" s="105">
         <v>100</v>
       </c>
-      <c r="L40" s="105">
-        <f t="shared" si="4"/>
+      <c r="L40" s="104">
+        <f>K40-J40</f>
         <v>61.6362142857143</v>
       </c>
-      <c r="M40" s="107">
-        <f>'Cost Calculator'!L44</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="108">
-        <v>180</v>
-      </c>
-      <c r="O40" s="108">
-        <f>N40-M40</f>
-        <v>180</v>
-      </c>
+      <c r="M40" s="108"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
     </row>
     <row r="41" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A41" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="91" t="s">
+      <c r="A41" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="91" t="s">
+      <c r="B41" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="91" t="s">
-        <v>34</v>
+      <c r="C41" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>42</v>
       </c>
       <c r="G41" s="88">
         <f>'Cost Calculator'!J41</f>
-        <v>88.8835</v>
+        <v>110.2585</v>
       </c>
       <c r="H41" s="88">
         <v>200</v>
       </c>
-      <c r="I41" s="104">
-        <f t="shared" si="3"/>
-        <v>111.1165</v>
-      </c>
-      <c r="J41" s="105">
+      <c r="I41" s="103">
+        <f>H41-G41</f>
+        <v>89.7415</v>
+      </c>
+      <c r="J41" s="104">
         <f>'Cost Calculator'!K41</f>
-        <v>32.4258732142857</v>
-      </c>
-      <c r="K41" s="106">
+        <v>38.3637857142857</v>
+      </c>
+      <c r="K41" s="105">
         <v>100</v>
       </c>
-      <c r="L41" s="105">
-        <f t="shared" si="4"/>
-        <v>67.5741267857143</v>
-      </c>
-      <c r="M41" s="109"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
+      <c r="L41" s="104">
+        <f>K41-J41</f>
+        <v>61.6362142857143</v>
+      </c>
+      <c r="M41" s="106">
+        <f>'Cost Calculator'!L45</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="107">
+        <v>180</v>
+      </c>
+      <c r="O41" s="107">
+        <f>N41-M41</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="42" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A42" s="91" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F42" s="91" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G42" s="88">
         <f>'Cost Calculator'!J42</f>
-        <v>98.5585</v>
+        <v>88.8835</v>
       </c>
       <c r="H42" s="88">
         <v>200</v>
       </c>
-      <c r="I42" s="104">
-        <f t="shared" si="3"/>
-        <v>101.4415</v>
-      </c>
-      <c r="J42" s="105">
+      <c r="I42" s="103">
+        <f>H42-G42</f>
+        <v>111.1165</v>
+      </c>
+      <c r="J42" s="104">
         <f>'Cost Calculator'!K42</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="K42" s="106">
+        <v>32.4258732142857</v>
+      </c>
+      <c r="K42" s="105">
         <v>100</v>
       </c>
-      <c r="L42" s="105">
-        <f t="shared" si="4"/>
-        <v>64.8862142857143</v>
-      </c>
-      <c r="M42" s="109"/>
+      <c r="L42" s="104">
+        <f>K42-J42</f>
+        <v>67.5741267857143</v>
+      </c>
+      <c r="M42" s="108"/>
       <c r="N42" s="91"/>
       <c r="O42" s="91"/>
     </row>
     <row r="43" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A43" s="91" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C43" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F43" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" s="88">
         <f>'Cost Calculator'!J43</f>
@@ -5069,151 +5070,151 @@
       <c r="H43" s="88">
         <v>200</v>
       </c>
-      <c r="I43" s="104">
-        <f t="shared" si="3"/>
+      <c r="I43" s="103">
+        <f>H43-G43</f>
         <v>101.4415</v>
       </c>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="109"/>
+      <c r="J43" s="104">
+        <f>'Cost Calculator'!K43</f>
+        <v>35.1137857142857</v>
+      </c>
+      <c r="K43" s="105">
+        <v>100</v>
+      </c>
+      <c r="L43" s="104">
+        <f>K43-J43</f>
+        <v>64.8862142857143</v>
+      </c>
+      <c r="M43" s="108"/>
       <c r="N43" s="91"/>
       <c r="O43" s="91"/>
     </row>
     <row r="44" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A44" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="86" t="s">
+      <c r="A44" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="87" t="s">
-        <v>34</v>
+      <c r="C44" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="G44" s="88">
         <f>'Cost Calculator'!J44</f>
-        <v>93.0085</v>
+        <v>98.5585</v>
       </c>
       <c r="H44" s="88">
         <v>200</v>
       </c>
-      <c r="I44" s="104">
-        <f t="shared" si="3"/>
-        <v>106.9915</v>
-      </c>
-      <c r="J44" s="105">
-        <f>'Cost Calculator'!K44</f>
-        <v>33.5716607142857</v>
-      </c>
-      <c r="K44" s="106">
-        <v>100</v>
-      </c>
-      <c r="L44" s="105">
-        <f>K44-J44</f>
-        <v>66.4283392857143</v>
-      </c>
-      <c r="M44" s="107">
-        <f>'Cost Calculator'!L48</f>
-        <v>100.81</v>
-      </c>
-      <c r="N44" s="108">
-        <v>180</v>
-      </c>
-      <c r="O44" s="108">
-        <f>N44-M44</f>
-        <v>79.19</v>
-      </c>
+      <c r="I44" s="103">
+        <f>H44-G44</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
     </row>
     <row r="45" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A45" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="91" t="s">
+      <c r="A45" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="B45" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="91" t="s">
-        <v>41</v>
+      <c r="C45" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>34</v>
       </c>
       <c r="G45" s="88">
         <f>'Cost Calculator'!J45</f>
-        <v>96.0085</v>
+        <v>93.0085</v>
       </c>
       <c r="H45" s="88">
         <v>200</v>
       </c>
-      <c r="I45" s="104">
-        <f t="shared" si="3"/>
-        <v>103.9915</v>
-      </c>
-      <c r="J45" s="91"/>
-      <c r="K45" s="106">
+      <c r="I45" s="103">
+        <f>H45-G45</f>
+        <v>106.9915</v>
+      </c>
+      <c r="J45" s="104">
+        <f>'Cost Calculator'!K45</f>
+        <v>33.5716607142857</v>
+      </c>
+      <c r="K45" s="105">
         <v>100</v>
       </c>
-      <c r="L45" s="91"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
+      <c r="L45" s="104">
+        <f>K45-J45</f>
+        <v>66.4283392857143</v>
+      </c>
+      <c r="M45" s="106">
+        <f>'Cost Calculator'!L49</f>
+        <v>100.81</v>
+      </c>
+      <c r="N45" s="107">
+        <v>180</v>
+      </c>
+      <c r="O45" s="107">
+        <f>N45-M45</f>
+        <v>79.19</v>
+      </c>
     </row>
     <row r="46" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A46" s="91" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F46" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" s="88">
         <f>'Cost Calculator'!J46</f>
-        <v>93.1585</v>
+        <v>96.0085</v>
       </c>
       <c r="H46" s="88">
         <v>200</v>
       </c>
-      <c r="I46" s="104">
-        <f t="shared" si="3"/>
-        <v>106.8415</v>
-      </c>
-      <c r="J46" s="105">
-        <f>'Cost Calculator'!K46</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="K46" s="106">
+      <c r="I46" s="103">
+        <f>H46-G46</f>
+        <v>103.9915</v>
+      </c>
+      <c r="J46" s="91"/>
+      <c r="K46" s="105">
         <v>100</v>
       </c>
-      <c r="L46" s="105">
-        <f t="shared" ref="L46:L51" si="6">K46-J46</f>
-        <v>66.3862142857143</v>
-      </c>
-      <c r="M46" s="109"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="108"/>
       <c r="N46" s="91"/>
       <c r="O46" s="91"/>
     </row>
@@ -5222,19 +5223,19 @@
         <v>103</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F47" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" s="88">
         <f>'Cost Calculator'!J47</f>
@@ -5243,621 +5244,621 @@
       <c r="H47" s="88">
         <v>200</v>
       </c>
-      <c r="I47" s="104">
-        <f t="shared" si="3"/>
+      <c r="I47" s="103">
+        <f>H47-G47</f>
         <v>106.8415</v>
       </c>
-      <c r="J47" s="105">
+      <c r="J47" s="104">
         <f>'Cost Calculator'!K47</f>
         <v>33.6137857142857</v>
       </c>
-      <c r="K47" s="106">
+      <c r="K47" s="105">
         <v>100</v>
       </c>
-      <c r="L47" s="105">
-        <f t="shared" si="6"/>
+      <c r="L47" s="104">
+        <f>K47-J47</f>
         <v>66.3862142857143</v>
       </c>
-      <c r="M47" s="109"/>
+      <c r="M47" s="108"/>
       <c r="N47" s="91"/>
       <c r="O47" s="91"/>
     </row>
     <row r="48" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A48" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="90" t="s">
-        <v>41</v>
+      <c r="A48" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="G48" s="88">
         <f>'Cost Calculator'!J48</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="H48" s="88">
         <v>200</v>
       </c>
-      <c r="I48" s="104">
-        <f t="shared" si="3"/>
-        <v>101.4415</v>
-      </c>
-      <c r="J48" s="105">
+      <c r="I48" s="103">
+        <f>H48-G48</f>
+        <v>106.8415</v>
+      </c>
+      <c r="J48" s="104">
         <f>'Cost Calculator'!K48</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="K48" s="106">
+        <v>33.6137857142857</v>
+      </c>
+      <c r="K48" s="105">
         <v>100</v>
       </c>
-      <c r="L48" s="105">
-        <f t="shared" si="6"/>
-        <v>64.8862142857143</v>
-      </c>
-      <c r="M48" s="107">
-        <f>'Cost Calculator'!L51</f>
-        <v>97.81</v>
-      </c>
-      <c r="N48" s="108">
-        <v>180</v>
-      </c>
-      <c r="O48" s="108">
-        <f>N48-M48</f>
-        <v>82.19</v>
-      </c>
+      <c r="L48" s="104">
+        <f>K48-J48</f>
+        <v>66.3862142857143</v>
+      </c>
+      <c r="M48" s="108"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="91"/>
     </row>
     <row r="49" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A49" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="92" t="s">
-        <v>41</v>
+      <c r="A49" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="90" t="s">
+        <v>42</v>
       </c>
       <c r="G49" s="88">
         <f>'Cost Calculator'!J49</f>
-        <v>93.1585</v>
+        <v>98.5585</v>
       </c>
       <c r="H49" s="88">
         <v>200</v>
       </c>
-      <c r="I49" s="104">
-        <f t="shared" si="3"/>
-        <v>106.8415</v>
-      </c>
-      <c r="J49" s="105">
+      <c r="I49" s="103">
+        <f>H49-G49</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J49" s="104">
         <f>'Cost Calculator'!K49</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="K49" s="106">
+        <v>35.1137857142857</v>
+      </c>
+      <c r="K49" s="105">
         <v>100</v>
       </c>
-      <c r="L49" s="105">
-        <f t="shared" si="6"/>
-        <v>66.3862142857143</v>
-      </c>
-      <c r="M49" s="109"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
+      <c r="L49" s="104">
+        <f>K49-J49</f>
+        <v>64.8862142857143</v>
+      </c>
+      <c r="M49" s="106">
+        <f>'Cost Calculator'!L52</f>
+        <v>97.81</v>
+      </c>
+      <c r="N49" s="107">
+        <v>180</v>
+      </c>
+      <c r="O49" s="107">
+        <f>N49-M49</f>
+        <v>82.19</v>
+      </c>
     </row>
     <row r="50" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A50" s="92" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B50" s="92" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D50" s="92" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="E50" s="92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F50" s="92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" s="88">
         <f>'Cost Calculator'!J50</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="H50" s="88">
         <v>200</v>
       </c>
-      <c r="I50" s="104">
-        <f t="shared" si="3"/>
-        <v>101.4415</v>
-      </c>
-      <c r="J50" s="105">
+      <c r="I50" s="103">
+        <f>H50-G50</f>
+        <v>106.8415</v>
+      </c>
+      <c r="J50" s="104">
         <f>'Cost Calculator'!K50</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="K50" s="106">
+        <v>33.6137857142857</v>
+      </c>
+      <c r="K50" s="105">
         <v>100</v>
       </c>
-      <c r="L50" s="105">
-        <f t="shared" si="6"/>
-        <v>64.8862142857143</v>
-      </c>
-      <c r="M50" s="107">
-        <f>'Cost Calculator'!L56</f>
-        <v>74.81</v>
-      </c>
-      <c r="N50" s="108">
-        <v>180</v>
-      </c>
-      <c r="O50" s="108">
-        <f>N50-M50</f>
-        <v>105.19</v>
-      </c>
+      <c r="L50" s="104">
+        <f>K50-J50</f>
+        <v>66.3862142857143</v>
+      </c>
+      <c r="M50" s="108"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
     </row>
     <row r="51" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A51" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="91" t="s">
+      <c r="A51" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="B51" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="91" t="s">
-        <v>41</v>
+      <c r="C51" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="92" t="s">
+        <v>42</v>
       </c>
       <c r="G51" s="88">
         <f>'Cost Calculator'!J51</f>
-        <v>93.1585</v>
+        <v>98.5585</v>
       </c>
       <c r="H51" s="88">
         <v>200</v>
       </c>
-      <c r="I51" s="104">
-        <f t="shared" si="3"/>
-        <v>106.8415</v>
-      </c>
-      <c r="J51" s="105">
+      <c r="I51" s="103">
+        <f>H51-G51</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J51" s="104">
         <f>'Cost Calculator'!K51</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="K51" s="106">
+        <v>35.1137857142857</v>
+      </c>
+      <c r="K51" s="105">
         <v>100</v>
       </c>
-      <c r="L51" s="105">
-        <f t="shared" si="6"/>
-        <v>66.3862142857143</v>
-      </c>
-      <c r="M51" s="107">
+      <c r="L51" s="104">
+        <f>K51-J51</f>
+        <v>64.8862142857143</v>
+      </c>
+      <c r="M51" s="106">
         <f>'Cost Calculator'!L57</f>
         <v>74.81</v>
       </c>
-      <c r="N51" s="108">
+      <c r="N51" s="107">
         <v>180</v>
       </c>
-      <c r="O51" s="108">
+      <c r="O51" s="107">
         <f>N51-M51</f>
         <v>105.19</v>
       </c>
     </row>
     <row r="52" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A52" s="91" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C52" s="91" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E52" s="91" t="s">
         <v>173</v>
       </c>
       <c r="F52" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" s="88">
         <f>'Cost Calculator'!J52</f>
-        <v>90.7585</v>
+        <v>93.1585</v>
       </c>
       <c r="H52" s="88">
         <v>200</v>
       </c>
-      <c r="I52" s="104">
-        <f t="shared" si="3"/>
-        <v>109.2415</v>
-      </c>
-      <c r="J52" s="91"/>
-      <c r="K52" s="106">
+      <c r="I52" s="103">
+        <f>H52-G52</f>
+        <v>106.8415</v>
+      </c>
+      <c r="J52" s="104">
+        <f>'Cost Calculator'!K52</f>
+        <v>33.6137857142857</v>
+      </c>
+      <c r="K52" s="105">
         <v>100</v>
       </c>
-      <c r="L52" s="91"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
+      <c r="L52" s="104">
+        <f>K52-J52</f>
+        <v>66.3862142857143</v>
+      </c>
+      <c r="M52" s="106">
+        <f>'Cost Calculator'!L58</f>
+        <v>74.81</v>
+      </c>
+      <c r="N52" s="107">
+        <v>180</v>
+      </c>
+      <c r="O52" s="107">
+        <f>N52-M52</f>
+        <v>105.19</v>
+      </c>
     </row>
     <row r="53" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A53" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="C53" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="91" t="s">
+      <c r="E53" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="91" t="s">
-        <v>177</v>
-      </c>
       <c r="F53" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53" s="88">
         <f>'Cost Calculator'!J53</f>
-        <v>96.0085</v>
+        <v>90.7585</v>
       </c>
       <c r="H53" s="88">
         <v>200</v>
       </c>
-      <c r="I53" s="104">
-        <f t="shared" si="3"/>
-        <v>103.9915</v>
+      <c r="I53" s="103">
+        <f>H53-G53</f>
+        <v>109.2415</v>
       </c>
       <c r="J53" s="91"/>
-      <c r="K53" s="106">
+      <c r="K53" s="105">
         <v>100</v>
       </c>
       <c r="L53" s="91"/>
-      <c r="M53" s="109"/>
+      <c r="M53" s="108"/>
       <c r="N53" s="91"/>
       <c r="O53" s="91"/>
     </row>
     <row r="54" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A54" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="C54" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="91" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="91" t="s">
-        <v>47</v>
       </c>
       <c r="E54" s="91" t="s">
         <v>180</v>
       </c>
       <c r="F54" s="91" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G54" s="88">
         <f>'Cost Calculator'!J54</f>
-        <v>91.1335</v>
+        <v>96.0085</v>
       </c>
       <c r="H54" s="88">
         <v>200</v>
       </c>
-      <c r="I54" s="104">
-        <f t="shared" si="3"/>
-        <v>108.8665</v>
+      <c r="I54" s="103">
+        <f>H54-G54</f>
+        <v>103.9915</v>
       </c>
       <c r="J54" s="91"/>
-      <c r="K54" s="106">
+      <c r="K54" s="105">
         <v>100</v>
       </c>
       <c r="L54" s="91"/>
-      <c r="M54" s="109"/>
+      <c r="M54" s="108"/>
       <c r="N54" s="91"/>
       <c r="O54" s="91"/>
     </row>
     <row r="55" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A55" s="91" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="98" t="s">
-        <v>182</v>
+        <v>48</v>
+      </c>
+      <c r="E55" s="91" t="s">
+        <v>183</v>
       </c>
       <c r="F55" s="91" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G55" s="88">
         <f>'Cost Calculator'!J55</f>
-        <v>104.8585</v>
+        <v>91.1335</v>
       </c>
       <c r="H55" s="88">
         <v>200</v>
       </c>
-      <c r="I55" s="104">
-        <f t="shared" si="3"/>
-        <v>95.1415</v>
-      </c>
-      <c r="J55" s="105">
-        <f>'Cost Calculator'!K55</f>
-        <v>36.8637857142857</v>
-      </c>
-      <c r="K55" s="106">
+      <c r="I55" s="103">
+        <f>H55-G55</f>
+        <v>108.8665</v>
+      </c>
+      <c r="J55" s="91"/>
+      <c r="K55" s="105">
         <v>100</v>
       </c>
-      <c r="L55" s="105">
-        <f t="shared" ref="L55:L60" si="7">K55-J55</f>
-        <v>63.1362142857143</v>
-      </c>
-      <c r="M55" s="107">
-        <f>'Cost Calculator'!L58</f>
-        <v>107.33</v>
-      </c>
-      <c r="N55" s="108">
-        <v>180</v>
-      </c>
-      <c r="O55" s="108">
-        <f>N55-M55</f>
-        <v>72.67</v>
-      </c>
+      <c r="L55" s="91"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
     </row>
     <row r="56" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A56" s="91" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>184</v>
+        <v>37</v>
+      </c>
+      <c r="E56" s="95" t="s">
+        <v>185</v>
       </c>
       <c r="F56" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56" s="88">
         <f>'Cost Calculator'!J56</f>
-        <v>93.1585</v>
+        <v>104.8585</v>
       </c>
       <c r="H56" s="88">
         <v>200</v>
       </c>
-      <c r="I56" s="104">
-        <f t="shared" si="3"/>
-        <v>106.8415</v>
-      </c>
-      <c r="J56" s="105">
+      <c r="I56" s="103">
+        <f>H56-G56</f>
+        <v>95.1415</v>
+      </c>
+      <c r="J56" s="104">
         <f>'Cost Calculator'!K56</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="K56" s="106">
+        <v>36.8637857142857</v>
+      </c>
+      <c r="K56" s="105">
         <v>100</v>
       </c>
-      <c r="L56" s="105">
-        <f t="shared" si="7"/>
-        <v>66.3862142857143</v>
-      </c>
-      <c r="M56" s="107">
-        <f>'Cost Calculator'!L60</f>
-        <v>104.31</v>
-      </c>
-      <c r="N56" s="108">
+      <c r="L56" s="104">
+        <f>K56-J56</f>
+        <v>63.1362142857143</v>
+      </c>
+      <c r="M56" s="106">
+        <f>'Cost Calculator'!L59</f>
+        <v>107.33</v>
+      </c>
+      <c r="N56" s="107">
         <v>180</v>
       </c>
-      <c r="O56" s="108">
+      <c r="O56" s="107">
         <f>N56-M56</f>
-        <v>75.69</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="57" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A57" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="86" t="s">
+      <c r="A57" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="87" t="s">
-        <v>41</v>
+      <c r="C57" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="G57" s="88">
         <f>'Cost Calculator'!J57</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="H57" s="88">
         <v>200</v>
       </c>
-      <c r="I57" s="104">
-        <f t="shared" si="3"/>
-        <v>101.4415</v>
-      </c>
-      <c r="J57" s="105">
+      <c r="I57" s="103">
+        <f>H57-G57</f>
+        <v>106.8415</v>
+      </c>
+      <c r="J57" s="104">
         <f>'Cost Calculator'!K57</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="K57" s="106">
+        <v>33.6137857142857</v>
+      </c>
+      <c r="K57" s="105">
         <v>100</v>
       </c>
-      <c r="L57" s="105">
-        <f t="shared" si="7"/>
-        <v>64.8862142857143</v>
-      </c>
-      <c r="M57" s="112">
-        <f>'Cost Calculator'!L65</f>
-        <v>92.33</v>
-      </c>
-      <c r="N57" s="112">
+      <c r="L57" s="104">
+        <f>K57-J57</f>
+        <v>66.3862142857143</v>
+      </c>
+      <c r="M57" s="111">
+        <f>'Cost Calculator'!L61</f>
+        <v>104.31</v>
+      </c>
+      <c r="N57" s="111">
         <v>180</v>
       </c>
-      <c r="O57" s="112">
+      <c r="O57" s="111">
         <f>N57-M57</f>
-        <v>87.67</v>
+        <v>75.69</v>
       </c>
     </row>
     <row r="58" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A58" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="99" t="s">
+      <c r="A58" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="99" t="s">
+      <c r="C58" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="99" t="s">
-        <v>70</v>
+      <c r="F58" s="87" t="s">
+        <v>42</v>
       </c>
       <c r="G58" s="88">
         <f>'Cost Calculator'!J58</f>
-        <v>110.2945</v>
+        <v>98.5585</v>
       </c>
       <c r="H58" s="88">
         <v>200</v>
       </c>
-      <c r="I58" s="104">
-        <f t="shared" si="3"/>
-        <v>89.7055</v>
-      </c>
-      <c r="J58" s="105">
+      <c r="I58" s="103">
+        <f>H58-G58</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J58" s="104">
         <f>'Cost Calculator'!K58</f>
-        <v>38.3737857142857</v>
-      </c>
-      <c r="K58" s="106">
+        <v>35.1137857142857</v>
+      </c>
+      <c r="K58" s="105">
         <v>100</v>
       </c>
-      <c r="L58" s="105">
-        <f t="shared" si="7"/>
-        <v>61.6262142857143</v>
-      </c>
-      <c r="M58" s="112">
+      <c r="L58" s="104">
+        <f>K58-J58</f>
+        <v>64.8862142857143</v>
+      </c>
+      <c r="M58" s="111">
         <f>'Cost Calculator'!L66</f>
-        <v>122.93</v>
-      </c>
-      <c r="N58" s="112">
+        <v>92.33</v>
+      </c>
+      <c r="N58" s="111">
         <v>180</v>
       </c>
-      <c r="O58" s="112">
+      <c r="O58" s="111">
         <f>N58-M58</f>
-        <v>57.07</v>
+        <v>87.67</v>
       </c>
     </row>
     <row r="59" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A59" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="92" t="s">
+      <c r="A59" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="92" t="s">
+      <c r="B59" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="92" t="s">
+      <c r="C59" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="92" t="s">
-        <v>41</v>
+      <c r="F59" s="98" t="s">
+        <v>70</v>
       </c>
       <c r="G59" s="88">
         <f>'Cost Calculator'!J59</f>
-        <v>104.8585</v>
+        <v>110.2945</v>
       </c>
       <c r="H59" s="88">
         <v>200</v>
       </c>
-      <c r="I59" s="104">
-        <f t="shared" si="3"/>
-        <v>95.1415</v>
-      </c>
-      <c r="J59" s="105">
+      <c r="I59" s="103">
+        <f>H59-G59</f>
+        <v>89.7055</v>
+      </c>
+      <c r="J59" s="104">
         <f>'Cost Calculator'!K59</f>
-        <v>36.8637857142857</v>
-      </c>
-      <c r="K59" s="106">
+        <v>38.3737857142857</v>
+      </c>
+      <c r="K59" s="105">
         <v>100</v>
       </c>
-      <c r="L59" s="105">
-        <f t="shared" si="7"/>
-        <v>63.1362142857143</v>
-      </c>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
+      <c r="L59" s="104">
+        <f>K59-J59</f>
+        <v>61.6262142857143</v>
+      </c>
+      <c r="M59" s="111">
+        <f>'Cost Calculator'!L67</f>
+        <v>122.93</v>
+      </c>
+      <c r="N59" s="111">
+        <v>180</v>
+      </c>
+      <c r="O59" s="111">
+        <f>N59-M59</f>
+        <v>57.07</v>
+      </c>
     </row>
     <row r="60" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A60" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="89" t="s">
+      <c r="A60" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="90" t="s">
+      <c r="D60" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="F60" s="90" t="s">
-        <v>41</v>
+      <c r="E60" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="92" t="s">
+        <v>42</v>
       </c>
       <c r="G60" s="88">
         <f>'Cost Calculator'!J60</f>
@@ -5866,72 +5867,81 @@
       <c r="H60" s="88">
         <v>200</v>
       </c>
-      <c r="I60" s="104">
-        <f t="shared" si="3"/>
+      <c r="I60" s="103">
+        <f>H60-G60</f>
         <v>95.1415</v>
       </c>
-      <c r="J60" s="105">
+      <c r="J60" s="104">
         <f>'Cost Calculator'!K60</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="K60" s="106">
+      <c r="K60" s="105">
         <v>100</v>
       </c>
-      <c r="L60" s="105">
-        <f t="shared" si="7"/>
+      <c r="L60" s="104">
+        <f>K60-J60</f>
         <v>63.1362142857143</v>
       </c>
-      <c r="M60" s="112">
-        <f>'Cost Calculator'!L67</f>
-        <v>74.81</v>
-      </c>
-      <c r="N60" s="112">
-        <v>180</v>
-      </c>
-      <c r="O60" s="112">
-        <f>N60-M60</f>
-        <v>105.19</v>
-      </c>
-    </row>
-    <row r="61" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A61" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="91" t="s">
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+    </row>
+    <row r="61" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A61" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="91" t="s">
-        <v>41</v>
+      <c r="C61" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="90" t="s">
+        <v>42</v>
       </c>
       <c r="G61" s="88">
         <f>'Cost Calculator'!J61</f>
-        <v>90.7585</v>
+        <v>104.8585</v>
       </c>
       <c r="H61" s="88">
         <v>200</v>
       </c>
-      <c r="I61" s="104">
-        <f t="shared" si="3"/>
-        <v>109.2415</v>
-      </c>
-      <c r="J61" s="91"/>
-      <c r="K61" s="106">
+      <c r="I61" s="103">
+        <f>H61-G61</f>
+        <v>95.1415</v>
+      </c>
+      <c r="J61" s="104">
+        <f>'Cost Calculator'!K61</f>
+        <v>36.8637857142857</v>
+      </c>
+      <c r="K61" s="105">
         <v>100</v>
       </c>
-      <c r="L61" s="91"/>
-    </row>
-    <row r="62" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="L61" s="104">
+        <f>K61-J61</f>
+        <v>63.1362142857143</v>
+      </c>
+      <c r="M61" s="111">
+        <f>'Cost Calculator'!L68</f>
+        <v>74.81</v>
+      </c>
+      <c r="N61" s="111">
+        <v>180</v>
+      </c>
+      <c r="O61" s="111">
+        <f>N61-M61</f>
+        <v>105.19</v>
+      </c>
+    </row>
+    <row r="62" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A62" s="91" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="B62" s="91" t="s">
         <v>198</v>
@@ -5940,54 +5950,37 @@
         <v>17</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E62" s="91" t="s">
         <v>199</v>
       </c>
       <c r="F62" s="91" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G62" s="88">
         <f>'Cost Calculator'!J62</f>
-        <v>147.7345</v>
+        <v>90.7585</v>
       </c>
       <c r="H62" s="88">
         <v>200</v>
       </c>
-      <c r="I62" s="104">
-        <f t="shared" si="3"/>
-        <v>52.2655</v>
-      </c>
-      <c r="J62" s="105">
-        <f>'Cost Calculator'!K62</f>
-        <v>48.7737857142857</v>
-      </c>
-      <c r="K62" s="106">
+      <c r="I62" s="103">
+        <f>H62-G62</f>
+        <v>109.2415</v>
+      </c>
+      <c r="J62" s="91"/>
+      <c r="K62" s="105">
         <v>100</v>
       </c>
-      <c r="L62" s="105">
-        <f>K62-J62</f>
-        <v>51.2262142857143</v>
-      </c>
-      <c r="M62" s="112">
-        <f>'Cost Calculator'!L68</f>
-        <v>94.18499225</v>
-      </c>
-      <c r="N62" s="112">
-        <v>180</v>
-      </c>
-      <c r="O62" s="112">
-        <f>N62-M62</f>
-        <v>85.81500775</v>
-      </c>
+      <c r="L62" s="91"/>
     </row>
     <row r="63" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A63" s="91" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="B63" s="91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C63" s="91" t="s">
         <v>17</v>
@@ -5996,560 +5989,614 @@
         <v>87</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F63" s="91" t="s">
         <v>70</v>
       </c>
       <c r="G63" s="88">
         <f>'Cost Calculator'!J63</f>
-        <v>140.3905</v>
+        <v>147.7345</v>
       </c>
       <c r="H63" s="88">
         <v>200</v>
       </c>
-      <c r="I63" s="104">
-        <f t="shared" si="3"/>
-        <v>59.6095</v>
-      </c>
-      <c r="J63" s="114">
+      <c r="I63" s="103">
+        <f>H63-G63</f>
+        <v>52.2655</v>
+      </c>
+      <c r="J63" s="113">
         <f>'Cost Calculator'!K63</f>
-        <v>46.7337857142857</v>
-      </c>
-      <c r="K63" s="106">
+        <v>48.7737857142857</v>
+      </c>
+      <c r="K63" s="105">
         <v>100</v>
       </c>
-      <c r="L63" s="114">
+      <c r="L63" s="113">
         <f>K63-J63</f>
-        <v>53.2662142857143</v>
-      </c>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-    </row>
-    <row r="64" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
-      <c r="A64" s="100" t="s">
+        <v>51.2262142857143</v>
+      </c>
+      <c r="M63" s="111">
+        <f>'Cost Calculator'!L69</f>
+        <v>94.18499225</v>
+      </c>
+      <c r="N63" s="111">
+        <v>180</v>
+      </c>
+      <c r="O63" s="111">
+        <f>N63-M63</f>
+        <v>85.81500775</v>
+      </c>
+    </row>
+    <row r="64" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A64" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" s="100" t="s">
+      <c r="B64" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="F64" s="100" t="s">
-        <v>66</v>
+      <c r="D64" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="99" t="s">
+        <v>70</v>
       </c>
       <c r="G64" s="88">
         <f>'Cost Calculator'!J64</f>
-        <v>91.7335</v>
+        <v>140.3905</v>
       </c>
       <c r="H64" s="88">
         <v>200</v>
       </c>
-      <c r="I64" s="104">
-        <f t="shared" si="3"/>
-        <v>108.2665</v>
-      </c>
-      <c r="K64" s="100"/>
-    </row>
-    <row r="65" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A65" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="87" t="s">
+      <c r="I64" s="103">
+        <f>H64-G64</f>
+        <v>59.6095</v>
+      </c>
+      <c r="J64" s="113">
+        <f>'Cost Calculator'!K64</f>
+        <v>46.7337857142857</v>
+      </c>
+      <c r="K64" s="114">
+        <v>100</v>
+      </c>
+      <c r="L64" s="113">
+        <f>K64-J64</f>
+        <v>53.2662142857143</v>
+      </c>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+    </row>
+    <row r="65" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A65" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="87" t="s">
-        <v>25</v>
+      <c r="C65" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="91" t="s">
+        <v>66</v>
       </c>
       <c r="G65" s="88">
         <f>'Cost Calculator'!J65</f>
-        <v>83.2945</v>
+        <v>91.7335</v>
       </c>
       <c r="H65" s="88">
         <v>200</v>
       </c>
-      <c r="I65" s="104">
-        <f t="shared" si="3"/>
-        <v>116.7055</v>
-      </c>
-      <c r="J65" s="105">
-        <f>'Cost Calculator'!K65</f>
-        <v>30.8737857142857</v>
-      </c>
-      <c r="K65" s="106">
-        <v>100</v>
-      </c>
-      <c r="L65" s="105">
-        <f t="shared" ref="L65:L74" si="8">K65-J65</f>
-        <v>69.1262142857143</v>
-      </c>
-      <c r="M65" s="112">
-        <f>'Cost Calculator'!L70</f>
-        <v>113.81</v>
-      </c>
-      <c r="N65" s="112">
-        <v>180</v>
-      </c>
-      <c r="O65" s="112">
-        <f>N65-M65</f>
-        <v>66.19</v>
-      </c>
+      <c r="I65" s="103">
+        <f>H65-G65</f>
+        <v>108.2665</v>
+      </c>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
     </row>
     <row r="66" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A66" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="86" t="s">
+      <c r="A66" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="87" t="s">
         <v>207</v>
       </c>
+      <c r="C66" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>208</v>
+      </c>
       <c r="F66" s="87" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G66" s="88">
         <f>'Cost Calculator'!J66</f>
-        <v>138.3745</v>
+        <v>83.2945</v>
       </c>
       <c r="H66" s="88">
         <v>200</v>
       </c>
-      <c r="I66" s="104">
-        <f t="shared" si="3"/>
-        <v>61.6255</v>
-      </c>
-      <c r="J66" s="105">
+      <c r="I66" s="103">
+        <f>H66-G66</f>
+        <v>116.7055</v>
+      </c>
+      <c r="J66" s="104">
         <f>'Cost Calculator'!K66</f>
-        <v>46.1737857142857</v>
-      </c>
-      <c r="K66" s="106">
+        <v>30.8737857142857</v>
+      </c>
+      <c r="K66" s="105">
         <v>100</v>
       </c>
-      <c r="L66" s="105">
-        <f t="shared" si="8"/>
-        <v>53.8262142857143</v>
-      </c>
-      <c r="M66" s="112">
+      <c r="L66" s="104">
+        <f>K66-J66</f>
+        <v>69.1262142857143</v>
+      </c>
+      <c r="M66" s="111">
         <f>'Cost Calculator'!L71</f>
-        <v>89.49</v>
-      </c>
-      <c r="N66" s="112">
+        <v>113.81</v>
+      </c>
+      <c r="N66" s="111">
         <v>180</v>
       </c>
-      <c r="O66" s="112">
+      <c r="O66" s="111">
         <f>N66-M66</f>
-        <v>90.51</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="67" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A67" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="91" t="s">
+      <c r="A67" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="91" t="s">
-        <v>209</v>
+      <c r="D67" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>210</v>
       </c>
       <c r="F67" s="87" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G67" s="88">
         <f>'Cost Calculator'!J67</f>
-        <v>104.8585</v>
+        <v>138.3745</v>
       </c>
       <c r="H67" s="88">
         <v>200</v>
       </c>
-      <c r="I67" s="104">
-        <f t="shared" si="3"/>
-        <v>95.1415</v>
-      </c>
-      <c r="J67" s="105">
+      <c r="I67" s="103">
+        <f>H67-G67</f>
+        <v>61.6255</v>
+      </c>
+      <c r="J67" s="104">
         <f>'Cost Calculator'!K67</f>
-        <v>36.8637857142857</v>
-      </c>
-      <c r="K67" s="106">
+        <v>46.1737857142857</v>
+      </c>
+      <c r="K67" s="105">
         <v>100</v>
       </c>
-      <c r="L67" s="105">
-        <f t="shared" si="8"/>
-        <v>63.1362142857143</v>
-      </c>
-      <c r="M67" s="112" t="e">
+      <c r="L67" s="104">
+        <f>K67-J67</f>
+        <v>53.8262142857143</v>
+      </c>
+      <c r="M67" s="111">
         <f>'Cost Calculator'!L72</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N67" s="112">
+        <v>89.49</v>
+      </c>
+      <c r="N67" s="111">
         <v>180</v>
       </c>
-      <c r="O67" s="112" t="e">
+      <c r="O67" s="111">
         <f>N67-M67</f>
-        <v>#REF!</v>
+        <v>90.51</v>
       </c>
     </row>
     <row r="68" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A68" s="91" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B68" s="91" t="s">
         <v>211</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E68" s="91" t="s">
         <v>212</v>
       </c>
       <c r="F68" s="87" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G68" s="88">
         <f>'Cost Calculator'!J68</f>
-        <v>86.6335</v>
+        <v>104.8585</v>
       </c>
       <c r="H68" s="88">
         <v>200</v>
       </c>
-      <c r="I68" s="104">
-        <f t="shared" si="3"/>
-        <v>113.3665</v>
-      </c>
-      <c r="J68" s="105">
+      <c r="I68" s="103">
+        <f>H68-G68</f>
+        <v>95.1415</v>
+      </c>
+      <c r="J68" s="104">
         <f>'Cost Calculator'!K68</f>
-        <v>31.8008982142857</v>
-      </c>
-      <c r="K68" s="106">
+        <v>36.8637857142857</v>
+      </c>
+      <c r="K68" s="105">
         <v>100</v>
       </c>
-      <c r="L68" s="105">
-        <f t="shared" si="8"/>
-        <v>68.1991017857143</v>
-      </c>
-      <c r="M68" s="112">
+      <c r="L68" s="104">
+        <f>K68-J68</f>
+        <v>63.1362142857143</v>
+      </c>
+      <c r="M68" s="111" t="e">
         <f>'Cost Calculator'!L73</f>
-        <v>110.25</v>
-      </c>
-      <c r="N68" s="112">
+        <v>#REF!</v>
+      </c>
+      <c r="N68" s="111">
         <v>180</v>
       </c>
-      <c r="O68" s="112">
+      <c r="O68" s="111" t="e">
         <f>N68-M68</f>
-        <v>69.75</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A69" s="91" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E69" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="91" t="s">
-        <v>41</v>
+        <v>215</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>20</v>
       </c>
       <c r="G69" s="88">
         <f>'Cost Calculator'!J69</f>
-        <v>98.5585</v>
+        <v>86.6335</v>
       </c>
       <c r="H69" s="88">
         <v>200</v>
       </c>
-      <c r="I69" s="104">
-        <f t="shared" si="3"/>
-        <v>101.4415</v>
-      </c>
-      <c r="J69" s="105">
+      <c r="I69" s="103">
+        <f>H69-G69</f>
+        <v>113.3665</v>
+      </c>
+      <c r="J69" s="104">
         <f>'Cost Calculator'!K69</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="K69" s="106">
+        <v>31.8008982142857</v>
+      </c>
+      <c r="K69" s="105">
         <v>100</v>
       </c>
-      <c r="L69" s="105">
-        <f t="shared" si="8"/>
-        <v>64.8862142857143</v>
-      </c>
-      <c r="M69" s="112" t="e">
+      <c r="L69" s="104">
+        <f>K69-J69</f>
+        <v>68.1991017857143</v>
+      </c>
+      <c r="M69" s="111">
         <f>'Cost Calculator'!L74</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N69" s="112">
+        <v>110.25</v>
+      </c>
+      <c r="N69" s="111">
         <v>180</v>
       </c>
-      <c r="O69" s="112" t="e">
+      <c r="O69" s="111">
         <f>N69-M69</f>
-        <v>#REF!</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="70" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A70" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="86" t="s">
+      <c r="A70" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" s="87" t="s">
-        <v>41</v>
+      <c r="D70" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="G70" s="88">
         <f>'Cost Calculator'!J70</f>
-        <v>121.9585</v>
+        <v>98.5585</v>
       </c>
       <c r="H70" s="88">
         <v>200</v>
       </c>
-      <c r="I70" s="104">
-        <f t="shared" si="3"/>
-        <v>78.0415</v>
-      </c>
-      <c r="J70" s="105">
+      <c r="I70" s="103">
+        <f>H70-G70</f>
+        <v>101.4415</v>
+      </c>
+      <c r="J70" s="104">
         <f>'Cost Calculator'!K70</f>
-        <v>41.6137857142857</v>
-      </c>
-      <c r="K70" s="106">
+        <v>35.1137857142857</v>
+      </c>
+      <c r="K70" s="105">
         <v>100</v>
       </c>
-      <c r="L70" s="105">
-        <f t="shared" si="8"/>
-        <v>58.3862142857143</v>
-      </c>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113"/>
+      <c r="L70" s="104">
+        <f>K70-J70</f>
+        <v>64.8862142857143</v>
+      </c>
+      <c r="M70" s="111" t="e">
+        <f>'Cost Calculator'!L75</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N70" s="111">
+        <v>180</v>
+      </c>
+      <c r="O70" s="111" t="e">
+        <f>N70-M70</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="71" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A71" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" s="91" t="s">
+      <c r="A71" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="91" t="s">
-        <v>218</v>
+      <c r="D71" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>219</v>
       </c>
       <c r="F71" s="87" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G71" s="88">
         <f>'Cost Calculator'!J71</f>
-        <v>78.1825</v>
+        <v>121.9585</v>
       </c>
       <c r="H71" s="88">
         <v>200</v>
       </c>
-      <c r="I71" s="104">
-        <f t="shared" si="3"/>
-        <v>121.8175</v>
-      </c>
-      <c r="J71" s="105">
+      <c r="I71" s="103">
+        <f>H71-G71</f>
+        <v>78.0415</v>
+      </c>
+      <c r="J71" s="104">
         <f>'Cost Calculator'!K71</f>
-        <v>29.4537857142857</v>
-      </c>
-      <c r="K71" s="106">
+        <v>41.6137857142857</v>
+      </c>
+      <c r="K71" s="105">
         <v>100</v>
       </c>
-      <c r="L71" s="105">
-        <f t="shared" si="8"/>
-        <v>70.5462142857143</v>
-      </c>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="113"/>
+      <c r="L71" s="104">
+        <f>K71-J71</f>
+        <v>58.3862142857143</v>
+      </c>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
     </row>
     <row r="72" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A72" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="89" t="s">
+      <c r="A72" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="E72" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="F72" s="90" t="s">
-        <v>34</v>
+      <c r="D72" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="G72" s="88">
         <f>'Cost Calculator'!J72</f>
-        <v>96.3835</v>
+        <v>78.1825</v>
       </c>
       <c r="H72" s="88">
         <v>200</v>
       </c>
-      <c r="I72" s="104">
-        <f t="shared" si="3"/>
-        <v>103.6165</v>
-      </c>
-      <c r="J72" s="105">
+      <c r="I72" s="103">
+        <f>H72-G72</f>
+        <v>121.8175</v>
+      </c>
+      <c r="J72" s="104">
         <f>'Cost Calculator'!K72</f>
-        <v>34.5091232142857</v>
-      </c>
-      <c r="K72" s="106">
+        <v>29.4537857142857</v>
+      </c>
+      <c r="K72" s="105">
         <v>100</v>
       </c>
-      <c r="L72" s="105">
-        <f t="shared" si="8"/>
-        <v>65.4908767857143</v>
-      </c>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="113"/>
+      <c r="L72" s="104">
+        <f>K72-J72</f>
+        <v>70.5462142857143</v>
+      </c>
+      <c r="M72" s="112"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="112"/>
     </row>
     <row r="73" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="91" t="s">
+      <c r="B73" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" s="91" t="s">
-        <v>70</v>
+      <c r="D73" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="90" t="s">
+        <v>34</v>
       </c>
       <c r="G73" s="88">
         <f>'Cost Calculator'!J73</f>
-        <v>115.5505</v>
+        <v>96.3835</v>
       </c>
       <c r="H73" s="88">
         <v>200</v>
       </c>
-      <c r="I73" s="104">
-        <f t="shared" si="3"/>
+      <c r="I73" s="103">
+        <f>H73-G73</f>
+        <v>103.6165</v>
+      </c>
+      <c r="J73" s="104">
+        <f>'Cost Calculator'!K73</f>
+        <v>34.5091232142857</v>
+      </c>
+      <c r="K73" s="105">
+        <v>100</v>
+      </c>
+      <c r="L73" s="104">
+        <f>K73-J73</f>
+        <v>65.4908767857143</v>
+      </c>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+    </row>
+    <row r="74" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A74" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="115">
+        <f>'Cost Calculator'!J74</f>
+        <v>115.5505</v>
+      </c>
+      <c r="H74" s="115">
+        <v>200</v>
+      </c>
+      <c r="I74" s="118">
+        <f>H74-G74</f>
         <v>84.4495</v>
       </c>
-      <c r="J73" s="105">
-        <f>'Cost Calculator'!K73</f>
+      <c r="J74" s="113">
+        <f>'Cost Calculator'!K74</f>
         <v>39.8337857142857</v>
-      </c>
-      <c r="K73" s="106">
-        <v>100</v>
-      </c>
-      <c r="L73" s="105">
-        <f t="shared" si="8"/>
-        <v>60.1662142857143</v>
-      </c>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-    </row>
-    <row r="74" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
-      <c r="A74" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" s="115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="F74" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" s="117">
-        <f>'Cost Calculator'!J74</f>
-        <v>96.3835</v>
-      </c>
-      <c r="H74" s="117">
-        <v>200</v>
-      </c>
-      <c r="I74" s="118">
-        <f t="shared" si="3"/>
-        <v>103.6165</v>
-      </c>
-      <c r="J74" s="114">
-        <f>'Cost Calculator'!K74</f>
-        <v>34.5091232142857</v>
       </c>
       <c r="K74" s="119">
         <v>100</v>
       </c>
-      <c r="L74" s="114">
-        <f t="shared" si="8"/>
+      <c r="L74" s="113">
+        <f>K74-J74</f>
+        <v>60.1662142857143</v>
+      </c>
+      <c r="M74" s="112"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="112"/>
+    </row>
+    <row r="75" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A75" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="115">
+        <f>'Cost Calculator'!J75</f>
+        <v>96.3835</v>
+      </c>
+      <c r="H75" s="115">
+        <v>200</v>
+      </c>
+      <c r="I75" s="118">
+        <f>H75-G75</f>
+        <v>103.6165</v>
+      </c>
+      <c r="J75" s="113">
+        <f>'Cost Calculator'!K75</f>
+        <v>34.5091232142857</v>
+      </c>
+      <c r="K75" s="119">
+        <v>100</v>
+      </c>
+      <c r="L75" s="113">
+        <f>K75-J75</f>
         <v>65.4908767857143</v>
       </c>
-      <c r="M74" s="113"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="113"/>
-    </row>
-    <row r="75" s="83" customFormat="1" ht="14.25" customHeight="1"/>
+      <c r="M75" s="112"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+    </row>
     <row r="76" s="83" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="77" s="83" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="78" s="83" customFormat="1" ht="14.25" customHeight="1"/>
@@ -7488,10 +7535,10 @@
     <row r="1011" s="83" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="1012" s="83" customFormat="1" ht="14.25" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:O74">
-    <sortCondition ref="E2:E74"/>
-    <sortCondition ref="A2:A74"/>
-    <sortCondition ref="B2:B74"/>
+  <sortState ref="A2:O75">
+    <sortCondition ref="E2:E75"/>
+    <sortCondition ref="A2:A75"/>
+    <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7501,10 +7548,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4"/>
@@ -7525,34 +7572,34 @@
     <row r="1" spans="1:12">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>12</v>
@@ -7564,7 +7611,7 @@
         <v>1231</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D2" s="22">
         <v>1050</v>
@@ -7598,7 +7645,7 @@
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D3" s="22">
         <v>380</v>
@@ -7630,11 +7677,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D4" s="22">
         <v>247</v>
@@ -7666,14 +7713,14 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" s="30">
         <f>B2*0.48</f>
         <v>590.88</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D5" s="46">
         <v>356</v>
@@ -7702,14 +7749,14 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B6" s="34">
         <f>(110/E2)*D2</f>
         <v>19.25</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D6" s="34">
         <v>320</v>
@@ -7738,14 +7785,14 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B7" s="34">
         <f>(20/E3)*D3</f>
         <v>7.6</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D7" s="34">
         <v>263</v>
@@ -7777,14 +7824,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B8" s="34">
         <f>(10/E4)*D4</f>
         <v>4.94</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D8" s="34">
         <v>160</v>
@@ -7816,14 +7863,14 @@
     </row>
     <row r="9" ht="15.15" spans="1:12">
       <c r="A9" s="37" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B9" s="71">
         <f>SUM(B5:B8)</f>
         <v>622.67</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D9" s="73">
         <v>82</v>
@@ -7855,11 +7902,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D10" s="76"/>
       <c r="F10" s="42" t="str">
@@ -7883,14 +7930,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B11" s="44">
         <f>B9*0.15</f>
         <v>93.4005</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="45">
         <f>B9*0.275</f>
@@ -7920,13 +7967,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B12" s="46">
         <v>23</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D12" s="47">
         <v>25</v>
@@ -7955,13 +8002,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B13" s="46">
         <v>20</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D13" s="49">
         <v>22</v>
@@ -7990,13 +8037,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B14" s="46">
         <v>1.7</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="47">
         <v>12</v>
@@ -8025,13 +8072,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B15" s="46">
         <v>1.29</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D15" s="47">
         <v>0.89</v>
@@ -8059,14 +8106,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B16" s="46">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D16" s="47">
         <v>1.89</v>
@@ -8092,14 +8139,14 @@
     </row>
     <row r="17" ht="15.15" spans="1:12">
       <c r="A17" s="50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B17" s="51">
         <f>SUM(B11:B16)</f>
         <v>140.3905</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D17" s="53">
         <f>SUM(D11:D16)</f>
@@ -8129,11 +8176,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="37" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D18" s="55"/>
       <c r="F18" s="42" t="str">
@@ -8160,14 +8207,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B19" s="30">
         <f>B5*0.16667</f>
         <v>98.4819696</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D19" s="56">
         <f>(55/E2)*D2</f>
@@ -8197,14 +8244,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B20" s="34">
         <f>(120/E2)*D2</f>
         <v>21</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="56">
         <f>(10/E3)*D3</f>
@@ -8228,14 +8275,14 @@
     </row>
     <row r="21" ht="15.15" spans="1:12">
       <c r="A21" s="29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B21" s="34">
         <f>(60/E3)*D3</f>
         <v>22.8</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="77">
         <f>(5/E4)*D4</f>
@@ -8259,14 +8306,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B22" s="56">
         <f>(10/E4)*D4</f>
         <v>4.94</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="55"/>
       <c r="F22" s="42" t="str">
@@ -8293,14 +8340,14 @@
     </row>
     <row r="23" ht="15.15" spans="1:12">
       <c r="A23" s="59" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B23" s="78">
         <f>SUM(B18:B22)</f>
         <v>147.2219696</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D23" s="56">
         <f>(10/125)*B2</f>
@@ -8330,11 +8377,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B24" s="55"/>
       <c r="C24" s="29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D24" s="45">
         <f>150/E5*D5</f>
@@ -8364,14 +8411,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B25" s="45">
         <f>B23/2</f>
         <v>73.6109848</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D25" s="56">
         <f>30/E6*D6</f>
@@ -8401,13 +8448,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B26" s="56">
         <v>24</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D26" s="56">
         <f>8/E7*D7</f>
@@ -8434,13 +8481,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B27" s="56">
         <v>22</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D27" s="56">
         <f>1/E8*D8</f>
@@ -8464,13 +8511,13 @@
     </row>
     <row r="28" ht="15.15" spans="1:12">
       <c r="A28" s="29" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B28" s="56">
         <v>1.35</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D28" s="56">
         <f>1/E9*D9</f>
@@ -8497,13 +8544,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B29" s="56">
         <v>1.2</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D29" s="80">
         <v>17</v>
@@ -8529,13 +8576,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B30" s="56">
         <v>1.89</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D30" s="56">
         <v>1.35</v>
@@ -8564,14 +8611,14 @@
     </row>
     <row r="31" ht="15.15" spans="1:12">
       <c r="A31" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B31" s="81">
         <f>SUM(B25:B30)</f>
         <v>124.0509848</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D31" s="77">
         <v>0.79</v>
@@ -8601,11 +8648,11 @@
     </row>
     <row r="32" ht="15.15" spans="1:12">
       <c r="A32" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="50" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D32" s="82">
         <f>SUM(D24:D28)*0.25+SUM(D29:D31)</f>
@@ -8629,7 +8676,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B33" s="44">
         <f>B9*0.15</f>
@@ -8659,7 +8706,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B34" s="46">
         <v>23</v>
@@ -8690,7 +8737,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B35" s="46">
         <v>19</v>
@@ -8716,7 +8763,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B36" s="46">
         <v>12</v>
@@ -8743,7 +8790,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B37" s="46">
         <v>1.29</v>
@@ -8772,36 +8819,30 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B38" s="46">
         <v>1.3</v>
       </c>
       <c r="F38" s="42" t="str">
         <f>'Scent Inventory'!E38</f>
-        <v>Noble Aplomb</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1">
-        <v>580</v>
-      </c>
+        <v>Muschamitrus </v>
+      </c>
+      <c r="G38" s="1">
+        <v>520</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="68">
-        <f>((H38*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>95.2585</v>
-      </c>
-      <c r="K38" s="69">
-        <f>(H38*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>34.1966357142857</v>
-      </c>
-      <c r="L38" s="69" t="e">
-        <f>((#REF!*0.16667)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>#REF!</v>
-      </c>
+        <f>((G38*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>98.5585</v>
+      </c>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
     </row>
     <row r="39" ht="15.15" spans="1:12">
       <c r="A39" s="50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B39" s="51">
         <f>SUM(B33:B38)</f>
@@ -8809,30 +8850,30 @@
       </c>
       <c r="F39" s="42" t="str">
         <f>'Scent Inventory'!E39</f>
-        <v>Novel Spirit of Fire</v>
-      </c>
-      <c r="G39" s="1">
-        <v>650</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>Noble Aplomb</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>580</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="68">
-        <f>((G39*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>110.2585</v>
+        <f>((H39*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>95.2585</v>
       </c>
       <c r="K39" s="69">
-        <f>(G39*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>38.3637857142857</v>
-      </c>
-      <c r="L39" s="69">
-        <f>((I39*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>74.81</v>
+        <f>(H39*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>34.1966357142857</v>
+      </c>
+      <c r="L39" s="69" t="e">
+        <f>((#REF!*0.16667)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="6:12">
       <c r="F40" s="42" t="str">
         <f>'Scent Inventory'!E40</f>
-        <v>Pearanil Wisp</v>
+        <v>Novel Spirit of Fire</v>
       </c>
       <c r="G40" s="1">
         <v>650</v>
@@ -8848,54 +8889,57 @@
         <v>38.3637857142857</v>
       </c>
       <c r="L40" s="69">
-        <f>((G40*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>107.31</v>
+        <f>((I40*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>74.81</v>
       </c>
     </row>
     <row r="41" spans="6:12">
       <c r="F41" s="42" t="str">
         <f>'Scent Inventory'!E41</f>
-        <v>Peostachio Airs</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>495</v>
-      </c>
+        <v>Pearanil Wisp</v>
+      </c>
+      <c r="G41" s="1">
+        <v>650</v>
+      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="68">
-        <f>((H41*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>88.8835</v>
+        <f>((G41*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>110.2585</v>
       </c>
       <c r="K41" s="69">
-        <f>(H41*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>32.4258732142857</v>
-      </c>
-      <c r="L41" s="69"/>
+        <f>(G41*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>38.3637857142857</v>
+      </c>
+      <c r="L41" s="69">
+        <f>((G41*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>107.31</v>
+      </c>
     </row>
     <row r="42" spans="6:12">
       <c r="F42" s="42" t="str">
         <f>'Scent Inventory'!E42</f>
-        <v>Pillar of Gusaco</v>
-      </c>
-      <c r="G42" s="1">
-        <v>520</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>Peostachio Airs</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <v>495</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="68">
-        <f>((G42*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.5585</v>
+        <f>((H42*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>88.8835</v>
       </c>
       <c r="K42" s="69">
-        <f>(G42*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>35.1137857142857</v>
+        <f>(H42*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>32.4258732142857</v>
       </c>
       <c r="L42" s="69"/>
     </row>
     <row r="43" spans="6:12">
       <c r="F43" s="42" t="str">
         <f>'Scent Inventory'!E43</f>
-        <v>Planiverum</v>
+        <v>Pillar of Gusaco</v>
       </c>
       <c r="G43" s="1">
         <v>520</v>
@@ -8906,72 +8950,72 @@
         <f>((G43*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>98.5585</v>
       </c>
-      <c r="K43" s="69"/>
+      <c r="K43" s="69">
+        <f>(G43*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>35.1137857142857</v>
+      </c>
       <c r="L43" s="69"/>
     </row>
     <row r="44" spans="6:12">
       <c r="F44" s="42" t="str">
         <f>'Scent Inventory'!E44</f>
-        <v>Royal Musketeer</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>550</v>
-      </c>
+        <v>Planiverum</v>
+      </c>
+      <c r="G44" s="1">
+        <v>520</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="68">
-        <f>((H44*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.0085</v>
-      </c>
-      <c r="K44" s="69">
-        <f>(H44*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>33.5716607142857</v>
-      </c>
+        <f>((G44*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>98.5585</v>
+      </c>
+      <c r="K44" s="69"/>
       <c r="L44" s="69"/>
     </row>
     <row r="45" spans="6:12">
       <c r="F45" s="42" t="str">
         <f>'Scent Inventory'!E45</f>
-        <v>Royal Zingiber</v>
+        <v>Royal Musketeer</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="68">
         <f>((H45*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>96.0085</v>
-      </c>
-      <c r="K45" s="69"/>
+        <v>93.0085</v>
+      </c>
+      <c r="K45" s="69">
+        <f>(H45*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>33.5716607142857</v>
+      </c>
       <c r="L45" s="69"/>
     </row>
     <row r="46" spans="6:12">
       <c r="F46" s="42" t="str">
         <f>'Scent Inventory'!E46</f>
-        <v>Saccharine Dew</v>
-      </c>
-      <c r="G46" s="1">
-        <v>460</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>Royal Zingiber</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>590</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="68">
-        <f>((G46*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.1585</v>
-      </c>
-      <c r="K46" s="69">
-        <f>(G46*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>33.6137857142857</v>
-      </c>
+        <f>((H46*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>96.0085</v>
+      </c>
+      <c r="K46" s="69"/>
       <c r="L46" s="69"/>
     </row>
     <row r="47" spans="6:12">
       <c r="F47" s="42" t="str">
         <f>'Scent Inventory'!E47</f>
-        <v>Savocao Manna</v>
-      </c>
-      <c r="G47" s="65">
+        <v>Saccharine Dew</v>
+      </c>
+      <c r="G47" s="1">
         <v>460</v>
       </c>
       <c r="H47" s="1"/>
@@ -8989,119 +9033,122 @@
     <row r="48" spans="6:12">
       <c r="F48" s="42" t="str">
         <f>'Scent Inventory'!E48</f>
-        <v>Sentir La Crème</v>
-      </c>
-      <c r="G48" s="1">
-        <v>520</v>
+        <v>Savocao Manna</v>
+      </c>
+      <c r="G48" s="65">
+        <v>460</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="68">
         <f>((G48*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="K48" s="69">
         <f>(G48*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="L48" s="69">
-        <f>((G48*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>100.81</v>
-      </c>
+        <v>33.6137857142857</v>
+      </c>
+      <c r="L48" s="69"/>
     </row>
     <row r="49" spans="6:12">
       <c r="F49" s="42" t="str">
         <f>'Scent Inventory'!E49</f>
-        <v>Shadow Orchids</v>
+        <v>Sentir La Crème</v>
       </c>
       <c r="G49" s="1">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="68">
         <f>((G49*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.1585</v>
+        <v>98.5585</v>
       </c>
       <c r="K49" s="69">
         <f>(G49*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="L49" s="69"/>
+        <v>35.1137857142857</v>
+      </c>
+      <c r="L49" s="69">
+        <f>((G49*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>100.81</v>
+      </c>
     </row>
     <row r="50" spans="6:12">
       <c r="F50" s="42" t="str">
         <f>'Scent Inventory'!E50</f>
-        <v>Snow Crystal Gust</v>
+        <v>Shadow Orchids</v>
       </c>
       <c r="G50" s="1">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="68">
         <f>((G50*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="K50" s="69">
         <f>(G50*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>35.1137857142857</v>
+        <v>33.6137857142857</v>
       </c>
       <c r="L50" s="69"/>
     </row>
     <row r="51" spans="6:12">
       <c r="F51" s="42" t="str">
         <f>'Scent Inventory'!E51</f>
-        <v>Solanzoin</v>
+        <v>Snow Crystal Gust</v>
       </c>
       <c r="G51" s="1">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="68">
         <f>((G51*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.1585</v>
+        <v>98.5585</v>
       </c>
       <c r="K51" s="69">
         <f>(G51*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="L51" s="69">
-        <f>((G51*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>97.81</v>
-      </c>
+        <v>35.1137857142857</v>
+      </c>
+      <c r="L51" s="69"/>
     </row>
     <row r="52" spans="6:12">
       <c r="F52" s="42" t="str">
         <f>'Scent Inventory'!E52</f>
-        <v>Staracton</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1">
-        <v>520</v>
-      </c>
+        <v>Solanzoin</v>
+      </c>
+      <c r="G52" s="1">
+        <v>460</v>
+      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="68">
-        <f>((H52*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>90.7585</v>
-      </c>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
+        <f>((G52*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>93.1585</v>
+      </c>
+      <c r="K52" s="69">
+        <f>(G52*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>33.6137857142857</v>
+      </c>
+      <c r="L52" s="69">
+        <f>((G52*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>97.81</v>
+      </c>
     </row>
     <row r="53" spans="6:12">
       <c r="F53" s="42" t="str">
         <f>'Scent Inventory'!E53</f>
-        <v>Sunrise Relic</v>
+        <v>Staracton</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="68">
         <f>((H53*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>96.0085</v>
+        <v>90.7585</v>
       </c>
       <c r="K53" s="69"/>
       <c r="L53" s="69"/>
@@ -9109,16 +9156,16 @@
     <row r="54" spans="6:12">
       <c r="F54" s="42" t="str">
         <f>'Scent Inventory'!E54</f>
-        <v>Sunset Relic</v>
+        <v>Sunrise Relic</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="10">
-        <v>525</v>
+      <c r="H54" s="1">
+        <v>590</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="68">
         <f>((H54*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>91.1335</v>
+        <v>96.0085</v>
       </c>
       <c r="K54" s="69"/>
       <c r="L54" s="69"/>
@@ -9126,116 +9173,113 @@
     <row r="55" spans="6:12">
       <c r="F55" s="42" t="str">
         <f>'Scent Inventory'!E55</f>
-        <v>Surf &amp; Dive</v>
-      </c>
-      <c r="G55" s="1">
-        <v>590</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>Sunset Relic</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="10">
+        <v>525</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="68">
-        <f>((G55*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>104.8585</v>
-      </c>
-      <c r="K55" s="69">
-        <f>(G55*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>36.8637857142857</v>
-      </c>
+        <f>((H55*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>91.1335</v>
+      </c>
+      <c r="K55" s="69"/>
       <c r="L55" s="69"/>
     </row>
     <row r="56" spans="6:12">
       <c r="F56" s="42" t="str">
         <f>'Scent Inventory'!E56</f>
-        <v>Sylvan Free Rein</v>
+        <v>Surf &amp; Dive</v>
       </c>
       <c r="G56" s="1">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="68">
         <f>((G56*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>93.1585</v>
+        <v>104.8585</v>
       </c>
       <c r="K56" s="69">
         <f>(G56*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>33.6137857142857</v>
-      </c>
-      <c r="L56" s="69">
-        <f>((I56*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>74.81</v>
-      </c>
+        <v>36.8637857142857</v>
+      </c>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="6:12">
       <c r="F57" s="42" t="str">
         <f>'Scent Inventory'!E57</f>
-        <v>Tealotoz Coast</v>
+        <v>Sylvan Free Rein</v>
       </c>
       <c r="G57" s="1">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="68">
         <f>((G57*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.5585</v>
+        <v>93.1585</v>
       </c>
       <c r="K57" s="69">
         <f>(G57*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>35.1137857142857</v>
+        <v>33.6137857142857</v>
       </c>
       <c r="L57" s="69">
-        <f>((H57*0.0833333)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <f>((I57*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
         <v>74.81</v>
       </c>
     </row>
     <row r="58" spans="6:12">
       <c r="F58" s="42" t="str">
         <f>'Scent Inventory'!E58</f>
-        <v>The Beloved</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>Tealotoz Coast</v>
+      </c>
+      <c r="G58" s="1">
+        <v>520</v>
+      </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1">
-        <v>813</v>
-      </c>
+      <c r="I58" s="1"/>
       <c r="J58" s="68">
-        <f>((I58*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>110.2945</v>
+        <f>((G58*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>98.5585</v>
       </c>
       <c r="K58" s="69">
-        <f>(I58*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>38.3737857142857</v>
+        <f>(G58*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>35.1137857142857</v>
       </c>
       <c r="L58" s="69">
-        <f>((I58*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>107.33</v>
+        <f>((H58*0.0833333)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>74.81</v>
       </c>
     </row>
     <row r="59" spans="6:12">
       <c r="F59" s="42" t="str">
         <f>'Scent Inventory'!E59</f>
-        <v>The Contained</v>
-      </c>
-      <c r="G59" s="1">
-        <v>590</v>
-      </c>
+        <v>The Beloved</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>813</v>
+      </c>
       <c r="J59" s="68">
-        <f>((G59*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>104.8585</v>
+        <f>((I59*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>110.2945</v>
       </c>
       <c r="K59" s="69">
-        <f>(G59*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>36.8637857142857</v>
-      </c>
-      <c r="L59" s="69"/>
+        <f>(I59*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>38.3737857142857</v>
+      </c>
+      <c r="L59" s="69">
+        <f>((I59*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>107.33</v>
+      </c>
     </row>
     <row r="60" spans="6:12">
       <c r="F60" s="42" t="str">
         <f>'Scent Inventory'!E60</f>
-        <v>The Unchained</v>
+        <v>The Contained</v>
       </c>
       <c r="G60" s="1">
         <v>590</v>
@@ -9250,307 +9294,327 @@
         <f>(G60*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
         <v>36.8637857142857</v>
       </c>
-      <c r="L60" s="69">
-        <f>((G60*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>104.31</v>
-      </c>
+      <c r="L60" s="69"/>
     </row>
     <row r="61" spans="6:12">
       <c r="F61" s="42" t="str">
         <f>'Scent Inventory'!E61</f>
-        <v>Thornberry</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1">
-        <v>520</v>
-      </c>
+        <v>The Unchained</v>
+      </c>
+      <c r="G61" s="1">
+        <v>590</v>
+      </c>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="68">
-        <f>((H61*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>90.7585</v>
-      </c>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
+        <f>((G61*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>104.8585</v>
+      </c>
+      <c r="K61" s="69">
+        <f>(G61*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>36.8637857142857</v>
+      </c>
+      <c r="L61" s="69">
+        <f>((G61*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>104.31</v>
+      </c>
     </row>
     <row r="62" spans="6:12">
       <c r="F62" s="42" t="str">
         <f>'Scent Inventory'!E62</f>
-        <v>Treats &amp; Twigs</v>
+        <v>Thornberry</v>
       </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1">
-        <v>1333</v>
-      </c>
+      <c r="H62" s="1">
+        <v>520</v>
+      </c>
+      <c r="I62" s="1"/>
       <c r="J62" s="68">
-        <f>((I62*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>147.7345</v>
-      </c>
-      <c r="K62" s="69">
-        <f>(I62*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>48.7737857142857</v>
-      </c>
+        <f>((H62*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>90.7585</v>
+      </c>
+      <c r="K62" s="69"/>
       <c r="L62" s="69"/>
     </row>
     <row r="63" spans="6:12">
       <c r="F63" s="42" t="str">
         <f>'Scent Inventory'!E63</f>
-        <v>Trent Forest Fumes</v>
+        <v>Treats &amp; Twigs</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1">
-        <v>1231</v>
+        <v>1333</v>
       </c>
       <c r="J63" s="68">
         <f>((I63*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>140.3905</v>
+        <v>147.7345</v>
       </c>
       <c r="K63" s="69">
         <f>(I63*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>46.7337857142857</v>
+        <v>48.7737857142857</v>
       </c>
       <c r="L63" s="69"/>
     </row>
     <row r="64" spans="6:12">
       <c r="F64" s="42" t="str">
         <f>'Scent Inventory'!E64</f>
-        <v>Tuberosa Lepos</v>
+        <v>Trent Forest Fumes</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="1">
-        <v>533</v>
-      </c>
-      <c r="I64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
+        <v>1231</v>
+      </c>
       <c r="J64" s="68">
-        <f>((H64*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>91.7335</v>
-      </c>
-      <c r="K64" s="69"/>
+        <f>((I64*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>140.3905</v>
+      </c>
+      <c r="K64" s="69">
+        <f>(I64*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>46.7337857142857</v>
+      </c>
       <c r="L64" s="69"/>
     </row>
     <row r="65" spans="6:12">
       <c r="F65" s="42" t="str">
         <f>'Scent Inventory'!E65</f>
-        <v>Tulipoise</v>
+        <v>Tuberosa Lepos</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="10">
-        <v>438</v>
-      </c>
+      <c r="H65" s="1">
+        <v>533</v>
+      </c>
+      <c r="I65" s="1"/>
       <c r="J65" s="68">
-        <f>((I65*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>83.2945</v>
-      </c>
-      <c r="K65" s="69">
-        <f>(I65*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>30.8737857142857</v>
-      </c>
-      <c r="L65" s="69">
-        <f>((I65*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>92.33</v>
-      </c>
+        <f>((H65*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>91.7335</v>
+      </c>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
     </row>
     <row r="66" spans="6:12">
       <c r="F66" s="42" t="str">
         <f>'Scent Inventory'!E66</f>
-        <v>Tundrabare</v>
+        <v>Tulipoise</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1">
-        <v>1203</v>
+      <c r="I66" s="10">
+        <v>438</v>
       </c>
       <c r="J66" s="68">
         <f>((I66*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>138.3745</v>
+        <v>83.2945</v>
       </c>
       <c r="K66" s="69">
         <f>(I66*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>46.1737857142857</v>
+        <v>30.8737857142857</v>
       </c>
       <c r="L66" s="69">
         <f>((I66*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>122.93</v>
+        <v>92.33</v>
       </c>
     </row>
     <row r="67" spans="6:12">
       <c r="F67" s="42" t="str">
         <f>'Scent Inventory'!E67</f>
-        <v>Umbra Swathe</v>
-      </c>
-      <c r="G67" s="1">
-        <v>590</v>
-      </c>
+        <v>Tundrabare</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>1203</v>
+      </c>
       <c r="J67" s="68">
-        <f>((G67*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>104.8585</v>
+        <f>((I67*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>138.3745</v>
       </c>
       <c r="K67" s="69">
-        <f>(G67*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>36.8637857142857</v>
+        <f>(I67*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>46.1737857142857</v>
       </c>
       <c r="L67" s="69">
-        <f>((H67*0.0833333)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>74.81</v>
+        <f>((I67*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>122.93</v>
       </c>
     </row>
     <row r="68" spans="6:12">
       <c r="F68" s="42" t="str">
         <f>'Scent Inventory'!E68</f>
-        <v>Velvet Bouquet</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1">
-        <v>465</v>
-      </c>
+        <v>Umbra Swathe</v>
+      </c>
+      <c r="G68" s="1">
+        <v>590</v>
+      </c>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="68">
-        <f>(H68*0.5+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>86.6335</v>
+        <f>((G68*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>104.8585</v>
       </c>
       <c r="K68" s="69">
-        <f>(H68*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>31.8008982142857</v>
+        <f>(G68*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>36.8637857142857</v>
       </c>
       <c r="L68" s="69">
         <f>((H68*0.0833333)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>94.18499225</v>
+        <v>74.81</v>
       </c>
     </row>
     <row r="69" spans="6:12">
       <c r="F69" s="42" t="str">
         <f>'Scent Inventory'!E69</f>
-        <v>War of Resins</v>
-      </c>
-      <c r="G69" s="1">
-        <v>520</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>Velvet Bouquet</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1">
+        <v>465</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="68">
-        <f>((G69*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>98.5585</v>
+        <f>(H69*0.5+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>86.6335</v>
       </c>
       <c r="K69" s="69">
-        <f>(G69*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>35.1137857142857</v>
-      </c>
-      <c r="L69" s="69"/>
+        <f>(H69*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>31.8008982142857</v>
+      </c>
+      <c r="L69" s="69">
+        <f>((H69*0.0833333)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>94.18499225</v>
+      </c>
     </row>
     <row r="70" spans="6:12">
       <c r="F70" s="42" t="str">
         <f>'Scent Inventory'!E70</f>
-        <v>Weekly Yawn</v>
+        <v>War of Resins</v>
       </c>
       <c r="G70" s="1">
-        <v>780</v>
+        <v>520</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="68">
         <f>((G70*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>121.9585</v>
+        <v>98.5585</v>
       </c>
       <c r="K70" s="69">
         <f>(G70*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>41.6137857142857</v>
-      </c>
-      <c r="L70" s="69">
-        <f>((G70*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>113.81</v>
-      </c>
+        <v>35.1137857142857</v>
+      </c>
+      <c r="L70" s="69"/>
     </row>
     <row r="71" spans="6:12">
       <c r="F71" s="42" t="str">
         <f>'Scent Inventory'!E71</f>
-        <v>Welkin Pearl</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>Weekly Yawn</v>
+      </c>
+      <c r="G71" s="1">
+        <v>780</v>
+      </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="10">
-        <v>367</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="68">
-        <f>((I71*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>78.1825</v>
+        <f>((G71*0.6)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>121.9585</v>
       </c>
       <c r="K71" s="69">
-        <f>(I71*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>29.4537857142857</v>
+        <f>(G71*0.1+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>41.6137857142857</v>
       </c>
       <c r="L71" s="69">
-        <f>((I71*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>89.49</v>
+        <f>((G71*0.1)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>113.81</v>
       </c>
     </row>
     <row r="72" spans="6:12">
       <c r="F72" s="42" t="str">
         <f>'Scent Inventory'!E72</f>
-        <v>Windsparks</v>
+        <v>Welkin Pearl</v>
       </c>
       <c r="G72" s="1"/>
-      <c r="H72" s="1">
-        <v>595</v>
-      </c>
-      <c r="I72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="10">
+        <v>367</v>
+      </c>
       <c r="J72" s="68">
-        <f>((H72*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>96.3835</v>
+        <f>((I72*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>78.1825</v>
       </c>
       <c r="K72" s="69">
-        <f>(H72*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>34.5091232142857</v>
-      </c>
-      <c r="L72" s="69" t="e">
-        <f>((#REF!*0.16667)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>#REF!</v>
+        <f>(I72*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>29.4537857142857</v>
+      </c>
+      <c r="L72" s="69">
+        <f>((I72*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>89.49</v>
       </c>
     </row>
     <row r="73" spans="6:12">
       <c r="F73" s="42" t="str">
         <f>'Scent Inventory'!E73</f>
-        <v>Winterglare</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1">
-        <v>886</v>
-      </c>
+        <v>Windsparks</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1">
+        <v>595</v>
+      </c>
+      <c r="I73" s="1"/>
       <c r="J73" s="68">
-        <f>((I73*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
-        <v>115.5505</v>
+        <f>((H73*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>96.3835</v>
       </c>
       <c r="K73" s="69">
-        <f>(I73*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
-        <v>39.8337857142857</v>
-      </c>
-      <c r="L73" s="69">
-        <f>((I73*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
-        <v>110.25</v>
+        <f>(H73*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>34.5091232142857</v>
+      </c>
+      <c r="L73" s="69" t="e">
+        <f>((#REF!*0.16667)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="6:12">
       <c r="F74" s="42" t="str">
         <f>'Scent Inventory'!E74</f>
+        <v>Winterglare</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
+        <v>886</v>
+      </c>
+      <c r="J74" s="68">
+        <f>((I74*0.48)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+        <v>115.5505</v>
+      </c>
+      <c r="K74" s="69">
+        <f>(I74*0.08+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+        <v>39.8337857142857</v>
+      </c>
+      <c r="L74" s="69">
+        <f>((I74*0.08)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12">
+      <c r="F75" s="42" t="str">
+        <f>'Scent Inventory'!E75</f>
         <v>Zenith Essence</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1">
         <v>595</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="68">
-        <f>((H74*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
+      <c r="I75" s="1"/>
+      <c r="J75" s="68">
+        <f>((H75*0.5)+SUM(B6:B8))*0.15+(SUM(B12:B16))</f>
         <v>96.3835</v>
       </c>
-      <c r="K74" s="69">
-        <f>(H74*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
+      <c r="K75" s="69">
+        <f>(H75*0.08333+SUM(D24:D28))*0.25+SUM(D29:D31)</f>
         <v>34.5091232142857</v>
       </c>
-      <c r="L74" s="69" t="e">
+      <c r="L75" s="69" t="e">
         <f>((#REF!*0.16667)+SUM(B20:B22))*0.5+SUM(B26:B30)</f>
         <v>#REF!</v>
       </c>
@@ -9598,28 +9662,28 @@
     <row r="1" spans="1:11">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>6</v>
@@ -9634,7 +9698,7 @@
         <v>1231</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D2" s="22">
         <v>1050</v>
@@ -9664,7 +9728,7 @@
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D3" s="22">
         <v>380</v>
@@ -9692,11 +9756,11 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D4" s="22">
         <v>247</v>
@@ -9724,14 +9788,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" s="30">
         <f>B2*0.48</f>
         <v>590.88</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D5" s="32">
         <v>280</v>
@@ -9756,7 +9820,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B6" s="34">
         <f>(110/E2)*D2</f>
@@ -9782,7 +9846,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="29" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B7" s="34">
         <f>(20/E5)*D5</f>
@@ -9811,7 +9875,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B8" s="35">
         <f>(10/E4)*D4</f>
@@ -9840,7 +9904,7 @@
     </row>
     <row r="9" ht="15.15" spans="1:11">
       <c r="A9" s="37" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B9" s="38">
         <f>SUM(B5:B8)</f>
@@ -9869,11 +9933,11 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D10" s="41"/>
       <c r="F10" s="42" t="str">
@@ -9893,14 +9957,14 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B11" s="44">
         <f>B9*0.15</f>
         <v>93.1005</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="45">
         <f>B9*0.275</f>
@@ -9926,13 +9990,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B12" s="46">
         <v>23</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D12" s="47">
         <v>25</v>
@@ -9957,13 +10021,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B13" s="46">
         <v>20</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D13" s="49">
         <v>22</v>
@@ -9988,13 +10052,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B14" s="46">
         <v>1.7</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="47">
         <v>12</v>
@@ -10019,13 +10083,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B15" s="46">
         <v>1.29</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D15" s="47">
         <v>0.89</v>
@@ -10050,14 +10114,14 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B16" s="46">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D16" s="47">
         <v>1.89</v>
@@ -10081,14 +10145,14 @@
     </row>
     <row r="17" ht="15.15" spans="1:11">
       <c r="A17" s="50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B17" s="51">
         <f>SUM(B11:B16)</f>
         <v>140.0905</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D17" s="53">
         <f>SUM(D11:D16)</f>
@@ -10111,11 +10175,11 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="37" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D18" s="55"/>
       <c r="F18" s="42" t="str">
@@ -10138,14 +10202,14 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B19" s="30">
         <f>B5*0.16667</f>
         <v>98.4819696</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D19" s="56">
         <f>(55/E2)*D2</f>
@@ -10171,14 +10235,14 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B20" s="34">
         <f>(120/E2)*D2</f>
         <v>21</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="56">
         <f>(10/E3)*D3</f>
@@ -10204,14 +10268,14 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B21" s="34">
         <f>(60/E3)*D3</f>
         <v>22.8</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="58">
         <f>(5/E4)*D4</f>
@@ -10237,7 +10301,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B22" s="34">
         <f>(10/E4)*D4</f>
@@ -10265,7 +10329,7 @@
     </row>
     <row r="23" ht="15.15" spans="1:11">
       <c r="A23" s="59" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B23" s="60">
         <f>SUM(B18:B22)</f>
@@ -10293,7 +10357,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="34"/>
@@ -10318,7 +10382,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="29" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B25" s="61">
         <f>B23/2</f>
@@ -10343,7 +10407,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="29" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B26" s="34">
         <v>24</v>
@@ -10367,7 +10431,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B27" s="34">
         <v>22</v>
@@ -10391,7 +10455,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="29" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B28" s="34">
         <v>1.35</v>
@@ -10418,7 +10482,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="29" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B29" s="34">
         <v>1.2</v>
@@ -10445,7 +10509,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B30" s="34">
         <v>1.89</v>
@@ -10469,7 +10533,7 @@
     </row>
     <row r="31" ht="15.15" spans="1:11">
       <c r="A31" s="50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B31" s="62">
         <f>SUM(B25:B30)</f>
@@ -10478,7 +10542,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="63" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F31" s="42" t="str">
         <f>'Scent Inventory'!E31</f>
@@ -10500,7 +10564,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="54"/>
@@ -10525,7 +10589,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B33" s="44">
         <f>B9*0.15</f>
@@ -10548,7 +10612,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B34" s="46">
         <v>23</v>
@@ -10572,7 +10636,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B35" s="46">
         <v>19</v>
@@ -10597,13 +10661,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B36" s="46">
         <v>12</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F36" s="42" t="str">
         <f>'Scent Inventory'!E36</f>
@@ -10625,7 +10689,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B37" s="46">
         <v>1.29</v>
@@ -10650,14 +10714,14 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B38" s="46">
         <v>1.3</v>
       </c>
       <c r="F38" s="42" t="str">
         <f>'Scent Inventory'!E38</f>
-        <v>Noble Aplomb</v>
+        <v>Muschamitrus </v>
       </c>
       <c r="G38" s="1">
         <v>650</v>
@@ -10675,7 +10739,7 @@
     </row>
     <row r="39" ht="15.15" spans="1:11">
       <c r="A39" s="50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B39" s="51">
         <f>SUM(B33:B38)</f>
@@ -10683,7 +10747,7 @@
       </c>
       <c r="F39" s="42" t="str">
         <f>'Scent Inventory'!E39</f>
-        <v>Novel Spirit of Fire</v>
+        <v>Noble Aplomb</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
@@ -10699,7 +10763,7 @@
     <row r="40" spans="6:11">
       <c r="F40" s="42" t="str">
         <f>'Scent Inventory'!E40</f>
-        <v>Pearanil Wisp</v>
+        <v>Novel Spirit of Fire</v>
       </c>
       <c r="G40" s="1">
         <v>520</v>
@@ -10715,7 +10779,7 @@
     <row r="41" spans="6:11">
       <c r="F41" s="42" t="str">
         <f>'Scent Inventory'!E41</f>
-        <v>Peostachio Airs</v>
+        <v>Pearanil Wisp</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
@@ -10731,7 +10795,7 @@
     <row r="42" spans="6:11">
       <c r="F42" s="42" t="str">
         <f>'Scent Inventory'!E42</f>
-        <v>Pillar of Gusaco</v>
+        <v>Peostachio Airs</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
@@ -10747,7 +10811,7 @@
     <row r="43" spans="6:11">
       <c r="F43" s="42" t="str">
         <f>'Scent Inventory'!E43</f>
-        <v>Planiverum</v>
+        <v>Pillar of Gusaco</v>
       </c>
       <c r="G43" s="1">
         <v>460</v>
@@ -10763,7 +10827,7 @@
     <row r="44" spans="6:11">
       <c r="F44" s="42" t="str">
         <f>'Scent Inventory'!E44</f>
-        <v>Royal Musketeer</v>
+        <v>Planiverum</v>
       </c>
       <c r="G44" s="65">
         <v>460</v>
@@ -10779,7 +10843,7 @@
     <row r="45" spans="6:11">
       <c r="F45" s="42" t="str">
         <f>'Scent Inventory'!E45</f>
-        <v>Royal Zingiber</v>
+        <v>Royal Musketeer</v>
       </c>
       <c r="G45" s="1">
         <v>520</v>
@@ -10798,7 +10862,7 @@
     <row r="46" spans="6:11">
       <c r="F46" s="42" t="str">
         <f>'Scent Inventory'!E46</f>
-        <v>Saccharine Dew</v>
+        <v>Royal Zingiber</v>
       </c>
       <c r="G46" s="1">
         <v>460</v>
@@ -10814,7 +10878,7 @@
     <row r="47" spans="6:11">
       <c r="F47" s="42" t="str">
         <f>'Scent Inventory'!E47</f>
-        <v>Savocao Manna</v>
+        <v>Saccharine Dew</v>
       </c>
       <c r="G47" s="1">
         <v>520</v>
@@ -10830,7 +10894,7 @@
     <row r="48" spans="6:11">
       <c r="F48" s="42" t="str">
         <f>'Scent Inventory'!E48</f>
-        <v>Sentir La Crème</v>
+        <v>Savocao Manna</v>
       </c>
       <c r="G48" s="1">
         <v>460</v>
@@ -10849,7 +10913,7 @@
     <row r="49" spans="6:11">
       <c r="F49" s="42" t="str">
         <f>'Scent Inventory'!E49</f>
-        <v>Shadow Orchids</v>
+        <v>Sentir La Crème</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
@@ -10865,7 +10929,7 @@
     <row r="50" spans="6:11">
       <c r="F50" s="42" t="str">
         <f>'Scent Inventory'!E50</f>
-        <v>Snow Crystal Gust</v>
+        <v>Shadow Orchids</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
@@ -10881,7 +10945,7 @@
     <row r="51" spans="6:11">
       <c r="F51" s="42" t="str">
         <f>'Scent Inventory'!E51</f>
-        <v>Solanzoin</v>
+        <v>Snow Crystal Gust</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="10">
@@ -10897,7 +10961,7 @@
     <row r="52" spans="6:11">
       <c r="F52" s="42" t="str">
         <f>'Scent Inventory'!E52</f>
-        <v>Staracton</v>
+        <v>Solanzoin</v>
       </c>
       <c r="G52" s="1">
         <v>590</v>
@@ -10913,7 +10977,7 @@
     <row r="53" spans="6:11">
       <c r="F53" s="42" t="str">
         <f>'Scent Inventory'!E53</f>
-        <v>Sunrise Relic</v>
+        <v>Staracton</v>
       </c>
       <c r="G53" s="1">
         <v>460</v>
@@ -10932,7 +10996,7 @@
     <row r="54" spans="6:11">
       <c r="F54" s="42" t="str">
         <f>'Scent Inventory'!E54</f>
-        <v>Sunset Relic</v>
+        <v>Sunrise Relic</v>
       </c>
       <c r="G54" s="1">
         <v>520</v>
@@ -10951,7 +11015,7 @@
     <row r="55" spans="6:11">
       <c r="F55" s="42" t="str">
         <f>'Scent Inventory'!E55</f>
-        <v>Surf &amp; Dive</v>
+        <v>Sunset Relic</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -10970,7 +11034,7 @@
     <row r="56" spans="6:11">
       <c r="F56" s="42" t="str">
         <f>'Scent Inventory'!E56</f>
-        <v>Sylvan Free Rein</v>
+        <v>Surf &amp; Dive</v>
       </c>
       <c r="G56" s="1">
         <v>590</v>
@@ -10986,7 +11050,7 @@
     <row r="57" spans="6:11">
       <c r="F57" s="42" t="str">
         <f>'Scent Inventory'!E57</f>
-        <v>Tealotoz Coast</v>
+        <v>Sylvan Free Rein</v>
       </c>
       <c r="G57" s="1">
         <v>590</v>
@@ -11005,7 +11069,7 @@
     <row r="58" spans="6:11">
       <c r="F58" s="42" t="str">
         <f>'Scent Inventory'!E58</f>
-        <v>The Beloved</v>
+        <v>Tealotoz Coast</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1">
@@ -11021,7 +11085,7 @@
     <row r="59" spans="6:11">
       <c r="F59" s="42" t="str">
         <f>'Scent Inventory'!E59</f>
-        <v>The Contained</v>
+        <v>The Beloved</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -11037,7 +11101,7 @@
     <row r="60" spans="6:11">
       <c r="F60" s="42" t="str">
         <f>'Scent Inventory'!E60</f>
-        <v>The Unchained</v>
+        <v>The Contained</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -11053,7 +11117,7 @@
     <row r="61" spans="6:11">
       <c r="F61" s="42" t="str">
         <f>'Scent Inventory'!E61</f>
-        <v>Thornberry</v>
+        <v>The Unchained</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -11072,7 +11136,7 @@
     <row r="62" spans="6:11">
       <c r="F62" s="42" t="str">
         <f>'Scent Inventory'!E62</f>
-        <v>Treats &amp; Twigs</v>
+        <v>Thornberry</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -11091,7 +11155,7 @@
     <row r="63" spans="6:11">
       <c r="F63" s="42" t="str">
         <f>'Scent Inventory'!E63</f>
-        <v>Trent Forest Fumes</v>
+        <v>Treats &amp; Twigs</v>
       </c>
       <c r="G63" s="1">
         <v>590</v>
@@ -11110,7 +11174,7 @@
     <row r="64" spans="6:11">
       <c r="F64" s="42" t="str">
         <f>'Scent Inventory'!E64</f>
-        <v>Tuberosa Lepos</v>
+        <v>Trent Forest Fumes</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
@@ -11129,7 +11193,7 @@
     <row r="65" spans="6:11">
       <c r="F65" s="42" t="str">
         <f>'Scent Inventory'!E65</f>
-        <v>Tulipoise</v>
+        <v>Tuberosa Lepos</v>
       </c>
       <c r="G65" s="1">
         <v>520</v>
@@ -11145,7 +11209,7 @@
     <row r="66" spans="6:11">
       <c r="F66" s="42" t="str">
         <f>'Scent Inventory'!E66</f>
-        <v>Tundrabare</v>
+        <v>Tulipoise</v>
       </c>
       <c r="G66" s="1">
         <v>780</v>
@@ -11164,7 +11228,7 @@
     <row r="67" spans="6:11">
       <c r="F67" s="42" t="str">
         <f>'Scent Inventory'!E67</f>
-        <v>Umbra Swathe</v>
+        <v>Tundrabare</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -11183,7 +11247,7 @@
     <row r="68" spans="6:11">
       <c r="F68" s="42" t="str">
         <f>'Scent Inventory'!E68</f>
-        <v>Velvet Bouquet</v>
+        <v>Umbra Swathe</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1">
@@ -11202,7 +11266,7 @@
     <row r="69" spans="6:11">
       <c r="F69" s="42" t="str">
         <f>'Scent Inventory'!E69</f>
-        <v>War of Resins</v>
+        <v>Velvet Bouquet</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1">
@@ -11220,7 +11284,7 @@
     <row r="70" spans="6:11">
       <c r="F70" s="42" t="str">
         <f>'Scent Inventory'!E70</f>
-        <v>Weekly Yawn</v>
+        <v>War of Resins</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1">
@@ -11276,19 +11340,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11296,13 +11360,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2">
         <v>6000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E2" s="3">
         <v>1050</v>
@@ -11313,13 +11377,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C3" s="2">
         <v>1000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E3" s="3">
         <v>380</v>
@@ -11330,13 +11394,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3">
         <v>247</v>
@@ -11347,13 +11411,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E5" s="3">
         <v>645</v>
@@ -11364,13 +11428,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C6" s="2">
         <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E6" s="3">
         <v>595</v>
@@ -11381,13 +11445,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C7" s="2">
         <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E7" s="3">
         <v>595</v>
@@ -11398,13 +11462,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2">
         <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E8" s="3">
         <v>575</v>
@@ -11415,13 +11479,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C9" s="2">
         <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E9" s="3">
         <v>473</v>
@@ -11432,13 +11496,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E10" s="3">
         <v>720</v>
@@ -11449,13 +11513,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E11" s="3">
         <v>650</v>
@@ -11466,13 +11530,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E12" s="3">
         <v>590</v>
@@ -11483,13 +11547,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E13" s="3">
         <v>590</v>
@@ -11500,13 +11564,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E14" s="3">
         <v>520</v>
@@ -11517,13 +11581,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E15" s="3">
         <v>520</v>
@@ -11534,13 +11598,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E16" s="3">
         <v>520</v>
@@ -11551,13 +11615,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E17" s="3">
         <v>460</v>
@@ -11568,13 +11632,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E18" s="3">
         <v>1840</v>
@@ -11585,13 +11649,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C19" s="2">
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E19" s="3">
         <v>1482</v>
@@ -11602,13 +11666,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2">
         <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E20" s="3">
         <v>158</v>
@@ -11619,13 +11683,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E21" s="3">
         <v>250</v>
@@ -11636,13 +11700,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E22" s="3">
         <v>690</v>
@@ -11653,13 +11717,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C23" s="2">
         <v>392</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E23" s="3">
         <v>644</v>
@@ -11670,13 +11734,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E24" s="3">
         <v>450.42</v>
@@ -11687,13 +11751,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E25" s="3">
         <v>600</v>
@@ -11704,13 +11768,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C26" s="8">
         <v>50</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E26" s="9">
         <v>1000</v>
@@ -11721,13 +11785,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E27" s="11">
         <v>690</v>
